--- a/GFS/GFS.xlsx
+++ b/GFS/GFS.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="GFS-HDD" sheetId="1" r:id="rId1"/>
-    <sheet name="ECMWF-HDD" sheetId="2" r:id="rId2"/>
+    <sheet name="GFS-HDD" sheetId="2" r:id="rId1"/>
+    <sheet name="ECMWF-HDD" sheetId="1" r:id="rId2"/>
     <sheet name="ECMWF-Ensemble-HDD" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>2018-01-02 12z</t>
+  </si>
+  <si>
+    <t>2018-01-03 00z</t>
   </si>
 </sst>
 </file>
@@ -106,8 +109,255 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -403,10 +653,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>43117</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-6.55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>43116</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-3.58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>43115</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>43114</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>43113</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>43112</v>
+      </c>
+      <c r="B7" s="5">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>43111</v>
+      </c>
+      <c r="B8" s="5">
+        <v>-1.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>43110</v>
+      </c>
+      <c r="B9" s="5">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>43109</v>
+      </c>
+      <c r="B10" s="5">
+        <v>-3.86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>43108</v>
+      </c>
+      <c r="B11" s="5">
+        <v>-5.51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>43107</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>43106</v>
+      </c>
+      <c r="B13" s="5">
+        <v>9.36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>43105</v>
+      </c>
+      <c r="B14" s="5">
+        <v>10.94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>43104</v>
+      </c>
+      <c r="B15" s="5">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>43103</v>
+      </c>
+      <c r="B16" s="5">
+        <v>9.6300000000000008</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <f>SUM(B2:B16)</f>
+        <v>35.020000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B16">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,146 +910,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>43116</v>
-      </c>
-      <c r="B2" s="5">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>43115</v>
-      </c>
-      <c r="B3" s="5">
-        <v>2.48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>43114</v>
-      </c>
-      <c r="B4" s="5">
-        <v>4.62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>43113</v>
-      </c>
-      <c r="B5" s="5">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>43112</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>43111</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>43110</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1.63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>43109</v>
-      </c>
-      <c r="B9" s="5">
-        <v>-1.66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>43108</v>
-      </c>
-      <c r="B10" s="5">
-        <v>-3.16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>43107</v>
-      </c>
-      <c r="B11" s="5">
-        <v>2.85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>43106</v>
-      </c>
-      <c r="B12" s="5">
-        <v>12.42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>43105</v>
-      </c>
-      <c r="B13" s="5">
-        <v>13.55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>43104</v>
-      </c>
-      <c r="B14" s="5">
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>43103</v>
-      </c>
-      <c r="B15" s="5">
-        <v>10.72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="5">
-        <f>SUM(B2:B15)</f>
-        <v>59.83</v>
-      </c>
-    </row>
-  </sheetData>
+  <conditionalFormatting sqref="B2:B10">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -649,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,6 +1061,14 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B15">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/GFS/GFS.xlsx
+++ b/GFS/GFS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GFS-HDD" sheetId="2" r:id="rId1"/>
@@ -16,18 +16,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>2018-01-02 12z</t>
   </si>
   <si>
     <t>2018-01-03 00z</t>
   </si>
+  <si>
+    <t xml:space="preserve">2018-01-03 12z </t>
+  </si>
+  <si>
+    <t>2018-01-03 12z</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,21 +104,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="22">
     <dxf>
       <font>
         <color auto="1"/>
@@ -208,13 +216,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF3300"/>
         </patternFill>
       </fill>
@@ -230,6 +231,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -242,7 +250,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF3300"/>
         </patternFill>
       </fill>
     </dxf>
@@ -259,14 +267,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF3300"/>
         </patternFill>
       </fill>
     </dxf>
@@ -283,7 +284,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF3300"/>
         </patternFill>
       </fill>
     </dxf>
@@ -300,54 +301,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
+          <bgColor rgb="FFFF3300"/>
         </patternFill>
       </fill>
     </dxf>
@@ -653,156 +607,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" thickBottom="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>43118</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-9.3699999999999992</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
         <v>43117</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B3" s="2">
+        <v>-8.0299999999999994</v>
+      </c>
+      <c r="C3" s="2">
         <v>-6.55</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="4" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>43116</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B4" s="2">
+        <v>-6.26</v>
+      </c>
+      <c r="C4" s="2">
         <v>-3.58</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="5" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>43115</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B5" s="2">
+        <v>-2.0099999999999998</v>
+      </c>
+      <c r="C5" s="2">
         <v>-0.43</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+    <row r="6" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
         <v>43114</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B6" s="2">
+        <v>-0.09</v>
+      </c>
+      <c r="C6" s="2">
         <v>1.26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row r="7" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>43113</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B7" s="2">
+        <v>-1.43</v>
+      </c>
+      <c r="C7" s="2">
         <v>5.64</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+    <row r="8" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>43112</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B8" s="2">
+        <v>-3.52</v>
+      </c>
+      <c r="C8" s="2">
         <v>4.54</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+    <row r="9" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>43111</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B9" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="C9" s="2">
         <v>-1.06</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+    <row r="10" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>43110</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B10" s="2">
+        <v>2.44</v>
+      </c>
+      <c r="C10" s="2">
         <v>3.01</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+    <row r="11" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
         <v>43109</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B11" s="2">
+        <v>-3.49</v>
+      </c>
+      <c r="C11" s="2">
         <v>-3.86</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+    <row r="12" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
         <v>43108</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B12" s="2">
+        <v>-2.99</v>
+      </c>
+      <c r="C12" s="2">
         <v>-5.51</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+    <row r="13" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
         <v>43107</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B13" s="2">
+        <v>3.79</v>
+      </c>
+      <c r="C13" s="2">
         <v>1.33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+    <row r="14" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
         <v>43106</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B14" s="2">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="C14" s="2">
         <v>9.36</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+    <row r="15" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
         <v>43105</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B15" s="2">
+        <v>10.46</v>
+      </c>
+      <c r="C15" s="2">
         <v>10.94</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+    <row r="16" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
         <v>43104</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B16" s="2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C16" s="2">
         <v>10.3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+    <row r="17" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
         <v>43103</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B17" s="2">
+        <f>SUM(B2:B16)</f>
+        <v>-2.9999999999997584E-2</v>
+      </c>
+      <c r="C17" s="2">
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="5">
-        <f>SUM(B2:B16)</f>
+    <row r="18" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="2">
+        <f>SUM(C3:C17)</f>
         <v>35.020000000000003</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B16">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="C3:C17">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B16">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -812,260 +832,350 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>43112</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
         <v>43111</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2">
         <v>-2.5099999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
         <v>43110</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
         <v>-1.19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>43109</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2">
         <v>-3.22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
         <v>43108</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
         <v>-4.05</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>43107</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
         <v>3.07</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
         <v>43106</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
         <v>11.89</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>43105</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2">
         <v>13.07</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
         <v>43104</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B10" s="2">
+        <v>11.69</v>
+      </c>
+      <c r="C10" s="2">
         <v>11.52</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
         <v>43103</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2">
         <v>10.27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="5">
-        <f>SUM(B2:B10)</f>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2">
+        <f>SUM(C3:C11)</f>
         <v>38.85</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B10">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="C3:C11">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B10">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" thickBottom="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
         <v>43116</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="2">
+        <v>-0.98</v>
+      </c>
+      <c r="C2" s="2">
         <v>-0.21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="3" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
         <v>43115</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="C3" s="2">
         <v>2.48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>43114</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="2">
+        <v>3.37</v>
+      </c>
+      <c r="C4" s="2">
         <v>4.62</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="5" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>43113</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="2">
+        <v>2.59</v>
+      </c>
+      <c r="C5" s="2">
         <v>3.75</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>43112</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="2">
+        <v>1.58</v>
+      </c>
+      <c r="C6" s="2">
         <v>0.86</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+    <row r="7" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>43111</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="C7" s="2">
         <v>0.08</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>43110</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="2">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="C8" s="2">
         <v>1.63</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+    <row r="9" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>43109</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="2">
+        <v>-0.25</v>
+      </c>
+      <c r="C9" s="2">
         <v>-1.66</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>43108</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="2">
+        <v>-1.61</v>
+      </c>
+      <c r="C10" s="2">
         <v>-3.16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+    <row r="11" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
         <v>43107</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="2">
+        <v>3.76</v>
+      </c>
+      <c r="C11" s="2">
         <v>2.85</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>43106</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="2">
+        <v>12.61</v>
+      </c>
+      <c r="C12" s="2">
         <v>12.42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+    <row r="13" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
         <v>43105</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="2">
+        <v>13.38</v>
+      </c>
+      <c r="C13" s="2">
         <v>13.55</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>43104</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="2">
+        <v>11.84</v>
+      </c>
+      <c r="C14" s="2">
         <v>11.9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+    <row r="15" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
         <v>43103</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="2">
+        <v>10.97</v>
+      </c>
+      <c r="C15" s="2">
         <v>10.72</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="5">
+    <row r="16" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="2">
         <f>SUM(B2:B15)</f>
+        <v>60.58</v>
+      </c>
+      <c r="C16" s="2">
+        <f>SUM(C2:C15)</f>
         <v>59.83</v>
       </c>
     </row>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:B15">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="B2:C15">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B15">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/GFS/GFS.xlsx
+++ b/GFS/GFS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>2018-01-02 12z</t>
   </si>
@@ -35,7 +35,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -104,37 +104,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <color auto="1"/>
@@ -610,7 +596,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1" x14ac:dyDescent="0.35"/>
@@ -811,18 +797,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C17">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B16">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -835,7 +821,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -857,14 +843,18 @@
       <c r="A2" s="4">
         <v>43112</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2">
+        <v>-3.11</v>
+      </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>43111</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2">
+        <v>2.5499999999999998</v>
+      </c>
       <c r="C3" s="2">
         <v>-2.5099999999999998</v>
       </c>
@@ -873,7 +863,9 @@
       <c r="A4" s="5">
         <v>43110</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <v>4.54</v>
+      </c>
       <c r="C4" s="2">
         <v>-1.19</v>
       </c>
@@ -882,7 +874,9 @@
       <c r="A5" s="4">
         <v>43109</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>0.2</v>
+      </c>
       <c r="C5" s="2">
         <v>-3.22</v>
       </c>
@@ -891,7 +885,9 @@
       <c r="A6" s="5">
         <v>43108</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>0.27</v>
+      </c>
       <c r="C6" s="2">
         <v>-4.05</v>
       </c>
@@ -900,7 +896,9 @@
       <c r="A7" s="4">
         <v>43107</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>5.21</v>
+      </c>
       <c r="C7" s="2">
         <v>3.07</v>
       </c>
@@ -909,7 +907,9 @@
       <c r="A8" s="5">
         <v>43106</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>12.63</v>
+      </c>
       <c r="C8" s="2">
         <v>11.89</v>
       </c>
@@ -918,7 +918,9 @@
       <c r="A9" s="4">
         <v>43105</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2">
+        <v>13.07</v>
+      </c>
       <c r="C9" s="2">
         <v>13.07</v>
       </c>
@@ -938,7 +940,10 @@
       <c r="A11" s="4">
         <v>43103</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <f>SUM(B2:B10)</f>
+        <v>47.05</v>
+      </c>
       <c r="C11" s="2">
         <v>10.27</v>
       </c>
@@ -953,18 +958,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C11">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B10">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -975,207 +980,277 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B32" sqref="B31:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" thickBottom="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="2" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
+        <v>43117</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
         <v>43116</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="2">
+        <v>-3.32</v>
+      </c>
+      <c r="C3" s="2">
         <v>-0.98</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D3" s="2">
         <v>-0.21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+    <row r="4" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>43115</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C4" s="2">
         <v>1.6</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D4" s="2">
         <v>2.48</v>
       </c>
     </row>
-    <row r="4" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+    <row r="5" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>43114</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2">
+        <v>2.62</v>
+      </c>
+      <c r="C5" s="2">
         <v>3.37</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D5" s="2">
         <v>4.62</v>
       </c>
     </row>
-    <row r="5" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+    <row r="6" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
         <v>43113</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="2">
+        <v>2.06</v>
+      </c>
+      <c r="C6" s="2">
         <v>2.59</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D6" s="2">
         <v>3.75</v>
       </c>
     </row>
-    <row r="6" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+    <row r="7" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>43112</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2">
+        <v>1.44</v>
+      </c>
+      <c r="C7" s="2">
         <v>1.58</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D7" s="2">
         <v>0.86</v>
       </c>
     </row>
-    <row r="7" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+    <row r="8" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>43111</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2">
+        <v>2.34</v>
+      </c>
+      <c r="C8" s="2">
         <v>0.63</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D8" s="2">
         <v>0.08</v>
       </c>
     </row>
-    <row r="8" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+    <row r="9" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>43110</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="2">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="C9" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D9" s="2">
         <v>1.63</v>
       </c>
     </row>
-    <row r="9" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+    <row r="10" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>43109</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
+        <v>-0.82</v>
+      </c>
+      <c r="C10" s="2">
         <v>-0.25</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D10" s="2">
         <v>-1.66</v>
       </c>
     </row>
-    <row r="10" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+    <row r="11" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
         <v>43108</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
+        <v>-0.84</v>
+      </c>
+      <c r="C11" s="2">
         <v>-1.61</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D11" s="2">
         <v>-3.16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+    <row r="12" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
         <v>43107</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
+        <v>5.26</v>
+      </c>
+      <c r="C12" s="2">
         <v>3.76</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D12" s="2">
         <v>2.85</v>
       </c>
     </row>
-    <row r="12" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+    <row r="13" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
         <v>43106</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
+        <v>13.02</v>
+      </c>
+      <c r="C13" s="2">
         <v>12.61</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D13" s="2">
         <v>12.42</v>
       </c>
     </row>
-    <row r="13" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
+    <row r="14" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
         <v>43105</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
+        <v>13.24</v>
+      </c>
+      <c r="C14" s="2">
         <v>13.38</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D14" s="2">
         <v>13.55</v>
       </c>
     </row>
-    <row r="14" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
+    <row r="15" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
         <v>43104</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="2">
+        <v>11.91</v>
+      </c>
+      <c r="C15" s="2">
         <v>11.84</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D15" s="2">
         <v>11.9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
+    <row r="16" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
         <v>43103</v>
       </c>
-      <c r="B15" s="2">
-        <v>10.97</v>
-      </c>
-      <c r="C15" s="2">
-        <v>10.72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="2">
         <f>SUM(B2:B15)</f>
+        <v>49.22</v>
+      </c>
+      <c r="C16" s="2">
+        <v>10.97</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10.72</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="2">
+        <f>SUM(C3:C16)</f>
         <v>60.58</v>
       </c>
-      <c r="C16" s="2">
-        <f>SUM(C2:C15)</f>
+      <c r="D17" s="2">
+        <f>SUM(D3:D16)</f>
         <v>59.83</v>
       </c>
     </row>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="3:4" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:C15">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="C3:D16">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C16">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B15">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B15">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/GFS/GFS.xlsx
+++ b/GFS/GFS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GFS-HDD" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>2018-01-02 12z</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>2018-01-03 12z</t>
+  </si>
+  <si>
+    <t>2018-01-04 12z</t>
+  </si>
+  <si>
+    <t>2018-01-04 00z</t>
   </si>
 </sst>
 </file>
@@ -120,7 +126,109 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -593,383 +701,487 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
+        <v>43119</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-10.28</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
         <v>43118</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="2">
+        <v>-6.81</v>
+      </c>
+      <c r="C3" s="2">
         <v>-9.3699999999999992</v>
       </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>43117</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="2">
+        <v>-0.99</v>
+      </c>
+      <c r="C4" s="2">
         <v>-8.0299999999999994</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D4" s="2">
         <v>-6.55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+    <row r="5" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>43116</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2">
+        <v>3.95</v>
+      </c>
+      <c r="C5" s="2">
         <v>-6.26</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D5" s="2">
         <v>-3.58</v>
       </c>
     </row>
-    <row r="5" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+    <row r="6" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
         <v>43115</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C6" s="2">
         <v>-2.0099999999999998</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D6" s="2">
         <v>-0.43</v>
       </c>
     </row>
-    <row r="6" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+    <row r="7" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>43114</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2">
+        <v>2.29</v>
+      </c>
+      <c r="C7" s="2">
         <v>-0.09</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D7" s="2">
         <v>1.26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+    <row r="8" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>43113</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="C8" s="2">
         <v>-1.43</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D8" s="2">
         <v>5.64</v>
       </c>
     </row>
-    <row r="8" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+    <row r="9" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>43112</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C9" s="2">
         <v>-3.52</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D9" s="2">
         <v>4.54</v>
       </c>
     </row>
-    <row r="9" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+    <row r="10" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>43111</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
+        <v>-4.57</v>
+      </c>
+      <c r="C10" s="2">
         <v>0.31</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D10" s="2">
         <v>-1.06</v>
       </c>
     </row>
-    <row r="10" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+    <row r="11" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
         <v>43110</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
+        <v>-2.85</v>
+      </c>
+      <c r="C11" s="2">
         <v>2.44</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D11" s="2">
         <v>3.01</v>
       </c>
     </row>
-    <row r="11" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+    <row r="12" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
         <v>43109</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
+        <v>-2.36</v>
+      </c>
+      <c r="C12" s="2">
         <v>-3.49</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D12" s="2">
         <v>-3.86</v>
       </c>
     </row>
-    <row r="12" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+    <row r="13" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
         <v>43108</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
+        <v>-3.31</v>
+      </c>
+      <c r="C13" s="2">
         <v>-2.99</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D13" s="2">
         <v>-5.51</v>
       </c>
     </row>
-    <row r="13" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
+    <row r="14" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
         <v>43107</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="C14" s="2">
         <v>3.79</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D14" s="2">
         <v>1.33</v>
       </c>
     </row>
-    <row r="14" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
+    <row r="15" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
         <v>43106</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="2">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="C15" s="2">
         <v>9.9600000000000009</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D15" s="2">
         <v>9.36</v>
       </c>
     </row>
-    <row r="15" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
+    <row r="16" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
         <v>43105</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="2">
+        <v>10.26</v>
+      </c>
+      <c r="C16" s="2">
         <v>10.46</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D16" s="2">
         <v>10.94</v>
       </c>
     </row>
-    <row r="16" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
+    <row r="17" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
         <v>43104</v>
-      </c>
-      <c r="B16" s="2">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="C16" s="2">
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
-        <v>43103</v>
       </c>
       <c r="B17" s="2">
         <f>SUM(B2:B16)</f>
-        <v>-2.9999999999997584E-2</v>
+        <v>2.7300000000000004</v>
       </c>
       <c r="C17" s="2">
-        <v>9.6300000000000008</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D17" s="2">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>43103</v>
+      </c>
       <c r="C18" s="2">
         <f>SUM(C3:C17)</f>
+        <v>-2.9999999999997584E-2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>9.6300000000000008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="2">
+        <f>SUM(D4:D18)</f>
         <v>35.020000000000003</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D4:D18">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="6" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C3:C17">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B16">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
+        <v>43113</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
         <v>43112</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2">
         <v>-3.11</v>
       </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>43111</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D4" s="2">
         <v>-2.5099999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
         <v>43110</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2">
         <v>4.54</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D5" s="2">
         <v>-1.19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
         <v>43109</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
         <v>0.2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D6" s="2">
         <v>-3.22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
         <v>43108</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
         <v>0.27</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D7" s="2">
         <v>-4.05</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>43107</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
         <v>5.21</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D8" s="2">
         <v>3.07</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
         <v>43106</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2">
         <v>12.63</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D9" s="2">
         <v>11.89</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>43105</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
+        <v>12.23</v>
+      </c>
+      <c r="C10" s="2">
         <v>13.07</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D10" s="2">
         <v>13.07</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
         <v>43104</v>
-      </c>
-      <c r="B10" s="2">
-        <v>11.69</v>
-      </c>
-      <c r="C10" s="2">
-        <v>11.52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>43103</v>
       </c>
       <c r="B11" s="2">
         <f>SUM(B2:B10)</f>
-        <v>47.05</v>
+        <v>12.23</v>
       </c>
       <c r="C11" s="2">
-        <v>10.27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+        <v>11.69</v>
+      </c>
+      <c r="D11" s="2">
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>43103</v>
+      </c>
+      <c r="B12" s="6"/>
       <c r="C12" s="2">
         <f>SUM(C3:C11)</f>
+        <v>47.05</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10.27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2">
+        <f>SUM(D4:D12)</f>
         <v>38.85</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D4:D12">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C3:C11">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B10">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -980,257 +1192,322 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B32" sqref="B31:B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" thickBottom="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="3" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>43117</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="2">
+        <v>-5.25</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>43116</v>
       </c>
       <c r="B3" s="2">
+        <v>-2.1</v>
+      </c>
+      <c r="C3" s="2">
         <v>-3.32</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>-0.98</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>-0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>43115</v>
       </c>
       <c r="B4" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="C4" s="2">
         <v>0.05</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>1.6</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>2.48</v>
       </c>
     </row>
-    <row r="5" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>43114</v>
       </c>
       <c r="B5" s="2">
+        <v>3.59</v>
+      </c>
+      <c r="C5" s="2">
         <v>2.62</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>3.37</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>4.62</v>
       </c>
     </row>
-    <row r="6" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>43113</v>
       </c>
       <c r="B6" s="2">
+        <v>3.63</v>
+      </c>
+      <c r="C6" s="2">
         <v>2.06</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>2.59</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>3.75</v>
       </c>
     </row>
-    <row r="7" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>43112</v>
       </c>
       <c r="B7" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="C7" s="2">
         <v>1.44</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>1.58</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>0.86</v>
       </c>
     </row>
-    <row r="8" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>43111</v>
       </c>
       <c r="B8" s="2">
+        <v>-3.31</v>
+      </c>
+      <c r="C8" s="2">
         <v>2.34</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>0.63</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>0.08</v>
       </c>
     </row>
-    <row r="9" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>43110</v>
       </c>
       <c r="B9" s="2">
+        <v>-2.74</v>
+      </c>
+      <c r="C9" s="2">
         <v>2.2599999999999998</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>1.63</v>
       </c>
     </row>
-    <row r="10" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>43109</v>
       </c>
       <c r="B10" s="2">
+        <v>-1.72</v>
+      </c>
+      <c r="C10" s="2">
         <v>-0.82</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>-0.25</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>-1.66</v>
       </c>
     </row>
-    <row r="11" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>43108</v>
       </c>
       <c r="B11" s="2">
+        <v>-0.92</v>
+      </c>
+      <c r="C11" s="2">
         <v>-0.84</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>-1.61</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>-3.16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>43107</v>
       </c>
       <c r="B12" s="2">
+        <v>6.25</v>
+      </c>
+      <c r="C12" s="2">
         <v>5.26</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>3.76</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>2.85</v>
       </c>
     </row>
-    <row r="13" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>43106</v>
       </c>
       <c r="B13" s="2">
+        <v>12.6</v>
+      </c>
+      <c r="C13" s="2">
         <v>13.02</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>12.61</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>12.42</v>
       </c>
     </row>
-    <row r="14" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>43105</v>
       </c>
       <c r="B14" s="2">
+        <v>12.64</v>
+      </c>
+      <c r="C14" s="2">
         <v>13.24</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>13.38</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>13.55</v>
       </c>
     </row>
-    <row r="15" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>43104</v>
       </c>
       <c r="B15" s="2">
+        <v>11.71</v>
+      </c>
+      <c r="C15" s="2">
         <v>11.91</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>11.84</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>11.9</v>
       </c>
     </row>
-    <row r="16" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>43103</v>
       </c>
       <c r="B16" s="2">
         <f>SUM(B2:B15)</f>
+        <v>35.909999999999997</v>
+      </c>
+      <c r="C16" s="2">
+        <f>SUM(C2:C15)</f>
         <v>49.22</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>10.97</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>10.72</v>
       </c>
     </row>
-    <row r="17" spans="3:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="2">
-        <f>SUM(C3:C16)</f>
-        <v>60.58</v>
-      </c>
+    <row r="17" spans="4:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D17" s="2">
         <f>SUM(D3:D16)</f>
+        <v>60.58</v>
+      </c>
+      <c r="E17" s="2">
+        <f>SUM(E3:E16)</f>
         <v>59.83</v>
       </c>
     </row>
-    <row r="18" spans="3:4" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="4:5" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="C3:D16">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="D3:E16">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C16">
+  <conditionalFormatting sqref="D3:D16">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C15">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C15">
     <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>

--- a/GFS/GFS.xlsx
+++ b/GFS/GFS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="GFS-HDD" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>2018-01-02 12z</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>2018-01-04 00z</t>
+  </si>
+  <si>
+    <t>2018-01-05 00z</t>
   </si>
 </sst>
 </file>
@@ -126,7 +129,41 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -701,270 +738,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" thickBottom="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" thickBottom="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>43119</v>
       </c>
       <c r="B2" s="2">
+        <v>-10.98</v>
+      </c>
+      <c r="C2" s="2">
         <v>-10.28</v>
       </c>
-      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>43118</v>
       </c>
       <c r="B3" s="2">
+        <v>-10.48</v>
+      </c>
+      <c r="C3" s="2">
         <v>-6.81</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>-9.3699999999999992</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>43117</v>
       </c>
       <c r="B4" s="2">
+        <v>-8.9</v>
+      </c>
+      <c r="C4" s="2">
         <v>-0.99</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>-8.0299999999999994</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>-6.55</v>
       </c>
     </row>
-    <row r="5" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>43116</v>
       </c>
       <c r="B5" s="2">
+        <v>-4.1100000000000003</v>
+      </c>
+      <c r="C5" s="2">
         <v>3.95</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>-6.26</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>-3.58</v>
       </c>
     </row>
-    <row r="6" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>43115</v>
       </c>
       <c r="B6" s="2">
+        <v>-1.5</v>
+      </c>
+      <c r="C6" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>-2.0099999999999998</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>-0.43</v>
       </c>
     </row>
-    <row r="7" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>43114</v>
       </c>
       <c r="B7" s="2">
+        <v>-1.01</v>
+      </c>
+      <c r="C7" s="2">
         <v>2.29</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>-0.09</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>1.26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>43113</v>
       </c>
       <c r="B8" s="2">
+        <v>-0.66</v>
+      </c>
+      <c r="C8" s="2">
         <v>2.5299999999999998</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>-1.43</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>5.64</v>
       </c>
     </row>
-    <row r="9" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>43112</v>
       </c>
       <c r="B9" s="2">
+        <v>2.38</v>
+      </c>
+      <c r="C9" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>-3.52</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>4.54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>43111</v>
       </c>
       <c r="B10" s="2">
+        <v>-4.13</v>
+      </c>
+      <c r="C10" s="2">
         <v>-4.57</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>0.31</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>-1.06</v>
       </c>
     </row>
-    <row r="11" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>43110</v>
       </c>
       <c r="B11" s="2">
+        <v>-3.96</v>
+      </c>
+      <c r="C11" s="2">
         <v>-2.85</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>2.44</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>3.01</v>
       </c>
     </row>
-    <row r="12" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>43109</v>
       </c>
       <c r="B12" s="2">
+        <v>-2.52</v>
+      </c>
+      <c r="C12" s="2">
         <v>-2.36</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>-3.49</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>-3.86</v>
       </c>
     </row>
-    <row r="13" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>43108</v>
       </c>
       <c r="B13" s="2">
+        <v>-3.15</v>
+      </c>
+      <c r="C13" s="2">
         <v>-3.31</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>-2.99</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>-5.51</v>
       </c>
     </row>
-    <row r="14" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>43107</v>
       </c>
       <c r="B14" s="2">
+        <v>2.94</v>
+      </c>
+      <c r="C14" s="2">
         <v>3.32</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>3.79</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>1.33</v>
       </c>
     </row>
-    <row r="15" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>43106</v>
       </c>
       <c r="B15" s="2">
+        <v>9.02</v>
+      </c>
+      <c r="C15" s="2">
         <v>9.2799999999999994</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>9.9600000000000009</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>9.36</v>
       </c>
     </row>
-    <row r="16" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>43105</v>
       </c>
       <c r="B16" s="2">
+        <v>9.92</v>
+      </c>
+      <c r="C16" s="2">
         <v>10.26</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>10.46</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>10.94</v>
       </c>
     </row>
-    <row r="17" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>43104</v>
       </c>
       <c r="B17" s="2">
         <f>SUM(B2:B16)</f>
+        <v>-27.14</v>
+      </c>
+      <c r="C17" s="2">
+        <f>SUM(C2:C16)</f>
         <v>2.7300000000000004</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>10.3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>43103</v>
       </c>
-      <c r="C18" s="2">
-        <f>SUM(C3:C17)</f>
+      <c r="D18" s="2">
+        <f>SUM(D3:D17)</f>
         <v>-2.9999999999997584E-2</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="2">
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="19" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D19" s="2">
-        <f>SUM(D4:D18)</f>
+    <row r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="2">
+        <f>SUM(E4:E18)</f>
         <v>35.020000000000003</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D4:D18">
+  <conditionalFormatting sqref="E4:E18">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="8" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D17">
     <cfRule type="cellIs" dxfId="27" priority="5" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -972,7 +1070,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C17">
+  <conditionalFormatting sqref="C2:C16">
     <cfRule type="cellIs" dxfId="25" priority="3" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -998,16 +1096,16 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -1019,29 +1117,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>43113</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2">
+        <v>1.19</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>43112</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2">
+        <v>-1.76</v>
+      </c>
       <c r="C3" s="2">
         <v>-3.11</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>43111</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <v>-5.31</v>
+      </c>
       <c r="C4" s="2">
         <v>2.5499999999999998</v>
       </c>
@@ -1049,11 +1153,13 @@
         <v>-2.5099999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>43110</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>-1.89</v>
+      </c>
       <c r="C5" s="2">
         <v>4.54</v>
       </c>
@@ -1061,11 +1167,13 @@
         <v>-1.19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>43109</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>-1.65</v>
+      </c>
       <c r="C6" s="2">
         <v>0.2</v>
       </c>
@@ -1073,11 +1181,13 @@
         <v>-3.22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>43108</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>-1.07</v>
+      </c>
       <c r="C7" s="2">
         <v>0.27</v>
       </c>
@@ -1085,11 +1195,13 @@
         <v>-4.05</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>43107</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>6.26</v>
+      </c>
       <c r="C8" s="2">
         <v>5.21</v>
       </c>
@@ -1097,11 +1209,13 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>43106</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2">
+        <v>12.27</v>
+      </c>
       <c r="C9" s="2">
         <v>12.63</v>
       </c>
@@ -1109,7 +1223,7 @@
         <v>11.89</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>43105</v>
       </c>
@@ -1123,13 +1237,13 @@
         <v>13.07</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>43104</v>
       </c>
       <c r="B11" s="2">
         <f>SUM(B2:B10)</f>
-        <v>12.23</v>
+        <v>20.27</v>
       </c>
       <c r="C11" s="2">
         <v>11.69</v>
@@ -1138,7 +1252,7 @@
         <v>11.52</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>43103</v>
       </c>
@@ -1151,7 +1265,7 @@
         <v>10.27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1192,342 +1306,416 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" thickBottom="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" thickBottom="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="4" customWidth="1"/>
-    <col min="2" max="3" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="11.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
+        <v>43118</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-7.22</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>43117</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="2">
+        <v>-4.34</v>
+      </c>
+      <c r="C3" s="2">
         <v>-5.25</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+      <c r="D3" s="2"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>43116</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="2">
+        <v>-0.59</v>
+      </c>
+      <c r="C4" s="2">
         <v>-2.1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D4" s="2">
         <v>-3.32</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E4" s="2">
         <v>-0.98</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F4" s="2">
         <v>-0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+    <row r="5" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>43115</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2">
+        <v>2.73</v>
+      </c>
+      <c r="C5" s="2">
         <v>1.07</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D5" s="2">
         <v>0.05</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E5" s="2">
         <v>1.6</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F5" s="2">
         <v>2.48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>43114</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="2">
+        <v>4.32</v>
+      </c>
+      <c r="C6" s="2">
         <v>3.59</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D6" s="2">
         <v>2.62</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E6" s="2">
         <v>3.37</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F6" s="2">
         <v>4.62</v>
       </c>
     </row>
-    <row r="6" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+    <row r="7" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>43113</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="C7" s="2">
         <v>3.63</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D7" s="2">
         <v>2.06</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E7" s="2">
         <v>2.59</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F7" s="2">
         <v>3.75</v>
       </c>
     </row>
-    <row r="7" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>43112</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2">
+        <v>-0.08</v>
+      </c>
+      <c r="C8" s="2">
         <v>0.46</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D8" s="2">
         <v>1.44</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E8" s="2">
         <v>1.58</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F8" s="2">
         <v>0.86</v>
       </c>
     </row>
-    <row r="8" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+    <row r="9" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>43111</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="2">
+        <v>-5.05</v>
+      </c>
+      <c r="C9" s="2">
         <v>-3.31</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D9" s="2">
         <v>2.34</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E9" s="2">
         <v>0.63</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F9" s="2">
         <v>0.08</v>
       </c>
     </row>
-    <row r="9" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+    <row r="10" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>43110</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
+        <v>-3.68</v>
+      </c>
+      <c r="C10" s="2">
         <v>-2.74</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D10" s="2">
         <v>2.2599999999999998</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E10" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F10" s="2">
         <v>1.63</v>
       </c>
     </row>
-    <row r="10" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+    <row r="11" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>43109</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
+        <v>-2.34</v>
+      </c>
+      <c r="C11" s="2">
         <v>-1.72</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D11" s="2">
         <v>-0.82</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E11" s="2">
         <v>-0.25</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F11" s="2">
         <v>-1.66</v>
       </c>
     </row>
-    <row r="11" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+    <row r="12" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>43108</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="C12" s="2">
         <v>-0.92</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D12" s="2">
         <v>-0.84</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E12" s="2">
         <v>-1.61</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F12" s="2">
         <v>-3.16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+    <row r="13" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>43107</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
+        <v>6.29</v>
+      </c>
+      <c r="C13" s="2">
         <v>6.25</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D13" s="2">
         <v>5.26</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E13" s="2">
         <v>3.76</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F13" s="2">
         <v>2.85</v>
       </c>
     </row>
-    <row r="13" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
+    <row r="14" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
         <v>43106</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
+        <v>12.56</v>
+      </c>
+      <c r="C14" s="2">
         <v>12.6</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D14" s="2">
         <v>13.02</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E14" s="2">
         <v>12.61</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F14" s="2">
         <v>12.42</v>
       </c>
     </row>
-    <row r="14" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
+    <row r="15" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <v>43105</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="2">
+        <v>12.51</v>
+      </c>
+      <c r="C15" s="2">
         <v>12.64</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D15" s="2">
         <v>13.24</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E15" s="2">
         <v>13.38</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F15" s="2">
         <v>13.55</v>
       </c>
     </row>
-    <row r="15" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
+    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>43104</v>
-      </c>
-      <c r="B15" s="2">
-        <v>11.71</v>
-      </c>
-      <c r="C15" s="2">
-        <v>11.91</v>
-      </c>
-      <c r="D15" s="2">
-        <v>11.84</v>
-      </c>
-      <c r="E15" s="2">
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
-        <v>43103</v>
       </c>
       <c r="B16" s="2">
         <f>SUM(B2:B15)</f>
+        <v>16.470000000000002</v>
+      </c>
+      <c r="C16" s="2">
+        <v>11.71</v>
+      </c>
+      <c r="D16" s="2">
+        <v>11.91</v>
+      </c>
+      <c r="E16" s="2">
+        <v>11.84</v>
+      </c>
+      <c r="F16" s="2">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>43103</v>
+      </c>
+      <c r="C17" s="2">
+        <f>SUM(C3:C16)</f>
         <v>35.909999999999997</v>
       </c>
-      <c r="C16" s="2">
-        <f>SUM(C2:C15)</f>
-        <v>49.22</v>
-      </c>
-      <c r="D16" s="2">
-        <v>10.97</v>
-      </c>
-      <c r="E16" s="2">
-        <v>10.72</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D17" s="2">
         <f>SUM(D3:D16)</f>
+        <v>49.22</v>
+      </c>
+      <c r="E17" s="2">
+        <v>10.97</v>
+      </c>
+      <c r="F17" s="2">
+        <v>10.72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="2">
+        <f>SUM(E4:E17)</f>
         <v>60.58</v>
       </c>
-      <c r="E17" s="2">
-        <f>SUM(E3:E16)</f>
+      <c r="F18" s="2">
+        <f>SUM(F4:F17)</f>
         <v>59.83</v>
       </c>
     </row>
-    <row r="18" spans="4:5" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="D3:E16">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="E4:F17">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E17">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D16">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C15">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="D3:D16">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C15">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="C3:C16">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B15">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="C3:C16">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B15">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="B3:B15">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B15">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/GFS/GFS.xlsx
+++ b/GFS/GFS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GFS-HDD" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>2018-01-02 12z</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>2018-01-05 00z</t>
+  </si>
+  <si>
+    <t>2018-01-08 00z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-07 12z </t>
   </si>
 </sst>
 </file>
@@ -129,7 +135,194 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="58">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -738,351 +931,441 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" thickBottom="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>43119</v>
+        <v>43122</v>
       </c>
       <c r="B2" s="2">
-        <v>-10.98</v>
-      </c>
-      <c r="C2" s="2">
-        <v>-10.28</v>
-      </c>
+        <v>1.91</v>
+      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
+        <v>43121</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-0.15</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>43120</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-0.85</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>43119</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3.11</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-10.98</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-10.28</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>43118</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B6" s="2">
+        <v>6.76</v>
+      </c>
+      <c r="C6" s="2">
         <v>-10.48</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D6" s="2">
         <v>-6.81</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E6" s="2">
         <v>-9.3699999999999992</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>43117</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B7" s="2">
+        <v>1.81</v>
+      </c>
+      <c r="C7" s="2">
         <v>-8.9</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D7" s="2">
         <v>-0.99</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E7" s="2">
         <v>-8.0299999999999994</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F7" s="2">
         <v>-6.55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>43116</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B8" s="2">
+        <v>4.46</v>
+      </c>
+      <c r="C8" s="2">
         <v>-4.1100000000000003</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D8" s="2">
         <v>3.95</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E8" s="2">
         <v>-6.26</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F8" s="2">
         <v>-3.58</v>
       </c>
     </row>
-    <row r="6" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+    <row r="9" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>43115</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B9" s="2">
+        <v>9.85</v>
+      </c>
+      <c r="C9" s="2">
         <v>-1.5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D9" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E9" s="2">
         <v>-2.0099999999999998</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F9" s="2">
         <v>-0.43</v>
       </c>
     </row>
-    <row r="7" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+    <row r="10" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>43114</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B10" s="2">
+        <v>9.44</v>
+      </c>
+      <c r="C10" s="2">
         <v>-1.01</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D10" s="2">
         <v>2.29</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E10" s="2">
         <v>-0.09</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F10" s="2">
         <v>1.26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+    <row r="11" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>43113</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B11" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="C11" s="2">
         <v>-0.66</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D11" s="2">
         <v>2.5299999999999998</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E11" s="2">
         <v>-1.43</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F11" s="2">
         <v>5.64</v>
       </c>
     </row>
-    <row r="9" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+    <row r="12" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>43112</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B12" s="2">
+        <v>-3.84</v>
+      </c>
+      <c r="C12" s="2">
         <v>2.38</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D12" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E12" s="2">
         <v>-3.52</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F12" s="2">
         <v>4.54</v>
       </c>
     </row>
-    <row r="10" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+    <row r="13" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>43111</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B13" s="2">
+        <v>-8.33</v>
+      </c>
+      <c r="C13" s="2">
         <v>-4.13</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D13" s="2">
         <v>-4.57</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E13" s="2">
         <v>0.31</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F13" s="2">
         <v>-1.06</v>
       </c>
     </row>
-    <row r="11" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+    <row r="14" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
         <v>43110</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B14" s="2">
+        <v>-6.81</v>
+      </c>
+      <c r="C14" s="2">
         <v>-3.96</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D14" s="2">
         <v>-2.85</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E14" s="2">
         <v>2.44</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F14" s="2">
         <v>3.01</v>
       </c>
     </row>
-    <row r="12" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+    <row r="15" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <v>43109</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B15" s="2">
+        <v>-3.69</v>
+      </c>
+      <c r="C15" s="2">
         <v>-2.52</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D15" s="2">
         <v>-2.36</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E15" s="2">
         <v>-3.49</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F15" s="2">
         <v>-3.86</v>
       </c>
     </row>
-    <row r="13" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>43108</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B16" s="2">
+        <v>-1.91</v>
+      </c>
+      <c r="C16" s="2">
         <v>-3.15</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D16" s="2">
         <v>-3.31</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E16" s="2">
         <v>-2.99</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F16" s="2">
         <v>-5.51</v>
       </c>
     </row>
-    <row r="14" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
         <v>43107</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2.94</v>
-      </c>
-      <c r="C14" s="2">
-        <v>3.32</v>
-      </c>
-      <c r="D14" s="2">
-        <v>3.79</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>43106</v>
-      </c>
-      <c r="B15" s="2">
-        <v>9.02</v>
-      </c>
-      <c r="C15" s="2">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="D15" s="2">
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="E15" s="2">
-        <v>9.36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>43105</v>
-      </c>
-      <c r="B16" s="2">
-        <v>9.92</v>
-      </c>
-      <c r="C16" s="2">
-        <v>10.26</v>
-      </c>
-      <c r="D16" s="2">
-        <v>10.46</v>
-      </c>
-      <c r="E16" s="2">
-        <v>10.94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>43104</v>
       </c>
       <c r="B17" s="2">
         <f>SUM(B2:B16)</f>
+        <v>14.710000000000004</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2.94</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3.79</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>43106</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2">
+        <v>9.02</v>
+      </c>
+      <c r="D18" s="2">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="E18" s="2">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="F18" s="2">
+        <v>9.36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>43105</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2">
+        <v>9.92</v>
+      </c>
+      <c r="D19" s="2">
+        <v>10.26</v>
+      </c>
+      <c r="E19" s="2">
+        <v>10.46</v>
+      </c>
+      <c r="F19" s="2">
+        <v>10.94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>43104</v>
+      </c>
+      <c r="C20" s="2">
+        <f>SUM(C5:C19)</f>
         <v>-27.14</v>
       </c>
-      <c r="C17" s="2">
-        <f>SUM(C2:C16)</f>
+      <c r="D20" s="2">
+        <f>SUM(D5:D19)</f>
         <v>2.7300000000000004</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E20" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F20" s="2">
         <v>10.3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+    <row r="21" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
         <v>43103</v>
       </c>
-      <c r="D18" s="2">
-        <f>SUM(D3:D17)</f>
+      <c r="E21" s="2">
+        <f>SUM(E6:E20)</f>
         <v>-2.9999999999997584E-2</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F21" s="2">
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="2">
-        <f>SUM(E4:E18)</f>
+    <row r="22" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="2">
+        <f>SUM(F7:F21)</f>
         <v>35.020000000000003</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E4:E18">
-    <cfRule type="cellIs" dxfId="29" priority="7" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="F7:F21">
+    <cfRule type="cellIs" dxfId="51" priority="9" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="50" priority="10" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D17">
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="E6:E20">
+    <cfRule type="cellIs" dxfId="49" priority="7" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="48" priority="8" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C16">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="D5:D19">
+    <cfRule type="cellIs" dxfId="47" priority="5" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="46" priority="6" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B16">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="C5:C19">
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="44" priority="4" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B16 B18:B19">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1093,209 +1376,273 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>43113</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1.19</v>
-      </c>
+        <v>43116</v>
+      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
+        <v>43115</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>43114</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>43113</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2">
+        <v>1.19</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>43112</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
         <v>-1.76</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D6" s="2">
         <v>-3.11</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>43111</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
         <v>-5.31</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D7" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E7" s="2">
         <v>-2.5099999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>43110</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
         <v>-1.89</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D8" s="2">
         <v>4.54</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E8" s="2">
         <v>-1.19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>43109</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2">
         <v>-1.65</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D9" s="2">
         <v>0.2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E9" s="2">
         <v>-3.22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <v>43108</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B10" s="2">
+        <v>-1.71</v>
+      </c>
+      <c r="C10" s="2">
         <v>-1.07</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D10" s="2">
         <v>0.27</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E10" s="2">
         <v>-4.05</v>
       </c>
     </row>
-    <row r="8" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>43107</v>
-      </c>
-      <c r="B8" s="2">
-        <v>6.26</v>
-      </c>
-      <c r="C8" s="2">
-        <v>5.21</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3.07</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
-        <v>43106</v>
-      </c>
-      <c r="B9" s="2">
-        <v>12.27</v>
-      </c>
-      <c r="C9" s="2">
-        <v>12.63</v>
-      </c>
-      <c r="D9" s="2">
-        <v>11.89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>43105</v>
-      </c>
-      <c r="B10" s="2">
-        <v>12.23</v>
-      </c>
-      <c r="C10" s="2">
-        <v>13.07</v>
-      </c>
-      <c r="D10" s="2">
-        <v>13.07</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
-        <v>43104</v>
       </c>
       <c r="B11" s="2">
         <f>SUM(B2:B10)</f>
+        <v>-1.71</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6.26</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5.21</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>43106</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2">
+        <v>12.27</v>
+      </c>
+      <c r="D12" s="2">
+        <v>12.63</v>
+      </c>
+      <c r="E12" s="2">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>43105</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2">
+        <v>12.23</v>
+      </c>
+      <c r="D13" s="2">
+        <v>13.07</v>
+      </c>
+      <c r="E13" s="2">
+        <v>13.07</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>43104</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2">
+        <f>SUM(C5:C13)</f>
         <v>20.27</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D14" s="2">
         <v>11.69</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E14" s="2">
         <v>11.52</v>
       </c>
     </row>
-    <row r="12" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <v>43103</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="2">
-        <f>SUM(C3:C11)</f>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="2">
+        <f>SUM(D6:D14)</f>
         <v>47.05</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E15" s="2">
         <v>10.27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2">
-        <f>SUM(D4:D12)</f>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2">
+        <f>SUM(E7:E15)</f>
         <v>38.85</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D4:D12">
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="E7:E15">
+    <cfRule type="cellIs" dxfId="41" priority="9" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="40" priority="10" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C11">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="D6:D14">
+    <cfRule type="cellIs" dxfId="39" priority="7" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="38" priority="8" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C13">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:B14">
+    <cfRule type="cellIs" dxfId="35" priority="3" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="4" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B10">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1306,416 +1653,525 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" thickBottom="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="11.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
+        <v>43121</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-6.17</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>43120</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-8.44</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>43119</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-9.1</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>43118</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B5" s="2">
+        <v>-9.01</v>
+      </c>
+      <c r="C5" s="2">
         <v>-7.22</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>43117</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B6" s="2">
+        <v>-1.77</v>
+      </c>
+      <c r="C6" s="2">
         <v>-4.34</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D6" s="2">
         <v>-5.25</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="E6" s="2"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>43116</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B7" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="C7" s="2">
         <v>-0.59</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D7" s="2">
         <v>-2.1</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E7" s="2">
         <v>-3.32</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F7" s="2">
         <v>-0.98</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G7" s="2">
         <v>-0.21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+    <row r="8" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>43115</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B8" s="2">
+        <v>7.99</v>
+      </c>
+      <c r="C8" s="2">
         <v>2.73</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D8" s="2">
         <v>1.07</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E8" s="2">
         <v>0.05</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F8" s="2">
         <v>1.6</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G8" s="2">
         <v>2.48</v>
       </c>
     </row>
-    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+    <row r="9" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>43114</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B9" s="2">
+        <v>8.39</v>
+      </c>
+      <c r="C9" s="2">
         <v>4.32</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D9" s="2">
         <v>3.59</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E9" s="2">
         <v>2.62</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F9" s="2">
         <v>3.37</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G9" s="2">
         <v>4.62</v>
       </c>
     </row>
-    <row r="7" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+    <row r="10" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>43113</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B10" s="2">
+        <v>2.16</v>
+      </c>
+      <c r="C10" s="2">
         <v>2.4700000000000002</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D10" s="2">
         <v>3.63</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E10" s="2">
         <v>2.06</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F10" s="2">
         <v>2.59</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G10" s="2">
         <v>3.75</v>
       </c>
     </row>
-    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+    <row r="11" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>43112</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B11" s="2">
+        <v>-4.3099999999999996</v>
+      </c>
+      <c r="C11" s="2">
         <v>-0.08</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D11" s="2">
         <v>0.46</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E11" s="2">
         <v>1.44</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F11" s="2">
         <v>1.58</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G11" s="2">
         <v>0.86</v>
       </c>
     </row>
-    <row r="9" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+    <row r="12" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>43111</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B12" s="2">
+        <v>-7.86</v>
+      </c>
+      <c r="C12" s="2">
         <v>-5.05</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D12" s="2">
         <v>-3.31</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E12" s="2">
         <v>2.34</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F12" s="2">
         <v>0.63</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G12" s="2">
         <v>0.08</v>
       </c>
     </row>
-    <row r="10" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+    <row r="13" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>43110</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B13" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="C13" s="2">
         <v>-3.68</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D13" s="2">
         <v>-2.74</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E13" s="2">
         <v>2.2599999999999998</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F13" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G13" s="2">
         <v>1.63</v>
       </c>
     </row>
-    <row r="11" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+    <row r="14" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
         <v>43109</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B14" s="2">
+        <v>-2.31</v>
+      </c>
+      <c r="C14" s="2">
         <v>-2.34</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D14" s="2">
         <v>-1.72</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E14" s="2">
         <v>-0.82</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F14" s="2">
         <v>-0.25</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G14" s="2">
         <v>-1.66</v>
       </c>
     </row>
-    <row r="12" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+    <row r="15" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <v>43108</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B15" s="2">
+        <v>-1.3</v>
+      </c>
+      <c r="C15" s="2">
         <v>-1.1100000000000001</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D15" s="2">
         <v>-0.92</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E15" s="2">
         <v>-0.84</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F15" s="2">
         <v>-1.61</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G15" s="2">
         <v>-3.16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+    <row r="16" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>43107</v>
-      </c>
-      <c r="B13" s="2">
-        <v>6.29</v>
-      </c>
-      <c r="C13" s="2">
-        <v>6.25</v>
-      </c>
-      <c r="D13" s="2">
-        <v>5.26</v>
-      </c>
-      <c r="E13" s="2">
-        <v>3.76</v>
-      </c>
-      <c r="F13" s="2">
-        <v>2.85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>43106</v>
-      </c>
-      <c r="B14" s="2">
-        <v>12.56</v>
-      </c>
-      <c r="C14" s="2">
-        <v>12.6</v>
-      </c>
-      <c r="D14" s="2">
-        <v>13.02</v>
-      </c>
-      <c r="E14" s="2">
-        <v>12.61</v>
-      </c>
-      <c r="F14" s="2">
-        <v>12.42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>43105</v>
-      </c>
-      <c r="B15" s="2">
-        <v>12.51</v>
-      </c>
-      <c r="C15" s="2">
-        <v>12.64</v>
-      </c>
-      <c r="D15" s="2">
-        <v>13.24</v>
-      </c>
-      <c r="E15" s="2">
-        <v>13.38</v>
-      </c>
-      <c r="F15" s="2">
-        <v>13.55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>43104</v>
       </c>
       <c r="B16" s="2">
         <f>SUM(B2:B15)</f>
+        <v>-32.53</v>
+      </c>
+      <c r="C16" s="2">
+        <v>6.29</v>
+      </c>
+      <c r="D16" s="2">
+        <v>6.25</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5.26</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3.76</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>43106</v>
+      </c>
+      <c r="C17" s="2">
+        <v>12.56</v>
+      </c>
+      <c r="D17" s="2">
+        <v>12.6</v>
+      </c>
+      <c r="E17" s="2">
+        <v>13.02</v>
+      </c>
+      <c r="F17" s="2">
+        <v>12.61</v>
+      </c>
+      <c r="G17" s="2">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>43105</v>
+      </c>
+      <c r="C18" s="2">
+        <v>12.51</v>
+      </c>
+      <c r="D18" s="2">
+        <v>12.64</v>
+      </c>
+      <c r="E18" s="2">
+        <v>13.24</v>
+      </c>
+      <c r="F18" s="2">
+        <v>13.38</v>
+      </c>
+      <c r="G18" s="2">
+        <v>13.55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>43104</v>
+      </c>
+      <c r="C19" s="2">
+        <f>SUM(C5:C18)</f>
         <v>16.470000000000002</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D19" s="2">
         <v>11.71</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E19" s="2">
         <v>11.91</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F19" s="2">
         <v>11.84</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G19" s="2">
         <v>11.9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+    <row r="20" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
         <v>43103</v>
       </c>
-      <c r="C17" s="2">
-        <f>SUM(C3:C16)</f>
+      <c r="D20" s="2">
+        <f>SUM(D6:D19)</f>
         <v>35.909999999999997</v>
       </c>
-      <c r="D17" s="2">
-        <f>SUM(D3:D16)</f>
+      <c r="E20" s="2">
+        <f>SUM(E6:E19)</f>
         <v>49.22</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F20" s="2">
         <v>10.97</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G20" s="2">
         <v>10.72</v>
       </c>
     </row>
-    <row r="18" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="2">
-        <f>SUM(E4:E17)</f>
+    <row r="21" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="2">
+        <f>SUM(F7:F20)</f>
         <v>60.58</v>
       </c>
-      <c r="F18" s="2">
-        <f>SUM(F4:F17)</f>
+      <c r="G21" s="2">
+        <f>SUM(G7:G20)</f>
         <v>59.83</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="E4:F17">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="F7:G20">
+    <cfRule type="cellIs" dxfId="31" priority="25" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="30" priority="26" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E17">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="F7:F20">
+    <cfRule type="cellIs" dxfId="29" priority="21" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="28" priority="22" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D16">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="E6:E19">
+    <cfRule type="cellIs" dxfId="27" priority="19" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="26" priority="20" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D16">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="E6:E19">
+    <cfRule type="cellIs" dxfId="25" priority="17" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="18" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C16">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="D6:D19">
+    <cfRule type="cellIs" dxfId="23" priority="15" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="22" priority="16" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C16">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="D6:D19">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B15">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="C9:C18">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B15">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="C9:C18">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:C8">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:C8">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B15">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B15">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/GFS/GFS.xlsx
+++ b/GFS/GFS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GFS-HDD" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>2018-01-02 12z</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t xml:space="preserve">2018-01-07 12z </t>
+  </si>
+  <si>
+    <t>2018-01-08 12z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-08 12z </t>
   </si>
 </sst>
 </file>
@@ -135,7 +141,92 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="68">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -931,405 +1022,481 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" thickBottom="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" thickBottom="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
+        <v>43123</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-0.26</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
         <v>43122</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="2">
+        <v>4.21</v>
+      </c>
+      <c r="C3" s="2">
         <v>1.91</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>43121</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="2">
+        <v>2.71</v>
+      </c>
+      <c r="C4" s="2">
         <v>-0.15</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>43120</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2">
+        <v>-4.7300000000000004</v>
+      </c>
+      <c r="C5" s="2">
         <v>-0.85</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
         <v>43119</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="2">
+        <v>-7.41</v>
+      </c>
+      <c r="C6" s="2">
         <v>3.11</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D6" s="2">
         <v>-10.98</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E6" s="2">
         <v>-10.28</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>43118</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2">
+        <v>-8.9499999999999993</v>
+      </c>
+      <c r="C7" s="2">
         <v>6.76</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D7" s="2">
         <v>-10.48</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E7" s="2">
         <v>-6.81</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F7" s="2">
         <v>-9.3699999999999992</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>43117</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2">
+        <v>-8.8699999999999992</v>
+      </c>
+      <c r="C8" s="2">
         <v>1.81</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D8" s="2">
         <v>-8.9</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E8" s="2">
         <v>-0.99</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F8" s="2">
         <v>-8.0299999999999994</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G8" s="2">
         <v>-6.55</v>
       </c>
     </row>
-    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+    <row r="9" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>43116</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="2">
+        <v>-2.0099999999999998</v>
+      </c>
+      <c r="C9" s="2">
         <v>4.46</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D9" s="2">
         <v>-4.1100000000000003</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E9" s="2">
         <v>3.95</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F9" s="2">
         <v>-6.26</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G9" s="2">
         <v>-3.58</v>
       </c>
     </row>
-    <row r="9" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+    <row r="10" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>43115</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
+        <v>6.49</v>
+      </c>
+      <c r="C10" s="2">
         <v>9.85</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D10" s="2">
         <v>-1.5</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E10" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F10" s="2">
         <v>-2.0099999999999998</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G10" s="2">
         <v>-0.43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+    <row r="11" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
         <v>43114</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
+        <v>9.66</v>
+      </c>
+      <c r="C11" s="2">
         <v>9.44</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D11" s="2">
         <v>-1.01</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E11" s="2">
         <v>2.29</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F11" s="2">
         <v>-0.09</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G11" s="2">
         <v>1.26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+    <row r="12" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
         <v>43113</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="C12" s="2">
         <v>2.95</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D12" s="2">
         <v>-0.66</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E12" s="2">
         <v>2.5299999999999998</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F12" s="2">
         <v>-1.43</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G12" s="2">
         <v>5.64</v>
       </c>
     </row>
-    <row r="12" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+    <row r="13" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
         <v>43112</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
+        <v>-3.42</v>
+      </c>
+      <c r="C13" s="2">
         <v>-3.84</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D13" s="2">
         <v>2.38</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E13" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F13" s="2">
         <v>-3.52</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G13" s="2">
         <v>4.54</v>
       </c>
     </row>
-    <row r="13" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+    <row r="14" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
         <v>43111</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
+        <v>-8.68</v>
+      </c>
+      <c r="C14" s="2">
         <v>-8.33</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D14" s="2">
         <v>-4.13</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E14" s="2">
         <v>-4.57</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F14" s="2">
         <v>0.31</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G14" s="2">
         <v>-1.06</v>
       </c>
     </row>
-    <row r="14" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+    <row r="15" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
         <v>43110</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="2">
+        <v>-7.18</v>
+      </c>
+      <c r="C15" s="2">
         <v>-6.81</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D15" s="2">
         <v>-3.96</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E15" s="2">
         <v>-2.85</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F15" s="2">
         <v>2.44</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G15" s="2">
         <v>3.01</v>
       </c>
     </row>
-    <row r="15" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+    <row r="16" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
         <v>43109</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="2">
+        <v>-3.79</v>
+      </c>
+      <c r="C16" s="2">
         <v>-3.69</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D16" s="2">
         <v>-2.52</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E16" s="2">
         <v>-2.36</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F16" s="2">
         <v>-3.49</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G16" s="2">
         <v>-3.86</v>
       </c>
     </row>
-    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+    <row r="17" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
         <v>43108</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17">
+        <f>SUM(B2:B16)</f>
+        <v>-28.169999999999991</v>
+      </c>
+      <c r="C17" s="2">
         <v>-1.91</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D17" s="2">
         <v>-3.15</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E17" s="2">
         <v>-3.31</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F17" s="2">
         <v>-2.99</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G17" s="2">
         <v>-5.51</v>
       </c>
     </row>
-    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+    <row r="18" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
         <v>43107</v>
       </c>
-      <c r="B17" s="2">
-        <f>SUM(B2:B16)</f>
+      <c r="C18">
+        <f>SUM(C3:C17)</f>
         <v>14.710000000000004</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D18" s="2">
         <v>2.94</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E18" s="2">
         <v>3.32</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F18" s="2">
         <v>3.79</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G18" s="2">
         <v>1.33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+    <row r="19" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
         <v>43106</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2">
+      <c r="D19" s="2">
         <v>9.02</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E19" s="2">
         <v>9.2799999999999994</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F19" s="2">
         <v>9.9600000000000009</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G19" s="2">
         <v>9.36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+    <row r="20" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
         <v>43105</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2">
+      <c r="D20" s="2">
         <v>9.92</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E20" s="2">
         <v>10.26</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F20" s="2">
         <v>10.46</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G20" s="2">
         <v>10.94</v>
       </c>
     </row>
-    <row r="20" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+    <row r="21" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
         <v>43104</v>
       </c>
-      <c r="C20" s="2">
-        <f>SUM(C5:C19)</f>
+      <c r="D21">
+        <f>SUM(D6:D20)</f>
         <v>-27.14</v>
       </c>
-      <c r="D20" s="2">
-        <f>SUM(D5:D19)</f>
+      <c r="E21">
+        <f>SUM(E6:E20)</f>
         <v>2.7300000000000004</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F21" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="F20" s="2">
+      <c r="G21" s="2">
         <v>10.3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+    <row r="22" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
         <v>43103</v>
       </c>
-      <c r="E21" s="2">
-        <f>SUM(E6:E20)</f>
-        <v>-2.9999999999997584E-2</v>
-      </c>
-      <c r="F21" s="2">
-        <v>9.6300000000000008</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F22" s="2">
         <f>SUM(F7:F21)</f>
+        <v>-2.9999999999997584E-2</v>
+      </c>
+      <c r="G22" s="2">
+        <v>9.6300000000000008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G23" s="2">
+        <f>SUM(G8:G22)</f>
         <v>35.020000000000003</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G8:G22">
+    <cfRule type="cellIs" dxfId="57" priority="15" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="16" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F7:F21">
+    <cfRule type="cellIs" dxfId="55" priority="13" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="14" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E20">
+    <cfRule type="cellIs" dxfId="53" priority="11" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="12" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D20">
     <cfRule type="cellIs" dxfId="51" priority="9" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -1337,7 +1504,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E20">
+  <conditionalFormatting sqref="C3:C17 C19:C20">
     <cfRule type="cellIs" dxfId="49" priority="7" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -1345,7 +1512,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D19">
+  <conditionalFormatting sqref="B2:E16 B19:E20 C17:E17 B18 D18:E18 B22:E1048576 B21:C21">
     <cfRule type="cellIs" dxfId="47" priority="5" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -1353,7 +1520,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C19">
+  <conditionalFormatting sqref="B18:B22">
     <cfRule type="cellIs" dxfId="45" priority="3" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -1361,7 +1528,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B16 B18:B19">
+  <conditionalFormatting sqref="B18:B22">
     <cfRule type="cellIs" dxfId="43" priority="1" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -1376,23 +1543,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -1404,209 +1571,233 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>43116</v>
-      </c>
-      <c r="B2" s="2"/>
+        <v>43117</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.89</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>43115</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>43116</v>
+      </c>
+      <c r="B3" s="2">
+        <v>7.57</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>43114</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>43115</v>
+      </c>
+      <c r="B4" s="2">
+        <v>9.86</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>43113</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2">
-        <v>1.19</v>
-      </c>
+        <v>43114</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9.44</v>
+      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
+        <v>43113</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2.96</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.19</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>43112</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2">
+      <c r="B7" s="2">
+        <v>-4.58</v>
+      </c>
+      <c r="C7" s="2">
         <v>-1.76</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <v>-3.11</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>43111</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2">
+      <c r="B8" s="2">
+        <v>-8.76</v>
+      </c>
+      <c r="C8" s="2">
         <v>-5.31</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E8" s="2">
         <v>-2.5099999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
         <v>43110</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2">
+      <c r="B9" s="2">
+        <v>-5.99</v>
+      </c>
+      <c r="C9" s="2">
         <v>-1.89</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="2">
         <v>4.54</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E9" s="2">
         <v>-1.19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>43109</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2">
+      <c r="B10" s="2">
+        <v>-3.28</v>
+      </c>
+      <c r="C10" s="2">
         <v>-1.65</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="2">
         <v>0.2</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E10" s="2">
         <v>-3.22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
         <v>43108</v>
-      </c>
-      <c r="B10" s="2">
-        <v>-1.71</v>
-      </c>
-      <c r="C10" s="2">
-        <v>-1.07</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="E10" s="2">
-        <v>-4.05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>43107</v>
       </c>
       <c r="B11" s="2">
         <f>SUM(B2:B10)</f>
-        <v>-1.71</v>
+        <v>8.110000000000003</v>
       </c>
       <c r="C11" s="2">
+        <v>-1.07</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-4.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>43107</v>
+      </c>
+      <c r="C12" s="2">
         <v>6.26</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="2">
         <v>5.21</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E12" s="2">
         <v>3.07</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
         <v>43106</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2">
-        <v>12.27</v>
-      </c>
-      <c r="D12" s="2">
-        <v>12.63</v>
-      </c>
-      <c r="E12" s="2">
-        <v>11.89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>43105</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2">
-        <v>12.23</v>
+        <v>12.27</v>
       </c>
       <c r="D13" s="2">
-        <v>13.07</v>
+        <v>12.63</v>
       </c>
       <c r="E13" s="2">
-        <v>13.07</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>43104</v>
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>43105</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2">
-        <f>SUM(C5:C13)</f>
+        <v>12.23</v>
+      </c>
+      <c r="D14" s="2">
+        <v>13.07</v>
+      </c>
+      <c r="E14" s="2">
+        <v>13.07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>43104</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2">
+        <f>SUM(C6:C14)</f>
         <v>20.27</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <v>11.69</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="2">
         <v>11.52</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
         <v>43103</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="2">
-        <f>SUM(D6:D14)</f>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="2">
+        <f>SUM(D7:D15)</f>
         <v>47.05</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="2">
         <v>10.27</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2">
-        <f>SUM(E7:E15)</f>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2">
+        <f>SUM(E8:E16)</f>
         <v>38.85</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E7:E15">
+  <conditionalFormatting sqref="E8:E16">
     <cfRule type="cellIs" dxfId="41" priority="9" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -1614,7 +1805,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D14">
+  <conditionalFormatting sqref="D7:D15">
     <cfRule type="cellIs" dxfId="39" priority="7" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -1622,7 +1813,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C13">
+  <conditionalFormatting sqref="C6:C14">
     <cfRule type="cellIs" dxfId="37" priority="5" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -1630,7 +1821,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:B14">
+  <conditionalFormatting sqref="B13:B15">
     <cfRule type="cellIs" dxfId="35" priority="3" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -1638,7 +1829,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B10">
+  <conditionalFormatting sqref="B3:B10">
     <cfRule type="cellIs" dxfId="33" priority="1" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -1653,513 +1844,589 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" thickBottom="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" thickBottom="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>43121</v>
+        <v>43122</v>
       </c>
       <c r="B2" s="2">
-        <v>-6.17</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>-4.07</v>
+      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
+        <v>43121</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-6.47</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-6.17</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>43120</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="2">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="C4" s="2">
         <v>-8.44</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="D4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>43119</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2">
+        <v>-9.09</v>
+      </c>
+      <c r="C5" s="2">
         <v>-9.1</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
         <v>43118</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="2">
+        <v>-4.87</v>
+      </c>
+      <c r="C6" s="2">
         <v>-9.01</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D6" s="2">
         <v>-7.22</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>43117</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C7" s="2">
         <v>-1.77</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D7" s="2">
         <v>-4.34</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E7" s="2">
         <v>-5.25</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="F7" s="2"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>43116</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2">
+        <v>5.13</v>
+      </c>
+      <c r="C8" s="2">
         <v>3.7</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D8" s="2">
         <v>-0.59</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E8" s="2">
         <v>-2.1</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F8" s="2">
         <v>-3.32</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G8" s="2">
         <v>-0.98</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H8" s="2">
         <v>-0.21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+    <row r="9" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>43115</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="2">
+        <v>8.17</v>
+      </c>
+      <c r="C9" s="2">
         <v>7.99</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D9" s="2">
         <v>2.73</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E9" s="2">
         <v>1.07</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F9" s="2">
         <v>0.05</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G9" s="2">
         <v>1.6</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H9" s="2">
         <v>2.48</v>
       </c>
     </row>
-    <row r="9" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+    <row r="10" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>43114</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
+        <v>8.92</v>
+      </c>
+      <c r="C10" s="2">
         <v>8.39</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D10" s="2">
         <v>4.32</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E10" s="2">
         <v>3.59</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F10" s="2">
         <v>2.62</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G10" s="2">
         <v>3.37</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H10" s="2">
         <v>4.62</v>
       </c>
     </row>
-    <row r="10" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+    <row r="11" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
         <v>43113</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
+        <v>3.02</v>
+      </c>
+      <c r="C11" s="2">
         <v>2.16</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D11" s="2">
         <v>2.4700000000000002</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E11" s="2">
         <v>3.63</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F11" s="2">
         <v>2.06</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G11" s="2">
         <v>2.59</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H11" s="2">
         <v>3.75</v>
       </c>
     </row>
-    <row r="11" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+    <row r="12" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
         <v>43112</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
+        <v>-3.95</v>
+      </c>
+      <c r="C12" s="2">
         <v>-4.3099999999999996</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D12" s="2">
         <v>-0.08</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E12" s="2">
         <v>0.46</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F12" s="2">
         <v>1.44</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G12" s="2">
         <v>1.58</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H12" s="2">
         <v>0.86</v>
       </c>
     </row>
-    <row r="12" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+    <row r="13" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
         <v>43111</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
+        <v>-8.5299999999999994</v>
+      </c>
+      <c r="C13" s="2">
         <v>-7.86</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D13" s="2">
         <v>-5.05</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E13" s="2">
         <v>-3.31</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F13" s="2">
         <v>2.34</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G13" s="2">
         <v>0.63</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H13" s="2">
         <v>0.08</v>
       </c>
     </row>
-    <row r="13" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+    <row r="14" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
         <v>43110</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
+        <v>-5.64</v>
+      </c>
+      <c r="C14" s="2">
         <v>-4.5</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D14" s="2">
         <v>-3.68</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E14" s="2">
         <v>-2.74</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F14" s="2">
         <v>2.2599999999999998</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G14" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H14" s="2">
         <v>1.63</v>
       </c>
     </row>
-    <row r="14" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+    <row r="15" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
         <v>43109</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="2">
+        <v>-3.11</v>
+      </c>
+      <c r="C15" s="2">
         <v>-2.31</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D15" s="2">
         <v>-2.34</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E15" s="2">
         <v>-1.72</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F15" s="2">
         <v>-0.82</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G15" s="2">
         <v>-0.25</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H15" s="2">
         <v>-1.66</v>
       </c>
     </row>
-    <row r="15" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+    <row r="16" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
         <v>43108</v>
-      </c>
-      <c r="B15" s="2">
-        <v>-1.3</v>
-      </c>
-      <c r="C15" s="2">
-        <v>-1.1100000000000001</v>
-      </c>
-      <c r="D15" s="2">
-        <v>-0.92</v>
-      </c>
-      <c r="E15" s="2">
-        <v>-0.84</v>
-      </c>
-      <c r="F15" s="2">
-        <v>-1.61</v>
-      </c>
-      <c r="G15" s="2">
-        <v>-3.16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>43107</v>
       </c>
       <c r="B16" s="2">
         <f>SUM(B2:B15)</f>
+        <v>-28.79</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-1.3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="E16" s="2">
+        <v>-0.92</v>
+      </c>
+      <c r="F16" s="2">
+        <v>-0.84</v>
+      </c>
+      <c r="G16" s="2">
+        <v>-1.61</v>
+      </c>
+      <c r="H16" s="2">
+        <v>-3.16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>43107</v>
+      </c>
+      <c r="C17" s="2">
+        <f>SUM(C3:C16)</f>
         <v>-32.53</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D17" s="2">
         <v>6.29</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E17" s="2">
         <v>6.25</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F17" s="2">
         <v>5.26</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G17" s="2">
         <v>3.76</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H17" s="2">
         <v>2.85</v>
       </c>
     </row>
-    <row r="17" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+    <row r="18" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
         <v>43106</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D18" s="2">
         <v>12.56</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E18" s="2">
         <v>12.6</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F18" s="2">
         <v>13.02</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G18" s="2">
         <v>12.61</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H18" s="2">
         <v>12.42</v>
       </c>
     </row>
-    <row r="18" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+    <row r="19" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
         <v>43105</v>
       </c>
-      <c r="C18" s="2">
+      <c r="D19" s="2">
         <v>12.51</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E19" s="2">
         <v>12.64</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F19" s="2">
         <v>13.24</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G19" s="2">
         <v>13.38</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H19" s="2">
         <v>13.55</v>
       </c>
     </row>
-    <row r="19" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+    <row r="20" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
         <v>43104</v>
-      </c>
-      <c r="C19" s="2">
-        <f>SUM(C5:C18)</f>
-        <v>16.470000000000002</v>
-      </c>
-      <c r="D19" s="2">
-        <v>11.71</v>
-      </c>
-      <c r="E19" s="2">
-        <v>11.91</v>
-      </c>
-      <c r="F19" s="2">
-        <v>11.84</v>
-      </c>
-      <c r="G19" s="2">
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>43103</v>
       </c>
       <c r="D20" s="2">
         <f>SUM(D6:D19)</f>
+        <v>16.470000000000002</v>
+      </c>
+      <c r="E20" s="2">
+        <v>11.71</v>
+      </c>
+      <c r="F20" s="2">
+        <v>11.91</v>
+      </c>
+      <c r="G20" s="2">
+        <v>11.84</v>
+      </c>
+      <c r="H20" s="2">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>43103</v>
+      </c>
+      <c r="E21" s="2">
+        <f>SUM(E7:E20)</f>
         <v>35.909999999999997</v>
       </c>
-      <c r="E20" s="2">
-        <f>SUM(E6:E19)</f>
-        <v>49.22</v>
-      </c>
-      <c r="F20" s="2">
-        <v>10.97</v>
-      </c>
-      <c r="G20" s="2">
-        <v>10.72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F21" s="2">
         <f>SUM(F7:F20)</f>
+        <v>49.22</v>
+      </c>
+      <c r="G21" s="2">
+        <v>10.97</v>
+      </c>
+      <c r="H21" s="2">
+        <v>10.72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G22" s="2">
+        <f>SUM(G8:G21)</f>
         <v>60.58</v>
       </c>
-      <c r="G21" s="2">
-        <f>SUM(G7:G20)</f>
+      <c r="H22" s="2">
+        <f>SUM(H8:H21)</f>
         <v>59.83</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="F7:G20">
-    <cfRule type="cellIs" dxfId="31" priority="25" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="26" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="G8:H21">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:G21">
+    <cfRule type="cellIs" dxfId="29" priority="25" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="26" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F20">
-    <cfRule type="cellIs" dxfId="29" priority="21" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="22" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E19">
-    <cfRule type="cellIs" dxfId="27" priority="19" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="20" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E19">
-    <cfRule type="cellIs" dxfId="25" priority="17" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="18" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D19">
-    <cfRule type="cellIs" dxfId="23" priority="15" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="16" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D19">
-    <cfRule type="cellIs" dxfId="21" priority="13" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="14" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:C18">
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="12" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:C18">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C8">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C8">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B15">
+    <cfRule type="cellIs" dxfId="27" priority="23" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="24" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:F20">
+    <cfRule type="cellIs" dxfId="25" priority="21" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="22" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E20">
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E20">
+    <cfRule type="cellIs" dxfId="21" priority="17" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="18" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D19">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D19">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:D9">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:D9">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:C16">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:C16">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B15">
     <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -2167,7 +2434,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B15">
+  <conditionalFormatting sqref="B2:B15">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>

--- a/GFS/GFS.xlsx
+++ b/GFS/GFS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GFS-HDD" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>2018-01-02 12z</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t xml:space="preserve">2018-01-08 12z </t>
+  </si>
+  <si>
+    <t>2018-01-09 00z</t>
   </si>
 </sst>
 </file>
@@ -141,92 +144,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="58">
     <dxf>
       <font>
         <color auto="1"/>
@@ -1022,517 +940,577 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" thickBottom="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" thickBottom="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>43123</v>
       </c>
       <c r="B2" s="2">
+        <v>3.69</v>
+      </c>
+      <c r="C2" s="2">
         <v>-0.26</v>
       </c>
-      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>43122</v>
       </c>
       <c r="B3" s="2">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="C3" s="2">
         <v>4.21</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>1.91</v>
       </c>
-      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>43121</v>
       </c>
       <c r="B4" s="2">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="C4" s="2">
         <v>2.71</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>-0.15</v>
       </c>
-      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>43120</v>
       </c>
       <c r="B5" s="2">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="C5" s="2">
         <v>-4.7300000000000004</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>-0.85</v>
       </c>
-      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>43119</v>
       </c>
       <c r="B6" s="2">
+        <v>-5.59</v>
+      </c>
+      <c r="C6" s="2">
         <v>-7.41</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>3.11</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>-10.98</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>-10.28</v>
       </c>
-      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>43118</v>
       </c>
       <c r="B7" s="2">
+        <v>-2.06</v>
+      </c>
+      <c r="C7" s="2">
         <v>-8.9499999999999993</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>6.76</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>-10.48</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>-6.81</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>-9.3699999999999992</v>
       </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>43117</v>
       </c>
       <c r="B8" s="2">
+        <v>6.01</v>
+      </c>
+      <c r="C8" s="2">
         <v>-8.8699999999999992</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>1.81</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>-8.9</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>-0.99</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>-8.0299999999999994</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>-6.55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>43116</v>
       </c>
       <c r="B9" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="C9" s="2">
         <v>-2.0099999999999998</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>4.46</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>-4.1100000000000003</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>3.95</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>-6.26</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>-3.58</v>
       </c>
     </row>
-    <row r="10" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>43115</v>
       </c>
       <c r="B10" s="2">
+        <v>6.24</v>
+      </c>
+      <c r="C10" s="2">
         <v>6.49</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>9.85</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>-1.5</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>-2.0099999999999998</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>-0.43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>43114</v>
       </c>
       <c r="B11" s="2">
+        <v>6.74</v>
+      </c>
+      <c r="C11" s="2">
         <v>9.66</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>9.44</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>-1.01</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>2.29</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>-0.09</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>1.26</v>
       </c>
     </row>
-    <row r="12" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>43113</v>
       </c>
       <c r="B12" s="2">
+        <v>2.66</v>
+      </c>
+      <c r="C12" s="2">
         <v>4.0599999999999996</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>2.95</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>-0.66</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>2.5299999999999998</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>-1.43</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>5.64</v>
       </c>
     </row>
-    <row r="13" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>43112</v>
       </c>
       <c r="B13" s="2">
+        <v>-3.93</v>
+      </c>
+      <c r="C13" s="2">
         <v>-3.42</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>-3.84</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>2.38</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>-3.52</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>4.54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>43111</v>
       </c>
       <c r="B14" s="2">
+        <v>-8.61</v>
+      </c>
+      <c r="C14" s="2">
         <v>-8.68</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>-8.33</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>-4.13</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>-4.57</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <v>0.31</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>-1.06</v>
       </c>
     </row>
-    <row r="15" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>43110</v>
       </c>
       <c r="B15" s="2">
+        <v>-6.92</v>
+      </c>
+      <c r="C15" s="2">
         <v>-7.18</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>-6.81</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>-3.96</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>-2.85</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <v>2.44</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>3.01</v>
       </c>
     </row>
-    <row r="16" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>43109</v>
       </c>
       <c r="B16" s="2">
+        <v>-4.1500000000000004</v>
+      </c>
+      <c r="C16" s="2">
         <v>-3.79</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>-3.69</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>-2.52</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>-2.36</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <v>-3.49</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>-3.86</v>
       </c>
     </row>
-    <row r="17" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>43108</v>
       </c>
       <c r="B17">
         <f>SUM(B2:B16)</f>
+        <v>1.1999999999999993</v>
+      </c>
+      <c r="C17">
+        <f>SUM(C2:C16)</f>
         <v>-28.169999999999991</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="2">
         <v>-1.91</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>-3.15</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>-3.31</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G17" s="2">
         <v>-2.99</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <v>-5.51</v>
       </c>
     </row>
-    <row r="18" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>43107</v>
       </c>
-      <c r="C18">
-        <f>SUM(C3:C17)</f>
+      <c r="D18">
+        <f>SUM(D3:D17)</f>
         <v>14.710000000000004</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="2">
         <v>2.94</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>3.32</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G18" s="2">
         <v>3.79</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <v>1.33</v>
       </c>
     </row>
-    <row r="19" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>43106</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19" s="2">
         <v>9.02</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <v>9.2799999999999994</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G19" s="2">
         <v>9.9600000000000009</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H19" s="2">
         <v>9.36</v>
       </c>
     </row>
-    <row r="20" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>43105</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="2">
         <v>9.92</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="2">
         <v>10.26</v>
       </c>
-      <c r="F20" s="2">
+      <c r="G20" s="2">
         <v>10.46</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
         <v>10.94</v>
       </c>
     </row>
-    <row r="21" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>43104</v>
       </c>
-      <c r="D21">
-        <f>SUM(D6:D20)</f>
-        <v>-27.14</v>
-      </c>
       <c r="E21">
         <f>SUM(E6:E20)</f>
+        <v>-27.14</v>
+      </c>
+      <c r="F21">
+        <f>SUM(F6:F20)</f>
         <v>2.7300000000000004</v>
       </c>
-      <c r="F21" s="2">
+      <c r="G21" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H21" s="2">
         <v>10.3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>43103</v>
       </c>
-      <c r="F22" s="2">
-        <f>SUM(F7:F21)</f>
+      <c r="G22" s="2">
+        <f>SUM(G7:G21)</f>
         <v>-2.9999999999997584E-2</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="23" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G23" s="2">
-        <f>SUM(G8:G22)</f>
+    <row r="23" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="2">
+        <f>SUM(H8:H22)</f>
         <v>35.020000000000003</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G8:G22">
-    <cfRule type="cellIs" dxfId="57" priority="15" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="16" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F21">
-    <cfRule type="cellIs" dxfId="55" priority="13" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="14" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="H8:H22">
+    <cfRule type="cellIs" dxfId="55" priority="17" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="18" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:G21">
+    <cfRule type="cellIs" dxfId="53" priority="15" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="16" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F20">
+    <cfRule type="cellIs" dxfId="51" priority="13" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="14" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E20">
-    <cfRule type="cellIs" dxfId="53" priority="11" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="12" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D20">
-    <cfRule type="cellIs" dxfId="51" priority="9" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="10" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C17 C19:C20">
-    <cfRule type="cellIs" dxfId="49" priority="7" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="8" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E16 B19:E20 C17:E17 B18 D18:E18 B22:E1048576 B21:C21">
-    <cfRule type="cellIs" dxfId="47" priority="5" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="6" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:B22">
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:B22">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="49" priority="11" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="12" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D17 D19:D20">
+    <cfRule type="cellIs" dxfId="47" priority="9" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="10" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:F16 C19:F20 D17:F17 C18 E18:F18 C22:F1048576 C21:D21">
+    <cfRule type="cellIs" dxfId="45" priority="7" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="8" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:C22">
+    <cfRule type="cellIs" dxfId="43" priority="5" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="6" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:C22">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B16">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1549,14 +1527,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -1571,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>43117</v>
       </c>
@@ -1582,7 +1560,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>43116</v>
       </c>
@@ -1593,7 +1571,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>43115</v>
       </c>
@@ -1604,7 +1582,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>43114</v>
       </c>
@@ -1615,7 +1593,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>43113</v>
       </c>
@@ -1628,7 +1606,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>43112</v>
       </c>
@@ -1643,7 +1621,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>43111</v>
       </c>
@@ -1660,7 +1638,7 @@
         <v>-2.5099999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>43110</v>
       </c>
@@ -1677,7 +1655,7 @@
         <v>-1.19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>43109</v>
       </c>
@@ -1694,7 +1672,7 @@
         <v>-3.22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>43108</v>
       </c>
@@ -1712,7 +1690,7 @@
         <v>-4.05</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>43107</v>
       </c>
@@ -1726,7 +1704,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>43106</v>
       </c>
@@ -1741,7 +1719,7 @@
         <v>11.89</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>43105</v>
       </c>
@@ -1756,7 +1734,7 @@
         <v>13.07</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>43104</v>
       </c>
@@ -1772,7 +1750,7 @@
         <v>11.52</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>43103</v>
       </c>
@@ -1786,7 +1764,7 @@
         <v>10.27</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1798,42 +1776,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E8:E16">
-    <cfRule type="cellIs" dxfId="41" priority="9" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="10" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="37" priority="9" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="10" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D15">
-    <cfRule type="cellIs" dxfId="39" priority="7" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="35" priority="7" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="8" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C14">
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="33" priority="5" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="6" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B15">
-    <cfRule type="cellIs" dxfId="35" priority="3" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B10">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1847,22 +1825,22 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" thickBottom="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" thickBottom="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="11.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1885,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>43122</v>
       </c>
@@ -1898,7 +1876,7 @@
       <c r="F2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>43121</v>
       </c>
@@ -1913,7 +1891,7 @@
       <c r="F3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>43120</v>
       </c>
@@ -1928,7 +1906,7 @@
       <c r="F4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>43119</v>
       </c>
@@ -1943,7 +1921,7 @@
       <c r="F5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>43118</v>
       </c>
@@ -1960,7 +1938,7 @@
       <c r="F6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>43117</v>
       </c>
@@ -1979,7 +1957,7 @@
       <c r="F7" s="2"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>43116</v>
       </c>
@@ -2005,12 +1983,12 @@
         <v>-0.21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>43115</v>
       </c>
       <c r="B9" s="2">
-        <v>8.17</v>
+        <v>8.14</v>
       </c>
       <c r="C9" s="2">
         <v>7.99</v>
@@ -2031,7 +2009,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="10" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>43114</v>
       </c>
@@ -2057,7 +2035,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="11" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>43113</v>
       </c>
@@ -2083,7 +2061,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="12" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>43112</v>
       </c>
@@ -2109,7 +2087,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="13" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>43111</v>
       </c>
@@ -2135,7 +2113,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="14" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>43110</v>
       </c>
@@ -2161,7 +2139,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="15" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>43109</v>
       </c>
@@ -2187,13 +2165,13 @@
         <v>-1.66</v>
       </c>
     </row>
-    <row r="16" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>43108</v>
       </c>
       <c r="B16" s="2">
         <f>SUM(B2:B15)</f>
-        <v>-28.79</v>
+        <v>-28.82</v>
       </c>
       <c r="C16" s="2">
         <v>-1.3</v>
@@ -2214,7 +2192,7 @@
         <v>-3.16</v>
       </c>
     </row>
-    <row r="17" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>43107</v>
       </c>
@@ -2238,7 +2216,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="18" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>43106</v>
       </c>
@@ -2258,7 +2236,7 @@
         <v>12.42</v>
       </c>
     </row>
-    <row r="19" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>43105</v>
       </c>
@@ -2278,7 +2256,7 @@
         <v>13.55</v>
       </c>
     </row>
-    <row r="20" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>43104</v>
       </c>
@@ -2299,7 +2277,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>43103</v>
       </c>
@@ -2318,7 +2296,7 @@
         <v>10.72</v>
       </c>
     </row>
-    <row r="22" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G22" s="2">
         <f>SUM(G8:G21)</f>
         <v>60.58</v>
@@ -2328,117 +2306,117 @@
         <v>59.83</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:8" ht="14.45" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="G8:H21">
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G21">
-    <cfRule type="cellIs" dxfId="29" priority="25" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F20">
-    <cfRule type="cellIs" dxfId="27" priority="23" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F20">
-    <cfRule type="cellIs" dxfId="25" priority="21" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="22" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E20">
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E20">
-    <cfRule type="cellIs" dxfId="21" priority="17" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D19">
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D19">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D9">
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D9">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C16">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C16">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B15">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B15">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/GFS/GFS.xlsx
+++ b/GFS/GFS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GFS-HDD" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>2018-01-02 12z</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>2018-01-09 00z</t>
+  </si>
+  <si>
+    <t> 2018-01-09 12z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-09 00z </t>
   </si>
 </sst>
 </file>
@@ -144,7 +150,143 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="74">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -940,577 +1082,650 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" thickBottom="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" thickBottom="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>43123</v>
+        <v>43124</v>
       </c>
       <c r="B2" s="2">
-        <v>3.69</v>
-      </c>
-      <c r="C2" s="2">
-        <v>-0.26</v>
-      </c>
+        <v>5.57</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
+        <v>43123</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6.14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3.69</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-0.26</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>43122</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="C4" s="2">
         <v>4.8899999999999997</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D4" s="2">
         <v>4.21</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E4" s="2">
         <v>1.91</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>43121</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2">
+        <v>-6.26</v>
+      </c>
+      <c r="C5" s="2">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D5" s="2">
         <v>2.71</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E5" s="2">
         <v>-0.15</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
         <v>43120</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="2">
+        <v>-9.06</v>
+      </c>
+      <c r="C6" s="2">
         <v>-5.0999999999999996</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D6" s="2">
         <v>-4.7300000000000004</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E6" s="2">
         <v>-0.85</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>43119</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2">
+        <v>-5.84</v>
+      </c>
+      <c r="C7" s="2">
         <v>-5.59</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D7" s="2">
         <v>-7.41</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E7" s="2">
         <v>3.11</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F7" s="2">
         <v>-10.98</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G7" s="2">
         <v>-10.28</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>43118</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C8" s="2">
         <v>-2.06</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D8" s="2">
         <v>-8.9499999999999993</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E8" s="2">
         <v>6.76</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F8" s="2">
         <v>-10.48</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G8" s="2">
         <v>-6.81</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H8" s="2">
         <v>-9.3699999999999992</v>
       </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>43117</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="2">
+        <v>7.69</v>
+      </c>
+      <c r="C9" s="2">
         <v>6.01</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D9" s="2">
         <v>-8.8699999999999992</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E9" s="2">
         <v>1.81</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F9" s="2">
         <v>-8.9</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G9" s="2">
         <v>-0.99</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H9" s="2">
         <v>-8.0299999999999994</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I9" s="2">
         <v>-6.55</v>
       </c>
     </row>
-    <row r="9" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+    <row r="10" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>43116</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
+        <v>7.21</v>
+      </c>
+      <c r="C10" s="2">
         <v>7.9</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D10" s="2">
         <v>-2.0099999999999998</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E10" s="2">
         <v>4.46</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F10" s="2">
         <v>-4.1100000000000003</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G10" s="2">
         <v>3.95</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H10" s="2">
         <v>-6.26</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I10" s="2">
         <v>-3.58</v>
       </c>
     </row>
-    <row r="10" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+    <row r="11" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
         <v>43115</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
+        <v>5.91</v>
+      </c>
+      <c r="C11" s="2">
         <v>6.24</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D11" s="2">
         <v>6.49</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E11" s="2">
         <v>9.85</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F11" s="2">
         <v>-1.5</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G11" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H11" s="2">
         <v>-2.0099999999999998</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I11" s="2">
         <v>-0.43</v>
       </c>
     </row>
-    <row r="11" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+    <row r="12" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
         <v>43114</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
+        <v>7.16</v>
+      </c>
+      <c r="C12" s="2">
         <v>6.74</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D12" s="2">
         <v>9.66</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E12" s="2">
         <v>9.44</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F12" s="2">
         <v>-1.01</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G12" s="2">
         <v>2.29</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H12" s="2">
         <v>-0.09</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I12" s="2">
         <v>1.26</v>
       </c>
     </row>
-    <row r="12" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+    <row r="13" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
         <v>43113</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="C13" s="2">
         <v>2.66</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D13" s="2">
         <v>4.0599999999999996</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E13" s="2">
         <v>2.95</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F13" s="2">
         <v>-0.66</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G13" s="2">
         <v>2.5299999999999998</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H13" s="2">
         <v>-1.43</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I13" s="2">
         <v>5.64</v>
       </c>
     </row>
-    <row r="13" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+    <row r="14" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
         <v>43112</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
+        <v>-4.38</v>
+      </c>
+      <c r="C14" s="2">
         <v>-3.93</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D14" s="2">
         <v>-3.42</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E14" s="2">
         <v>-3.84</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F14" s="2">
         <v>2.38</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G14" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H14" s="2">
         <v>-3.52</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I14" s="2">
         <v>4.54</v>
       </c>
     </row>
-    <row r="14" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+    <row r="15" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
         <v>43111</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="2">
+        <v>-8.7799999999999994</v>
+      </c>
+      <c r="C15" s="2">
         <v>-8.61</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D15" s="2">
         <v>-8.68</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E15" s="2">
         <v>-8.33</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F15" s="2">
         <v>-4.13</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G15" s="2">
         <v>-4.57</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H15" s="2">
         <v>0.31</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I15" s="2">
         <v>-1.06</v>
       </c>
     </row>
-    <row r="15" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+    <row r="16" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
         <v>43110</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="2">
+        <v>-6.68</v>
+      </c>
+      <c r="C16" s="2">
         <v>-6.92</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D16" s="2">
         <v>-7.18</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E16" s="2">
         <v>-6.81</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F16" s="2">
         <v>-3.96</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G16" s="2">
         <v>-2.85</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H16" s="2">
         <v>2.44</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I16" s="2">
         <v>3.01</v>
       </c>
     </row>
-    <row r="16" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+    <row r="17" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
         <v>43109</v>
-      </c>
-      <c r="B16" s="2">
-        <v>-4.1500000000000004</v>
-      </c>
-      <c r="C16" s="2">
-        <v>-3.79</v>
-      </c>
-      <c r="D16" s="2">
-        <v>-3.69</v>
-      </c>
-      <c r="E16" s="2">
-        <v>-2.52</v>
-      </c>
-      <c r="F16" s="2">
-        <v>-2.36</v>
-      </c>
-      <c r="G16" s="2">
-        <v>-3.49</v>
-      </c>
-      <c r="H16" s="2">
-        <v>-3.86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>43108</v>
       </c>
       <c r="B17">
         <f>SUM(B2:B16)</f>
+        <v>4.1200000000000028</v>
+      </c>
+      <c r="C17" s="2">
+        <v>-4.1500000000000004</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-3.79</v>
+      </c>
+      <c r="E17" s="2">
+        <v>-3.69</v>
+      </c>
+      <c r="F17" s="2">
+        <v>-2.52</v>
+      </c>
+      <c r="G17" s="2">
+        <v>-2.36</v>
+      </c>
+      <c r="H17" s="2">
+        <v>-3.49</v>
+      </c>
+      <c r="I17" s="2">
+        <v>-3.86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>43108</v>
+      </c>
+      <c r="C18">
+        <f>SUM(C3:C17)</f>
         <v>1.1999999999999993</v>
-      </c>
-      <c r="C17">
-        <f>SUM(C2:C16)</f>
-        <v>-28.169999999999991</v>
-      </c>
-      <c r="D17" s="2">
-        <v>-1.91</v>
-      </c>
-      <c r="E17" s="2">
-        <v>-3.15</v>
-      </c>
-      <c r="F17" s="2">
-        <v>-3.31</v>
-      </c>
-      <c r="G17" s="2">
-        <v>-2.99</v>
-      </c>
-      <c r="H17" s="2">
-        <v>-5.51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>43107</v>
       </c>
       <c r="D18">
         <f>SUM(D3:D17)</f>
+        <v>-28.169999999999991</v>
+      </c>
+      <c r="E18" s="2">
+        <v>-1.91</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-3.15</v>
+      </c>
+      <c r="G18" s="2">
+        <v>-3.31</v>
+      </c>
+      <c r="H18" s="2">
+        <v>-2.99</v>
+      </c>
+      <c r="I18" s="2">
+        <v>-5.51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>43107</v>
+      </c>
+      <c r="E19">
+        <f>SUM(E4:E18)</f>
         <v>14.710000000000004</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F19" s="2">
         <v>2.94</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G19" s="2">
         <v>3.32</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H19" s="2">
         <v>3.79</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I19" s="2">
         <v>1.33</v>
       </c>
     </row>
-    <row r="19" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+    <row r="20" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
         <v>43106</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F20" s="2">
         <v>9.02</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G20" s="2">
         <v>9.2799999999999994</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H20" s="2">
         <v>9.9600000000000009</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I20" s="2">
         <v>9.36</v>
       </c>
     </row>
-    <row r="20" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+    <row r="21" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
         <v>43105</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F21" s="2">
         <v>9.92</v>
       </c>
-      <c r="F20" s="2">
+      <c r="G21" s="2">
         <v>10.26</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H21" s="2">
         <v>10.46</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I21" s="2">
         <v>10.94</v>
       </c>
     </row>
-    <row r="21" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+    <row r="22" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
         <v>43104</v>
       </c>
-      <c r="E21">
-        <f>SUM(E6:E20)</f>
+      <c r="F22">
+        <f>SUM(F7:F21)</f>
         <v>-27.14</v>
       </c>
-      <c r="F21">
-        <f>SUM(F6:F20)</f>
+      <c r="G22">
+        <f>SUM(G7:G21)</f>
         <v>2.7300000000000004</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H22" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I22" s="2">
         <v>10.3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+    <row r="23" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
         <v>43103</v>
       </c>
-      <c r="G22" s="2">
-        <f>SUM(G7:G21)</f>
-        <v>-2.9999999999997584E-2</v>
-      </c>
-      <c r="H22" s="2">
-        <v>9.6300000000000008</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H23" s="2">
         <f>SUM(H8:H22)</f>
+        <v>-2.9999999999997584E-2</v>
+      </c>
+      <c r="I23" s="2">
+        <v>9.6300000000000008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I24" s="2">
+        <f>SUM(I9:I23)</f>
         <v>35.020000000000003</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I9:I23">
+    <cfRule type="cellIs" dxfId="67" priority="19" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="20" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H8:H22">
-    <cfRule type="cellIs" dxfId="55" priority="17" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="65" priority="17" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="18" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G21">
-    <cfRule type="cellIs" dxfId="53" priority="15" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="16" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F20">
-    <cfRule type="cellIs" dxfId="51" priority="13" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="14" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E20">
-    <cfRule type="cellIs" dxfId="49" priority="11" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="12" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D17 D19:D20">
-    <cfRule type="cellIs" dxfId="47" priority="9" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="10" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:F16 C19:F20 D17:F17 C18 E18:F18 C22:F1048576 C21:D21">
-    <cfRule type="cellIs" dxfId="45" priority="7" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="8" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C22">
-    <cfRule type="cellIs" dxfId="43" priority="5" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="6" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C22">
-    <cfRule type="cellIs" dxfId="41" priority="3" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="63" priority="15" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="16" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:F21">
+    <cfRule type="cellIs" dxfId="61" priority="13" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="14" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E18 E20:E21">
+    <cfRule type="cellIs" dxfId="59" priority="11" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="12" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:G17 D20:G21 E18:G18 D19 F19:G19 D23:G1048576 D22:E22">
+    <cfRule type="cellIs" dxfId="57" priority="9" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="10" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:D23">
+    <cfRule type="cellIs" dxfId="55" priority="7" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="8" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:D23">
+    <cfRule type="cellIs" dxfId="53" priority="5" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="6" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C17">
+    <cfRule type="cellIs" dxfId="51" priority="3" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="4" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B16">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1521,124 +1736,148 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>43117</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
+        <v>1.76</v>
+      </c>
+      <c r="C2" s="1">
         <v>0.89</v>
       </c>
-      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>43116</v>
       </c>
       <c r="B3" s="2">
+        <v>5.74</v>
+      </c>
+      <c r="C3" s="2">
         <v>7.57</v>
       </c>
-      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>43115</v>
       </c>
       <c r="B4" s="2">
+        <v>7.93</v>
+      </c>
+      <c r="C4" s="2">
         <v>9.86</v>
       </c>
-      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>43114</v>
       </c>
       <c r="B5" s="2">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="C5" s="2">
         <v>9.44</v>
       </c>
-      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>43113</v>
       </c>
       <c r="B6" s="2">
+        <v>2.97</v>
+      </c>
+      <c r="C6" s="2">
         <v>2.96</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>1.19</v>
       </c>
-      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>43112</v>
       </c>
       <c r="B7" s="2">
+        <v>-4.29</v>
+      </c>
+      <c r="C7" s="2">
         <v>-4.58</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>-1.76</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>-3.11</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>43111</v>
       </c>
       <c r="B8" s="2">
+        <v>-8.25</v>
+      </c>
+      <c r="C8" s="2">
         <v>-8.76</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>-5.31</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>-2.5099999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>43110</v>
       </c>
@@ -1646,172 +1885,196 @@
         <v>-5.99</v>
       </c>
       <c r="C9" s="2">
+        <v>-5.99</v>
+      </c>
+      <c r="D9" s="2">
         <v>-1.89</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>4.54</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>-1.19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>43109</v>
       </c>
       <c r="B10" s="2">
+        <v>-3.68</v>
+      </c>
+      <c r="C10" s="2">
         <v>-3.28</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>-1.65</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>0.2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>-3.22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>43108</v>
       </c>
       <c r="B11" s="2">
         <f>SUM(B2:B10)</f>
+        <v>6.24</v>
+      </c>
+      <c r="C11" s="2">
+        <f>SUM(C2:C10)</f>
         <v>8.110000000000003</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>-1.07</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>0.27</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>-4.05</v>
       </c>
     </row>
-    <row r="12" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>43107</v>
       </c>
-      <c r="C12" s="2">
+      <c r="B12" s="6"/>
+      <c r="D12" s="2">
         <v>6.26</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>5.21</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>3.07</v>
       </c>
     </row>
-    <row r="13" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>43106</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2">
+      <c r="B13" s="5"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
         <v>12.27</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>12.63</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>11.89</v>
       </c>
     </row>
-    <row r="14" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>43105</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2">
+      <c r="B14" s="6"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
         <v>12.23</v>
-      </c>
-      <c r="D14" s="2">
-        <v>13.07</v>
       </c>
       <c r="E14" s="2">
         <v>13.07</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F14" s="2">
+        <v>13.07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>43104</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2">
-        <f>SUM(C6:C14)</f>
+      <c r="B15" s="5"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
+        <f>SUM(D6:D14)</f>
         <v>20.27</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>11.69</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>11.52</v>
       </c>
     </row>
-    <row r="16" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>43103</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="2">
-        <f>SUM(D7:D15)</f>
+      <c r="D16" s="6"/>
+      <c r="E16" s="2">
+        <f>SUM(E7:E15)</f>
         <v>47.05</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>10.27</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="2">
-        <f>SUM(E8:E16)</f>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2">
+        <f>SUM(F8:F16)</f>
         <v>38.85</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E8:E16">
-    <cfRule type="cellIs" dxfId="37" priority="9" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="10" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D15">
-    <cfRule type="cellIs" dxfId="35" priority="7" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="8" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C14">
-    <cfRule type="cellIs" dxfId="33" priority="5" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="6" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:B15">
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B10">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="F8:F16">
+    <cfRule type="cellIs" dxfId="47" priority="11" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="12" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E15">
+    <cfRule type="cellIs" dxfId="45" priority="9" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="10" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D14">
+    <cfRule type="cellIs" dxfId="43" priority="7" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="8" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:C15">
+    <cfRule type="cellIs" dxfId="41" priority="5" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="6" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C10">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B10">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1822,601 +2085,666 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" thickBottom="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" thickBottom="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.33203125" style="4" customWidth="1"/>
+    <col min="2" max="3" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>43122</v>
       </c>
       <c r="B2" s="2">
+        <v>-2.93</v>
+      </c>
+      <c r="C2" s="2">
         <v>-4.07</v>
       </c>
-      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>43121</v>
       </c>
       <c r="B3" s="2">
+        <v>-5.67</v>
+      </c>
+      <c r="C3" s="2">
         <v>-6.47</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>-6.17</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>43120</v>
       </c>
       <c r="B4" s="2">
+        <v>-8.2200000000000006</v>
+      </c>
+      <c r="C4" s="2">
         <v>-8.6999999999999993</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>-8.44</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>43119</v>
       </c>
       <c r="B5" s="2">
+        <v>-7.44</v>
+      </c>
+      <c r="C5" s="2">
         <v>-9.09</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>-9.1</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="2"/>
       <c r="F5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>43118</v>
       </c>
       <c r="B6" s="2">
+        <v>-1.7</v>
+      </c>
+      <c r="C6" s="2">
         <v>-4.87</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>-9.01</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>-7.22</v>
       </c>
-      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>43117</v>
       </c>
       <c r="B7" s="2">
+        <v>4.28</v>
+      </c>
+      <c r="C7" s="2">
         <v>0.4</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>-1.77</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>-4.34</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>-5.25</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="2"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>43116</v>
       </c>
       <c r="B8" s="2">
+        <v>7.11</v>
+      </c>
+      <c r="C8" s="2">
         <v>5.13</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>3.7</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>-0.59</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>-2.1</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>-3.32</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>-0.98</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>-0.21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>43115</v>
       </c>
       <c r="B9" s="2">
+        <v>7.99</v>
+      </c>
+      <c r="C9" s="2">
         <v>8.14</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>7.99</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>2.73</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>1.07</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>0.05</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>1.6</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>2.48</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>43114</v>
       </c>
       <c r="B10" s="2">
+        <v>9.26</v>
+      </c>
+      <c r="C10" s="2">
         <v>8.92</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>8.39</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>4.32</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>3.59</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>2.62</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>3.37</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>4.62</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>43113</v>
       </c>
       <c r="B11" s="2">
+        <v>3.06</v>
+      </c>
+      <c r="C11" s="2">
         <v>3.02</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>2.16</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>2.4700000000000002</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>3.63</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>2.06</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>2.59</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>3.75</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>43112</v>
       </c>
       <c r="B12" s="2">
+        <v>-4</v>
+      </c>
+      <c r="C12" s="2">
         <v>-3.95</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>-4.3099999999999996</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>-0.08</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>0.46</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>1.44</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>1.58</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>0.86</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>43111</v>
       </c>
       <c r="B13" s="2">
+        <v>-8.1300000000000008</v>
+      </c>
+      <c r="C13" s="2">
         <v>-8.5299999999999994</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>-7.86</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>-5.05</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>-3.31</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>2.34</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>0.63</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>0.08</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>43110</v>
       </c>
       <c r="B14" s="2">
+        <v>-5.58</v>
+      </c>
+      <c r="C14" s="2">
         <v>-5.64</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>-4.5</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>-3.68</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>-2.74</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <v>2.2599999999999998</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>1.63</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>43109</v>
       </c>
       <c r="B15" s="2">
+        <v>-3.51</v>
+      </c>
+      <c r="C15" s="2">
         <v>-3.11</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>-2.31</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>-2.34</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>-1.72</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <v>-0.82</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>-0.25</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>-1.66</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>43108</v>
       </c>
       <c r="B16" s="2">
         <f>SUM(B2:B15)</f>
+        <v>-15.48</v>
+      </c>
+      <c r="C16" s="2">
+        <f>SUM(C2:C15)</f>
         <v>-28.82</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>-1.3</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>-1.1100000000000001</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>-0.92</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <v>-0.84</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>-1.61</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>-3.16</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>43107</v>
       </c>
-      <c r="C17" s="2">
-        <f>SUM(C3:C16)</f>
+      <c r="D17" s="2">
+        <f>SUM(D3:D16)</f>
         <v>-32.53</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>6.29</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>6.25</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G17" s="2">
         <v>5.26</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <v>3.76</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="2">
         <v>2.85</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>43106</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="2">
         <v>12.56</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>12.6</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G18" s="2">
         <v>13.02</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <v>12.61</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <v>12.42</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>43105</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19" s="2">
         <v>12.51</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <v>12.64</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G19" s="2">
         <v>13.24</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H19" s="2">
         <v>13.38</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I19" s="2">
         <v>13.55</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>43104</v>
       </c>
-      <c r="D20" s="2">
-        <f>SUM(D6:D19)</f>
+      <c r="E20" s="2">
+        <f>SUM(E6:E19)</f>
         <v>16.470000000000002</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="2">
         <v>11.71</v>
       </c>
-      <c r="F20" s="2">
+      <c r="G20" s="2">
         <v>11.91</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
         <v>11.84</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I20" s="2">
         <v>11.9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>43103</v>
       </c>
-      <c r="E21" s="2">
-        <f>SUM(E7:E20)</f>
-        <v>35.909999999999997</v>
-      </c>
       <c r="F21" s="2">
         <f>SUM(F7:F20)</f>
+        <v>35.909999999999997</v>
+      </c>
+      <c r="G21" s="2">
+        <f>SUM(G7:G20)</f>
         <v>49.22</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H21" s="2">
         <v>10.97</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="2">
         <v>10.72</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G22" s="2">
-        <f>SUM(G8:G21)</f>
-        <v>60.58</v>
-      </c>
+    <row r="22" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H22" s="2">
         <f>SUM(H8:H21)</f>
+        <v>60.58</v>
+      </c>
+      <c r="I22" s="2">
+        <f>SUM(I8:I21)</f>
         <v>59.83</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:9" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="G8:H21">
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="30" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G21">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="H8:I21">
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:H21">
+    <cfRule type="cellIs" dxfId="33" priority="29" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="30" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:G20">
+    <cfRule type="cellIs" dxfId="31" priority="27" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="28" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:G20">
+    <cfRule type="cellIs" dxfId="29" priority="25" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="26" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F20">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="27" priority="23" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="24" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F20">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E20">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E20">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D19">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D19">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:D9">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:D9">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C16">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C16">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="25" priority="21" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="22" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E19">
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E19">
+    <cfRule type="cellIs" dxfId="21" priority="17" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="18" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:E9">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:E9">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D16">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D16">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C15">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C15">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B15">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B15">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/GFS/GFS.xlsx
+++ b/GFS/GFS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="GFS-HDD" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>2018-01-02 12z</t>
   </si>
@@ -59,6 +59,12 @@
   <si>
     <t xml:space="preserve">2018-01-09 00z </t>
   </si>
+  <si>
+    <t>2018-01-10 12z</t>
+  </si>
+  <si>
+    <t>2018-01-10 00z</t>
+  </si>
 </sst>
 </file>
 
@@ -67,7 +73,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +97,21 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -134,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -146,11 +167,68 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="74">
+  <dxfs count="80">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -1082,56 +1160,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="E17:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>43124</v>
+        <v>43125</v>
       </c>
       <c r="B2" s="2">
-        <v>5.57</v>
+        <v>-6.08</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1140,592 +1222,684 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>43123</v>
+        <v>43124</v>
       </c>
       <c r="B3" s="2">
-        <v>6.14</v>
+        <v>-1.9</v>
       </c>
       <c r="C3" s="2">
-        <v>3.69</v>
-      </c>
-      <c r="D3" s="2">
-        <v>-0.26</v>
-      </c>
+        <v>5.57</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
+        <v>43123</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-0.34</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6.14</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3.69</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-0.26</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>43122</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2">
+        <v>-3.93</v>
+      </c>
+      <c r="C5" s="2">
         <v>2.0299999999999998</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D5" s="2">
         <v>4.8899999999999997</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E5" s="2">
         <v>4.21</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F5" s="2">
         <v>1.91</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
         <v>43121</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="2">
+        <v>-8.11</v>
+      </c>
+      <c r="C6" s="2">
         <v>-6.26</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D6" s="2">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E6" s="2">
         <v>2.71</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F6" s="2">
         <v>-0.15</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>43120</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2">
+        <v>-10.65</v>
+      </c>
+      <c r="C7" s="2">
         <v>-9.06</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D7" s="2">
         <v>-5.0999999999999996</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E7" s="2">
         <v>-4.7300000000000004</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F7" s="2">
         <v>-0.85</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>43119</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2">
+        <v>-8.5500000000000007</v>
+      </c>
+      <c r="C8" s="2">
         <v>-5.84</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D8" s="2">
         <v>-5.59</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E8" s="2">
         <v>-7.41</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F8" s="2">
         <v>3.11</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G8" s="2">
         <v>-10.98</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H8" s="2">
         <v>-10.28</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>43118</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="2">
+        <v>-1.61</v>
+      </c>
+      <c r="C9" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D9" s="2">
         <v>-2.06</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E9" s="2">
         <v>-8.9499999999999993</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F9" s="2">
         <v>6.76</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G9" s="2">
         <v>-10.48</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H9" s="2">
         <v>-6.81</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I9" s="2">
         <v>-9.3699999999999992</v>
       </c>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>43117</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
+        <v>5.99</v>
+      </c>
+      <c r="C10" s="2">
         <v>7.69</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D10" s="2">
         <v>6.01</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E10" s="2">
         <v>-8.8699999999999992</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F10" s="2">
         <v>1.81</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G10" s="2">
         <v>-8.9</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H10" s="2">
         <v>-0.99</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I10" s="2">
         <v>-8.0299999999999994</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J10" s="2">
         <v>-6.55</v>
       </c>
     </row>
-    <row r="10" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+    <row r="11" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
         <v>43116</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
+        <v>6.75</v>
+      </c>
+      <c r="C11" s="2">
         <v>7.21</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D11" s="2">
         <v>7.9</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E11" s="2">
         <v>-2.0099999999999998</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F11" s="2">
         <v>4.46</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G11" s="2">
         <v>-4.1100000000000003</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H11" s="2">
         <v>3.95</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I11" s="2">
         <v>-6.26</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J11" s="2">
         <v>-3.58</v>
       </c>
     </row>
-    <row r="11" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+    <row r="12" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
         <v>43115</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
+        <v>5.03</v>
+      </c>
+      <c r="C12" s="2">
         <v>5.91</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D12" s="2">
         <v>6.24</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E12" s="2">
         <v>6.49</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F12" s="2">
         <v>9.85</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G12" s="2">
         <v>-1.5</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H12" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I12" s="2">
         <v>-2.0099999999999998</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J12" s="2">
         <v>-0.43</v>
       </c>
     </row>
-    <row r="12" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+    <row r="13" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
         <v>43114</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="C13" s="2">
         <v>7.16</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D13" s="2">
         <v>6.74</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E13" s="2">
         <v>9.66</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F13" s="2">
         <v>9.44</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G13" s="2">
         <v>-1.01</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H13" s="2">
         <v>2.29</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I13" s="2">
         <v>-0.09</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J13" s="2">
         <v>1.26</v>
       </c>
     </row>
-    <row r="13" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
+    <row r="14" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
         <v>43113</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
+        <v>2.48</v>
+      </c>
+      <c r="C14" s="2">
         <v>2.2599999999999998</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D14" s="2">
         <v>2.66</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E14" s="2">
         <v>4.0599999999999996</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F14" s="2">
         <v>2.95</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G14" s="2">
         <v>-0.66</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H14" s="2">
         <v>2.5299999999999998</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I14" s="2">
         <v>-1.43</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J14" s="2">
         <v>5.64</v>
       </c>
     </row>
-    <row r="14" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
+    <row r="15" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
         <v>43112</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="2">
+        <v>-4.12</v>
+      </c>
+      <c r="C15" s="2">
         <v>-4.38</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D15" s="2">
         <v>-3.93</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E15" s="2">
         <v>-3.42</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F15" s="2">
         <v>-3.84</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G15" s="2">
         <v>2.38</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H15" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I15" s="2">
         <v>-3.52</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J15" s="2">
         <v>4.54</v>
       </c>
     </row>
-    <row r="15" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
+    <row r="16" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
         <v>43111</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="2">
+        <v>-9.23</v>
+      </c>
+      <c r="C16" s="2">
         <v>-8.7799999999999994</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D16" s="2">
         <v>-8.61</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E16" s="2">
         <v>-8.68</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F16" s="2">
         <v>-8.33</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G16" s="2">
         <v>-4.13</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H16" s="2">
         <v>-4.57</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I16" s="2">
         <v>0.31</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J16" s="2">
         <v>-1.06</v>
       </c>
     </row>
-    <row r="16" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
+    <row r="17" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
         <v>43110</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="7">
+        <f>SUM(B2:B16)</f>
+        <v>-27.77</v>
+      </c>
+      <c r="C17" s="2">
         <v>-6.68</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D17" s="2">
         <v>-6.92</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E17" s="2">
         <v>-7.18</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F17" s="2">
         <v>-6.81</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G17" s="2">
         <v>-3.96</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H17" s="2">
         <v>-2.85</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I17" s="2">
         <v>2.44</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J17" s="2">
         <v>3.01</v>
       </c>
     </row>
-    <row r="17" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
+    <row r="18" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
         <v>43109</v>
       </c>
-      <c r="B17">
-        <f>SUM(B2:B16)</f>
+      <c r="B18" s="8"/>
+      <c r="C18" s="7">
+        <f>SUM(C3:C17)</f>
         <v>4.1200000000000028</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D18" s="2">
         <v>-4.1500000000000004</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E18" s="2">
         <v>-3.79</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F18" s="2">
         <v>-3.69</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G18" s="2">
         <v>-2.52</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H18" s="2">
         <v>-2.36</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I18" s="2">
         <v>-3.49</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J18" s="2">
         <v>-3.86</v>
       </c>
     </row>
-    <row r="18" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
+    <row r="19" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
         <v>43108</v>
       </c>
-      <c r="C18">
-        <f>SUM(C3:C17)</f>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7">
+        <f>SUM(D4:D18)</f>
         <v>1.1999999999999993</v>
       </c>
-      <c r="D18">
-        <f>SUM(D3:D17)</f>
+      <c r="E19" s="7">
+        <f>SUM(E4:E18)</f>
         <v>-28.169999999999991</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F19" s="2">
         <v>-1.91</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G19" s="2">
         <v>-3.15</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H19" s="2">
         <v>-3.31</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I19" s="2">
         <v>-2.99</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J19" s="2">
         <v>-5.51</v>
       </c>
     </row>
-    <row r="19" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
+    <row r="20" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
         <v>43107</v>
       </c>
-      <c r="E19">
-        <f>SUM(E4:E18)</f>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="F20" s="7">
+        <f>SUM(F5:F19)</f>
         <v>14.710000000000004</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G20" s="2">
         <v>2.94</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H20" s="2">
         <v>3.32</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I20" s="2">
         <v>3.79</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J20" s="2">
         <v>1.33</v>
       </c>
     </row>
-    <row r="20" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
+    <row r="21" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
         <v>43106</v>
       </c>
-      <c r="F20" s="2">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="G21" s="2">
         <v>9.02</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H21" s="2">
         <v>9.2799999999999994</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I21" s="2">
         <v>9.9600000000000009</v>
       </c>
-      <c r="I20" s="2">
+      <c r="J21" s="2">
         <v>9.36</v>
       </c>
     </row>
-    <row r="21" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
+    <row r="22" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
         <v>43105</v>
       </c>
-      <c r="F21" s="2">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="G22" s="2">
         <v>9.92</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H22" s="2">
         <v>10.26</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I22" s="2">
         <v>10.46</v>
       </c>
-      <c r="I21" s="2">
+      <c r="J22" s="2">
         <v>10.94</v>
       </c>
     </row>
-    <row r="22" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
+    <row r="23" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
         <v>43104</v>
       </c>
-      <c r="F22">
-        <f>SUM(F7:F21)</f>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="G23" s="7">
+        <f>SUM(G8:G22)</f>
         <v>-27.14</v>
       </c>
-      <c r="G22">
-        <f>SUM(G7:G21)</f>
+      <c r="H23" s="7">
+        <f>SUM(H8:H22)</f>
         <v>2.7300000000000004</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I23" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="I22" s="2">
+      <c r="J23" s="2">
         <v>10.3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
+    <row r="24" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
         <v>43103</v>
       </c>
-      <c r="H23" s="2">
-        <f>SUM(H8:H22)</f>
-        <v>-2.9999999999997584E-2</v>
-      </c>
-      <c r="I23" s="2">
-        <v>9.6300000000000008</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
       <c r="I24" s="2">
         <f>SUM(I9:I23)</f>
+        <v>-2.9999999999997584E-2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>9.6300000000000008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="2">
+        <f>SUM(J10:J24)</f>
         <v>35.020000000000003</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J10:J24">
+    <cfRule type="cellIs" dxfId="75" priority="21" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="22" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I9:I23">
-    <cfRule type="cellIs" dxfId="67" priority="19" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="73" priority="19" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="20" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H22">
-    <cfRule type="cellIs" dxfId="65" priority="17" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="18" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7:G21">
-    <cfRule type="cellIs" dxfId="63" priority="15" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="16" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F21">
-    <cfRule type="cellIs" dxfId="61" priority="13" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="14" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E18 E20:E21">
-    <cfRule type="cellIs" dxfId="59" priority="11" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="12" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:G17 D20:G21 E18:G18 D19 F19:G19 D23:G1048576 D22:E22">
-    <cfRule type="cellIs" dxfId="57" priority="9" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="10" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:D23">
-    <cfRule type="cellIs" dxfId="55" priority="7" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="8" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:D23">
-    <cfRule type="cellIs" dxfId="53" priority="5" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="71" priority="17" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="18" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:G22">
+    <cfRule type="cellIs" dxfId="69" priority="15" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="16" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F19 F21:F22">
+    <cfRule type="cellIs" dxfId="67" priority="13" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="14" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:H18 E21:H22 F19:H19 E20 G20:H20 E24:H1048576 E23:F23">
+    <cfRule type="cellIs" dxfId="65" priority="11" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="12" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:E24">
+    <cfRule type="cellIs" dxfId="63" priority="9" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="10" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:E24">
+    <cfRule type="cellIs" dxfId="61" priority="7" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="8" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D18">
+    <cfRule type="cellIs" dxfId="59" priority="5" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="6" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C17">
-    <cfRule type="cellIs" dxfId="51" priority="3" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="57" priority="3" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="4" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B16">
-    <cfRule type="cellIs" dxfId="49" priority="1" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1736,345 +1910,406 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
+        <v>43118</v>
+      </c>
+      <c r="B2" s="2">
+        <v>7.46</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
         <v>43117</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="2">
+        <v>10.86</v>
+      </c>
+      <c r="C3" s="2">
         <v>1.76</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D3" s="9">
         <v>0.89</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>43116</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="2">
+        <v>7.13</v>
+      </c>
+      <c r="C4" s="2">
         <v>5.74</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D4" s="2">
         <v>7.57</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>43115</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2">
+        <v>6.05</v>
+      </c>
+      <c r="C5" s="2">
         <v>7.93</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D5" s="2">
         <v>9.86</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
         <v>43114</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C6" s="2">
         <v>10.050000000000001</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D6" s="2">
         <v>9.44</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>43113</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2">
+        <v>6.02</v>
+      </c>
+      <c r="C7" s="2">
         <v>2.97</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D7" s="2">
         <v>2.96</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E7" s="2">
         <v>1.19</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>43112</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2">
+        <v>-2.54</v>
+      </c>
+      <c r="C8" s="2">
         <v>-4.29</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D8" s="2">
         <v>-4.58</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E8" s="2">
         <v>-1.76</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F8" s="2">
         <v>-3.11</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>43111</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="2">
+        <v>-9.01</v>
+      </c>
+      <c r="C9" s="2">
         <v>-8.25</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D9" s="2">
         <v>-8.76</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E9" s="2">
         <v>-5.31</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F9" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G9" s="2">
         <v>-2.5099999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
         <v>43110</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
+        <v>-5.97</v>
+      </c>
+      <c r="C10" s="2">
         <v>-5.99</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D10" s="2">
         <v>-5.99</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E10" s="2">
         <v>-1.89</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F10" s="2">
         <v>4.54</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G10" s="2">
         <v>-1.19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
         <v>43109</v>
-      </c>
-      <c r="B10" s="2">
-        <v>-3.68</v>
-      </c>
-      <c r="C10" s="2">
-        <v>-3.28</v>
-      </c>
-      <c r="D10" s="2">
-        <v>-1.65</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="F10" s="2">
-        <v>-3.22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
-        <v>43108</v>
       </c>
       <c r="B11" s="2">
         <f>SUM(B2:B10)</f>
+        <v>29.200000000000003</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-3.68</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-3.28</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-1.65</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-3.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>43108</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="2">
+        <f>SUM(C3:C11)</f>
         <v>6.24</v>
       </c>
-      <c r="C11" s="2">
-        <f>SUM(C2:C10)</f>
+      <c r="D12" s="2">
+        <f>SUM(D3:D11)</f>
         <v>8.110000000000003</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E12" s="2">
         <v>-1.07</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F12" s="2">
         <v>0.27</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G12" s="2">
         <v>-4.05</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
         <v>43107</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="D12" s="2">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="2">
         <v>6.26</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F13" s="2">
         <v>5.21</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G13" s="2">
         <v>3.07</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
         <v>43106</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2">
         <v>12.27</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F14" s="2">
         <v>12.63</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G14" s="2">
         <v>11.89</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
         <v>43105</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2">
         <v>12.23</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F15" s="2">
         <v>13.07</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G15" s="2">
         <v>13.07</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
         <v>43104</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2">
-        <f>SUM(D6:D14)</f>
-        <v>20.27</v>
-      </c>
-      <c r="E15" s="2">
-        <v>11.69</v>
-      </c>
-      <c r="F15" s="2">
-        <v>11.52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
-        <v>43103</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="2">
         <f>SUM(E7:E15)</f>
-        <v>47.05</v>
+        <v>20.27</v>
       </c>
       <c r="F16" s="2">
-        <v>10.27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+        <v>11.69</v>
+      </c>
+      <c r="G16" s="2">
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>43103</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="2">
         <f>SUM(F8:F16)</f>
+        <v>47.05</v>
+      </c>
+      <c r="G17" s="2">
+        <v>10.27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="2">
+        <f>SUM(G9:G17)</f>
         <v>38.85</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G9:G17">
+    <cfRule type="cellIs" dxfId="53" priority="13" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="14" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F8:F16">
-    <cfRule type="cellIs" dxfId="47" priority="11" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="51" priority="11" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="12" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E15">
-    <cfRule type="cellIs" dxfId="45" priority="9" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="10" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D14">
-    <cfRule type="cellIs" dxfId="43" priority="7" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="8" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13:C15">
-    <cfRule type="cellIs" dxfId="41" priority="5" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="6" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C10">
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="49" priority="9" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="10" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D16">
+    <cfRule type="cellIs" dxfId="47" priority="7" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="8" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D11">
+    <cfRule type="cellIs" dxfId="45" priority="5" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="6" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C11">
+    <cfRule type="cellIs" dxfId="43" priority="3" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="4" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B10">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2085,546 +2320,623 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="A15:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" thickBottom="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="4" customWidth="1"/>
-    <col min="2" max="3" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="4" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>43122</v>
+        <v>43123</v>
       </c>
       <c r="B2" s="2">
-        <v>-2.93</v>
-      </c>
-      <c r="C2" s="2">
-        <v>-4.07</v>
-      </c>
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>43121</v>
+        <v>43122</v>
       </c>
       <c r="B3" s="2">
-        <v>-5.67</v>
+        <v>-2.04</v>
       </c>
       <c r="C3" s="2">
-        <v>-6.47</v>
+        <v>-2.93</v>
       </c>
       <c r="D3" s="2">
-        <v>-6.17</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>-4.07</v>
+      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
+        <v>43121</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-3.79</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-5.67</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-6.47</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-6.17</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>43120</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2">
+        <v>-5.87</v>
+      </c>
+      <c r="C5" s="2">
         <v>-8.2200000000000006</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D5" s="2">
         <v>-8.6999999999999993</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E5" s="2">
         <v>-8.44</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="F5" s="2"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
         <v>43119</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="2">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="C6" s="2">
         <v>-7.44</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D6" s="2">
         <v>-9.09</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E6" s="2">
         <v>-9.1</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="F6" s="2"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>43118</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2">
+        <v>3.03</v>
+      </c>
+      <c r="C7" s="2">
         <v>-1.7</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D7" s="2">
         <v>-4.87</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E7" s="2">
         <v>-9.01</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F7" s="2">
         <v>-7.22</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>43117</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2">
+        <v>6.38</v>
+      </c>
+      <c r="C8" s="2">
         <v>4.28</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D8" s="2">
         <v>0.4</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E8" s="2">
         <v>-1.77</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F8" s="2">
         <v>-4.34</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G8" s="2">
         <v>-5.25</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+      <c r="H8" s="2"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>43116</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="2">
+        <v>6.04</v>
+      </c>
+      <c r="C9" s="2">
         <v>7.11</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D9" s="2">
         <v>5.13</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E9" s="2">
         <v>3.7</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F9" s="2">
         <v>-0.59</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G9" s="2">
         <v>-2.1</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H9" s="2">
         <v>-3.32</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I9" s="2">
         <v>-0.98</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J9" s="2">
         <v>-0.21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+    <row r="10" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>43115</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
+        <v>5.63</v>
+      </c>
+      <c r="C10" s="2">
         <v>7.99</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D10" s="2">
         <v>8.14</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E10" s="2">
         <v>7.99</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F10" s="2">
         <v>2.73</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G10" s="2">
         <v>1.07</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H10" s="2">
         <v>0.05</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I10" s="2">
         <v>1.6</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J10" s="2">
         <v>2.48</v>
       </c>
     </row>
-    <row r="10" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+    <row r="11" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
         <v>43114</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
+        <v>9.08</v>
+      </c>
+      <c r="C11" s="2">
         <v>9.26</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D11" s="2">
         <v>8.92</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E11" s="2">
         <v>8.39</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F11" s="2">
         <v>4.32</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G11" s="2">
         <v>3.59</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H11" s="2">
         <v>2.62</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I11" s="2">
         <v>3.37</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J11" s="2">
         <v>4.62</v>
       </c>
     </row>
-    <row r="11" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+    <row r="12" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
         <v>43113</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="C12" s="2">
         <v>3.06</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D12" s="2">
         <v>3.02</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E12" s="2">
         <v>2.16</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F12" s="2">
         <v>2.4700000000000002</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G12" s="2">
         <v>3.63</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H12" s="2">
         <v>2.06</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I12" s="2">
         <v>2.59</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J12" s="2">
         <v>3.75</v>
       </c>
     </row>
-    <row r="12" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+    <row r="13" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
         <v>43112</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
+        <v>-2.56</v>
+      </c>
+      <c r="C13" s="2">
         <v>-4</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D13" s="2">
         <v>-3.95</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E13" s="2">
         <v>-4.3099999999999996</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F13" s="2">
         <v>-0.08</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G13" s="2">
         <v>0.46</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H13" s="2">
         <v>1.44</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I13" s="2">
         <v>1.58</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J13" s="2">
         <v>0.86</v>
       </c>
     </row>
-    <row r="13" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
+    <row r="14" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
         <v>43111</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
+        <v>-8.75</v>
+      </c>
+      <c r="C14" s="2">
         <v>-8.1300000000000008</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D14" s="2">
         <v>-8.5299999999999994</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E14" s="2">
         <v>-7.86</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F14" s="2">
         <v>-5.05</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G14" s="2">
         <v>-3.31</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H14" s="2">
         <v>2.34</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I14" s="2">
         <v>0.63</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J14" s="2">
         <v>0.08</v>
       </c>
     </row>
-    <row r="14" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
+    <row r="15" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
         <v>43110</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="2">
+        <v>-5.91</v>
+      </c>
+      <c r="C15" s="2">
         <v>-5.58</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D15" s="2">
         <v>-5.64</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E15" s="2">
         <v>-4.5</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F15" s="2">
         <v>-3.68</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G15" s="2">
         <v>-2.74</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H15" s="2">
         <v>2.2599999999999998</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I15" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J15" s="2">
         <v>1.63</v>
       </c>
     </row>
-    <row r="15" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
+    <row r="16" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
         <v>43109</v>
-      </c>
-      <c r="B15" s="2">
-        <v>-3.51</v>
-      </c>
-      <c r="C15" s="2">
-        <v>-3.11</v>
-      </c>
-      <c r="D15" s="2">
-        <v>-2.31</v>
-      </c>
-      <c r="E15" s="2">
-        <v>-2.34</v>
-      </c>
-      <c r="F15" s="2">
-        <v>-1.72</v>
-      </c>
-      <c r="G15" s="2">
-        <v>-0.82</v>
-      </c>
-      <c r="H15" s="2">
-        <v>-0.25</v>
-      </c>
-      <c r="I15" s="2">
-        <v>-1.66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
-        <v>43108</v>
       </c>
       <c r="B16" s="2">
         <f>SUM(B2:B15)</f>
+        <v>4.18</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-3.51</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-3.11</v>
+      </c>
+      <c r="E16" s="2">
+        <v>-2.31</v>
+      </c>
+      <c r="F16" s="2">
+        <v>-2.34</v>
+      </c>
+      <c r="G16" s="2">
+        <v>-1.72</v>
+      </c>
+      <c r="H16" s="2">
+        <v>-0.82</v>
+      </c>
+      <c r="I16" s="2">
+        <v>-0.25</v>
+      </c>
+      <c r="J16" s="2">
+        <v>-1.66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>43108</v>
+      </c>
+      <c r="C17" s="2">
+        <f>SUM(C3:C16)</f>
         <v>-15.48</v>
-      </c>
-      <c r="C16" s="2">
-        <f>SUM(C2:C15)</f>
-        <v>-28.82</v>
-      </c>
-      <c r="D16" s="2">
-        <v>-1.3</v>
-      </c>
-      <c r="E16" s="2">
-        <v>-1.1100000000000001</v>
-      </c>
-      <c r="F16" s="2">
-        <v>-0.92</v>
-      </c>
-      <c r="G16" s="2">
-        <v>-0.84</v>
-      </c>
-      <c r="H16" s="2">
-        <v>-1.61</v>
-      </c>
-      <c r="I16" s="2">
-        <v>-3.16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
-        <v>43107</v>
       </c>
       <c r="D17" s="2">
         <f>SUM(D3:D16)</f>
+        <v>-28.82</v>
+      </c>
+      <c r="E17" s="2">
+        <v>-1.3</v>
+      </c>
+      <c r="F17" s="2">
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="G17" s="2">
+        <v>-0.92</v>
+      </c>
+      <c r="H17" s="2">
+        <v>-0.84</v>
+      </c>
+      <c r="I17" s="2">
+        <v>-1.61</v>
+      </c>
+      <c r="J17" s="2">
+        <v>-3.16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>43107</v>
+      </c>
+      <c r="E18" s="2">
+        <f>SUM(E4:E17)</f>
         <v>-32.53</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F18" s="2">
         <v>6.29</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G18" s="2">
         <v>6.25</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H18" s="2">
         <v>5.26</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I18" s="2">
         <v>3.76</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J18" s="2">
         <v>2.85</v>
       </c>
     </row>
-    <row r="18" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
+    <row r="19" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
         <v>43106</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F19" s="2">
         <v>12.56</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G19" s="2">
         <v>12.6</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H19" s="2">
         <v>13.02</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I19" s="2">
         <v>12.61</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J19" s="2">
         <v>12.42</v>
       </c>
     </row>
-    <row r="19" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
+    <row r="20" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
         <v>43105</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F20" s="2">
         <v>12.51</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G20" s="2">
         <v>12.64</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H20" s="2">
         <v>13.24</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I20" s="2">
         <v>13.38</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J20" s="2">
         <v>13.55</v>
       </c>
     </row>
-    <row r="20" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
+    <row r="21" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
         <v>43104</v>
-      </c>
-      <c r="E20" s="2">
-        <f>SUM(E6:E19)</f>
-        <v>16.470000000000002</v>
-      </c>
-      <c r="F20" s="2">
-        <v>11.71</v>
-      </c>
-      <c r="G20" s="2">
-        <v>11.91</v>
-      </c>
-      <c r="H20" s="2">
-        <v>11.84</v>
-      </c>
-      <c r="I20" s="2">
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
-        <v>43103</v>
       </c>
       <c r="F21" s="2">
         <f>SUM(F7:F20)</f>
+        <v>16.470000000000002</v>
+      </c>
+      <c r="G21" s="2">
+        <v>11.71</v>
+      </c>
+      <c r="H21" s="2">
+        <v>11.91</v>
+      </c>
+      <c r="I21" s="2">
+        <v>11.84</v>
+      </c>
+      <c r="J21" s="2">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>43103</v>
+      </c>
+      <c r="G22" s="2">
+        <f>SUM(G8:G21)</f>
         <v>35.909999999999997</v>
       </c>
-      <c r="G21" s="2">
-        <f>SUM(G7:G20)</f>
-        <v>49.22</v>
-      </c>
-      <c r="H21" s="2">
-        <v>10.97</v>
-      </c>
-      <c r="I21" s="2">
-        <v>10.72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H22" s="2">
         <f>SUM(H8:H21)</f>
+        <v>49.22</v>
+      </c>
+      <c r="I22" s="2">
+        <v>10.97</v>
+      </c>
+      <c r="J22" s="2">
+        <v>10.72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I23" s="2">
+        <f>SUM(I9:I22)</f>
         <v>60.58</v>
       </c>
-      <c r="I22" s="2">
-        <f>SUM(I8:I21)</f>
+      <c r="J23" s="2">
+        <f>SUM(J9:J22)</f>
         <v>59.83</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="H8:I21">
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="I9:J22">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:I22">
+    <cfRule type="cellIs" dxfId="37" priority="33" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="34" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:H21">
+    <cfRule type="cellIs" dxfId="35" priority="31" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="32" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2636,7 +2948,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:G20">
+  <conditionalFormatting sqref="G8:G21">
     <cfRule type="cellIs" dxfId="31" priority="27" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -2644,7 +2956,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:G20">
+  <conditionalFormatting sqref="G8:G21">
     <cfRule type="cellIs" dxfId="29" priority="25" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -2652,7 +2964,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F20">
+  <conditionalFormatting sqref="F11:F20">
     <cfRule type="cellIs" dxfId="27" priority="23" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -2660,7 +2972,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F20">
+  <conditionalFormatting sqref="F11:F20">
     <cfRule type="cellIs" dxfId="25" priority="21" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -2668,7 +2980,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E19">
+  <conditionalFormatting sqref="E4:F10">
     <cfRule type="cellIs" dxfId="23" priority="19" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -2676,7 +2988,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E19">
+  <conditionalFormatting sqref="E4:F10">
     <cfRule type="cellIs" dxfId="21" priority="17" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -2684,7 +2996,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:E9">
+  <conditionalFormatting sqref="E11:E17">
     <cfRule type="cellIs" dxfId="19" priority="15" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -2692,7 +3004,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:E9">
+  <conditionalFormatting sqref="E11:E17">
     <cfRule type="cellIs" dxfId="17" priority="13" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -2700,7 +3012,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D16">
+  <conditionalFormatting sqref="D3:D16">
     <cfRule type="cellIs" dxfId="15" priority="11" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -2708,7 +3020,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D16">
+  <conditionalFormatting sqref="D3:D16">
     <cfRule type="cellIs" dxfId="13" priority="9" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -2716,7 +3028,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C15">
+  <conditionalFormatting sqref="C3:C16">
     <cfRule type="cellIs" dxfId="11" priority="7" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -2724,7 +3036,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C15">
+  <conditionalFormatting sqref="C3:C16">
     <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>

--- a/GFS/GFS.xlsx
+++ b/GFS/GFS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GFS-HDD" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>2018-01-02 12z</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>2018-01-10 00z</t>
+  </si>
+  <si>
+    <t>2018-01-11 12z</t>
+  </si>
+  <si>
+    <t>2018-01-11 00z</t>
   </si>
 </sst>
 </file>
@@ -177,7 +183,75 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="88">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -1160,60 +1234,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="E17:J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>43125</v>
+        <v>43126</v>
       </c>
       <c r="B2" s="2">
-        <v>-6.08</v>
+        <v>-3.84</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1223,16 +1300,17 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>43124</v>
+        <v>43125</v>
       </c>
       <c r="B3" s="2">
-        <v>-1.9</v>
+        <v>-0.33</v>
       </c>
       <c r="C3" s="2">
-        <v>5.57</v>
+        <v>-6.08</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1241,665 +1319,735 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>43123</v>
+        <v>43124</v>
       </c>
       <c r="B4" s="2">
-        <v>-0.34</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="C4" s="2">
-        <v>6.14</v>
+        <v>-1.9</v>
       </c>
       <c r="D4" s="2">
-        <v>3.69</v>
-      </c>
-      <c r="E4" s="2">
-        <v>-0.26</v>
-      </c>
+        <v>5.57</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
+        <v>43123</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-0.34</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6.14</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3.69</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-0.26</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
         <v>43122</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="2">
+        <v>-0.64</v>
+      </c>
+      <c r="C6" s="2">
         <v>-3.93</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D6" s="2">
         <v>2.0299999999999998</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E6" s="2">
         <v>4.8899999999999997</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F6" s="2">
         <v>4.21</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G6" s="2">
         <v>1.91</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>43121</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2">
+        <v>-4.88</v>
+      </c>
+      <c r="C7" s="2">
         <v>-8.11</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D7" s="2">
         <v>-6.26</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E7" s="2">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F7" s="2">
         <v>2.71</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G7" s="2">
         <v>-0.15</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>43120</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2">
+        <v>-5.29</v>
+      </c>
+      <c r="C8" s="2">
         <v>-10.65</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D8" s="2">
         <v>-9.06</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E8" s="2">
         <v>-5.0999999999999996</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F8" s="2">
         <v>-4.7300000000000004</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G8" s="2">
         <v>-0.85</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>43119</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="2">
+        <v>2.34</v>
+      </c>
+      <c r="C9" s="2">
         <v>-8.5500000000000007</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D9" s="2">
         <v>-5.84</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E9" s="2">
         <v>-5.59</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F9" s="2">
         <v>-7.41</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G9" s="2">
         <v>3.11</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H9" s="2">
         <v>-10.98</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I9" s="2">
         <v>-10.28</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>43118</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
+        <v>8.81</v>
+      </c>
+      <c r="C10" s="2">
         <v>-1.61</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D10" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E10" s="2">
         <v>-2.06</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F10" s="2">
         <v>-8.9499999999999993</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G10" s="2">
         <v>6.76</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H10" s="2">
         <v>-10.48</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I10" s="2">
         <v>-6.81</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J10" s="2">
         <v>-9.3699999999999992</v>
       </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
         <v>43117</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
+        <v>9.69</v>
+      </c>
+      <c r="C11" s="2">
         <v>5.99</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D11" s="2">
         <v>7.69</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E11" s="2">
         <v>6.01</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F11" s="2">
         <v>-8.8699999999999992</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G11" s="2">
         <v>1.81</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H11" s="2">
         <v>-8.9</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I11" s="2">
         <v>-0.99</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J11" s="2">
         <v>-8.0299999999999994</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K11" s="2">
         <v>-6.55</v>
       </c>
     </row>
-    <row r="11" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+    <row r="12" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
         <v>43116</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
+        <v>6.82</v>
+      </c>
+      <c r="C12" s="2">
         <v>6.75</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D12" s="2">
         <v>7.21</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E12" s="2">
         <v>7.9</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F12" s="2">
         <v>-2.0099999999999998</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G12" s="2">
         <v>4.46</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H12" s="2">
         <v>-4.1100000000000003</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I12" s="2">
         <v>3.95</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J12" s="2">
         <v>-6.26</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K12" s="2">
         <v>-3.58</v>
       </c>
     </row>
-    <row r="12" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+    <row r="13" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
         <v>43115</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
+        <v>3.69</v>
+      </c>
+      <c r="C13" s="2">
         <v>5.03</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D13" s="2">
         <v>5.91</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E13" s="2">
         <v>6.24</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F13" s="2">
         <v>6.49</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G13" s="2">
         <v>9.85</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H13" s="2">
         <v>-1.5</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I13" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J13" s="2">
         <v>-2.0099999999999998</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K13" s="2">
         <v>-0.43</v>
       </c>
     </row>
-    <row r="13" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
+    <row r="14" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
         <v>43114</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
+        <v>6.47</v>
+      </c>
+      <c r="C14" s="2">
         <v>6.5</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D14" s="2">
         <v>7.16</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E14" s="2">
         <v>6.74</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F14" s="2">
         <v>9.66</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G14" s="2">
         <v>9.44</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H14" s="2">
         <v>-1.01</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I14" s="2">
         <v>2.29</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J14" s="2">
         <v>-0.09</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K14" s="2">
         <v>1.26</v>
       </c>
     </row>
-    <row r="14" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
+    <row r="15" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
         <v>43113</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="2">
+        <v>4.21</v>
+      </c>
+      <c r="C15" s="2">
         <v>2.48</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D15" s="2">
         <v>2.2599999999999998</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E15" s="2">
         <v>2.66</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F15" s="2">
         <v>4.0599999999999996</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G15" s="2">
         <v>2.95</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H15" s="2">
         <v>-0.66</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I15" s="2">
         <v>2.5299999999999998</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J15" s="2">
         <v>-1.43</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K15" s="2">
         <v>5.64</v>
       </c>
     </row>
-    <row r="15" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
+    <row r="16" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
         <v>43112</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="2">
+        <v>-3.55</v>
+      </c>
+      <c r="C16" s="2">
         <v>-4.12</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D16" s="2">
         <v>-4.38</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E16" s="2">
         <v>-3.93</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F16" s="2">
         <v>-3.42</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G16" s="2">
         <v>-3.84</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H16" s="2">
         <v>2.38</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I16" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J16" s="2">
         <v>-3.52</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K16" s="2">
         <v>4.54</v>
       </c>
     </row>
-    <row r="16" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
+    <row r="17" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
         <v>43111</v>
-      </c>
-      <c r="B16" s="2">
-        <v>-9.23</v>
-      </c>
-      <c r="C16" s="2">
-        <v>-8.7799999999999994</v>
-      </c>
-      <c r="D16" s="2">
-        <v>-8.61</v>
-      </c>
-      <c r="E16" s="2">
-        <v>-8.68</v>
-      </c>
-      <c r="F16" s="2">
-        <v>-8.33</v>
-      </c>
-      <c r="G16" s="2">
-        <v>-4.13</v>
-      </c>
-      <c r="H16" s="2">
-        <v>-4.57</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.31</v>
-      </c>
-      <c r="J16" s="2">
-        <v>-1.06</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
-        <v>43110</v>
       </c>
       <c r="B17" s="7">
         <f>SUM(B2:B16)</f>
-        <v>-27.77</v>
+        <v>31.37</v>
       </c>
       <c r="C17" s="2">
-        <v>-6.68</v>
+        <v>-9.23</v>
       </c>
       <c r="D17" s="2">
-        <v>-6.92</v>
+        <v>-8.7799999999999994</v>
       </c>
       <c r="E17" s="2">
-        <v>-7.18</v>
+        <v>-8.61</v>
       </c>
       <c r="F17" s="2">
-        <v>-6.81</v>
+        <v>-8.68</v>
       </c>
       <c r="G17" s="2">
-        <v>-3.96</v>
+        <v>-8.33</v>
       </c>
       <c r="H17" s="2">
-        <v>-2.85</v>
+        <v>-4.13</v>
       </c>
       <c r="I17" s="2">
-        <v>2.44</v>
+        <v>-4.57</v>
       </c>
       <c r="J17" s="2">
-        <v>3.01</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.31</v>
+      </c>
+      <c r="K17" s="2">
+        <v>-1.06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>43109</v>
-      </c>
-      <c r="B18" s="8"/>
+        <v>43110</v>
+      </c>
       <c r="C18" s="7">
         <f>SUM(C3:C17)</f>
-        <v>4.1200000000000028</v>
+        <v>-27.77</v>
       </c>
       <c r="D18" s="2">
-        <v>-4.1500000000000004</v>
+        <v>-6.68</v>
       </c>
       <c r="E18" s="2">
-        <v>-3.79</v>
+        <v>-6.92</v>
       </c>
       <c r="F18" s="2">
-        <v>-3.69</v>
+        <v>-7.18</v>
       </c>
       <c r="G18" s="2">
-        <v>-2.52</v>
+        <v>-6.81</v>
       </c>
       <c r="H18" s="2">
-        <v>-2.36</v>
+        <v>-3.96</v>
       </c>
       <c r="I18" s="2">
-        <v>-3.49</v>
+        <v>-2.85</v>
       </c>
       <c r="J18" s="2">
-        <v>-3.86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2.44</v>
+      </c>
+      <c r="K18" s="2">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>43108</v>
-      </c>
-      <c r="B19" s="8"/>
+        <v>43109</v>
+      </c>
       <c r="C19" s="8"/>
       <c r="D19" s="7">
         <f>SUM(D4:D18)</f>
-        <v>1.1999999999999993</v>
-      </c>
-      <c r="E19" s="7">
-        <f>SUM(E4:E18)</f>
-        <v>-28.169999999999991</v>
+        <v>4.1200000000000028</v>
+      </c>
+      <c r="E19" s="2">
+        <v>-4.1500000000000004</v>
       </c>
       <c r="F19" s="2">
-        <v>-1.91</v>
+        <v>-3.79</v>
       </c>
       <c r="G19" s="2">
-        <v>-3.15</v>
+        <v>-3.69</v>
       </c>
       <c r="H19" s="2">
-        <v>-3.31</v>
+        <v>-2.52</v>
       </c>
       <c r="I19" s="2">
-        <v>-2.99</v>
+        <v>-2.36</v>
       </c>
       <c r="J19" s="2">
-        <v>-5.51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-3.49</v>
+      </c>
+      <c r="K19" s="2">
+        <v>-3.86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>43107</v>
-      </c>
-      <c r="B20" s="8"/>
+        <v>43108</v>
+      </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
+      <c r="E20" s="7">
+        <f>SUM(E5:E19)</f>
+        <v>1.1999999999999993</v>
+      </c>
       <c r="F20" s="7">
         <f>SUM(F5:F19)</f>
-        <v>14.710000000000004</v>
+        <v>-28.169999999999991</v>
       </c>
       <c r="G20" s="2">
-        <v>2.94</v>
+        <v>-1.91</v>
       </c>
       <c r="H20" s="2">
-        <v>3.32</v>
+        <v>-3.15</v>
       </c>
       <c r="I20" s="2">
-        <v>3.79</v>
+        <v>-3.31</v>
       </c>
       <c r="J20" s="2">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-2.99</v>
+      </c>
+      <c r="K20" s="2">
+        <v>-5.51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>43106</v>
-      </c>
-      <c r="B21" s="8"/>
+        <v>43107</v>
+      </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="G21" s="2">
-        <v>9.02</v>
+      <c r="E21" s="8"/>
+      <c r="G21" s="7">
+        <f>SUM(G6:G20)</f>
+        <v>14.710000000000004</v>
       </c>
       <c r="H21" s="2">
-        <v>9.2799999999999994</v>
+        <v>2.94</v>
       </c>
       <c r="I21" s="2">
-        <v>9.9600000000000009</v>
+        <v>3.32</v>
       </c>
       <c r="J21" s="2">
-        <v>9.36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3.79</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <v>43105</v>
-      </c>
-      <c r="B22" s="8"/>
+        <v>43106</v>
+      </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="G22" s="2">
-        <v>9.92</v>
-      </c>
+      <c r="E22" s="8"/>
       <c r="H22" s="2">
-        <v>10.26</v>
+        <v>9.02</v>
       </c>
       <c r="I22" s="2">
-        <v>10.46</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="J22" s="2">
-        <v>10.94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="K22" s="2">
+        <v>9.36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <v>43104</v>
-      </c>
-      <c r="B23" s="8"/>
+        <v>43105</v>
+      </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="G23" s="7">
-        <f>SUM(G8:G22)</f>
-        <v>-27.14</v>
-      </c>
-      <c r="H23" s="7">
-        <f>SUM(H8:H22)</f>
-        <v>2.7300000000000004</v>
+      <c r="E23" s="8"/>
+      <c r="H23" s="2">
+        <v>9.92</v>
       </c>
       <c r="I23" s="2">
-        <v>10.199999999999999</v>
+        <v>10.26</v>
       </c>
       <c r="J23" s="2">
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+        <v>10.46</v>
+      </c>
+      <c r="K23" s="2">
+        <v>10.94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <v>43103</v>
-      </c>
-      <c r="B24" s="8"/>
+        <v>43104</v>
+      </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="I24" s="2">
+      <c r="E24" s="8"/>
+      <c r="H24" s="7">
+        <f>SUM(H9:H23)</f>
+        <v>-27.14</v>
+      </c>
+      <c r="I24" s="7">
         <f>SUM(I9:I23)</f>
-        <v>-2.9999999999997584E-2</v>
+        <v>2.7300000000000004</v>
       </c>
       <c r="J24" s="2">
-        <v>9.6300000000000008</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="8"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K24" s="2">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>43103</v>
+      </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="I25" s="7"/>
+      <c r="E25" s="8"/>
       <c r="J25" s="2">
         <f>SUM(J10:J24)</f>
+        <v>-2.9999999999997584E-2</v>
+      </c>
+      <c r="K25" s="2">
+        <v>9.6300000000000008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="2">
+        <f>SUM(K11:K25)</f>
         <v>35.020000000000003</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="K11:K25">
+    <cfRule type="cellIs" dxfId="83" priority="23" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="24" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J10:J24">
-    <cfRule type="cellIs" dxfId="75" priority="21" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="22" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="81" priority="21" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="22" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I23">
-    <cfRule type="cellIs" dxfId="73" priority="19" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="20" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H22">
-    <cfRule type="cellIs" dxfId="71" priority="17" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="18" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G22">
-    <cfRule type="cellIs" dxfId="69" priority="15" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="16" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F19 F21:F22">
-    <cfRule type="cellIs" dxfId="67" priority="13" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="14" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:H18 E21:H22 F19:H19 E20 G20:H20 E24:H1048576 E23:F23">
-    <cfRule type="cellIs" dxfId="65" priority="11" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="12" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E24">
-    <cfRule type="cellIs" dxfId="63" priority="9" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="10" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E24">
-    <cfRule type="cellIs" dxfId="61" priority="7" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="79" priority="19" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="20" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H23">
+    <cfRule type="cellIs" dxfId="77" priority="17" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="18" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G20 G22:G23">
+    <cfRule type="cellIs" dxfId="75" priority="15" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="16" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:I19 F22:I23 G20:I20 F21 H21:I21 F25:I1048576 F24:G24">
+    <cfRule type="cellIs" dxfId="73" priority="13" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="14" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21:F25">
+    <cfRule type="cellIs" dxfId="71" priority="11" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="12" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21:F25">
+    <cfRule type="cellIs" dxfId="69" priority="9" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="10" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E19">
+    <cfRule type="cellIs" dxfId="67" priority="7" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="8" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D18">
-    <cfRule type="cellIs" dxfId="59" priority="5" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="65" priority="5" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="6" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C17">
-    <cfRule type="cellIs" dxfId="57" priority="3" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="63" priority="3" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="4" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B16">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="61" priority="1" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1910,406 +2058,468 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
+        <v>43119</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2.86</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
         <v>43118</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="2">
+        <v>7.07</v>
+      </c>
+      <c r="C3" s="2">
         <v>7.46</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>43117</v>
-      </c>
-      <c r="B3" s="2">
-        <v>10.86</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.76</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0.89</v>
-      </c>
+      <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>43116</v>
+        <v>43117</v>
       </c>
       <c r="B4" s="2">
-        <v>7.13</v>
+        <v>10.08</v>
       </c>
       <c r="C4" s="2">
-        <v>5.74</v>
+        <v>10.86</v>
       </c>
       <c r="D4" s="2">
-        <v>7.57</v>
-      </c>
-      <c r="E4" s="9"/>
+        <v>1.76</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.89</v>
+      </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>43115</v>
+        <v>43116</v>
       </c>
       <c r="B5" s="2">
-        <v>6.05</v>
+        <v>8.44</v>
       </c>
       <c r="C5" s="2">
-        <v>7.93</v>
+        <v>7.13</v>
       </c>
       <c r="D5" s="2">
-        <v>9.86</v>
-      </c>
-      <c r="E5" s="9"/>
+        <v>5.74</v>
+      </c>
+      <c r="E5" s="2">
+        <v>7.57</v>
+      </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>43114</v>
+        <v>43115</v>
       </c>
       <c r="B6" s="2">
-        <v>9.1999999999999993</v>
+        <v>6.11</v>
       </c>
       <c r="C6" s="2">
-        <v>10.050000000000001</v>
+        <v>6.05</v>
       </c>
       <c r="D6" s="2">
-        <v>9.44</v>
-      </c>
-      <c r="E6" s="9"/>
+        <v>7.93</v>
+      </c>
+      <c r="E6" s="2">
+        <v>9.86</v>
+      </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <v>43113</v>
+        <v>43114</v>
       </c>
       <c r="B7" s="2">
-        <v>6.02</v>
+        <v>9.24</v>
       </c>
       <c r="C7" s="2">
-        <v>2.97</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D7" s="2">
-        <v>2.96</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="E7" s="2">
-        <v>1.19</v>
+        <v>9.44</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
+        <v>43113</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6.25</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6.02</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2.97</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.96</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1.19</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>43112</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="2">
+        <v>-2.56</v>
+      </c>
+      <c r="C9" s="2">
         <v>-2.54</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D9" s="2">
         <v>-4.29</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E9" s="2">
         <v>-4.58</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F9" s="2">
         <v>-1.76</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G9" s="2">
         <v>-3.11</v>
       </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>43111</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
+        <v>-9.0299999999999994</v>
+      </c>
+      <c r="C10" s="2">
         <v>-9.01</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D10" s="2">
         <v>-8.25</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E10" s="2">
         <v>-8.76</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F10" s="2">
         <v>-5.31</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G10" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H10" s="2">
         <v>-2.5099999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
         <v>43110</v>
-      </c>
-      <c r="B10" s="2">
-        <v>-5.97</v>
-      </c>
-      <c r="C10" s="2">
-        <v>-5.99</v>
-      </c>
-      <c r="D10" s="2">
-        <v>-5.99</v>
-      </c>
-      <c r="E10" s="2">
-        <v>-1.89</v>
-      </c>
-      <c r="F10" s="2">
-        <v>4.54</v>
-      </c>
-      <c r="G10" s="2">
-        <v>-1.19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>43109</v>
       </c>
       <c r="B11" s="2">
         <f>SUM(B2:B10)</f>
-        <v>29.200000000000003</v>
+        <v>38.459999999999994</v>
       </c>
       <c r="C11" s="2">
-        <v>-3.68</v>
+        <v>-5.97</v>
       </c>
       <c r="D11" s="2">
-        <v>-3.28</v>
+        <v>-5.99</v>
       </c>
       <c r="E11" s="2">
-        <v>-1.65</v>
+        <v>-5.99</v>
       </c>
       <c r="F11" s="2">
-        <v>0.2</v>
+        <v>-1.89</v>
       </c>
       <c r="G11" s="2">
-        <v>-3.22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
-        <v>43108</v>
-      </c>
-      <c r="B12" s="10"/>
+        <v>4.54</v>
+      </c>
+      <c r="H11" s="2">
+        <v>-1.19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>43109</v>
+      </c>
+      <c r="B12" s="6"/>
       <c r="C12" s="2">
         <f>SUM(C3:C11)</f>
+        <v>29.200000000000003</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-3.68</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-3.28</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-1.65</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>-3.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>43108</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="2">
+        <f>SUM(D4:D12)</f>
         <v>6.24</v>
       </c>
-      <c r="D12" s="2">
-        <f>SUM(D3:D11)</f>
+      <c r="E13" s="2">
+        <f>SUM(E4:E12)</f>
         <v>8.110000000000003</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F13" s="2">
         <v>-1.07</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G13" s="2">
         <v>0.27</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H13" s="2">
         <v>-4.05</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
         <v>43107</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="2">
+      <c r="B14" s="6"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="2">
         <v>6.26</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G14" s="2">
         <v>5.21</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H14" s="2">
         <v>3.07</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
         <v>43106</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2">
+      <c r="B15" s="5"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
         <v>12.27</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G15" s="2">
         <v>12.63</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H15" s="2">
         <v>11.89</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
         <v>43105</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2">
+      <c r="B16" s="6"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
         <v>12.23</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G16" s="2">
         <v>13.07</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H16" s="2">
         <v>13.07</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
         <v>43104</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2">
-        <f>SUM(E7:E15)</f>
-        <v>20.27</v>
-      </c>
-      <c r="F16" s="2">
-        <v>11.69</v>
-      </c>
-      <c r="G16" s="2">
-        <v>11.52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
-        <v>43103</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="2">
         <f>SUM(F8:F16)</f>
-        <v>47.05</v>
+        <v>20.27</v>
       </c>
       <c r="G17" s="2">
-        <v>10.27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+        <v>11.69</v>
+      </c>
+      <c r="H17" s="2">
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>43103</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="2">
         <f>SUM(G9:G17)</f>
+        <v>47.05</v>
+      </c>
+      <c r="H18" s="2">
+        <v>10.27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="2">
+        <f>SUM(H10:H18)</f>
         <v>38.85</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H10:H18">
+    <cfRule type="cellIs" dxfId="59" priority="15" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="16" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G9:G17">
-    <cfRule type="cellIs" dxfId="53" priority="13" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="57" priority="13" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="14" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F16">
-    <cfRule type="cellIs" dxfId="51" priority="11" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="12" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E15">
-    <cfRule type="cellIs" dxfId="49" priority="9" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="10" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D16">
-    <cfRule type="cellIs" dxfId="47" priority="7" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="8" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D11">
-    <cfRule type="cellIs" dxfId="45" priority="5" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="55" priority="11" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="12" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15:E17">
+    <cfRule type="cellIs" dxfId="53" priority="9" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="10" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E12">
+    <cfRule type="cellIs" dxfId="51" priority="7" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="8" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D12">
+    <cfRule type="cellIs" dxfId="49" priority="5" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="6" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C11">
-    <cfRule type="cellIs" dxfId="43" priority="3" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="47" priority="3" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="4" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B10">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2320,59 +2530,62 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="A15:J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" thickBottom="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="4" customWidth="1"/>
-    <col min="2" max="4" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="5" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>43123</v>
+        <v>43124</v>
       </c>
       <c r="B2" s="2">
-        <v>-2.2000000000000002</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2380,547 +2593,622 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>43122</v>
+        <v>43123</v>
       </c>
       <c r="B3" s="2">
-        <v>-2.04</v>
+        <v>-2.85</v>
       </c>
       <c r="C3" s="2">
-        <v>-2.93</v>
-      </c>
-      <c r="D3" s="2">
-        <v>-4.07</v>
-      </c>
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>43121</v>
+        <v>43122</v>
       </c>
       <c r="B4" s="2">
-        <v>-3.79</v>
+        <v>-2.2400000000000002</v>
       </c>
       <c r="C4" s="2">
-        <v>-5.67</v>
+        <v>-2.04</v>
       </c>
       <c r="D4" s="2">
-        <v>-6.47</v>
+        <v>-2.93</v>
       </c>
       <c r="E4" s="2">
-        <v>-6.17</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>-4.07</v>
+      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
+        <v>43121</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-4.5199999999999996</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-3.79</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-5.67</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-6.47</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-6.17</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
         <v>43120</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="2">
+        <v>-4.09</v>
+      </c>
+      <c r="C6" s="2">
         <v>-5.87</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D6" s="2">
         <v>-8.2200000000000006</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E6" s="2">
         <v>-8.6999999999999993</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F6" s="2">
         <v>-8.44</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="G6" s="2"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>43119</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="C7" s="2">
         <v>-1.1599999999999999</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D7" s="2">
         <v>-7.44</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E7" s="2">
         <v>-9.09</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F7" s="2">
         <v>-9.1</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="G7" s="2"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>43118</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2">
+        <v>7.21</v>
+      </c>
+      <c r="C8" s="2">
         <v>3.03</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D8" s="2">
         <v>-1.7</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E8" s="2">
         <v>-4.87</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F8" s="2">
         <v>-9.01</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G8" s="2">
         <v>-7.22</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>43117</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="2">
+        <v>10.73</v>
+      </c>
+      <c r="C9" s="2">
         <v>6.38</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D9" s="2">
         <v>4.28</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E9" s="2">
         <v>0.4</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F9" s="2">
         <v>-1.77</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G9" s="2">
         <v>-4.34</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H9" s="2">
         <v>-5.25</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+      <c r="I9" s="2"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>43116</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
+        <v>8.81</v>
+      </c>
+      <c r="C10" s="2">
         <v>6.04</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D10" s="2">
         <v>7.11</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E10" s="2">
         <v>5.13</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F10" s="2">
         <v>3.7</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G10" s="2">
         <v>-0.59</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H10" s="2">
         <v>-2.1</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I10" s="2">
         <v>-3.32</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J10" s="2">
         <v>-0.98</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K10" s="2">
         <v>-0.21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+    <row r="11" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
         <v>43115</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="C11" s="2">
         <v>5.63</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D11" s="2">
         <v>7.99</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E11" s="2">
         <v>8.14</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F11" s="2">
         <v>7.99</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G11" s="2">
         <v>2.73</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H11" s="2">
         <v>1.07</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I11" s="2">
         <v>0.05</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J11" s="2">
         <v>1.6</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K11" s="2">
         <v>2.48</v>
       </c>
     </row>
-    <row r="11" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+    <row r="12" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
         <v>43114</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C12" s="2">
         <v>9.08</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D12" s="2">
         <v>9.26</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E12" s="2">
         <v>8.92</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F12" s="2">
         <v>8.39</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G12" s="2">
         <v>4.32</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H12" s="2">
         <v>3.59</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I12" s="2">
         <v>2.62</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J12" s="2">
         <v>3.37</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K12" s="2">
         <v>4.62</v>
       </c>
     </row>
-    <row r="12" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+    <row r="13" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
         <v>43113</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
+        <v>6.31</v>
+      </c>
+      <c r="C13" s="2">
         <v>6.3</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D13" s="2">
         <v>3.06</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E13" s="2">
         <v>3.02</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F13" s="2">
         <v>2.16</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G13" s="2">
         <v>2.4700000000000002</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H13" s="2">
         <v>3.63</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I13" s="2">
         <v>2.06</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J13" s="2">
         <v>2.59</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K13" s="2">
         <v>3.75</v>
       </c>
     </row>
-    <row r="13" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
+    <row r="14" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
         <v>43112</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
         <v>-2.56</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2">
+        <v>-2.56</v>
+      </c>
+      <c r="D14" s="2">
         <v>-4</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E14" s="2">
         <v>-3.95</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F14" s="2">
         <v>-4.3099999999999996</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G14" s="2">
         <v>-0.08</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H14" s="2">
         <v>0.46</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I14" s="2">
         <v>1.44</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J14" s="2">
         <v>1.58</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K14" s="2">
         <v>0.86</v>
       </c>
     </row>
-    <row r="14" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
+    <row r="15" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
         <v>43111</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="2">
+        <v>-8.9700000000000006</v>
+      </c>
+      <c r="C15" s="2">
         <v>-8.75</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D15" s="2">
         <v>-8.1300000000000008</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E15" s="2">
         <v>-8.5299999999999994</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F15" s="2">
         <v>-7.86</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G15" s="2">
         <v>-5.05</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H15" s="2">
         <v>-3.31</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I15" s="2">
         <v>2.34</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J15" s="2">
         <v>0.63</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K15" s="2">
         <v>0.08</v>
       </c>
     </row>
-    <row r="15" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
+    <row r="16" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
         <v>43110</v>
-      </c>
-      <c r="B15" s="2">
-        <v>-5.91</v>
-      </c>
-      <c r="C15" s="2">
-        <v>-5.58</v>
-      </c>
-      <c r="D15" s="2">
-        <v>-5.64</v>
-      </c>
-      <c r="E15" s="2">
-        <v>-4.5</v>
-      </c>
-      <c r="F15" s="2">
-        <v>-3.68</v>
-      </c>
-      <c r="G15" s="2">
-        <v>-2.74</v>
-      </c>
-      <c r="H15" s="2">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1.63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
-        <v>43109</v>
       </c>
       <c r="B16" s="2">
         <f>SUM(B2:B15)</f>
-        <v>4.18</v>
+        <v>20.550000000000004</v>
       </c>
       <c r="C16" s="2">
-        <v>-3.51</v>
+        <v>-5.91</v>
       </c>
       <c r="D16" s="2">
-        <v>-3.11</v>
+        <v>-5.58</v>
       </c>
       <c r="E16" s="2">
-        <v>-2.31</v>
+        <v>-5.64</v>
       </c>
       <c r="F16" s="2">
-        <v>-2.34</v>
+        <v>-4.5</v>
       </c>
       <c r="G16" s="2">
-        <v>-1.72</v>
+        <v>-3.68</v>
       </c>
       <c r="H16" s="2">
-        <v>-0.82</v>
+        <v>-2.74</v>
       </c>
       <c r="I16" s="2">
-        <v>-0.25</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="J16" s="2">
-        <v>-1.66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>43108</v>
+        <v>43109</v>
       </c>
       <c r="C17" s="2">
         <f>SUM(C3:C16)</f>
+        <v>4.18</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-3.51</v>
+      </c>
+      <c r="E17" s="2">
+        <v>-3.11</v>
+      </c>
+      <c r="F17" s="2">
+        <v>-2.31</v>
+      </c>
+      <c r="G17" s="2">
+        <v>-2.34</v>
+      </c>
+      <c r="H17" s="2">
+        <v>-1.72</v>
+      </c>
+      <c r="I17" s="2">
+        <v>-0.82</v>
+      </c>
+      <c r="J17" s="2">
+        <v>-0.25</v>
+      </c>
+      <c r="K17" s="2">
+        <v>-1.66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>43108</v>
+      </c>
+      <c r="D18" s="2">
+        <f>SUM(D4:D17)</f>
         <v>-15.48</v>
-      </c>
-      <c r="D17" s="2">
-        <f>SUM(D3:D16)</f>
-        <v>-28.82</v>
-      </c>
-      <c r="E17" s="2">
-        <v>-1.3</v>
-      </c>
-      <c r="F17" s="2">
-        <v>-1.1100000000000001</v>
-      </c>
-      <c r="G17" s="2">
-        <v>-0.92</v>
-      </c>
-      <c r="H17" s="2">
-        <v>-0.84</v>
-      </c>
-      <c r="I17" s="2">
-        <v>-1.61</v>
-      </c>
-      <c r="J17" s="2">
-        <v>-3.16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
-        <v>43107</v>
       </c>
       <c r="E18" s="2">
         <f>SUM(E4:E17)</f>
+        <v>-28.82</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-1.3</v>
+      </c>
+      <c r="G18" s="2">
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="H18" s="2">
+        <v>-0.92</v>
+      </c>
+      <c r="I18" s="2">
+        <v>-0.84</v>
+      </c>
+      <c r="J18" s="2">
+        <v>-1.61</v>
+      </c>
+      <c r="K18" s="2">
+        <v>-3.16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>43107</v>
+      </c>
+      <c r="F19" s="2">
+        <f>SUM(F5:F18)</f>
         <v>-32.53</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G19" s="2">
         <v>6.29</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H19" s="2">
         <v>6.25</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I19" s="2">
         <v>5.26</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J19" s="2">
         <v>3.76</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K19" s="2">
         <v>2.85</v>
       </c>
     </row>
-    <row r="19" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
+    <row r="20" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
         <v>43106</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G20" s="2">
         <v>12.56</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H20" s="2">
         <v>12.6</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I20" s="2">
         <v>13.02</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J20" s="2">
         <v>12.61</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K20" s="2">
         <v>12.42</v>
       </c>
     </row>
-    <row r="20" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
+    <row r="21" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
         <v>43105</v>
       </c>
-      <c r="F20" s="2">
+      <c r="G21" s="2">
         <v>12.51</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H21" s="2">
         <v>12.64</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I21" s="2">
         <v>13.24</v>
       </c>
-      <c r="I20" s="2">
+      <c r="J21" s="2">
         <v>13.38</v>
       </c>
-      <c r="J20" s="2">
+      <c r="K21" s="2">
         <v>13.55</v>
       </c>
     </row>
-    <row r="21" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
+    <row r="22" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
         <v>43104</v>
-      </c>
-      <c r="F21" s="2">
-        <f>SUM(F7:F20)</f>
-        <v>16.470000000000002</v>
-      </c>
-      <c r="G21" s="2">
-        <v>11.71</v>
-      </c>
-      <c r="H21" s="2">
-        <v>11.91</v>
-      </c>
-      <c r="I21" s="2">
-        <v>11.84</v>
-      </c>
-      <c r="J21" s="2">
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
-        <v>43103</v>
       </c>
       <c r="G22" s="2">
         <f>SUM(G8:G21)</f>
+        <v>16.470000000000002</v>
+      </c>
+      <c r="H22" s="2">
+        <v>11.71</v>
+      </c>
+      <c r="I22" s="2">
+        <v>11.91</v>
+      </c>
+      <c r="J22" s="2">
+        <v>11.84</v>
+      </c>
+      <c r="K22" s="2">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>43103</v>
+      </c>
+      <c r="H23" s="2">
+        <f>SUM(H9:H22)</f>
         <v>35.909999999999997</v>
       </c>
-      <c r="H22" s="2">
-        <f>SUM(H8:H21)</f>
-        <v>49.22</v>
-      </c>
-      <c r="I22" s="2">
-        <v>10.97</v>
-      </c>
-      <c r="J22" s="2">
-        <v>10.72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I23" s="2">
         <f>SUM(I9:I22)</f>
+        <v>49.22</v>
+      </c>
+      <c r="J23" s="2">
+        <v>10.97</v>
+      </c>
+      <c r="K23" s="2">
+        <v>10.72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J24" s="2">
+        <f>SUM(J10:J23)</f>
         <v>60.58</v>
       </c>
-      <c r="J23" s="2">
-        <f>SUM(J9:J22)</f>
+      <c r="K24" s="2">
+        <f>SUM(K10:K23)</f>
         <v>59.83</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:11" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="I9:J22">
-    <cfRule type="cellIs" dxfId="39" priority="37" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="J10:K23">
+    <cfRule type="cellIs" dxfId="43" priority="41" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:J23">
+    <cfRule type="cellIs" dxfId="41" priority="37" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="38" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:I22">
+    <cfRule type="cellIs" dxfId="39" priority="35" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="36" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2932,7 +3220,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H21">
+  <conditionalFormatting sqref="H9:H22">
     <cfRule type="cellIs" dxfId="35" priority="31" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -2940,7 +3228,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H21">
+  <conditionalFormatting sqref="H9:H22">
     <cfRule type="cellIs" dxfId="33" priority="29" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -2948,7 +3236,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G21">
+  <conditionalFormatting sqref="G12:G21">
     <cfRule type="cellIs" dxfId="31" priority="27" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -2956,7 +3244,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G21">
+  <conditionalFormatting sqref="G12:G21">
     <cfRule type="cellIs" dxfId="29" priority="25" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -2964,7 +3252,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F20">
+  <conditionalFormatting sqref="F5:G11">
     <cfRule type="cellIs" dxfId="27" priority="23" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -2972,7 +3260,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F20">
+  <conditionalFormatting sqref="F5:G11">
     <cfRule type="cellIs" dxfId="25" priority="21" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -2980,7 +3268,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:F10">
+  <conditionalFormatting sqref="F12:F18">
     <cfRule type="cellIs" dxfId="23" priority="19" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -2988,7 +3276,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:F10">
+  <conditionalFormatting sqref="F12:F18">
     <cfRule type="cellIs" dxfId="21" priority="17" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -2996,7 +3284,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E17">
+  <conditionalFormatting sqref="E4:E17">
     <cfRule type="cellIs" dxfId="19" priority="15" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -3004,7 +3292,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E17">
+  <conditionalFormatting sqref="E4:E17">
     <cfRule type="cellIs" dxfId="17" priority="13" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -3012,7 +3300,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D16">
+  <conditionalFormatting sqref="D4:D17">
     <cfRule type="cellIs" dxfId="15" priority="11" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -3020,7 +3308,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D16">
+  <conditionalFormatting sqref="D4:D17">
     <cfRule type="cellIs" dxfId="13" priority="9" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>

--- a/GFS/GFS.xlsx
+++ b/GFS/GFS.xlsx
@@ -268,177 +268,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="344">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="324">
     <dxf>
       <font>
         <color auto="1"/>
@@ -3498,7 +3328,7 @@
   <dimension ref="A1:Z1098"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1" x14ac:dyDescent="0.35"/>
@@ -3602,7 +3432,9 @@
       <c r="A2" s="3">
         <v>43140</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2">
+        <v>-4.3600000000000003</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3632,7 +3464,9 @@
       <c r="A3" s="3">
         <v>43139</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2">
+        <v>-1.21</v>
+      </c>
       <c r="C3" s="2">
         <v>7.93</v>
       </c>
@@ -3664,7 +3498,9 @@
       <c r="A4" s="3">
         <v>43138</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <v>5.45</v>
+      </c>
       <c r="C4" s="2">
         <v>10.32</v>
       </c>
@@ -3700,7 +3536,9 @@
       <c r="A5" s="3">
         <v>43137</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>9.2799999999999994</v>
+      </c>
       <c r="C5" s="2">
         <v>4.09</v>
       </c>
@@ -3736,7 +3574,9 @@
       <c r="A6" s="3">
         <v>43136</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>9.67</v>
+      </c>
       <c r="C6" s="2">
         <v>1.95</v>
       </c>
@@ -3774,7 +3614,9 @@
       <c r="A7" s="3">
         <v>43135</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>7.68</v>
+      </c>
       <c r="C7" s="2">
         <v>4.79</v>
       </c>
@@ -3812,7 +3654,9 @@
       <c r="A8" s="3">
         <v>43134</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>6.42</v>
+      </c>
       <c r="C8" s="2">
         <v>4.22</v>
       </c>
@@ -3851,7 +3695,9 @@
       <c r="A9" s="3">
         <v>43133</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2">
+        <v>3.37</v>
+      </c>
       <c r="C9" s="2">
         <v>0.31</v>
       </c>
@@ -3895,7 +3741,9 @@
       <c r="A10" s="3">
         <v>43132</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <v>-1.72</v>
+      </c>
       <c r="C10" s="2">
         <v>-4.05</v>
       </c>
@@ -3941,7 +3789,9 @@
       <c r="A11" s="3">
         <v>43131</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <v>-1.67</v>
+      </c>
       <c r="C11" s="2">
         <v>-2.99</v>
       </c>
@@ -3989,7 +3839,9 @@
       <c r="A12" s="3">
         <v>43130</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <v>2.42</v>
+      </c>
       <c r="C12" s="2">
         <v>1.64</v>
       </c>
@@ -4247,9 +4099,9 @@
       <c r="A17" s="3">
         <v>43125</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="6">
         <f>SUM(B2:B16)</f>
-        <v>-23.270000000000003</v>
+        <v>12.060000000000004</v>
       </c>
       <c r="C17" s="2">
         <v>-2.2400000000000002</v>
@@ -4304,8 +4156,7 @@
       <c r="A18" s="3">
         <v>43124</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2">
+      <c r="C18" s="6">
         <f>SUM(C3:C17)</f>
         <v>2.8999999999999986</v>
       </c>
@@ -14364,458 +14215,458 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="Z25:Z39 F22:F23 F7:F20">
-    <cfRule type="cellIs" dxfId="335" priority="117" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="321" priority="117" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="118" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="320" priority="118" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y24:Y38">
-    <cfRule type="cellIs" dxfId="333" priority="115" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="319" priority="115" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="116" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="318" priority="116" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X23:X37">
-    <cfRule type="cellIs" dxfId="331" priority="113" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="317" priority="113" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="114" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="316" priority="114" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W23:W37">
-    <cfRule type="cellIs" dxfId="329" priority="111" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="315" priority="111" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="112" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="314" priority="112" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V20:V34 V36:V37">
-    <cfRule type="cellIs" dxfId="327" priority="109" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="313" priority="109" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="110" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="312" priority="110" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U19:X33 U36:X37 V34:X34 U35 W35:X35 U39:X43 U38:V38 U1099:X1048576 V44:X1098">
-    <cfRule type="cellIs" dxfId="325" priority="107" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="311" priority="107" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="108" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="310" priority="108" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U35:U39">
-    <cfRule type="cellIs" dxfId="323" priority="105" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="309" priority="105" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="106" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="308" priority="106" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U35:U39">
-    <cfRule type="cellIs" dxfId="321" priority="103" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="307" priority="103" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="104" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="306" priority="104" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19:T33">
-    <cfRule type="cellIs" dxfId="319" priority="101" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="305" priority="101" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="102" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="304" priority="102" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18:S32">
-    <cfRule type="cellIs" dxfId="317" priority="99" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="303" priority="99" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="100" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="302" priority="100" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17:R31">
-    <cfRule type="cellIs" dxfId="315" priority="97" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="301" priority="97" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="98" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="300" priority="98" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16:Q30">
-    <cfRule type="cellIs" dxfId="313" priority="95" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="299" priority="95" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="96" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="298" priority="96" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16:P29">
-    <cfRule type="cellIs" dxfId="311" priority="93" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="297" priority="93" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="94" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="296" priority="94" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30">
-    <cfRule type="cellIs" dxfId="309" priority="91" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="295" priority="91" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="92" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="294" priority="92" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R43">
-    <cfRule type="cellIs" dxfId="307" priority="67" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="293" priority="67" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="68" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="292" priority="68" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:Z29">
-    <cfRule type="cellIs" dxfId="305" priority="89" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="291" priority="89" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="90" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="290" priority="90" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O35:T42 O44:T44 O43:Q43 S43:T43">
-    <cfRule type="cellIs" dxfId="303" priority="87" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="289" priority="87" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="88" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="288" priority="88" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U44">
-    <cfRule type="cellIs" dxfId="301" priority="83" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="287" priority="83" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="84" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="286" priority="84" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:A53 M40:N53">
-    <cfRule type="cellIs" dxfId="299" priority="81" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="285" priority="81" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="82" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="284" priority="82" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P32:Q34">
-    <cfRule type="cellIs" dxfId="297" priority="75" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="283" priority="75" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="76" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="282" priority="76" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O31:O34">
-    <cfRule type="cellIs" dxfId="295" priority="77" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="281" priority="77" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="78" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="280" priority="78" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R33:R34">
-    <cfRule type="cellIs" dxfId="293" priority="73" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="279" priority="73" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="74" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="278" priority="74" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S34">
-    <cfRule type="cellIs" dxfId="291" priority="71" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="277" priority="71" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="72" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="276" priority="72" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O45:U1098">
-    <cfRule type="cellIs" dxfId="289" priority="69" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="275" priority="69" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="70" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="274" priority="70" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:N29">
-    <cfRule type="cellIs" dxfId="287" priority="65" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="273" priority="65" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="66" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="272" priority="66" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:M26 M28:M36">
-    <cfRule type="cellIs" dxfId="285" priority="63" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="271" priority="63" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="64" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="270" priority="64" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:M26 M28:M36">
-    <cfRule type="cellIs" dxfId="283" priority="61" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="269" priority="61" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="62" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="268" priority="62" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:L26 L28:L1048576">
-    <cfRule type="cellIs" dxfId="281" priority="59" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="267" priority="59" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="60" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="266" priority="60" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:L26 L28:L1048576">
-    <cfRule type="cellIs" dxfId="279" priority="57" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="265" priority="57" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="58" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="264" priority="58" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:K1048576">
-    <cfRule type="cellIs" dxfId="277" priority="55" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="263" priority="55" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="56" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="262" priority="56" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:K1048576">
-    <cfRule type="cellIs" dxfId="275" priority="53" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="261" priority="53" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="54" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="260" priority="54" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K25">
-    <cfRule type="cellIs" dxfId="273" priority="51" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="259" priority="51" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="52" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="258" priority="52" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K25">
-    <cfRule type="cellIs" dxfId="271" priority="49" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="257" priority="49" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="50" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="256" priority="50" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J24 J26:J28">
-    <cfRule type="cellIs" dxfId="269" priority="45" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="255" priority="45" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="46" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="254" priority="46" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J24 J26:J28">
-    <cfRule type="cellIs" dxfId="267" priority="47" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="253" priority="47" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="48" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="252" priority="48" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I22">
-    <cfRule type="cellIs" dxfId="265" priority="41" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="251" priority="41" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="42" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="250" priority="42" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I22">
-    <cfRule type="cellIs" dxfId="263" priority="43" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="249" priority="43" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="44" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="248" priority="44" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G22 H25:H28">
-    <cfRule type="cellIs" dxfId="261" priority="37" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="247" priority="37" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="38" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="246" priority="38" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G22 H25:H28">
-    <cfRule type="cellIs" dxfId="259" priority="39" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="245" priority="39" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="40" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="244" priority="40" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H22">
-    <cfRule type="cellIs" dxfId="257" priority="33" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="243" priority="33" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="34" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="242" priority="34" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H22">
-    <cfRule type="cellIs" dxfId="255" priority="35" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="241" priority="35" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="36" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="240" priority="36" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:I23">
-    <cfRule type="cellIs" dxfId="253" priority="29" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="239" priority="29" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="30" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="238" priority="30" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:I23">
-    <cfRule type="cellIs" dxfId="251" priority="31" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="237" priority="31" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="32" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="236" priority="32" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="249" priority="25" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="235" priority="25" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="234" priority="26" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="247" priority="27" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="233" priority="27" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="28" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="232" priority="28" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:E23">
-    <cfRule type="cellIs" dxfId="245" priority="21" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="231" priority="21" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="22" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="230" priority="22" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:E23">
-    <cfRule type="cellIs" dxfId="243" priority="23" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="229" priority="23" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="228" priority="24" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E18 E20">
-    <cfRule type="cellIs" dxfId="241" priority="17" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="227" priority="17" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="226" priority="18" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E18 E20">
-    <cfRule type="cellIs" dxfId="239" priority="19" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="225" priority="19" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="224" priority="20" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D18 D20:D23">
-    <cfRule type="cellIs" dxfId="237" priority="13" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="223" priority="13" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="222" priority="14" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D18 D20:D23">
-    <cfRule type="cellIs" dxfId="235" priority="15" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="221" priority="15" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="16" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="220" priority="16" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C23">
-    <cfRule type="cellIs" dxfId="233" priority="9" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="B2:C16 B19:C23 C17">
+    <cfRule type="cellIs" dxfId="219" priority="9" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="10" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="218" priority="10" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C23">
-    <cfRule type="cellIs" dxfId="231" priority="11" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="B2:C16 B19:C23 C17">
+    <cfRule type="cellIs" dxfId="217" priority="11" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="216" priority="12" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:G28">
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="215" priority="5" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="214" priority="6" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:G28">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="213" priority="7" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="212" priority="8" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:J84">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="211" priority="1" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="210" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:J84">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="209" priority="3" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="208" priority="4" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16278,258 +16129,258 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="W24:W32 H9:H17">
-    <cfRule type="cellIs" dxfId="229" priority="67" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="207" priority="67" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="68" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="206" priority="68" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V23:V31">
-    <cfRule type="cellIs" dxfId="227" priority="65" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="205" priority="65" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="66" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="204" priority="66" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U22:U30">
-    <cfRule type="cellIs" dxfId="225" priority="63" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="203" priority="63" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="64" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="202" priority="64" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17:R25">
-    <cfRule type="cellIs" dxfId="223" priority="55" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="201" priority="55" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="56" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="200" priority="56" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19:T26">
-    <cfRule type="cellIs" dxfId="221" priority="59" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="199" priority="59" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="60" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="198" priority="60" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18:S26">
-    <cfRule type="cellIs" dxfId="219" priority="57" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="197" priority="57" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="58" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="196" priority="58" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16:Q24">
-    <cfRule type="cellIs" dxfId="217" priority="53" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="195" priority="53" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="54" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="194" priority="54" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23">
-    <cfRule type="cellIs" dxfId="215" priority="51" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="193" priority="51" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="52" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="192" priority="52" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P32:U32">
-    <cfRule type="cellIs" dxfId="213" priority="49" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="191" priority="49" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="50" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="190" priority="50" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31:T31 P28:Q30 S28:T30">
-    <cfRule type="cellIs" dxfId="211" priority="47" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="189" priority="47" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="48" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="188" priority="48" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P26:Q27">
-    <cfRule type="cellIs" dxfId="209" priority="45" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="187" priority="45" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="46" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="186" priority="46" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R27:R30">
-    <cfRule type="cellIs" dxfId="207" priority="43" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="185" priority="43" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="44" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="184" priority="44" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15:P22">
-    <cfRule type="cellIs" dxfId="205" priority="41" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="183" priority="41" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="42" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="182" priority="42" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16:O23 O25:O36">
-    <cfRule type="cellIs" dxfId="203" priority="39" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="181" priority="39" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="40" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="180" priority="40" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14:N22">
-    <cfRule type="cellIs" dxfId="201" priority="37" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="179" priority="37" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="38" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="178" priority="38" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:M22">
-    <cfRule type="cellIs" dxfId="199" priority="35" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="177" priority="35" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="36" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="176" priority="36" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14:L19 L21:L24">
-    <cfRule type="cellIs" dxfId="197" priority="33" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="175" priority="33" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="34" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="174" priority="34" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K19 K21:K1048576">
-    <cfRule type="cellIs" dxfId="195" priority="31" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="173" priority="31" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="32" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="172" priority="32" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J18 J20:J38">
-    <cfRule type="cellIs" dxfId="193" priority="29" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="171" priority="29" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="30" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="170" priority="30" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I18 I20:I23 G22:L34">
-    <cfRule type="cellIs" dxfId="191" priority="27" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="169" priority="27" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="28" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="168" priority="28" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H28">
-    <cfRule type="cellIs" dxfId="189" priority="25" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="167" priority="25" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="166" priority="26" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G15 G17:G22">
-    <cfRule type="cellIs" dxfId="187" priority="23" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="165" priority="23" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="164" priority="24" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24:N34">
-    <cfRule type="cellIs" dxfId="185" priority="21" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="163" priority="21" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="22" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="162" priority="22" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24:N34">
-    <cfRule type="cellIs" dxfId="183" priority="19" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="161" priority="19" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="160" priority="20" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F13 F15:F16">
-    <cfRule type="cellIs" dxfId="181" priority="17" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="159" priority="17" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="158" priority="18" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E11">
-    <cfRule type="cellIs" dxfId="179" priority="15" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="157" priority="15" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="16" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="156" priority="16" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D16">
-    <cfRule type="cellIs" dxfId="177" priority="13" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="155" priority="13" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="154" priority="14" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D11">
-    <cfRule type="cellIs" dxfId="175" priority="11" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="153" priority="11" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="152" priority="12" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:F40">
-    <cfRule type="cellIs" dxfId="173" priority="9" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="151" priority="9" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="10" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="150" priority="10" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C10 C12">
-    <cfRule type="cellIs" dxfId="171" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="149" priority="5" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="148" priority="6" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B10 B12">
-    <cfRule type="cellIs" dxfId="167" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="147" priority="3" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="146" priority="4" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:C33">
-    <cfRule type="cellIs" dxfId="165" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="145" priority="1" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="144" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33671,578 +33522,578 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="Z25:AA38">
-    <cfRule type="cellIs" dxfId="163" priority="153" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="143" priority="153" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="154" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="142" priority="154" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z25:Z38">
-    <cfRule type="cellIs" dxfId="161" priority="149" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="141" priority="149" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="150" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="140" priority="150" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y24:Y37">
-    <cfRule type="cellIs" dxfId="159" priority="147" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="139" priority="147" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="148" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="138" priority="148" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y24:Y37">
-    <cfRule type="cellIs" dxfId="157" priority="145" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="137" priority="145" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="146" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="136" priority="146" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X24:X37">
-    <cfRule type="cellIs" dxfId="155" priority="143" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="135" priority="143" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="144" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="134" priority="144" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X24:X37">
-    <cfRule type="cellIs" dxfId="153" priority="141" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="133" priority="141" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="142" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="132" priority="142" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W27:W36">
-    <cfRule type="cellIs" dxfId="151" priority="139" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="131" priority="139" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="140" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="130" priority="140" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W27:W36">
-    <cfRule type="cellIs" dxfId="149" priority="137" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="129" priority="137" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="138" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="128" priority="138" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V20:W26">
-    <cfRule type="cellIs" dxfId="147" priority="135" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="127" priority="135" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="136" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="126" priority="136" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V20:W26">
-    <cfRule type="cellIs" dxfId="145" priority="133" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="125" priority="133" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="134" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="124" priority="134" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V27:V33">
-    <cfRule type="cellIs" dxfId="143" priority="131" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="123" priority="131" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="132" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="122" priority="132" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V27:V33">
-    <cfRule type="cellIs" dxfId="141" priority="129" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="121" priority="129" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="130" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="120" priority="130" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U19:U32">
-    <cfRule type="cellIs" dxfId="139" priority="127" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="119" priority="127" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="128" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="118" priority="128" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U19:U32">
-    <cfRule type="cellIs" dxfId="137" priority="125" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="117" priority="125" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="126" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="116" priority="126" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19:T32">
-    <cfRule type="cellIs" dxfId="135" priority="123" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="115" priority="123" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="124" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="114" priority="124" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19:T32">
-    <cfRule type="cellIs" dxfId="133" priority="121" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="113" priority="121" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="122" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="112" priority="122" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18:S31">
-    <cfRule type="cellIs" dxfId="131" priority="119" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="111" priority="119" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="120" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="110" priority="120" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18:S31">
-    <cfRule type="cellIs" dxfId="129" priority="117" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="109" priority="117" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="118" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="108" priority="118" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17:R30">
-    <cfRule type="cellIs" dxfId="127" priority="115" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="107" priority="115" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="116" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="106" priority="116" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17:R30">
-    <cfRule type="cellIs" dxfId="125" priority="113" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="105" priority="113" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="114" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="104" priority="114" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16:Q29">
-    <cfRule type="cellIs" dxfId="123" priority="111" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="103" priority="111" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="112" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="102" priority="112" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16:Q29">
-    <cfRule type="cellIs" dxfId="121" priority="109" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="101" priority="109" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="110" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="100" priority="110" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16:P29 P31:P33">
-    <cfRule type="cellIs" dxfId="119" priority="107" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="99" priority="107" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="108" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="98" priority="108" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16:P29 P31:P33">
-    <cfRule type="cellIs" dxfId="117" priority="105" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="97" priority="105" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="106" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="96" priority="106" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P34:P38 P623:P628">
-    <cfRule type="cellIs" dxfId="115" priority="103" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="95" priority="103" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="104" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="94" priority="104" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P34:P38 P623:P628">
-    <cfRule type="cellIs" dxfId="113" priority="101" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="93" priority="101" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="102" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="92" priority="102" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q31:Q38">
-    <cfRule type="cellIs" dxfId="111" priority="99" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="91" priority="99" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="100" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="90" priority="100" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q31:Q38">
-    <cfRule type="cellIs" dxfId="109" priority="97" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="89" priority="97" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="98" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="88" priority="98" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R32:R38">
-    <cfRule type="cellIs" dxfId="107" priority="95" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="87" priority="95" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="96" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="86" priority="96" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R32:R38">
-    <cfRule type="cellIs" dxfId="105" priority="93" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="85" priority="93" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="94" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="84" priority="94" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S33:S38">
-    <cfRule type="cellIs" dxfId="103" priority="91" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="83" priority="91" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="92" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="82" priority="92" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S33:S38">
-    <cfRule type="cellIs" dxfId="101" priority="89" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="81" priority="89" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="90" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="80" priority="90" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T34:U38">
-    <cfRule type="cellIs" dxfId="99" priority="87" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="79" priority="87" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="88" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="78" priority="88" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T34:U38">
-    <cfRule type="cellIs" dxfId="97" priority="85" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="77" priority="85" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="86" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="76" priority="86" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35:V38">
-    <cfRule type="cellIs" dxfId="95" priority="83" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="75" priority="83" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="84" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="74" priority="84" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35:V38">
-    <cfRule type="cellIs" dxfId="93" priority="81" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="73" priority="81" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="82" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="72" priority="82" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W38">
-    <cfRule type="cellIs" dxfId="91" priority="79" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="71" priority="79" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="80" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="70" priority="80" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W38">
-    <cfRule type="cellIs" dxfId="89" priority="77" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="69" priority="77" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="78" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="68" priority="78" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39:Y39 A40:J622 N40:Z41 M42:Z622 A39:I39">
-    <cfRule type="cellIs" dxfId="87" priority="71" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="67" priority="71" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="72" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="66" priority="72" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39:Y39 A40:J622 N40:Z41 M42:Z622 A39:I39">
-    <cfRule type="cellIs" dxfId="85" priority="69" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="65" priority="69" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="70" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="64" priority="70" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15:O28">
-    <cfRule type="cellIs" dxfId="83" priority="67" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="63" priority="67" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="68" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="62" priority="68" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15:O28">
-    <cfRule type="cellIs" dxfId="81" priority="65" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="61" priority="65" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="66" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="60" priority="66" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14:N27 N29">
-    <cfRule type="cellIs" dxfId="79" priority="63" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="59" priority="63" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="64" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="58" priority="64" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14:N27 N29">
-    <cfRule type="cellIs" dxfId="77" priority="61" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="57" priority="61" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="62" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="56" priority="62" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:M25 M27:M41">
-    <cfRule type="cellIs" dxfId="75" priority="59" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="55" priority="59" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="60" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="54" priority="60" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:M25 M27:M41">
-    <cfRule type="cellIs" dxfId="73" priority="57" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="53" priority="57" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="58" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="52" priority="58" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:L25 L27:L1048576">
-    <cfRule type="cellIs" dxfId="71" priority="55" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="51" priority="55" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="56" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="50" priority="56" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:L25 L27:L1048576">
-    <cfRule type="cellIs" dxfId="69" priority="53" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="49" priority="53" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="54" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="48" priority="54" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K24 K26:K1048576">
-    <cfRule type="cellIs" dxfId="67" priority="47" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="47" priority="47" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="48" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="46" priority="48" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K24 K26:K1048576">
-    <cfRule type="cellIs" dxfId="65" priority="45" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="45" priority="45" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="46" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="44" priority="46" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J24 J26:J39">
-    <cfRule type="cellIs" dxfId="63" priority="43" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="43" priority="43" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="44" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="42" priority="44" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J24 J26:J39">
-    <cfRule type="cellIs" dxfId="61" priority="41" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="41" priority="41" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="42" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="40" priority="42" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:I32">
-    <cfRule type="cellIs" dxfId="59" priority="39" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="39" priority="39" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="40" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="38" priority="40" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:I32">
-    <cfRule type="cellIs" dxfId="57" priority="37" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="37" priority="37" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="38" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="36" priority="38" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I23">
-    <cfRule type="cellIs" dxfId="55" priority="35" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="36" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I23">
-    <cfRule type="cellIs" dxfId="53" priority="33" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="34" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:H34 G23">
-    <cfRule type="cellIs" dxfId="51" priority="31" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="32" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:H34 G23">
-    <cfRule type="cellIs" dxfId="49" priority="29" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="30" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G21">
-    <cfRule type="cellIs" dxfId="47" priority="27" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="28" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G21">
-    <cfRule type="cellIs" dxfId="45" priority="25" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H22">
-    <cfRule type="cellIs" dxfId="43" priority="23" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H22">
-    <cfRule type="cellIs" dxfId="41" priority="21" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="22" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F19 F21:F31">
-    <cfRule type="cellIs" dxfId="39" priority="19" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F19 F21:F31">
-    <cfRule type="cellIs" dxfId="37" priority="17" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E18 E20:E27">
-    <cfRule type="cellIs" dxfId="35" priority="15" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="16" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E18 E20:E27">
-    <cfRule type="cellIs" dxfId="33" priority="13" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D17 D19:D30">
-    <cfRule type="cellIs" dxfId="31" priority="11" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D17 D19:D30">
-    <cfRule type="cellIs" dxfId="29" priority="9" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="10" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C16 C18:C24">
-    <cfRule type="cellIs" dxfId="27" priority="7" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C16 C18:C24">
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B16 B18:B32">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B16 B18:B32">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/GFS/GFS.xlsx
+++ b/GFS/GFS.xlsx
@@ -361,364 +361,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="532">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="490">
     <dxf>
       <font>
         <color auto="1"/>
@@ -5188,7 +4831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ1105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -17716,810 +17359,810 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AQ32:AQ46 W29:W30 W14:W27">
-    <cfRule type="cellIs" dxfId="509" priority="205" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="489" priority="205" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="508" priority="206" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="488" priority="206" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP31:AP45">
-    <cfRule type="cellIs" dxfId="507" priority="203" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="487" priority="203" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="506" priority="204" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="486" priority="204" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO30:AO44">
-    <cfRule type="cellIs" dxfId="505" priority="201" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="485" priority="201" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="504" priority="202" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="484" priority="202" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN30:AN44">
-    <cfRule type="cellIs" dxfId="503" priority="199" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="483" priority="199" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="502" priority="200" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="482" priority="200" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM27:AM41 AM43:AM44">
-    <cfRule type="cellIs" dxfId="501" priority="197" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="481" priority="197" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="500" priority="198" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="480" priority="198" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL26:AO40 AL43:AO44 AM41:AO41 AL42 AN42:AO42 AL46:AO50 AL45:AM45 AL1106:AO1048576 AM51:AO1105">
-    <cfRule type="cellIs" dxfId="499" priority="195" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="479" priority="195" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="498" priority="196" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="478" priority="196" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL42:AL46">
-    <cfRule type="cellIs" dxfId="497" priority="193" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="477" priority="193" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="496" priority="194" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="476" priority="194" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL42:AL46">
-    <cfRule type="cellIs" dxfId="495" priority="191" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="475" priority="191" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="494" priority="192" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="474" priority="192" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK26:AK40">
-    <cfRule type="cellIs" dxfId="493" priority="189" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="473" priority="189" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="492" priority="190" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="472" priority="190" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ25:AJ39">
-    <cfRule type="cellIs" dxfId="491" priority="187" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="471" priority="187" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="188" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="470" priority="188" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI24:AI38">
-    <cfRule type="cellIs" dxfId="489" priority="185" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="469" priority="185" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="488" priority="186" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="468" priority="186" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH23:AH37">
-    <cfRule type="cellIs" dxfId="487" priority="183" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="467" priority="183" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="184" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="466" priority="184" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG23:AG36">
-    <cfRule type="cellIs" dxfId="485" priority="181" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="465" priority="181" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="484" priority="182" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="464" priority="182" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG37">
-    <cfRule type="cellIs" dxfId="483" priority="179" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="463" priority="179" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="482" priority="180" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="462" priority="180" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI50">
-    <cfRule type="cellIs" dxfId="481" priority="155" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="461" priority="155" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="480" priority="156" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="460" priority="156" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE22:AQ36">
-    <cfRule type="cellIs" dxfId="479" priority="177" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="459" priority="177" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="178" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="458" priority="178" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF42:AK49 AF51:AK51 AF50:AH50 AJ50:AK50">
-    <cfRule type="cellIs" dxfId="477" priority="175" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="457" priority="175" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="176" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="456" priority="176" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL51">
-    <cfRule type="cellIs" dxfId="475" priority="171" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="455" priority="171" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="172" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="454" priority="172" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD47:AE60 A47:A60 C47:M47 C48:R60">
-    <cfRule type="cellIs" dxfId="473" priority="169" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="453" priority="169" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="170" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="452" priority="170" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG39:AH41">
-    <cfRule type="cellIs" dxfId="471" priority="163" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="451" priority="163" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="164" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="450" priority="164" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF38:AF41">
-    <cfRule type="cellIs" dxfId="469" priority="165" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="449" priority="165" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="166" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="448" priority="166" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI40:AI41">
-    <cfRule type="cellIs" dxfId="467" priority="161" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="447" priority="161" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="162" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="446" priority="162" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ41">
-    <cfRule type="cellIs" dxfId="465" priority="159" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="445" priority="159" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="160" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="444" priority="160" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF52:AL1105">
-    <cfRule type="cellIs" dxfId="463" priority="157" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="443" priority="157" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="158" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="442" priority="158" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE22:AE36">
-    <cfRule type="cellIs" dxfId="461" priority="153" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="441" priority="153" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="154" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="440" priority="154" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD19:AD33 AD35:AD43">
-    <cfRule type="cellIs" dxfId="459" priority="151" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="439" priority="151" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="152" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="438" priority="152" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD19:AD33 AD35:AD43">
-    <cfRule type="cellIs" dxfId="457" priority="149" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="437" priority="149" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="150" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="436" priority="150" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC19:AC33 AC35:AC1048576">
-    <cfRule type="cellIs" dxfId="455" priority="147" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="435" priority="147" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="148" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="434" priority="148" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC19:AC33 AC35:AC1048576">
-    <cfRule type="cellIs" dxfId="453" priority="145" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="433" priority="145" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="146" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="432" priority="146" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB34:AB1048576">
-    <cfRule type="cellIs" dxfId="451" priority="143" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="431" priority="143" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="144" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="430" priority="144" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB34:AB1048576">
-    <cfRule type="cellIs" dxfId="449" priority="141" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="429" priority="141" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="142" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="428" priority="142" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AB32">
-    <cfRule type="cellIs" dxfId="447" priority="139" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="427" priority="139" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="140" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="426" priority="140" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AB32">
-    <cfRule type="cellIs" dxfId="445" priority="137" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="425" priority="137" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="138" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="424" priority="138" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA17:AA31 AA33:AA35">
-    <cfRule type="cellIs" dxfId="443" priority="133" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="423" priority="133" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="134" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="422" priority="134" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA17:AA31 AA33:AA35">
-    <cfRule type="cellIs" dxfId="441" priority="135" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="421" priority="135" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="136" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="420" priority="136" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z16:Z29">
-    <cfRule type="cellIs" dxfId="439" priority="129" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="419" priority="129" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="130" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="418" priority="130" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z16:Z29">
-    <cfRule type="cellIs" dxfId="437" priority="131" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="417" priority="131" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="132" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="416" priority="132" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X15:X29 Y32:Y35">
-    <cfRule type="cellIs" dxfId="435" priority="125" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="415" priority="125" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="126" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="414" priority="126" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X15:X29 Y32:Y35">
-    <cfRule type="cellIs" dxfId="433" priority="127" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="413" priority="127" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="128" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="412" priority="128" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y16:Y29">
-    <cfRule type="cellIs" dxfId="431" priority="121" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="411" priority="121" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="122" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="410" priority="122" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y16:Y29">
-    <cfRule type="cellIs" dxfId="429" priority="123" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="409" priority="123" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="124" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="408" priority="124" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y30:Z30">
-    <cfRule type="cellIs" dxfId="427" priority="117" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="407" priority="117" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="118" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="406" priority="118" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y30:Z30">
-    <cfRule type="cellIs" dxfId="425" priority="119" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="405" priority="119" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="120" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="404" priority="120" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W13">
-    <cfRule type="cellIs" dxfId="423" priority="113" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="403" priority="113" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="114" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="402" priority="114" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W13">
-    <cfRule type="cellIs" dxfId="421" priority="115" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="401" priority="115" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="116" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="400" priority="116" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V28:V30">
-    <cfRule type="cellIs" dxfId="419" priority="109" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="399" priority="109" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="110" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="398" priority="110" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V28:V30">
-    <cfRule type="cellIs" dxfId="417" priority="111" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="397" priority="111" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="112" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="396" priority="112" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11:V25 V27">
-    <cfRule type="cellIs" dxfId="415" priority="105" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="395" priority="105" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="106" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="394" priority="106" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11:V25 V27">
-    <cfRule type="cellIs" dxfId="413" priority="107" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="393" priority="107" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="108" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="392" priority="108" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11:U25 U27:U30">
-    <cfRule type="cellIs" dxfId="411" priority="101" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="391" priority="101" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="102" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="390" priority="102" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11:U25 U27:U30">
-    <cfRule type="cellIs" dxfId="409" priority="103" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="389" priority="103" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="104" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="388" priority="104" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9:T23 S26:T28 T24">
-    <cfRule type="cellIs" dxfId="407" priority="97" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="387" priority="97" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="98" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="386" priority="98" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9:T23 S26:T28 T24">
-    <cfRule type="cellIs" dxfId="405" priority="99" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="385" priority="99" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="100" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="384" priority="100" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U31:X35">
-    <cfRule type="cellIs" dxfId="403" priority="93" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="383" priority="93" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="94" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="382" priority="94" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U31:X35">
-    <cfRule type="cellIs" dxfId="401" priority="95" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="381" priority="95" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="96" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="380" priority="96" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S48:AA91 U36:AA47">
-    <cfRule type="cellIs" dxfId="399" priority="89" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="379" priority="89" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="90" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="378" priority="90" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S48:AA91 U36:AA47">
-    <cfRule type="cellIs" dxfId="397" priority="91" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="377" priority="91" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="92" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="376" priority="92" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9:R23 R26:R28">
-    <cfRule type="cellIs" dxfId="395" priority="85" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="375" priority="85" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="86" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="374" priority="86" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9:R23 R26:R28">
-    <cfRule type="cellIs" dxfId="393" priority="87" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="373" priority="87" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="88" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="372" priority="88" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9:Q23 Q25:Q28">
-    <cfRule type="cellIs" dxfId="391" priority="81" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="371" priority="81" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="82" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="370" priority="82" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9:Q23 Q25:Q28">
-    <cfRule type="cellIs" dxfId="389" priority="83" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="369" priority="83" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="84" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="368" priority="84" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:P22 P24:P28">
-    <cfRule type="cellIs" dxfId="387" priority="77" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="367" priority="77" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="78" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="366" priority="78" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:P22 P24:P28">
-    <cfRule type="cellIs" dxfId="385" priority="79" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="365" priority="79" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="80" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="364" priority="80" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8:O22">
-    <cfRule type="cellIs" dxfId="383" priority="73" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="363" priority="73" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="74" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="362" priority="74" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8:O22">
-    <cfRule type="cellIs" dxfId="381" priority="75" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="361" priority="75" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="76" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="360" priority="76" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:N21 N23">
-    <cfRule type="cellIs" dxfId="379" priority="69" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="359" priority="69" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="70" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="358" priority="70" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:N21 N23">
-    <cfRule type="cellIs" dxfId="377" priority="71" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="357" priority="71" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="72" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="356" priority="72" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M20 M22:M23">
-    <cfRule type="cellIs" dxfId="375" priority="65" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="355" priority="65" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="66" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="354" priority="66" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M20 M22:M23">
-    <cfRule type="cellIs" dxfId="373" priority="67" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="353" priority="67" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="68" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="352" priority="68" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22:L23">
-    <cfRule type="cellIs" dxfId="371" priority="61" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="351" priority="61" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="62" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="350" priority="62" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22:L23">
-    <cfRule type="cellIs" dxfId="369" priority="63" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="349" priority="63" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="64" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="348" priority="64" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L20">
-    <cfRule type="cellIs" dxfId="367" priority="57" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="347" priority="57" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="58" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="346" priority="58" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L20">
-    <cfRule type="cellIs" dxfId="365" priority="59" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="345" priority="59" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="60" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="344" priority="60" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K20 K22:K23">
-    <cfRule type="cellIs" dxfId="363" priority="53" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="343" priority="53" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="54" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="342" priority="54" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K20 K22:K23">
-    <cfRule type="cellIs" dxfId="361" priority="55" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="341" priority="55" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="56" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="340" priority="56" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:O28 K29:M46">
-    <cfRule type="cellIs" dxfId="359" priority="49" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="339" priority="49" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="50" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="338" priority="50" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:O28 K29:M46">
-    <cfRule type="cellIs" dxfId="357" priority="51" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="337" priority="51" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="52" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="336" priority="52" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29:T47">
-    <cfRule type="cellIs" dxfId="355" priority="45" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="335" priority="45" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="46" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="334" priority="46" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29:T47">
-    <cfRule type="cellIs" dxfId="353" priority="47" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="333" priority="47" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="48" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="332" priority="48" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J19">
-    <cfRule type="cellIs" dxfId="351" priority="41" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="331" priority="41" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="42" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="330" priority="42" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J19">
-    <cfRule type="cellIs" dxfId="349" priority="43" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="329" priority="43" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="44" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="328" priority="44" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I12">
-    <cfRule type="cellIs" dxfId="347" priority="37" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="327" priority="37" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="38" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="326" priority="38" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I12">
-    <cfRule type="cellIs" dxfId="345" priority="39" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="325" priority="39" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="40" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="324" priority="40" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I19">
-    <cfRule type="cellIs" dxfId="343" priority="33" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="323" priority="33" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="34" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="322" priority="34" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I19">
-    <cfRule type="cellIs" dxfId="341" priority="35" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="321" priority="35" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="36" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="320" priority="36" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H19">
-    <cfRule type="cellIs" dxfId="339" priority="29" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="319" priority="29" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="30" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="318" priority="30" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H19">
-    <cfRule type="cellIs" dxfId="337" priority="31" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="317" priority="31" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="32" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="316" priority="32" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G18">
-    <cfRule type="cellIs" dxfId="335" priority="25" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="315" priority="25" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="314" priority="26" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G18">
-    <cfRule type="cellIs" dxfId="333" priority="27" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="313" priority="27" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="28" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="312" priority="28" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F18 F20">
-    <cfRule type="cellIs" dxfId="331" priority="21" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="311" priority="21" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="22" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="310" priority="22" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F18 F20">
-    <cfRule type="cellIs" dxfId="329" priority="23" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="309" priority="23" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="308" priority="24" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E18 E20">
-    <cfRule type="cellIs" dxfId="327" priority="17" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="307" priority="17" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="306" priority="18" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E18 E20">
-    <cfRule type="cellIs" dxfId="325" priority="19" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="305" priority="19" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="304" priority="20" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D18 D20">
-    <cfRule type="cellIs" dxfId="323" priority="13" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="303" priority="13" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="302" priority="14" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D18 D20">
-    <cfRule type="cellIs" dxfId="321" priority="15" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="301" priority="15" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="16" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="300" priority="16" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C17 C19:C20">
-    <cfRule type="cellIs" dxfId="319" priority="9" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="299" priority="9" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="10" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="298" priority="10" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C17 C19:C20">
-    <cfRule type="cellIs" dxfId="317" priority="11" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="297" priority="11" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="296" priority="12" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:J45">
-    <cfRule type="cellIs" dxfId="315" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="295" priority="5" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="294" priority="6" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:J45">
-    <cfRule type="cellIs" dxfId="313" priority="7" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="293" priority="7" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="292" priority="8" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B16">
-    <cfRule type="cellIs" dxfId="311" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="291" priority="1" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="290" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B16">
-    <cfRule type="cellIs" dxfId="309" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="289" priority="3" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="288" priority="4" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18530,10 +18173,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI208"/>
+  <dimension ref="A1:AI209"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1" x14ac:dyDescent="0.35"/>
@@ -18664,126 +18307,87 @@
     </row>
     <row r="2" spans="1:35" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
-        <v>43140</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2">
-        <v>0.56000000000000005</v>
+        <v>43141</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.09</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
-        <v>43139</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>43140</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.85</v>
+      </c>
       <c r="C3" s="2">
-        <v>1.31</v>
-      </c>
-      <c r="D3" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3.03</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:35" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
+        <v>43139</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3.08</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.31</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
         <v>43138</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2">
+      <c r="B5" s="2">
+        <v>-1.41</v>
+      </c>
+      <c r="C5" s="2">
         <v>-2.4700000000000002</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="2">
         <v>-2.94</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="2">
         <v>0.59</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F5" s="2">
         <v>-1.48</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>43137</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2">
-        <v>-2.48</v>
-      </c>
-      <c r="D5" s="2">
-        <v>-1.47</v>
-      </c>
-      <c r="E5" s="2">
-        <v>-1.44</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="G5" s="2">
-        <v>4.17</v>
-      </c>
-      <c r="H5" s="2">
-        <v>-3.97</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
     </row>
     <row r="6" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
-        <v>43136</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>43137</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-2.57</v>
+      </c>
       <c r="C6" s="2">
-        <v>2.58</v>
+        <v>-2.48</v>
       </c>
       <c r="D6" s="2">
-        <v>-0.79</v>
+        <v>-1.47</v>
       </c>
       <c r="E6" s="2">
-        <v>3.32</v>
+        <v>-1.44</v>
       </c>
       <c r="F6" s="2">
-        <v>4.88</v>
+        <v>1.4</v>
       </c>
       <c r="G6" s="2">
-        <v>6.49</v>
+        <v>4.17</v>
       </c>
       <c r="H6" s="2">
-        <v>-2.52</v>
-      </c>
-      <c r="I6" s="2">
-        <v>-0.81</v>
-      </c>
-      <c r="J6" s="2">
-        <v>-4.53</v>
-      </c>
+        <v>-3.97</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -18812,36 +18416,36 @@
     </row>
     <row r="7" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
-        <v>43135</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>43136</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.41</v>
+      </c>
       <c r="C7" s="2">
-        <v>-1.72</v>
+        <v>2.58</v>
       </c>
       <c r="D7" s="2">
-        <v>-2.96</v>
+        <v>-0.79</v>
       </c>
       <c r="E7" s="2">
-        <v>2.02</v>
+        <v>3.32</v>
       </c>
       <c r="F7" s="2">
-        <v>1.98</v>
+        <v>4.88</v>
       </c>
       <c r="G7" s="2">
-        <v>0.87</v>
+        <v>6.49</v>
       </c>
       <c r="H7" s="2">
-        <v>-3.66</v>
+        <v>-2.52</v>
       </c>
       <c r="I7" s="2">
-        <v>-1.81</v>
+        <v>-0.81</v>
       </c>
       <c r="J7" s="2">
-        <v>-4.32</v>
-      </c>
-      <c r="K7" s="2">
-        <v>-2.5099999999999998</v>
-      </c>
+        <v>-4.53</v>
+      </c>
+      <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -18869,44 +18473,42 @@
     </row>
     <row r="8" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
-        <v>43134</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>43135</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-2.67</v>
+      </c>
       <c r="C8" s="2">
-        <v>0.36</v>
+        <v>-1.72</v>
       </c>
       <c r="D8" s="2">
-        <v>1.44</v>
+        <v>-2.96</v>
       </c>
       <c r="E8" s="2">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="F8" s="2">
-        <v>2.39</v>
+        <v>1.98</v>
       </c>
       <c r="G8" s="2">
-        <v>2.96</v>
+        <v>0.87</v>
       </c>
       <c r="H8" s="2">
-        <v>1.27</v>
+        <v>-3.66</v>
       </c>
       <c r="I8" s="2">
-        <v>4.4000000000000004</v>
+        <v>-1.81</v>
       </c>
       <c r="J8" s="2">
-        <v>3.42</v>
+        <v>-4.32</v>
       </c>
       <c r="K8" s="2">
-        <v>1.73</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0.49</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -18930,50 +18532,46 @@
     </row>
     <row r="9" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
-        <v>43133</v>
+        <v>43134</v>
       </c>
       <c r="B9" s="2">
-        <v>3.7</v>
+        <v>0.19</v>
       </c>
       <c r="C9" s="2">
-        <v>3.03</v>
+        <v>0.36</v>
       </c>
       <c r="D9" s="2">
-        <v>3.23</v>
+        <v>1.44</v>
       </c>
       <c r="E9" s="2">
-        <v>3.55</v>
+        <v>2.1</v>
       </c>
       <c r="F9" s="2">
-        <v>4.46</v>
+        <v>2.39</v>
       </c>
       <c r="G9" s="2">
-        <v>3.99</v>
+        <v>2.96</v>
       </c>
       <c r="H9" s="2">
-        <v>3.28</v>
+        <v>1.27</v>
       </c>
       <c r="I9" s="2">
-        <v>3.77</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J9" s="2">
-        <v>3.28</v>
+        <v>3.42</v>
       </c>
       <c r="K9" s="2">
-        <v>1.41</v>
+        <v>1.73</v>
       </c>
       <c r="L9" s="2">
-        <v>1.28</v>
+        <v>0.78</v>
       </c>
       <c r="M9" s="2">
-        <v>1.06</v>
-      </c>
-      <c r="N9" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="O9" s="2">
-        <v>2.5099999999999998</v>
-      </c>
+        <v>0.49</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -18997,51 +18595,51 @@
     </row>
     <row r="10" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
-        <v>43132</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>43133</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3.7</v>
+      </c>
       <c r="C10" s="2">
-        <v>-3.28</v>
+        <v>3.03</v>
       </c>
       <c r="D10" s="2">
-        <v>-3.4</v>
+        <v>3.23</v>
       </c>
       <c r="E10" s="2">
-        <v>-3.36</v>
+        <v>3.55</v>
       </c>
       <c r="F10" s="2">
-        <v>-2.88</v>
+        <v>4.46</v>
       </c>
       <c r="G10" s="2">
-        <v>-2.91</v>
+        <v>3.99</v>
       </c>
       <c r="H10" s="2">
-        <v>-2.75</v>
+        <v>3.28</v>
       </c>
       <c r="I10" s="2">
-        <v>-2.96</v>
+        <v>3.77</v>
       </c>
       <c r="J10" s="2">
-        <v>-3.39</v>
+        <v>3.28</v>
       </c>
       <c r="K10" s="2">
-        <v>-3.02</v>
+        <v>1.41</v>
       </c>
       <c r="L10" s="2">
-        <v>-2.97</v>
+        <v>1.28</v>
       </c>
       <c r="M10" s="2">
-        <v>-3.5</v>
+        <v>1.06</v>
       </c>
       <c r="N10" s="2">
-        <v>-3.59</v>
+        <v>1.75</v>
       </c>
       <c r="O10" s="2">
-        <v>-4.16</v>
-      </c>
-      <c r="P10" s="2">
-        <v>-6.11</v>
-      </c>
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -19064,55 +18662,55 @@
     </row>
     <row r="11" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
-        <v>43131</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>43132</v>
+      </c>
+      <c r="B11" s="2">
+        <f>SUM(B2:B10)</f>
+        <v>3.6700000000000004</v>
+      </c>
       <c r="C11" s="2">
-        <f>SUM(C2:C10)</f>
-        <v>-2.11</v>
+        <v>-3.28</v>
       </c>
       <c r="D11" s="2">
-        <v>-2.13</v>
+        <v>-3.4</v>
       </c>
       <c r="E11" s="2">
-        <v>-2.0699999999999998</v>
+        <v>-3.36</v>
       </c>
       <c r="F11" s="2">
-        <v>-1.74</v>
+        <v>-2.88</v>
       </c>
       <c r="G11" s="2">
-        <v>-1.75</v>
+        <v>-2.91</v>
       </c>
       <c r="H11" s="2">
-        <v>-1.39</v>
+        <v>-2.75</v>
       </c>
       <c r="I11" s="2">
-        <v>-1.1399999999999999</v>
+        <v>-2.96</v>
       </c>
       <c r="J11" s="2">
-        <v>-1.17</v>
+        <v>-3.39</v>
       </c>
       <c r="K11" s="2">
-        <v>-1.76</v>
+        <v>-3.02</v>
       </c>
       <c r="L11" s="2">
-        <v>-1.05</v>
+        <v>-2.97</v>
       </c>
       <c r="M11" s="2">
-        <v>-0.76</v>
+        <v>-3.5</v>
       </c>
       <c r="N11" s="2">
-        <v>-1.58</v>
+        <v>-3.59</v>
       </c>
       <c r="O11" s="2">
-        <v>-1.92</v>
+        <v>-4.16</v>
       </c>
       <c r="P11" s="2">
-        <v>-5.0199999999999996</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>-6.32</v>
-      </c>
+        <v>-6.11</v>
+      </c>
+      <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -19134,57 +18732,56 @@
     </row>
     <row r="12" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
-        <v>43130</v>
+        <v>43131</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2">
+        <f>SUM(C3:C11)</f>
+        <v>-2.11</v>
+      </c>
       <c r="D12" s="2">
-        <f>SUM(D3:D11)</f>
-        <v>-4.92</v>
+        <v>-2.13</v>
       </c>
       <c r="E12" s="2">
-        <f>SUM(E3:E11)</f>
-        <v>7.7399999999999984</v>
+        <v>-2.0699999999999998</v>
       </c>
       <c r="F12" s="2">
-        <v>2.4</v>
+        <v>-1.74</v>
       </c>
       <c r="G12" s="2">
-        <v>2.2999999999999998</v>
+        <v>-1.75</v>
       </c>
       <c r="H12" s="2">
-        <v>2.57</v>
+        <v>-1.39</v>
       </c>
       <c r="I12" s="2">
-        <v>2.63</v>
+        <v>-1.1399999999999999</v>
       </c>
       <c r="J12" s="2">
-        <v>2.64</v>
+        <v>-1.17</v>
       </c>
       <c r="K12" s="2">
-        <v>2.31</v>
+        <v>-1.76</v>
       </c>
       <c r="L12" s="2">
-        <v>2.68</v>
+        <v>-1.05</v>
       </c>
       <c r="M12" s="2">
-        <v>2.5</v>
+        <v>-0.76</v>
       </c>
       <c r="N12" s="2">
-        <v>2.2999999999999998</v>
+        <v>-1.58</v>
       </c>
       <c r="O12" s="2">
-        <v>2.14</v>
+        <v>-1.92</v>
       </c>
       <c r="P12" s="2">
-        <v>-0.53</v>
+        <v>-5.0199999999999996</v>
       </c>
       <c r="Q12" s="2">
-        <v>-1.71</v>
-      </c>
-      <c r="R12" s="2">
-        <v>4.62</v>
-      </c>
+        <v>-6.32</v>
+      </c>
+      <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -19205,51 +18802,56 @@
     </row>
     <row r="13" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
-        <v>43129</v>
+        <v>43130</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="2">
+        <f>SUM(D4:D12)</f>
+        <v>-4.92</v>
+      </c>
+      <c r="E13" s="2">
+        <f>SUM(E4:E12)</f>
+        <v>7.7399999999999984</v>
+      </c>
       <c r="F13" s="2">
-        <f>SUM(F4:F12)</f>
-        <v>11.41</v>
+        <v>2.4</v>
       </c>
       <c r="G13" s="2">
-        <v>-1.33</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H13" s="2">
-        <v>-1.35</v>
+        <v>2.57</v>
       </c>
       <c r="I13" s="2">
-        <v>-1.48</v>
+        <v>2.63</v>
       </c>
       <c r="J13" s="2">
-        <v>-1.41</v>
+        <v>2.64</v>
       </c>
       <c r="K13" s="2">
-        <v>-0.75</v>
+        <v>2.31</v>
       </c>
       <c r="L13" s="2">
-        <v>-0.96</v>
+        <v>2.68</v>
       </c>
       <c r="M13" s="2">
-        <v>-0.96</v>
+        <v>2.5</v>
       </c>
       <c r="N13" s="2">
-        <v>-1.84</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="O13" s="2">
-        <v>-2.08</v>
+        <v>2.14</v>
       </c>
       <c r="P13" s="2">
-        <v>-2.5</v>
+        <v>-0.53</v>
       </c>
       <c r="Q13" s="2">
-        <v>-1.78</v>
+        <v>-1.71</v>
       </c>
       <c r="R13" s="2">
-        <v>2.81</v>
+        <v>4.62</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -19271,54 +18873,53 @@
     </row>
     <row r="14" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
-        <v>43128</v>
+        <v>43129</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2">
+        <f>SUM(F5:F13)</f>
+        <v>11.41</v>
+      </c>
       <c r="G14" s="2">
-        <f>SUM(G5:G13)</f>
-        <v>14.789999999999997</v>
+        <v>-1.33</v>
       </c>
       <c r="H14" s="2">
-        <f>SUM(H5:H13)</f>
-        <v>-8.5200000000000014</v>
+        <v>-1.35</v>
       </c>
       <c r="I14" s="2">
-        <v>-7.14</v>
+        <v>-1.48</v>
       </c>
       <c r="J14" s="2">
-        <v>-6.73</v>
+        <v>-1.41</v>
       </c>
       <c r="K14" s="2">
-        <v>-6.51</v>
+        <v>-0.75</v>
       </c>
       <c r="L14" s="2">
-        <v>-6.44</v>
+        <v>-0.96</v>
       </c>
       <c r="M14" s="2">
-        <v>-6.28</v>
+        <v>-0.96</v>
       </c>
       <c r="N14" s="2">
-        <v>-5.97</v>
+        <v>-1.84</v>
       </c>
       <c r="O14" s="2">
-        <v>-5.95</v>
+        <v>-2.08</v>
       </c>
       <c r="P14" s="2">
-        <v>-6.05</v>
+        <v>-2.5</v>
       </c>
       <c r="Q14" s="2">
-        <v>-6.13</v>
+        <v>-1.78</v>
       </c>
       <c r="R14" s="2">
-        <v>-2.94</v>
-      </c>
-      <c r="S14" s="2">
-        <v>-3.36</v>
-      </c>
+        <v>2.81</v>
+      </c>
+      <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
@@ -19338,49 +18939,53 @@
     </row>
     <row r="15" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
-        <v>43127</v>
+        <v>43128</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="G15" s="2">
+        <f>SUM(G6:G14)</f>
+        <v>14.789999999999997</v>
+      </c>
+      <c r="H15" s="2">
+        <f>SUM(H6:H14)</f>
+        <v>-8.5200000000000014</v>
+      </c>
       <c r="I15" s="2">
-        <f>SUM(I6:I14)</f>
-        <v>-4.5399999999999991</v>
+        <v>-7.14</v>
       </c>
       <c r="J15" s="2">
-        <f>SUM(J6:J14)</f>
-        <v>-12.210000000000003</v>
+        <v>-6.73</v>
       </c>
       <c r="K15" s="2">
-        <v>-7.07</v>
+        <v>-6.51</v>
       </c>
       <c r="L15" s="2">
-        <v>-7.35</v>
+        <v>-6.44</v>
       </c>
       <c r="M15" s="2">
-        <v>-7.3</v>
+        <v>-6.28</v>
       </c>
       <c r="N15" s="2">
-        <v>-7.4</v>
+        <v>-5.97</v>
       </c>
       <c r="O15" s="2">
-        <v>-7.52</v>
+        <v>-5.95</v>
       </c>
       <c r="P15" s="2">
-        <v>-6.71</v>
+        <v>-6.05</v>
       </c>
       <c r="Q15" s="2">
-        <v>-3.24</v>
+        <v>-6.13</v>
       </c>
       <c r="R15" s="2">
-        <v>-5.51</v>
+        <v>-2.94</v>
       </c>
       <c r="S15" s="2">
-        <v>-7.04</v>
+        <v>-3.36</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -19401,7 +19006,7 @@
     </row>
     <row r="16" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
-        <v>43126</v>
+        <v>43127</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -19410,39 +19015,42 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="I16" s="2">
+        <f>SUM(I7:I15)</f>
+        <v>-4.5399999999999991</v>
+      </c>
+      <c r="J16" s="2">
+        <f>SUM(J7:J15)</f>
+        <v>-12.210000000000003</v>
+      </c>
       <c r="K16" s="2">
-        <f>SUM(K7:K15)</f>
-        <v>-16.170000000000002</v>
+        <v>-7.07</v>
       </c>
       <c r="L16" s="2">
-        <v>-4.51</v>
+        <v>-7.35</v>
       </c>
       <c r="M16" s="2">
-        <v>-4.12</v>
+        <v>-7.3</v>
       </c>
       <c r="N16" s="2">
-        <v>-4.05</v>
+        <v>-7.4</v>
       </c>
       <c r="O16" s="2">
-        <v>-3.66</v>
+        <v>-7.52</v>
       </c>
       <c r="P16" s="2">
-        <v>-3.51</v>
+        <v>-6.71</v>
       </c>
       <c r="Q16" s="2">
-        <v>0.18</v>
+        <v>-3.24</v>
       </c>
       <c r="R16" s="2">
-        <v>-2.78</v>
+        <v>-5.51</v>
       </c>
       <c r="S16" s="2">
-        <v>-4.95</v>
-      </c>
-      <c r="T16" s="2">
-        <v>-4.6900000000000004</v>
-      </c>
+        <v>-7.04</v>
+      </c>
+      <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
@@ -19461,7 +19069,7 @@
     </row>
     <row r="17" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
-        <v>43125</v>
+        <v>43126</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -19472,42 +19080,39 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="K17" s="2">
+        <f>SUM(K8:K16)</f>
+        <v>-16.170000000000002</v>
+      </c>
       <c r="L17" s="2">
-        <f>SUM(L8:L16)</f>
-        <v>-18.54</v>
+        <v>-4.51</v>
       </c>
       <c r="M17" s="2">
-        <f>SUM(M8:M16)</f>
-        <v>-18.87</v>
+        <v>-4.12</v>
       </c>
       <c r="N17" s="2">
-        <v>-0.17</v>
+        <v>-4.05</v>
       </c>
       <c r="O17" s="2">
-        <v>0.09</v>
+        <v>-3.66</v>
       </c>
       <c r="P17" s="2">
-        <v>0.47</v>
+        <v>-3.51</v>
       </c>
       <c r="Q17" s="2">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="R17" s="2">
-        <v>0.54</v>
+        <v>-2.78</v>
       </c>
       <c r="S17" s="2">
-        <v>-0.67</v>
+        <v>-4.95</v>
       </c>
       <c r="T17" s="2">
-        <v>-0.67</v>
-      </c>
-      <c r="U17" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="V17" s="1">
-        <v>-1.08</v>
-      </c>
+        <v>-4.6900000000000004</v>
+      </c>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
@@ -19524,7 +19129,7 @@
     </row>
     <row r="18" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
-        <v>43124</v>
+        <v>43125</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -19536,42 +19141,43 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="L18" s="2">
+        <f>SUM(L9:L17)</f>
+        <v>-18.54</v>
+      </c>
+      <c r="M18" s="2">
+        <f>SUM(M9:M17)</f>
+        <v>-18.87</v>
+      </c>
       <c r="N18" s="2">
-        <f>SUM(N9:N17)</f>
-        <v>-20.55</v>
+        <v>-0.17</v>
       </c>
       <c r="O18" s="2">
-        <f>SUM(O9:O17)</f>
-        <v>-20.55</v>
+        <v>0.09</v>
       </c>
       <c r="P18" s="2">
-        <v>0.36</v>
+        <v>0.47</v>
       </c>
       <c r="Q18" s="2">
-        <v>-4.32</v>
+        <v>0.4</v>
       </c>
       <c r="R18" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="S18" s="2">
+        <v>-0.67</v>
+      </c>
+      <c r="T18" s="2">
+        <v>-0.67</v>
+      </c>
+      <c r="U18" s="2">
         <v>0.27</v>
       </c>
-      <c r="S18" s="2">
-        <v>-0.24</v>
-      </c>
-      <c r="T18" s="2">
-        <v>-0.76</v>
-      </c>
-      <c r="U18" s="2">
-        <v>-1.2</v>
-      </c>
-      <c r="V18" s="2">
-        <v>-3.13</v>
-      </c>
-      <c r="W18" s="2">
-        <v>-4.37</v>
-      </c>
-      <c r="X18" s="1">
-        <v>-2.91</v>
-      </c>
+      <c r="V18" s="1">
+        <v>-1.08</v>
+      </c>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
@@ -19586,7 +19192,7 @@
     </row>
     <row r="19" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
-        <v>43123</v>
+        <v>43124</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -19599,37 +19205,40 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="N19" s="2">
+        <f>SUM(N10:N18)</f>
+        <v>-20.55</v>
+      </c>
+      <c r="O19" s="2">
+        <f>SUM(O10:O18)</f>
+        <v>-20.55</v>
+      </c>
       <c r="P19" s="2">
-        <f>SUM(P1:P18)</f>
-        <v>-29.6</v>
+        <v>0.36</v>
       </c>
       <c r="Q19" s="2">
-        <f>SUM(Q9:Q18)</f>
-        <v>-22.92</v>
+        <v>-4.32</v>
       </c>
       <c r="R19" s="2">
-        <v>-4.24</v>
+        <v>0.27</v>
       </c>
       <c r="S19" s="2">
-        <v>-3.19</v>
+        <v>-0.24</v>
       </c>
       <c r="T19" s="2">
-        <v>-3.53</v>
+        <v>-0.76</v>
       </c>
       <c r="U19" s="2">
-        <v>-2.88</v>
+        <v>-1.2</v>
       </c>
       <c r="V19" s="2">
-        <v>-4.33</v>
+        <v>-3.13</v>
       </c>
       <c r="W19" s="2">
-        <v>-4.4800000000000004</v>
+        <v>-4.37</v>
       </c>
       <c r="X19" s="1">
-        <v>-1.97</v>
+        <v>-2.91</v>
       </c>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
@@ -19645,7 +19254,7 @@
     </row>
     <row r="20" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
-        <v>43122</v>
+        <v>43123</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -19661,28 +19270,34 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="1"/>
+      <c r="P20" s="2">
+        <f>SUM(P1:P19)</f>
+        <v>-29.6</v>
+      </c>
+      <c r="Q20" s="2">
+        <f>SUM(Q10:Q19)</f>
+        <v>-22.92</v>
+      </c>
       <c r="R20" s="2">
-        <v>-8.1199999999999992</v>
+        <v>-4.24</v>
       </c>
       <c r="S20" s="2">
-        <v>-6.6</v>
+        <v>-3.19</v>
       </c>
       <c r="T20" s="2">
-        <v>-6.12</v>
+        <v>-3.53</v>
       </c>
       <c r="U20" s="2">
-        <v>-5.43</v>
+        <v>-2.88</v>
       </c>
       <c r="V20" s="2">
-        <v>-5.7</v>
+        <v>-4.33</v>
       </c>
       <c r="W20" s="2">
-        <v>-5.96</v>
+        <v>-4.4800000000000004</v>
       </c>
       <c r="X20" s="1">
-        <v>-5.31</v>
+        <v>-1.97</v>
       </c>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
@@ -19696,9 +19311,9 @@
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
     </row>
-    <row r="21" spans="1:35" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
-        <v>43121</v>
+        <v>43122</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -19717,33 +19332,28 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="2">
-        <f>SUM(R12:R20)</f>
-        <v>-15.349999999999998</v>
+        <v>-8.1199999999999992</v>
       </c>
       <c r="S21" s="2">
-        <v>-7.32</v>
+        <v>-6.6</v>
       </c>
       <c r="T21" s="2">
-        <v>-7.11</v>
+        <v>-6.12</v>
       </c>
       <c r="U21" s="2">
-        <v>-6.85</v>
+        <v>-5.43</v>
       </c>
       <c r="V21" s="2">
-        <v>-6.62</v>
+        <v>-5.7</v>
       </c>
       <c r="W21" s="2">
-        <v>-6.86</v>
-      </c>
-      <c r="X21" s="2">
-        <v>-8.23</v>
-      </c>
-      <c r="Y21" s="2">
-        <v>-1.45</v>
-      </c>
-      <c r="Z21" s="2">
-        <v>-4.01</v>
-      </c>
+        <v>-5.96</v>
+      </c>
+      <c r="X21" s="1">
+        <v>-5.31</v>
+      </c>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
@@ -19756,7 +19366,7 @@
     </row>
     <row r="22" spans="1:35" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
-        <v>43120</v>
+        <v>43121</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -19774,37 +19384,36 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="1"/>
-      <c r="R22" s="2"/>
+      <c r="R22" s="2">
+        <f>SUM(R13:R21)</f>
+        <v>-15.349999999999998</v>
+      </c>
       <c r="S22" s="2">
-        <v>-5.41</v>
+        <v>-7.32</v>
       </c>
       <c r="T22" s="2">
-        <v>-4.75</v>
+        <v>-7.11</v>
       </c>
       <c r="U22" s="2">
-        <v>-4.58</v>
+        <v>-6.85</v>
       </c>
       <c r="V22" s="2">
-        <v>-5.39</v>
+        <v>-6.62</v>
       </c>
       <c r="W22" s="2">
-        <v>-5.84</v>
+        <v>-6.86</v>
       </c>
       <c r="X22" s="2">
-        <v>-6.18</v>
+        <v>-8.23</v>
       </c>
       <c r="Y22" s="2">
-        <v>-7.57</v>
+        <v>-1.45</v>
       </c>
       <c r="Z22" s="2">
-        <v>-1.04</v>
-      </c>
-      <c r="AA22" s="1">
-        <v>-1.72</v>
-      </c>
-      <c r="AB22" s="2">
-        <v>-3.33</v>
-      </c>
+        <v>-4.01</v>
+      </c>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
@@ -19815,7 +19424,7 @@
     </row>
     <row r="23" spans="1:35" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
-        <v>43119</v>
+        <v>43120</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -19835,39 +19444,36 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2">
-        <f>SUM(S14:S22)</f>
-        <v>-38.78</v>
+        <v>-5.41</v>
       </c>
       <c r="T23" s="2">
-        <v>0.64</v>
+        <v>-4.75</v>
       </c>
       <c r="U23" s="2">
-        <v>1.03</v>
+        <v>-4.58</v>
       </c>
       <c r="V23" s="2">
-        <v>0.08</v>
+        <v>-5.39</v>
       </c>
       <c r="W23" s="2">
-        <v>-0.24</v>
+        <v>-5.84</v>
       </c>
       <c r="X23" s="2">
-        <v>-0.45</v>
+        <v>-6.18</v>
       </c>
       <c r="Y23" s="2">
-        <v>-5.7</v>
+        <v>-7.57</v>
       </c>
       <c r="Z23" s="2">
-        <v>4.21</v>
-      </c>
-      <c r="AA23" s="2">
-        <v>3.74</v>
+        <v>-1.04</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>-1.72</v>
       </c>
       <c r="AB23" s="2">
-        <v>1.32</v>
-      </c>
-      <c r="AC23" s="2">
-        <v>2.86</v>
-      </c>
+        <v>-3.33</v>
+      </c>
+      <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
@@ -19877,7 +19483,7 @@
     </row>
     <row r="24" spans="1:35" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
-        <v>43118</v>
+        <v>43119</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -19894,51 +19500,52 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
+      <c r="Q24" s="1"/>
       <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
+      <c r="S24" s="2">
+        <f>SUM(S15:S23)</f>
+        <v>-38.78</v>
+      </c>
       <c r="T24" s="2">
-        <v>6.81</v>
+        <v>0.64</v>
       </c>
       <c r="U24" s="2">
-        <v>6.5</v>
+        <v>1.03</v>
       </c>
       <c r="V24" s="2">
-        <v>6.09</v>
+        <v>0.08</v>
       </c>
       <c r="W24" s="2">
-        <v>6</v>
+        <v>-0.24</v>
       </c>
       <c r="X24" s="2">
-        <v>5.62</v>
+        <v>-0.45</v>
       </c>
       <c r="Y24" s="2">
-        <v>0.94</v>
+        <v>-5.7</v>
       </c>
       <c r="Z24" s="2">
-        <v>7.88</v>
+        <v>4.21</v>
       </c>
       <c r="AA24" s="2">
-        <v>8.74</v>
+        <v>3.74</v>
       </c>
       <c r="AB24" s="2">
-        <v>7.66</v>
+        <v>1.32</v>
       </c>
       <c r="AC24" s="2">
-        <v>7.07</v>
-      </c>
-      <c r="AD24" s="2">
-        <v>7.46</v>
-      </c>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="7"/>
+        <v>2.86</v>
+      </c>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
     </row>
     <row r="25" spans="1:35" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
-        <v>43117</v>
+        <v>43118</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -19959,52 +19566,47 @@
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2">
-        <f>SUM(T16:T24)</f>
-        <v>-20.18</v>
+        <v>6.81</v>
       </c>
       <c r="U25" s="2">
-        <v>11.06</v>
+        <v>6.5</v>
       </c>
       <c r="V25" s="2">
-        <v>10.72</v>
+        <v>6.09</v>
       </c>
       <c r="W25" s="2">
-        <v>10.39</v>
+        <v>6</v>
       </c>
       <c r="X25" s="2">
-        <v>10.31</v>
+        <v>5.62</v>
       </c>
       <c r="Y25" s="2">
-        <v>7.48</v>
+        <v>0.94</v>
       </c>
       <c r="Z25" s="2">
-        <v>10.81</v>
+        <v>7.88</v>
       </c>
       <c r="AA25" s="2">
-        <v>11.23</v>
+        <v>8.74</v>
       </c>
       <c r="AB25" s="2">
-        <v>12.1</v>
+        <v>7.66</v>
       </c>
       <c r="AC25" s="2">
-        <v>10.08</v>
+        <v>7.07</v>
       </c>
       <c r="AD25" s="2">
-        <v>10.86</v>
-      </c>
-      <c r="AE25" s="2">
-        <v>1.76</v>
-      </c>
-      <c r="AF25" s="7">
-        <v>0.89</v>
-      </c>
+        <v>7.46</v>
+      </c>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
       <c r="AH25" s="7"/>
       <c r="AI25" s="7"/>
     </row>
     <row r="26" spans="1:35" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
-        <v>43116</v>
+        <v>43117</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -20024,44 +19626,45 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
+      <c r="T26" s="2">
+        <f>SUM(T17:T25)</f>
+        <v>-20.18</v>
+      </c>
       <c r="U26" s="2">
-        <f>SUM(U17:U25)</f>
-        <v>-2.079999999999993</v>
+        <v>11.06</v>
       </c>
       <c r="V26" s="2">
-        <f>SUM(V17:V25)</f>
-        <v>-9.3600000000000012</v>
+        <v>10.72</v>
       </c>
       <c r="W26" s="2">
-        <v>8.56</v>
+        <v>10.39</v>
       </c>
       <c r="X26" s="2">
-        <v>8.26</v>
+        <v>10.31</v>
       </c>
       <c r="Y26" s="2">
-        <v>11.28</v>
+        <v>7.48</v>
       </c>
       <c r="Z26" s="2">
-        <v>9.42</v>
+        <v>10.81</v>
       </c>
       <c r="AA26" s="2">
-        <v>8.6</v>
+        <v>11.23</v>
       </c>
       <c r="AB26" s="2">
-        <v>9.1999999999999993</v>
+        <v>12.1</v>
       </c>
       <c r="AC26" s="2">
-        <v>8.44</v>
+        <v>10.08</v>
       </c>
       <c r="AD26" s="2">
-        <v>7.13</v>
+        <v>10.86</v>
       </c>
       <c r="AE26" s="2">
-        <v>5.74</v>
-      </c>
-      <c r="AF26" s="2">
-        <v>7.57</v>
+        <v>1.76</v>
+      </c>
+      <c r="AF26" s="7">
+        <v>0.89</v>
       </c>
       <c r="AG26" s="7"/>
       <c r="AH26" s="7"/>
@@ -20069,7 +19672,7 @@
     </row>
     <row r="27" spans="1:35" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
-        <v>43115</v>
+        <v>43116</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -20090,39 +19693,43 @@
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
+      <c r="U27" s="2">
+        <f>SUM(U18:U26)</f>
+        <v>-2.079999999999993</v>
+      </c>
+      <c r="V27" s="2">
+        <f>SUM(V18:V26)</f>
+        <v>-9.3600000000000012</v>
+      </c>
       <c r="W27" s="2">
-        <f>SUM(W18:W26)</f>
-        <v>-2.7999999999999989</v>
+        <v>8.56</v>
       </c>
       <c r="X27" s="2">
-        <f>SUM(X18:X26)</f>
-        <v>-0.85999999999999943</v>
+        <v>8.26</v>
       </c>
       <c r="Y27" s="2">
-        <v>8.76</v>
+        <v>11.28</v>
       </c>
       <c r="Z27" s="2">
-        <v>6.33</v>
+        <v>9.42</v>
       </c>
       <c r="AA27" s="2">
-        <v>6.25</v>
+        <v>8.6</v>
       </c>
       <c r="AB27" s="2">
-        <v>6.67</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AC27" s="2">
-        <v>6.11</v>
+        <v>8.44</v>
       </c>
       <c r="AD27" s="2">
-        <v>6.05</v>
+        <v>7.13</v>
       </c>
       <c r="AE27" s="2">
-        <v>7.93</v>
+        <v>5.74</v>
       </c>
       <c r="AF27" s="2">
-        <v>9.86</v>
+        <v>7.57</v>
       </c>
       <c r="AG27" s="7"/>
       <c r="AH27" s="7"/>
@@ -20130,7 +19737,7 @@
     </row>
     <row r="28" spans="1:35" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
-        <v>43114</v>
+        <v>43115</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -20153,30 +19760,37 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
-      <c r="X28" s="2"/>
+      <c r="W28" s="2">
+        <f>SUM(W19:W27)</f>
+        <v>-2.7999999999999989</v>
+      </c>
+      <c r="X28" s="2">
+        <f>SUM(X19:X27)</f>
+        <v>-0.85999999999999943</v>
+      </c>
       <c r="Y28" s="2">
-        <v>5.92</v>
+        <v>8.76</v>
       </c>
       <c r="Z28" s="2">
-        <v>8.94</v>
+        <v>6.33</v>
       </c>
       <c r="AA28" s="2">
-        <v>9.01</v>
+        <v>6.25</v>
       </c>
       <c r="AB28" s="2">
-        <v>9.18</v>
+        <v>6.67</v>
       </c>
       <c r="AC28" s="2">
-        <v>9.24</v>
+        <v>6.11</v>
       </c>
       <c r="AD28" s="2">
-        <v>9.1999999999999993</v>
+        <v>6.05</v>
       </c>
       <c r="AE28" s="2">
-        <v>10.050000000000001</v>
+        <v>7.93</v>
       </c>
       <c r="AF28" s="2">
-        <v>9.44</v>
+        <v>9.86</v>
       </c>
       <c r="AG28" s="7"/>
       <c r="AH28" s="7"/>
@@ -20184,7 +19798,7 @@
     </row>
     <row r="29" spans="1:35" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
-        <v>43113</v>
+        <v>43114</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -20209,38 +19823,36 @@
       <c r="V29" s="2"/>
       <c r="X29" s="2"/>
       <c r="Y29" s="2">
-        <v>8.23</v>
+        <v>5.92</v>
       </c>
       <c r="Z29" s="2">
-        <v>6.3</v>
+        <v>8.94</v>
       </c>
       <c r="AA29" s="2">
-        <v>6.3</v>
+        <v>9.01</v>
       </c>
       <c r="AB29" s="2">
-        <v>6.33</v>
+        <v>9.18</v>
       </c>
       <c r="AC29" s="2">
-        <v>6.25</v>
+        <v>9.24</v>
       </c>
       <c r="AD29" s="2">
-        <v>6.02</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AE29" s="2">
-        <v>2.97</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="AF29" s="2">
-        <v>2.96</v>
-      </c>
-      <c r="AG29" s="2">
-        <v>1.19</v>
-      </c>
+        <v>9.44</v>
+      </c>
+      <c r="AG29" s="7"/>
       <c r="AH29" s="7"/>
       <c r="AI29" s="7"/>
     </row>
     <row r="30" spans="1:35" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
-        <v>43112</v>
+        <v>43113</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -20265,42 +19877,38 @@
       <c r="V30" s="2"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="2">
-        <f>SUM(Y21:Y29)</f>
-        <v>27.89</v>
+        <v>8.23</v>
       </c>
       <c r="Z30" s="2">
-        <f>SUM(Z21:Z29)</f>
-        <v>48.839999999999996</v>
+        <v>6.3</v>
       </c>
       <c r="AA30" s="2">
-        <v>-2.16</v>
+        <v>6.3</v>
       </c>
       <c r="AB30" s="2">
-        <v>-2.2599999999999998</v>
+        <v>6.33</v>
       </c>
       <c r="AC30" s="2">
-        <v>-2.56</v>
+        <v>6.25</v>
       </c>
       <c r="AD30" s="2">
-        <v>-2.54</v>
+        <v>6.02</v>
       </c>
       <c r="AE30" s="2">
-        <v>-4.29</v>
+        <v>2.97</v>
       </c>
       <c r="AF30" s="2">
-        <v>-4.58</v>
+        <v>2.96</v>
       </c>
       <c r="AG30" s="2">
-        <v>-1.76</v>
-      </c>
-      <c r="AH30" s="2">
-        <v>-3.11</v>
-      </c>
-      <c r="AI30" s="2"/>
+        <v>1.19</v>
+      </c>
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="7"/>
     </row>
     <row r="31" spans="1:35" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
-        <v>43111</v>
+        <v>43112</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -20324,41 +19932,43 @@
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
       <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
+      <c r="Y31" s="2">
+        <f>SUM(Y22:Y30)</f>
+        <v>27.89</v>
+      </c>
+      <c r="Z31" s="2">
+        <f>SUM(Z22:Z30)</f>
+        <v>48.839999999999996</v>
+      </c>
       <c r="AA31" s="2">
-        <f>SUM(AA22:AA30)</f>
-        <v>49.989999999999995</v>
+        <v>-2.16</v>
       </c>
       <c r="AB31" s="2">
-        <f>SUM(AB22:AB30)</f>
-        <v>46.87</v>
+        <v>-2.2599999999999998</v>
       </c>
       <c r="AC31" s="2">
-        <v>-9.0299999999999994</v>
+        <v>-2.56</v>
       </c>
       <c r="AD31" s="2">
-        <v>-9.01</v>
+        <v>-2.54</v>
       </c>
       <c r="AE31" s="2">
-        <v>-8.25</v>
+        <v>-4.29</v>
       </c>
       <c r="AF31" s="2">
-        <v>-8.76</v>
+        <v>-4.58</v>
       </c>
       <c r="AG31" s="2">
-        <v>-5.31</v>
+        <v>-1.76</v>
       </c>
       <c r="AH31" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="AI31" s="2">
-        <v>-2.5099999999999998</v>
-      </c>
+        <v>-3.11</v>
+      </c>
+      <c r="AI31" s="2"/>
     </row>
     <row r="32" spans="1:35" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
-        <v>43110</v>
+        <v>43111</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -20384,34 +19994,39 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="4"/>
+      <c r="AA32" s="2">
+        <f>SUM(AA23:AA31)</f>
+        <v>49.989999999999995</v>
+      </c>
+      <c r="AB32" s="2">
+        <f>SUM(AB23:AB31)</f>
+        <v>46.87</v>
+      </c>
       <c r="AC32" s="2">
-        <f>SUM(AC23:AC31)</f>
-        <v>38.459999999999994</v>
+        <v>-9.0299999999999994</v>
       </c>
       <c r="AD32" s="2">
-        <v>-5.97</v>
+        <v>-9.01</v>
       </c>
       <c r="AE32" s="2">
-        <v>-5.99</v>
+        <v>-8.25</v>
       </c>
       <c r="AF32" s="2">
-        <v>-5.99</v>
+        <v>-8.76</v>
       </c>
       <c r="AG32" s="2">
-        <v>-1.89</v>
+        <v>-5.31</v>
       </c>
       <c r="AH32" s="2">
-        <v>4.54</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="AI32" s="2">
-        <v>-1.19</v>
+        <v>-2.5099999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:35" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -20438,31 +20053,33 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="2"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="2">
+        <f>SUM(AC24:AC32)</f>
+        <v>38.459999999999994</v>
+      </c>
       <c r="AD33" s="2">
-        <f>SUM(AD24:AD32)</f>
-        <v>29.200000000000003</v>
+        <v>-5.97</v>
       </c>
       <c r="AE33" s="2">
-        <v>-3.68</v>
+        <v>-5.99</v>
       </c>
       <c r="AF33" s="2">
-        <v>-3.28</v>
+        <v>-5.99</v>
       </c>
       <c r="AG33" s="2">
-        <v>-1.65</v>
+        <v>-1.89</v>
       </c>
       <c r="AH33" s="2">
-        <v>0.2</v>
+        <v>4.54</v>
       </c>
       <c r="AI33" s="2">
-        <v>-3.22</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="34" spans="1:35" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
-        <v>43108</v>
+        <v>43109</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -20491,28 +20108,29 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
+      <c r="AD34" s="2">
+        <f>SUM(AD25:AD33)</f>
+        <v>29.200000000000003</v>
+      </c>
       <c r="AE34" s="2">
-        <f>SUM(AE25:AE33)</f>
-        <v>6.24</v>
+        <v>-3.68</v>
       </c>
       <c r="AF34" s="2">
-        <f>SUM(AF25:AF33)</f>
-        <v>8.110000000000003</v>
+        <v>-3.28</v>
       </c>
       <c r="AG34" s="2">
-        <v>-1.07</v>
+        <v>-1.65</v>
       </c>
       <c r="AH34" s="2">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="AI34" s="2">
-        <v>-4.05</v>
+        <v>-3.22</v>
       </c>
     </row>
     <row r="35" spans="1:35" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
-        <v>43107</v>
+        <v>43108</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -20542,21 +20160,27 @@
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
-      <c r="AE35" s="2"/>
-      <c r="AF35" s="2"/>
+      <c r="AE35" s="2">
+        <f>SUM(AE26:AE34)</f>
+        <v>6.24</v>
+      </c>
+      <c r="AF35" s="2">
+        <f>SUM(AF26:AF34)</f>
+        <v>8.110000000000003</v>
+      </c>
       <c r="AG35" s="2">
-        <v>6.26</v>
+        <v>-1.07</v>
       </c>
       <c r="AH35" s="2">
-        <v>5.21</v>
+        <v>0.27</v>
       </c>
       <c r="AI35" s="2">
-        <v>3.07</v>
+        <v>-4.05</v>
       </c>
     </row>
     <row r="36" spans="1:35" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
-        <v>43106</v>
+        <v>43107</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -20589,18 +20213,18 @@
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
       <c r="AG36" s="2">
-        <v>12.27</v>
+        <v>6.26</v>
       </c>
       <c r="AH36" s="2">
-        <v>12.63</v>
+        <v>5.21</v>
       </c>
       <c r="AI36" s="2">
-        <v>11.89</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="37" spans="1:35" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
-        <v>43105</v>
+        <v>43106</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -20633,18 +20257,18 @@
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
       <c r="AG37" s="2">
-        <v>12.23</v>
+        <v>12.27</v>
       </c>
       <c r="AH37" s="2">
-        <v>13.07</v>
+        <v>12.63</v>
       </c>
       <c r="AI37" s="2">
-        <v>13.07</v>
+        <v>11.89</v>
       </c>
     </row>
     <row r="38" spans="1:35" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -20677,20 +20301,22 @@
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
       <c r="AG38" s="2">
-        <f>SUM(AG29:AG37)</f>
-        <v>20.27</v>
+        <v>12.23</v>
       </c>
       <c r="AH38" s="2">
-        <v>11.69</v>
+        <v>13.07</v>
       </c>
       <c r="AI38" s="2">
-        <v>11.52</v>
+        <v>13.07</v>
       </c>
     </row>
     <row r="39" spans="1:35" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
-        <v>43103</v>
-      </c>
+        <v>43104</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -20718,16 +20344,21 @@
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
-      <c r="AG39" s="2"/>
+      <c r="AG39" s="2">
+        <f>SUM(AG30:AG38)</f>
+        <v>20.27</v>
+      </c>
       <c r="AH39" s="2">
-        <f>SUM(AH30:AH38)</f>
-        <v>47.05</v>
+        <v>11.69</v>
       </c>
       <c r="AI39" s="2">
-        <v>10.27</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="40" spans="1:35" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <v>43103</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -20750,16 +20381,18 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
-      <c r="AB40" s="1"/>
-      <c r="AC40" s="1"/>
-      <c r="AD40" s="7"/>
-      <c r="AE40" s="7"/>
-      <c r="AF40" s="7"/>
-      <c r="AG40" s="7"/>
-      <c r="AH40" s="7"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="2">
+        <f>SUM(AH31:AH39)</f>
+        <v>47.05</v>
+      </c>
       <c r="AI40" s="2">
-        <f>SUM(AI31:AI39)</f>
-        <v>38.85</v>
+        <v>10.27</v>
       </c>
     </row>
     <row r="41" spans="1:35" thickBot="1" x14ac:dyDescent="0.35">
@@ -20785,6 +20418,17 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="2">
+        <f>SUM(AI32:AI40)</f>
+        <v>38.85</v>
+      </c>
     </row>
     <row r="42" spans="1:35" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E42" s="2"/>
@@ -20801,8 +20445,13 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
-      <c r="U42" s="1"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
       <c r="V42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
     </row>
     <row r="43" spans="1:35" thickBot="1" x14ac:dyDescent="0.35">
@@ -20820,6 +20469,7 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
+      <c r="U43" s="1"/>
       <c r="V43" s="2"/>
       <c r="AA43" s="2"/>
     </row>
@@ -20839,6 +20489,7 @@
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="V44" s="2"/>
+      <c r="AA44" s="2"/>
     </row>
     <row r="45" spans="1:35" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E45" s="2"/>
@@ -20872,6 +20523,7 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
+      <c r="V46" s="2"/>
     </row>
     <row r="47" spans="1:35" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E47" s="2"/>
@@ -20903,6 +20555,7 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
     </row>
     <row r="49" spans="5:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E49" s="2"/>
@@ -20968,6 +20621,16 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
     </row>
     <row r="54" spans="5:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E54" s="2"/>
@@ -21744,428 +21407,433 @@
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
     </row>
+    <row r="209" spans="5:7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="AI31:AI39 T16:T24">
-    <cfRule type="cellIs" dxfId="307" priority="109" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AI32:AI40 T17:T25">
+    <cfRule type="cellIs" dxfId="287" priority="109" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="110" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="286" priority="110" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH30:AH38">
-    <cfRule type="cellIs" dxfId="305" priority="107" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH31:AH39">
+    <cfRule type="cellIs" dxfId="285" priority="107" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="108" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="284" priority="108" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG29:AG37">
-    <cfRule type="cellIs" dxfId="303" priority="105" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AG30:AG38">
+    <cfRule type="cellIs" dxfId="283" priority="105" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="106" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="282" priority="106" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD24:AD32">
-    <cfRule type="cellIs" dxfId="301" priority="97" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AD25:AD33">
+    <cfRule type="cellIs" dxfId="281" priority="97" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="98" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="280" priority="98" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF26:AF33">
-    <cfRule type="cellIs" dxfId="299" priority="101" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AF27:AF34">
+    <cfRule type="cellIs" dxfId="279" priority="101" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="102" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="278" priority="102" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE25:AE33">
-    <cfRule type="cellIs" dxfId="297" priority="99" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AE26:AE34">
+    <cfRule type="cellIs" dxfId="277" priority="99" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="100" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="276" priority="100" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC23:AC31">
-    <cfRule type="cellIs" dxfId="295" priority="95" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AC24:AC32">
+    <cfRule type="cellIs" dxfId="275" priority="95" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="96" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="274" priority="96" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB30">
-    <cfRule type="cellIs" dxfId="293" priority="93" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AB31">
+    <cfRule type="cellIs" dxfId="273" priority="93" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="94" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="272" priority="94" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB39:AG39">
-    <cfRule type="cellIs" dxfId="291" priority="91" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AB40:AG40">
+    <cfRule type="cellIs" dxfId="271" priority="91" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="92" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="270" priority="92" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB38:AF38 AB35:AC37 AE35:AF37">
-    <cfRule type="cellIs" dxfId="289" priority="89" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AB39:AF39 AB36:AC38 AE36:AF38">
+    <cfRule type="cellIs" dxfId="269" priority="89" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="90" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="268" priority="90" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB33:AC34">
-    <cfRule type="cellIs" dxfId="287" priority="87" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AB34:AC35">
+    <cfRule type="cellIs" dxfId="267" priority="87" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="88" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="266" priority="88" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD34:AD37">
-    <cfRule type="cellIs" dxfId="285" priority="85" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AD35:AD38">
+    <cfRule type="cellIs" dxfId="265" priority="85" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="86" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="264" priority="86" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB22:AB29">
-    <cfRule type="cellIs" dxfId="283" priority="83" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AB23:AB30">
+    <cfRule type="cellIs" dxfId="263" priority="83" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="84" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="262" priority="84" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA23:AA30 AA32:AA43">
-    <cfRule type="cellIs" dxfId="281" priority="81" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AA24:AA31 AA33:AA44">
+    <cfRule type="cellIs" dxfId="261" priority="81" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="82" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="260" priority="82" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z21:Z29">
-    <cfRule type="cellIs" dxfId="279" priority="79" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="Z22:Z30">
+    <cfRule type="cellIs" dxfId="259" priority="79" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="80" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="258" priority="80" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y21:Y29">
-    <cfRule type="cellIs" dxfId="277" priority="77" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="Y22:Y30">
+    <cfRule type="cellIs" dxfId="257" priority="77" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="78" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="256" priority="78" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X21:X26 X28:X31">
-    <cfRule type="cellIs" dxfId="275" priority="75" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="X22:X27 X29:X32">
+    <cfRule type="cellIs" dxfId="255" priority="75" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="76" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="254" priority="76" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W18:W26 W28:W1048576">
-    <cfRule type="cellIs" dxfId="273" priority="73" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="W19:W27 W29:W1048576">
+    <cfRule type="cellIs" dxfId="253" priority="73" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="74" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="252" priority="74" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V18:V25 V27:V45">
-    <cfRule type="cellIs" dxfId="271" priority="71" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="V19:V26 V28:V46">
+    <cfRule type="cellIs" dxfId="251" priority="71" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="72" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="250" priority="72" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U17:U25 U27:U30 S29:X41">
-    <cfRule type="cellIs" dxfId="269" priority="69" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="U18:U26 U28:U31 S30:X42">
+    <cfRule type="cellIs" dxfId="249" priority="69" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="70" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="248" priority="70" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T26:T35">
-    <cfRule type="cellIs" dxfId="267" priority="67" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="T27:T36">
+    <cfRule type="cellIs" dxfId="247" priority="67" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="68" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="246" priority="68" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S14:S22 S24:S29">
-    <cfRule type="cellIs" dxfId="265" priority="65" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="S15:S23 S25:S30">
+    <cfRule type="cellIs" dxfId="245" priority="65" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="66" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="244" priority="66" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y31:Z41">
-    <cfRule type="cellIs" dxfId="263" priority="63" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="Y32:Z42">
+    <cfRule type="cellIs" dxfId="243" priority="63" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="64" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="242" priority="64" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y31:Z41">
-    <cfRule type="cellIs" dxfId="261" priority="61" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="Y32:Z42">
+    <cfRule type="cellIs" dxfId="241" priority="61" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="62" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="240" priority="62" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R12:R20 R22:R23">
-    <cfRule type="cellIs" dxfId="259" priority="59" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="R13:R21 R23:R24">
+    <cfRule type="cellIs" dxfId="239" priority="59" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="60" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="238" priority="60" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q11:Q18">
-    <cfRule type="cellIs" dxfId="257" priority="57" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="Q12:Q19">
+    <cfRule type="cellIs" dxfId="237" priority="57" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="58" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="236" priority="58" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P20:P23">
-    <cfRule type="cellIs" dxfId="255" priority="55" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="P21:P24">
+    <cfRule type="cellIs" dxfId="235" priority="55" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="56" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="234" priority="56" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P10:P18">
-    <cfRule type="cellIs" dxfId="253" priority="53" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="P11:P19">
+    <cfRule type="cellIs" dxfId="233" priority="53" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="54" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="232" priority="54" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P24:R33 R34:R47">
-    <cfRule type="cellIs" dxfId="251" priority="51" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="P25:R34 R35:R48">
+    <cfRule type="cellIs" dxfId="231" priority="51" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="52" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="230" priority="52" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9:O17 O19">
-    <cfRule type="cellIs" dxfId="249" priority="47" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="O10:O18 O20">
+    <cfRule type="cellIs" dxfId="229" priority="47" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="48" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="228" priority="48" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N19 M8:O16 N17:O17">
-    <cfRule type="cellIs" dxfId="247" priority="45" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="N20 M9:O17 N18:O18">
+    <cfRule type="cellIs" dxfId="227" priority="45" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="46" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="226" priority="46" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O20:O33">
-    <cfRule type="cellIs" dxfId="245" priority="43" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="O21:O34">
+    <cfRule type="cellIs" dxfId="225" priority="43" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="44" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="224" priority="44" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M9:M16 M19">
-    <cfRule type="cellIs" dxfId="243" priority="41" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="M10:M17 M20">
+    <cfRule type="cellIs" dxfId="223" priority="41" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="42" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="222" priority="42" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L16 L18:L19">
-    <cfRule type="cellIs" dxfId="241" priority="39" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="L9:L17 L19:L20">
+    <cfRule type="cellIs" dxfId="221" priority="39" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="40" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="220" priority="40" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K15 K17:K19">
-    <cfRule type="cellIs" dxfId="239" priority="37" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="K12:K16 K18:K20">
+    <cfRule type="cellIs" dxfId="219" priority="37" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="38" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="218" priority="38" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:K10">
-    <cfRule type="cellIs" dxfId="237" priority="35" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="K8:K11">
+    <cfRule type="cellIs" dxfId="217" priority="35" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="36" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="216" priority="36" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:J14 J16:J19">
-    <cfRule type="cellIs" dxfId="235" priority="33" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="J7:J15 J17:J20">
+    <cfRule type="cellIs" dxfId="215" priority="33" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="34" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="214" priority="34" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I14 I16:I19">
-    <cfRule type="cellIs" dxfId="233" priority="31" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="I7:I15 I17:I20">
+    <cfRule type="cellIs" dxfId="213" priority="31" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="32" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="212" priority="32" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15:H19">
-    <cfRule type="cellIs" dxfId="231" priority="29" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="H16:H20">
+    <cfRule type="cellIs" dxfId="211" priority="29" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="30" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="210" priority="30" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H13">
-    <cfRule type="cellIs" dxfId="229" priority="27" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="H6:H14">
+    <cfRule type="cellIs" dxfId="209" priority="27" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="28" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="208" priority="28" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20:N33">
-    <cfRule type="cellIs" dxfId="227" priority="25" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="H21:N34">
+    <cfRule type="cellIs" dxfId="207" priority="25" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="206" priority="26" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34:Q52">
-    <cfRule type="cellIs" dxfId="225" priority="23" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="H35:Q53">
+    <cfRule type="cellIs" dxfId="205" priority="23" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="204" priority="24" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G13 G15:G16">
-    <cfRule type="cellIs" dxfId="223" priority="21" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="G6:G14 G16:G17">
+    <cfRule type="cellIs" dxfId="203" priority="21" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="22" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="202" priority="22" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F12 F14:F16">
-    <cfRule type="cellIs" dxfId="221" priority="19" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="F5:F13 F15:F17">
+    <cfRule type="cellIs" dxfId="201" priority="19" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="200" priority="20" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E11 E14:E16">
-    <cfRule type="cellIs" dxfId="219" priority="17" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="E4:E12 E15:E17">
+    <cfRule type="cellIs" dxfId="199" priority="17" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="198" priority="18" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:G208">
-    <cfRule type="cellIs" dxfId="217" priority="15" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="E18:G209">
+    <cfRule type="cellIs" dxfId="197" priority="15" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="16" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="196" priority="16" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D11 D13:D15">
-    <cfRule type="cellIs" dxfId="215" priority="13" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="D4:D12 D14:D16">
+    <cfRule type="cellIs" dxfId="195" priority="13" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="194" priority="14" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C15">
-    <cfRule type="cellIs" dxfId="213" priority="11" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="C13:C16">
+    <cfRule type="cellIs" dxfId="193" priority="11" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="192" priority="12" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16:D38">
-    <cfRule type="cellIs" dxfId="211" priority="9" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="C17:D39">
+    <cfRule type="cellIs" dxfId="191" priority="9" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="10" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="190" priority="10" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C10">
-    <cfRule type="cellIs" dxfId="209" priority="7" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="C3:C11">
+    <cfRule type="cellIs" dxfId="189" priority="7" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="188" priority="8" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:B15">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="B13:B16">
+    <cfRule type="cellIs" dxfId="187" priority="5" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="186" priority="6" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B38">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="B17:B39">
+    <cfRule type="cellIs" dxfId="185" priority="3" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="184" priority="4" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B10">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="B3:B10">
+    <cfRule type="cellIs" dxfId="183" priority="1" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="182" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44081,730 +43749,730 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AL31:AM44 M8:M9">
-    <cfRule type="cellIs" dxfId="207" priority="213" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="181" priority="213" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="214" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="180" priority="214" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL31:AL44">
-    <cfRule type="cellIs" dxfId="205" priority="209" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="179" priority="209" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="210" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="178" priority="210" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK30:AK43">
-    <cfRule type="cellIs" dxfId="203" priority="207" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="177" priority="207" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="208" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="176" priority="208" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK30:AK43">
-    <cfRule type="cellIs" dxfId="201" priority="205" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="175" priority="205" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="206" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="174" priority="206" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ30:AJ43">
-    <cfRule type="cellIs" dxfId="199" priority="203" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="173" priority="203" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="204" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="172" priority="204" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ30:AJ43">
-    <cfRule type="cellIs" dxfId="197" priority="201" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="171" priority="201" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="202" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="170" priority="202" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI33:AI42">
-    <cfRule type="cellIs" dxfId="195" priority="199" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="169" priority="199" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="200" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="168" priority="200" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI33:AI42">
-    <cfRule type="cellIs" dxfId="193" priority="197" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="167" priority="197" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="198" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="166" priority="198" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH26:AI32">
-    <cfRule type="cellIs" dxfId="191" priority="195" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="165" priority="195" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="196" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="164" priority="196" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH26:AI32">
-    <cfRule type="cellIs" dxfId="189" priority="193" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="163" priority="193" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="194" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="162" priority="194" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH33:AH39">
-    <cfRule type="cellIs" dxfId="187" priority="191" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="161" priority="191" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="192" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="160" priority="192" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH33:AH39">
-    <cfRule type="cellIs" dxfId="185" priority="189" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="159" priority="189" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="190" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="158" priority="190" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG25:AG38">
-    <cfRule type="cellIs" dxfId="183" priority="187" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="157" priority="187" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="188" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="156" priority="188" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG25:AG38">
-    <cfRule type="cellIs" dxfId="181" priority="185" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="155" priority="185" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="186" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="154" priority="186" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF25:AF38">
-    <cfRule type="cellIs" dxfId="179" priority="183" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="153" priority="183" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="184" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="152" priority="184" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF25:AF38">
-    <cfRule type="cellIs" dxfId="177" priority="181" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="151" priority="181" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="182" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="150" priority="182" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE24:AE37">
-    <cfRule type="cellIs" dxfId="175" priority="179" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="149" priority="179" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="180" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="148" priority="180" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE24:AE37">
-    <cfRule type="cellIs" dxfId="173" priority="177" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="147" priority="177" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="178" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="146" priority="178" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD23:AD36">
-    <cfRule type="cellIs" dxfId="171" priority="175" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="145" priority="175" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="176" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="144" priority="176" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD23:AD36">
-    <cfRule type="cellIs" dxfId="169" priority="173" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="143" priority="173" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="174" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="142" priority="174" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC22:AC35">
-    <cfRule type="cellIs" dxfId="167" priority="171" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="141" priority="171" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="172" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="140" priority="172" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC22:AC35">
-    <cfRule type="cellIs" dxfId="165" priority="169" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="139" priority="169" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="170" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="138" priority="170" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB22:AB35 AB37:AB39">
-    <cfRule type="cellIs" dxfId="163" priority="167" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="137" priority="167" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="168" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="136" priority="168" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB22:AB35 AB37:AB39">
-    <cfRule type="cellIs" dxfId="161" priority="165" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="135" priority="165" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="166" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="134" priority="166" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB40:AB44 AB629:AB634">
-    <cfRule type="cellIs" dxfId="159" priority="163" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="133" priority="163" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="164" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="132" priority="164" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB40:AB44 AB629:AB634">
-    <cfRule type="cellIs" dxfId="157" priority="161" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="131" priority="161" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="162" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="130" priority="162" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC37:AC44">
-    <cfRule type="cellIs" dxfId="155" priority="159" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="129" priority="159" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="160" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="128" priority="160" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC37:AC44">
-    <cfRule type="cellIs" dxfId="153" priority="157" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="127" priority="157" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="158" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="126" priority="158" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD38:AD44">
-    <cfRule type="cellIs" dxfId="151" priority="155" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="125" priority="155" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="156" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="124" priority="156" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD38:AD44">
-    <cfRule type="cellIs" dxfId="149" priority="153" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="123" priority="153" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="154" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="122" priority="154" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE39:AE44">
-    <cfRule type="cellIs" dxfId="147" priority="151" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="121" priority="151" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="152" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="120" priority="152" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE39:AE44">
-    <cfRule type="cellIs" dxfId="145" priority="149" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="119" priority="149" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="150" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="118" priority="150" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF40:AG44">
-    <cfRule type="cellIs" dxfId="143" priority="147" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="117" priority="147" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="148" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="116" priority="148" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF40:AG44">
-    <cfRule type="cellIs" dxfId="141" priority="145" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="115" priority="145" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="146" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="114" priority="146" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH41:AH44">
-    <cfRule type="cellIs" dxfId="139" priority="143" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="113" priority="143" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="144" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="112" priority="144" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH41:AH44">
-    <cfRule type="cellIs" dxfId="137" priority="141" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="111" priority="141" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="142" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="110" priority="142" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI44">
-    <cfRule type="cellIs" dxfId="135" priority="139" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="109" priority="139" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="140" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="108" priority="140" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI44">
-    <cfRule type="cellIs" dxfId="133" priority="137" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="107" priority="137" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="138" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="106" priority="138" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z45:AK45 Z46:AL47 Y48:AL628 A45:A628 Q47:V49 F156:V628 H50:V155">
-    <cfRule type="cellIs" dxfId="131" priority="131" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="105" priority="131" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="132" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="104" priority="132" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z45:AK45 Z46:AL47 Y48:AL628 A45:A628 Q47:V49 F156:V628 H50:V155">
-    <cfRule type="cellIs" dxfId="129" priority="129" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="103" priority="129" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="130" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="102" priority="130" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA21:AA34">
-    <cfRule type="cellIs" dxfId="127" priority="127" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="101" priority="127" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="128" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="100" priority="128" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA21:AA34">
-    <cfRule type="cellIs" dxfId="125" priority="125" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="99" priority="125" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="126" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="98" priority="126" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z20:Z33 Z35">
-    <cfRule type="cellIs" dxfId="123" priority="123" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="97" priority="123" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="124" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="96" priority="124" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z20:Z33 Z35">
-    <cfRule type="cellIs" dxfId="121" priority="121" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="95" priority="121" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="122" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="94" priority="122" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y18:Y31 Y33:Y47">
-    <cfRule type="cellIs" dxfId="119" priority="119" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="93" priority="119" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="120" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="92" priority="120" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y18:Y31 Y33:Y47">
-    <cfRule type="cellIs" dxfId="117" priority="117" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="91" priority="117" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="118" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="90" priority="118" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X18:X31 X33:X1048576">
-    <cfRule type="cellIs" dxfId="115" priority="115" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="89" priority="115" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="116" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="88" priority="116" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X18:X31 X33:X1048576">
-    <cfRule type="cellIs" dxfId="113" priority="113" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="87" priority="113" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="114" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="86" priority="114" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W17:W30 W32:W1048576">
-    <cfRule type="cellIs" dxfId="111" priority="107" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="85" priority="107" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="108" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="84" priority="108" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W17:W30 W32:W1048576">
-    <cfRule type="cellIs" dxfId="109" priority="105" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="83" priority="105" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="106" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="82" priority="106" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V17:V30 V32:V33">
-    <cfRule type="cellIs" dxfId="107" priority="103" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="81" priority="103" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="104" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="80" priority="104" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V17:V30 V32:V33">
-    <cfRule type="cellIs" dxfId="105" priority="101" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="79" priority="101" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="102" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="78" priority="102" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U31:U33">
-    <cfRule type="cellIs" dxfId="103" priority="99" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="77" priority="99" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="100" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="76" priority="100" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U31:U33">
-    <cfRule type="cellIs" dxfId="101" priority="97" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="75" priority="97" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="98" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="74" priority="98" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U16:U29">
-    <cfRule type="cellIs" dxfId="99" priority="95" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="73" priority="95" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="96" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="72" priority="96" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U16:U29">
-    <cfRule type="cellIs" dxfId="97" priority="93" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="71" priority="93" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="94" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="70" priority="94" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30:T33 S29">
-    <cfRule type="cellIs" dxfId="95" priority="91" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="69" priority="91" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="92" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="68" priority="92" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30:T33 S29">
-    <cfRule type="cellIs" dxfId="93" priority="89" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="67" priority="89" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="90" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="66" priority="90" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14:S27">
-    <cfRule type="cellIs" dxfId="91" priority="87" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="65" priority="87" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="88" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="64" priority="88" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14:S27">
-    <cfRule type="cellIs" dxfId="89" priority="85" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="63" priority="85" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="86" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="62" priority="86" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15:T28">
-    <cfRule type="cellIs" dxfId="87" priority="83" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="61" priority="83" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="84" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="60" priority="84" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15:T28">
-    <cfRule type="cellIs" dxfId="85" priority="81" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="59" priority="81" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="82" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="58" priority="82" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:R25 R27:R33">
-    <cfRule type="cellIs" dxfId="83" priority="79" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="57" priority="79" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="80" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="56" priority="80" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:R25 R27:R33">
-    <cfRule type="cellIs" dxfId="81" priority="77" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="55" priority="77" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="78" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="54" priority="78" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q24 Q26:Q33">
-    <cfRule type="cellIs" dxfId="79" priority="75" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="53" priority="75" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="76" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="52" priority="76" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q24 Q26:Q33">
-    <cfRule type="cellIs" dxfId="77" priority="73" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="51" priority="73" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="74" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="50" priority="74" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:P23">
-    <cfRule type="cellIs" dxfId="75" priority="71" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="49" priority="71" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="72" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="48" priority="72" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:P23">
-    <cfRule type="cellIs" dxfId="73" priority="69" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="47" priority="69" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="70" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="46" priority="70" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:O22 O24">
-    <cfRule type="cellIs" dxfId="71" priority="67" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="45" priority="67" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="68" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="44" priority="68" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:O22 O24">
-    <cfRule type="cellIs" dxfId="69" priority="65" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="43" priority="65" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="66" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="42" priority="66" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:N22 N24">
-    <cfRule type="cellIs" dxfId="67" priority="63" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="41" priority="63" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="64" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="40" priority="64" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:N22 N24">
-    <cfRule type="cellIs" dxfId="65" priority="61" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="39" priority="61" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="62" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="38" priority="62" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:M21 M23:M24">
-    <cfRule type="cellIs" dxfId="63" priority="51" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="37" priority="51" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="52" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="36" priority="52" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:M21 M23:M24">
-    <cfRule type="cellIs" dxfId="61" priority="49" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="35" priority="49" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="50" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="34" priority="50" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L21 L23:L24">
-    <cfRule type="cellIs" dxfId="59" priority="47" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="33" priority="47" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="48" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="32" priority="48" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:K20 K22:K24">
-    <cfRule type="cellIs" dxfId="57" priority="45" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="31" priority="45" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="46" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="30" priority="46" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J19 J21:J24">
-    <cfRule type="cellIs" dxfId="55" priority="43" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="29" priority="43" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="44" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="28" priority="44" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I19 I21:I24">
-    <cfRule type="cellIs" dxfId="53" priority="41" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="27" priority="41" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="42" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="26" priority="42" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H18 H20:H24">
-    <cfRule type="cellIs" dxfId="51" priority="39" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="25" priority="39" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="40" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="40" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:P33 H47:P49 H34:O46">
-    <cfRule type="cellIs" dxfId="49" priority="37" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="23" priority="37" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="38" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="22" priority="38" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P34:V46">
-    <cfRule type="cellIs" dxfId="47" priority="35" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="21" priority="35" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="36" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="20" priority="36" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P34:V46">
-    <cfRule type="cellIs" dxfId="45" priority="33" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="19" priority="33" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="34" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="18" priority="34" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z36:AA44">
-    <cfRule type="cellIs" dxfId="43" priority="31" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="17" priority="31" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="32" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="32" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z36:AA44">
-    <cfRule type="cellIs" dxfId="41" priority="29" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="15" priority="29" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="30" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="30" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G18 G20:G22">
-    <cfRule type="cellIs" dxfId="39" priority="27" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="13" priority="27" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="28" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="28" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F17">
-    <cfRule type="cellIs" dxfId="37" priority="25" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="11" priority="25" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="26" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:G155">
-    <cfRule type="cellIs" dxfId="33" priority="21" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="21" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="22" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="22" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:E628">
-    <cfRule type="cellIs" dxfId="27" priority="7" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:E628">
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:E15 B2:H14 B17:C17 D16:E16">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:E155">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/GFS/GFS.xlsx
+++ b/GFS/GFS.xlsx
@@ -376,92 +376,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="556">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="546">
     <dxf>
       <font>
         <color auto="1"/>
@@ -5408,7 +5323,7 @@
   <dimension ref="A1:AT1107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B16" sqref="B16:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="15" thickBottom="1" x14ac:dyDescent="0.35"/>
@@ -5792,7 +5707,9 @@
       <c r="A9" s="3">
         <v>43142</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2">
+        <v>3.24</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
         <v>1.24</v>
@@ -5869,7 +5786,9 @@
       <c r="A10" s="3">
         <v>43141</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <v>-1.49</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
         <v>-3.38</v>
@@ -5948,7 +5867,9 @@
       <c r="A11" s="3">
         <v>43140</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <v>-0.85</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
         <v>0.7</v>
@@ -6516,7 +6437,7 @@
       </c>
       <c r="B17" s="6">
         <f>SUM(B2:B16)</f>
-        <v>-0.30000000000000004</v>
+        <v>0.60000000000000031</v>
       </c>
       <c r="C17" s="2">
         <v>0.56999999999999995</v>
@@ -18063,858 +17984,858 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AT34:AT48 Z31:Z32 Z16:Z29">
-    <cfRule type="cellIs" dxfId="547" priority="217" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="545" priority="217" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="546" priority="218" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="544" priority="218" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS33:AS47">
-    <cfRule type="cellIs" dxfId="545" priority="215" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="543" priority="215" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="544" priority="216" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="542" priority="216" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR32:AR46">
-    <cfRule type="cellIs" dxfId="543" priority="213" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="541" priority="213" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="542" priority="214" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="540" priority="214" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ32:AQ46">
-    <cfRule type="cellIs" dxfId="541" priority="211" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="539" priority="211" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="540" priority="212" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="538" priority="212" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP29:AP43 AP45:AP46">
-    <cfRule type="cellIs" dxfId="539" priority="209" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="537" priority="209" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="538" priority="210" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="536" priority="210" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO28:AR42 AO45:AR46 AP43:AR43 AO44 AQ44:AR44 AO48:AR52 AO47:AP47 AO1108:AR1048576 AP53:AR1107">
-    <cfRule type="cellIs" dxfId="537" priority="207" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="535" priority="207" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="536" priority="208" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="534" priority="208" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO44:AO48">
-    <cfRule type="cellIs" dxfId="535" priority="205" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="533" priority="205" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="534" priority="206" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="532" priority="206" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO44:AO48">
-    <cfRule type="cellIs" dxfId="533" priority="203" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="531" priority="203" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="532" priority="204" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="530" priority="204" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN28:AN42">
-    <cfRule type="cellIs" dxfId="531" priority="201" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="529" priority="201" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="530" priority="202" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="528" priority="202" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM27:AM41">
-    <cfRule type="cellIs" dxfId="529" priority="199" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="527" priority="199" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="528" priority="200" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="526" priority="200" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL26:AL40">
-    <cfRule type="cellIs" dxfId="527" priority="197" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="525" priority="197" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="526" priority="198" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="524" priority="198" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK25:AK39">
-    <cfRule type="cellIs" dxfId="525" priority="195" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="523" priority="195" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="524" priority="196" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="522" priority="196" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ25:AJ38">
-    <cfRule type="cellIs" dxfId="523" priority="193" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="521" priority="193" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="522" priority="194" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="520" priority="194" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ39">
-    <cfRule type="cellIs" dxfId="521" priority="191" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="519" priority="191" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="520" priority="192" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="518" priority="192" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL52">
-    <cfRule type="cellIs" dxfId="519" priority="167" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="517" priority="167" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="518" priority="168" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="516" priority="168" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH24:AT38">
-    <cfRule type="cellIs" dxfId="517" priority="189" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="515" priority="189" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="516" priority="190" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="514" priority="190" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI44:AN51 AI53:AN53 AI52:AK52 AM52:AN52">
-    <cfRule type="cellIs" dxfId="515" priority="187" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="513" priority="187" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="514" priority="188" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="512" priority="188" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO53">
-    <cfRule type="cellIs" dxfId="513" priority="183" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="511" priority="183" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="512" priority="184" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="510" priority="184" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG49:AH62 A49:A62 F49:P49 F50:U62">
-    <cfRule type="cellIs" dxfId="511" priority="181" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="509" priority="181" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="510" priority="182" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="508" priority="182" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ41:AK43">
-    <cfRule type="cellIs" dxfId="509" priority="175" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="507" priority="175" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="508" priority="176" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="506" priority="176" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI40:AI43">
-    <cfRule type="cellIs" dxfId="507" priority="177" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="505" priority="177" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="506" priority="178" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="504" priority="178" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL42:AL43">
-    <cfRule type="cellIs" dxfId="505" priority="173" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="503" priority="173" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="504" priority="174" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="502" priority="174" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM43">
-    <cfRule type="cellIs" dxfId="503" priority="171" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="501" priority="171" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="502" priority="172" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="500" priority="172" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI54:AO1107">
-    <cfRule type="cellIs" dxfId="501" priority="169" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="499" priority="169" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="500" priority="170" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="498" priority="170" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH24:AH38">
-    <cfRule type="cellIs" dxfId="499" priority="165" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="497" priority="165" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="498" priority="166" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="496" priority="166" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG21:AG35 AG37:AG45">
-    <cfRule type="cellIs" dxfId="497" priority="163" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="495" priority="163" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="496" priority="164" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="494" priority="164" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG21:AG35 AG37:AG45">
-    <cfRule type="cellIs" dxfId="495" priority="161" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="493" priority="161" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="494" priority="162" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="492" priority="162" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF21:AF35 AF37:AF1048576">
-    <cfRule type="cellIs" dxfId="493" priority="159" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="491" priority="159" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="492" priority="160" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="490" priority="160" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF21:AF35 AF37:AF1048576">
-    <cfRule type="cellIs" dxfId="491" priority="157" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="489" priority="157" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="158" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="488" priority="158" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE36:AE1048576">
-    <cfRule type="cellIs" dxfId="489" priority="155" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="487" priority="155" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="488" priority="156" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="486" priority="156" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE36:AE1048576">
-    <cfRule type="cellIs" dxfId="487" priority="153" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="485" priority="153" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="154" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="484" priority="154" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE20:AE34">
-    <cfRule type="cellIs" dxfId="485" priority="151" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="483" priority="151" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="484" priority="152" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="482" priority="152" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE20:AE34">
-    <cfRule type="cellIs" dxfId="483" priority="149" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="481" priority="149" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="482" priority="150" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="480" priority="150" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD19:AD33 AD35:AD37">
-    <cfRule type="cellIs" dxfId="481" priority="145" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="479" priority="145" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="480" priority="146" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="478" priority="146" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD19:AD33 AD35:AD37">
-    <cfRule type="cellIs" dxfId="479" priority="147" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="477" priority="147" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="148" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="476" priority="148" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC18:AC31">
-    <cfRule type="cellIs" dxfId="477" priority="141" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="475" priority="141" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="142" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="474" priority="142" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC18:AC31">
-    <cfRule type="cellIs" dxfId="475" priority="143" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="473" priority="143" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="144" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="472" priority="144" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA17:AA31 AB34:AB37">
-    <cfRule type="cellIs" dxfId="473" priority="137" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="471" priority="137" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="138" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="470" priority="138" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA17:AA31 AB34:AB37">
-    <cfRule type="cellIs" dxfId="471" priority="139" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="469" priority="139" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="140" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="468" priority="140" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AB31">
-    <cfRule type="cellIs" dxfId="469" priority="133" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="467" priority="133" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="134" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="466" priority="134" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AB31">
-    <cfRule type="cellIs" dxfId="467" priority="135" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="465" priority="135" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="136" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="464" priority="136" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB32:AC32">
-    <cfRule type="cellIs" dxfId="465" priority="129" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="463" priority="129" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="130" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="462" priority="130" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB32:AC32">
-    <cfRule type="cellIs" dxfId="463" priority="131" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="461" priority="131" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="132" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="460" priority="132" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z15">
-    <cfRule type="cellIs" dxfId="461" priority="125" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="459" priority="125" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="126" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="458" priority="126" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z15">
-    <cfRule type="cellIs" dxfId="459" priority="127" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="457" priority="127" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="128" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="456" priority="128" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y30:Y32">
-    <cfRule type="cellIs" dxfId="457" priority="121" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="455" priority="121" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="122" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="454" priority="122" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y30:Y32">
-    <cfRule type="cellIs" dxfId="455" priority="123" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="453" priority="123" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="124" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="452" priority="124" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y13:Y27 Y29">
-    <cfRule type="cellIs" dxfId="453" priority="117" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="451" priority="117" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="118" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="450" priority="118" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y13:Y27 Y29">
-    <cfRule type="cellIs" dxfId="451" priority="119" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="449" priority="119" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="120" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="448" priority="120" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13:X27 X29:X32">
-    <cfRule type="cellIs" dxfId="449" priority="113" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="447" priority="113" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="114" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="446" priority="114" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13:X27 X29:X32">
-    <cfRule type="cellIs" dxfId="447" priority="115" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="445" priority="115" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="116" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="444" priority="116" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11:W25 V28:W30 W26">
-    <cfRule type="cellIs" dxfId="445" priority="109" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="443" priority="109" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="110" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="442" priority="110" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11:W25 V28:W30 W26">
-    <cfRule type="cellIs" dxfId="443" priority="111" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="441" priority="111" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="112" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="440" priority="112" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X33:AA37">
-    <cfRule type="cellIs" dxfId="441" priority="105" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="439" priority="105" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="106" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="438" priority="106" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X33:AA37">
-    <cfRule type="cellIs" dxfId="439" priority="107" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="437" priority="107" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="108" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="436" priority="108" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V50:AD93 X38:AD49">
-    <cfRule type="cellIs" dxfId="437" priority="101" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="435" priority="101" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="102" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="434" priority="102" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V50:AD93 X38:AD49">
-    <cfRule type="cellIs" dxfId="435" priority="103" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="433" priority="103" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="104" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="432" priority="104" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11:U25 U28:U30">
-    <cfRule type="cellIs" dxfId="433" priority="97" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="431" priority="97" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="98" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="430" priority="98" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11:U25 U28:U30">
-    <cfRule type="cellIs" dxfId="431" priority="99" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="429" priority="99" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="100" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="428" priority="100" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11:T25 T27:T30">
-    <cfRule type="cellIs" dxfId="429" priority="93" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="427" priority="93" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="94" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="426" priority="94" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11:T25 T27:T30">
-    <cfRule type="cellIs" dxfId="427" priority="95" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="425" priority="95" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="96" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="424" priority="96" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10:S24 S26:S30">
-    <cfRule type="cellIs" dxfId="425" priority="89" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="423" priority="89" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="90" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="422" priority="90" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10:S24 S26:S30">
-    <cfRule type="cellIs" dxfId="423" priority="91" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="421" priority="91" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="92" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="420" priority="92" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10:R24">
-    <cfRule type="cellIs" dxfId="421" priority="85" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="419" priority="85" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="86" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="418" priority="86" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10:R24">
-    <cfRule type="cellIs" dxfId="419" priority="87" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="417" priority="87" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="88" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="416" priority="88" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9:Q23 Q25">
-    <cfRule type="cellIs" dxfId="417" priority="81" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="415" priority="81" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="82" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="414" priority="82" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9:Q23 Q25">
-    <cfRule type="cellIs" dxfId="415" priority="83" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="413" priority="83" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="84" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="412" priority="84" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:P22 P24:P25">
-    <cfRule type="cellIs" dxfId="413" priority="77" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="411" priority="77" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="78" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="410" priority="78" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:P22 P24:P25">
-    <cfRule type="cellIs" dxfId="411" priority="79" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="409" priority="79" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="80" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="408" priority="80" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24:O25">
-    <cfRule type="cellIs" dxfId="409" priority="73" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="407" priority="73" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="74" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="406" priority="74" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24:O25">
-    <cfRule type="cellIs" dxfId="407" priority="75" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="405" priority="75" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="76" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="404" priority="76" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8:O22">
-    <cfRule type="cellIs" dxfId="405" priority="69" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="403" priority="69" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="70" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="402" priority="70" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8:O22">
-    <cfRule type="cellIs" dxfId="403" priority="71" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="401" priority="71" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="72" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="400" priority="72" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:N22 N24:N25">
-    <cfRule type="cellIs" dxfId="401" priority="65" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="399" priority="65" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="66" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="398" priority="66" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:N22 N24:N25">
-    <cfRule type="cellIs" dxfId="399" priority="67" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="397" priority="67" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="68" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="396" priority="68" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26:R30 N31:P48">
-    <cfRule type="cellIs" dxfId="397" priority="61" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="395" priority="61" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="62" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="394" priority="62" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26:R30 N31:P48">
-    <cfRule type="cellIs" dxfId="395" priority="63" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="393" priority="63" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="64" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="392" priority="64" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q31:W49">
-    <cfRule type="cellIs" dxfId="393" priority="57" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="391" priority="57" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="58" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="390" priority="58" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q31:W49">
-    <cfRule type="cellIs" dxfId="391" priority="59" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="389" priority="59" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="60" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="388" priority="60" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:M21">
-    <cfRule type="cellIs" dxfId="389" priority="53" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="387" priority="53" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="54" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="386" priority="54" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:M21">
-    <cfRule type="cellIs" dxfId="387" priority="55" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="385" priority="55" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="56" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="384" priority="56" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:L14">
-    <cfRule type="cellIs" dxfId="385" priority="49" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="383" priority="49" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="50" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="382" priority="50" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:L14">
-    <cfRule type="cellIs" dxfId="383" priority="51" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="381" priority="51" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="52" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="380" priority="52" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:L21">
-    <cfRule type="cellIs" dxfId="381" priority="45" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="379" priority="45" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="46" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="378" priority="46" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:L21">
-    <cfRule type="cellIs" dxfId="379" priority="47" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="377" priority="47" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="48" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="376" priority="48" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:K21">
-    <cfRule type="cellIs" dxfId="377" priority="41" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="375" priority="41" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="42" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="374" priority="42" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:K21">
-    <cfRule type="cellIs" dxfId="375" priority="43" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="373" priority="43" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="44" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="372" priority="44" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J20">
-    <cfRule type="cellIs" dxfId="373" priority="37" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="371" priority="37" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="38" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="370" priority="38" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J20">
-    <cfRule type="cellIs" dxfId="371" priority="39" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="369" priority="39" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="40" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="368" priority="40" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I20 I22">
-    <cfRule type="cellIs" dxfId="369" priority="33" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="367" priority="33" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="34" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="366" priority="34" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I20 I22">
-    <cfRule type="cellIs" dxfId="367" priority="35" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="365" priority="35" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="36" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="364" priority="36" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H20 H22">
-    <cfRule type="cellIs" dxfId="365" priority="29" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="363" priority="29" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="30" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="362" priority="30" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H20 H22">
-    <cfRule type="cellIs" dxfId="363" priority="31" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="361" priority="31" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="32" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="360" priority="32" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G20 G22">
-    <cfRule type="cellIs" dxfId="361" priority="25" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="359" priority="25" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="358" priority="26" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G20 G22">
-    <cfRule type="cellIs" dxfId="359" priority="27" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="357" priority="27" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="28" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="356" priority="28" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F19 F21:F22">
-    <cfRule type="cellIs" dxfId="357" priority="21" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="355" priority="21" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="22" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="354" priority="22" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F19 F21:F22">
-    <cfRule type="cellIs" dxfId="355" priority="23" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="353" priority="23" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="352" priority="24" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:M47">
-    <cfRule type="cellIs" dxfId="353" priority="17" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="351" priority="17" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="350" priority="18" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:M47">
-    <cfRule type="cellIs" dxfId="351" priority="19" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="349" priority="19" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="348" priority="20" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E18">
-    <cfRule type="cellIs" dxfId="349" priority="13" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="347" priority="13" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="346" priority="14" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E18">
-    <cfRule type="cellIs" dxfId="347" priority="15" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="345" priority="15" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="16" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="344" priority="16" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D18">
-    <cfRule type="cellIs" dxfId="345" priority="9" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="343" priority="9" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="10" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="342" priority="10" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D18">
-    <cfRule type="cellIs" dxfId="343" priority="11" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="341" priority="11" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="340" priority="12" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C17">
-    <cfRule type="cellIs" dxfId="341" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="339" priority="5" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="338" priority="6" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C17">
-    <cfRule type="cellIs" dxfId="339" priority="7" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="337" priority="7" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="336" priority="8" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B16">
-    <cfRule type="cellIs" dxfId="337" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="335" priority="1" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="334" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B16">
-    <cfRule type="cellIs" dxfId="335" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="333" priority="3" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="332" priority="4" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22307,482 +22228,482 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AK34:AK42 V19:V27">
-    <cfRule type="cellIs" dxfId="333" priority="131" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="331" priority="131" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="132" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="330" priority="132" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ33:AJ41">
-    <cfRule type="cellIs" dxfId="331" priority="129" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="329" priority="129" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="130" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="328" priority="130" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI32:AI40">
-    <cfRule type="cellIs" dxfId="329" priority="127" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="327" priority="127" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="128" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="326" priority="128" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF27:AF35">
-    <cfRule type="cellIs" dxfId="327" priority="119" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="325" priority="119" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="120" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="324" priority="120" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH29:AH36">
-    <cfRule type="cellIs" dxfId="325" priority="123" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="323" priority="123" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="124" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="322" priority="124" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG28:AG36">
-    <cfRule type="cellIs" dxfId="323" priority="121" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="321" priority="121" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="122" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="320" priority="122" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE26:AE34">
-    <cfRule type="cellIs" dxfId="321" priority="117" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="319" priority="117" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="118" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="318" priority="118" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD33">
-    <cfRule type="cellIs" dxfId="319" priority="115" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="317" priority="115" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="116" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="316" priority="116" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD42:AI42">
-    <cfRule type="cellIs" dxfId="317" priority="113" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="315" priority="113" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="114" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="314" priority="114" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD41:AH41 AD38:AE40 AG38:AH40">
-    <cfRule type="cellIs" dxfId="315" priority="111" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="313" priority="111" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="112" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="312" priority="112" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD36:AE37">
-    <cfRule type="cellIs" dxfId="313" priority="109" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="311" priority="109" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="110" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="310" priority="110" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF37:AF40">
-    <cfRule type="cellIs" dxfId="311" priority="107" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="309" priority="107" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="108" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="308" priority="108" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD25:AD32">
-    <cfRule type="cellIs" dxfId="309" priority="105" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="307" priority="105" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="106" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="306" priority="106" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC26:AC33 AC35:AC46">
-    <cfRule type="cellIs" dxfId="307" priority="103" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="305" priority="103" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="104" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="304" priority="104" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB24:AB32">
-    <cfRule type="cellIs" dxfId="305" priority="101" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="303" priority="101" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="102" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="302" priority="102" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA24:AA32">
-    <cfRule type="cellIs" dxfId="303" priority="99" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="301" priority="99" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="100" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="300" priority="100" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z24:Z29 Z31:Z34">
-    <cfRule type="cellIs" dxfId="301" priority="97" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="299" priority="97" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="98" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="298" priority="98" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y21:Y29 Y31:Y1048576">
-    <cfRule type="cellIs" dxfId="299" priority="95" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="297" priority="95" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="96" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="296" priority="96" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X21:X28 X30:X48">
-    <cfRule type="cellIs" dxfId="297" priority="93" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="295" priority="93" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="94" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="294" priority="94" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W20:W28 W30:W33 U32:Z44">
-    <cfRule type="cellIs" dxfId="295" priority="91" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="293" priority="91" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="92" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="292" priority="92" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V29:V38">
-    <cfRule type="cellIs" dxfId="293" priority="89" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="291" priority="89" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="90" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="290" priority="90" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U17:U25 U27:U32">
-    <cfRule type="cellIs" dxfId="291" priority="87" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="289" priority="87" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="88" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="288" priority="88" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA34:AB44">
-    <cfRule type="cellIs" dxfId="289" priority="85" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="287" priority="85" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="86" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="286" priority="86" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA34:AB44">
-    <cfRule type="cellIs" dxfId="287" priority="83" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="285" priority="83" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="84" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="284" priority="84" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15:T23 T25:T26">
-    <cfRule type="cellIs" dxfId="285" priority="81" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="283" priority="81" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="82" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="282" priority="82" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14:S21">
-    <cfRule type="cellIs" dxfId="283" priority="79" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="281" priority="79" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="80" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="280" priority="80" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R23:R26">
-    <cfRule type="cellIs" dxfId="281" priority="77" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="279" priority="77" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="78" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="278" priority="78" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13:R21">
-    <cfRule type="cellIs" dxfId="279" priority="75" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="277" priority="75" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="76" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="276" priority="76" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R27:T36 T37:T50">
-    <cfRule type="cellIs" dxfId="277" priority="73" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="275" priority="73" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="74" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="274" priority="74" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:Q20 Q22">
-    <cfRule type="cellIs" dxfId="275" priority="69" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="273" priority="69" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="70" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="272" priority="70" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22 O11:Q19 P20:Q20">
-    <cfRule type="cellIs" dxfId="273" priority="67" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="271" priority="67" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="68" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="270" priority="68" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q23:Q36">
-    <cfRule type="cellIs" dxfId="271" priority="65" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="269" priority="65" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="66" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="268" priority="66" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12:O19 O22">
-    <cfRule type="cellIs" dxfId="269" priority="63" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="267" priority="63" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="64" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="266" priority="64" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:N19 N21:N22">
-    <cfRule type="cellIs" dxfId="267" priority="61" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="265" priority="61" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="62" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="264" priority="62" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:M18 M20:M22">
-    <cfRule type="cellIs" dxfId="265" priority="59" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="263" priority="59" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="60" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="262" priority="60" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:M13">
-    <cfRule type="cellIs" dxfId="263" priority="57" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="261" priority="57" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="58" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="260" priority="58" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:L17 L19:L22">
-    <cfRule type="cellIs" dxfId="261" priority="55" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="259" priority="55" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="56" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="258" priority="56" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:K17 K19:K22">
-    <cfRule type="cellIs" dxfId="259" priority="53" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="257" priority="53" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="54" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="256" priority="54" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:J22">
-    <cfRule type="cellIs" dxfId="257" priority="51" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="255" priority="51" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="52" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="254" priority="52" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J16">
-    <cfRule type="cellIs" dxfId="255" priority="49" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="253" priority="49" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="50" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="252" priority="50" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:P36">
-    <cfRule type="cellIs" dxfId="253" priority="47" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="251" priority="47" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="48" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="250" priority="48" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:S55">
-    <cfRule type="cellIs" dxfId="251" priority="45" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="249" priority="45" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="46" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="248" priority="46" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I16 I18:I19">
-    <cfRule type="cellIs" dxfId="249" priority="43" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="247" priority="43" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="44" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="246" priority="44" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H15 H17:H19">
-    <cfRule type="cellIs" dxfId="247" priority="41" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="245" priority="41" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="42" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="244" priority="42" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G14 G17:G19">
-    <cfRule type="cellIs" dxfId="245" priority="39" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="243" priority="39" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="40" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="242" priority="40" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:I211">
-    <cfRule type="cellIs" dxfId="243" priority="37" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="241" priority="37" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="38" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="240" priority="38" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F14 F16:F18">
-    <cfRule type="cellIs" dxfId="241" priority="35" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="239" priority="35" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="36" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="238" priority="36" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E18">
-    <cfRule type="cellIs" dxfId="239" priority="33" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="237" priority="33" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="34" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="236" priority="34" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:F41">
-    <cfRule type="cellIs" dxfId="237" priority="31" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="235" priority="31" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="32" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="234" priority="32" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E13">
-    <cfRule type="cellIs" dxfId="235" priority="29" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="233" priority="29" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="30" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="232" priority="30" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D18">
-    <cfRule type="cellIs" dxfId="233" priority="27" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="231" priority="27" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="28" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="230" priority="28" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:D41">
-    <cfRule type="cellIs" dxfId="231" priority="25" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="229" priority="25" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="228" priority="26" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D12 D4:G9">
-    <cfRule type="cellIs" dxfId="229" priority="23" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="227" priority="23" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="226" priority="24" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C18">
-    <cfRule type="cellIs" dxfId="227" priority="15" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="225" priority="15" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="16" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="224" priority="16" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:C41">
-    <cfRule type="cellIs" dxfId="225" priority="13" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="223" priority="13" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="222" priority="14" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C12">
-    <cfRule type="cellIs" dxfId="223" priority="11" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="221" priority="11" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="220" priority="12" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B18">
-    <cfRule type="cellIs" dxfId="221" priority="9" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="219" priority="9" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="10" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="218" priority="10" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B41">
-    <cfRule type="cellIs" dxfId="219" priority="7" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="217" priority="7" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="216" priority="8" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B10">
-    <cfRule type="cellIs" dxfId="217" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="215" priority="1" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="214" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B13">
-    <cfRule type="cellIs" dxfId="215" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="213" priority="3" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="212" priority="4" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/GFS/GFS.xlsx
+++ b/GFS/GFS.xlsx
@@ -721,262 +721,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="108">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="78">
     <dxf>
       <font>
         <color auto="1"/>
@@ -1945,7 +1690,7 @@
   <dimension ref="A1:DQ83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2321,7 +2066,9 @@
       <c r="A2" s="3">
         <v>43183</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2">
+        <v>1.3</v>
+      </c>
       <c r="C2" s="2">
         <v>-0.9</v>
       </c>
@@ -2448,7 +2195,9 @@
       <c r="A3" s="3">
         <v>43182</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2">
+        <v>1.88</v>
+      </c>
       <c r="C3" s="2">
         <v>-0.28999999999999998</v>
       </c>
@@ -2581,7 +2330,9 @@
       <c r="A4" s="3">
         <v>43181</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <v>1.44</v>
+      </c>
       <c r="C4" s="2">
         <v>0.72</v>
       </c>
@@ -2720,7 +2471,9 @@
       <c r="A5" s="3">
         <v>43180</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>-0.03</v>
+      </c>
       <c r="C5" s="2">
         <v>2.98</v>
       </c>
@@ -2865,7 +2618,9 @@
       <c r="A6" s="3">
         <v>43179</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>0.53</v>
+      </c>
       <c r="C6" s="2">
         <v>1.81</v>
       </c>
@@ -3016,7 +2771,9 @@
       <c r="A7" s="3">
         <v>43178</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="1">
+        <v>3.8</v>
+      </c>
       <c r="C7" s="2">
         <v>0.16</v>
       </c>
@@ -3171,7 +2928,9 @@
       <c r="A8" s="3">
         <v>43177</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>2.11</v>
+      </c>
       <c r="C8" s="2">
         <v>-4.62</v>
       </c>
@@ -3326,7 +3085,9 @@
       <c r="A9" s="3">
         <v>43176</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2">
+        <v>-3.81</v>
+      </c>
       <c r="C9" s="2">
         <v>-5.72</v>
       </c>
@@ -3487,7 +3248,9 @@
       <c r="A10" s="3">
         <v>43175</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <v>-2.62</v>
+      </c>
       <c r="C10" s="2">
         <v>-3.38</v>
       </c>
@@ -3654,7 +3417,9 @@
       <c r="A11" s="3">
         <v>43174</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <v>1.69</v>
+      </c>
       <c r="C11" s="2">
         <v>0.69</v>
       </c>
@@ -3829,7 +3594,9 @@
       <c r="A12" s="3">
         <v>43173</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <v>5.17</v>
+      </c>
       <c r="C12" s="2">
         <v>4.01</v>
       </c>
@@ -4008,7 +3775,9 @@
       <c r="A13" s="3">
         <v>43172</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2">
+        <v>4.13</v>
+      </c>
       <c r="C13" s="2">
         <v>4.3099999999999996</v>
       </c>
@@ -4193,7 +3962,9 @@
       <c r="A14" s="3">
         <v>43171</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2">
+        <v>3.12</v>
+      </c>
       <c r="C14" s="2">
         <v>3.19</v>
       </c>
@@ -4384,7 +4155,9 @@
       <c r="A15" s="3">
         <v>43170</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
       <c r="C15" s="2">
         <v>0.23</v>
       </c>
@@ -4579,7 +4352,9 @@
       <c r="A16" s="3">
         <v>43169</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2">
+        <v>-0.35</v>
+      </c>
       <c r="C16" s="2">
         <v>-0.82</v>
       </c>
@@ -4778,7 +4553,10 @@
       <c r="A17" s="3">
         <v>43168</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="4">
+        <f>SUM(B2:B16)</f>
+        <v>18.359999999999996</v>
+      </c>
       <c r="C17" s="4">
         <f>SUM(C2:C16)</f>
         <v>2.3700000000000006</v>
@@ -16412,171 +16190,171 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="DQ3:DQ82">
-    <cfRule type="cellIs" dxfId="107" priority="183" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="DQ3:DQ82 B2:B6 B8:B9">
+    <cfRule type="cellIs" dxfId="77" priority="183" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="184" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="76" priority="184" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DQ3:DQ82">
-    <cfRule type="cellIs" dxfId="105" priority="181" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="75" priority="181" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="182" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="74" priority="182" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM82:DO82 DM81 DP81 DM79:DP80 DN78:DP78 DM3:DP77">
-    <cfRule type="cellIs" dxfId="103" priority="179" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="73" priority="179" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="180" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="72" priority="180" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM82:DO82 DM81 DP81 DM79:DP80 DN78:DP78 DM3:DP77">
-    <cfRule type="cellIs" dxfId="101" priority="177" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="71" priority="177" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="178" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="70" priority="178" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DF79:DL82 DF77:DJ77 DF76:DI76 DK76:DL76 DF75:DH75 DJ75:DL75 DF74 DI74:DL74 DG73:DL73 DF3:DL72">
-    <cfRule type="cellIs" dxfId="99" priority="171" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="69" priority="171" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="172" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="68" priority="172" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DF79:DL82 DF77:DJ77 DF76:DI76 DK76:DL76 DF75:DH75 DJ75:DL75 DF74 DI74:DL74 DG73:DL73 DF3:DL72">
-    <cfRule type="cellIs" dxfId="97" priority="169" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="67" priority="169" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="170" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="66" priority="170" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79:DE82 E74:DE77 E3:DE17 E71:DE72 E70:DB70 DE70 E69:DA69 DC69:DE69 E68:CZ68 DB68:DE68 E67:CX67 DA67:DE67 E66:CW66 CY66:DE66 E65:DE65 E64:CV64 CX64:DE64 E63:DE63 E62:CT62 CW62:DE62 E61:CS61 CU61:DE61 E60:CP60 CT60:DE60 E59:CN59 CQ59:DE59 E58:CM58 CO58:DE58 E57:CJ57 CN57:DE57 E56:CG56 CK56:DE56 E55:CC55 CH55:DE55 E54:CB54 CD54:DE54 E53:BZ53 CC53:DE53 E52:BY52 CA52:DE52 E51:BX51 BZ51:DE51 E50:DE50 E49:BU49 BY49:DE49 E48:BS48 BV48:DE48 E47:BP47 BT47:DE47 E46:BN46 BQ46:DE46 E45:DE45 E44:BK44 BO44:DE44 E43:BI43 BL43:DE43 E42:BG42 BJ42:DE42 E41:BF41 BH41:DE41 E40:BC40 BG40:DE40 E39:BB39 BD39:DE39 E38:BA38 BC38:DE38 E37:AY37 BB37:DE37 E36:AW36 AZ36:DE36 E35:AV35 AX35:DE35 E34:AS34 AW34:DE34 E33:AP33 AT33:DE33 E32:AM32 AQ32:DE32 E31:AK31 AN31:DE31 E30:AI30 AL30:DE30 E29:AF29 AJ29:DE29 E28:AC28 AG28:DE28 E27:AA27 AD27:DE27 E26:W26 AB26:DE26 E25:T25 X25:DE25 E24:Q24 U24:DE24 E23:DE23 E22:O22 R22:DE22 E21:L21 P21:DE21 E20:I20 M20:DE20 E19:F19 J19:DE19 G18:DE18">
-    <cfRule type="cellIs" dxfId="95" priority="167" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="65" priority="167" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="168" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="64" priority="168" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79:DE82 E74:DE77 E3:DE17 E71:DE72 E70:DB70 DE70 E69:DA69 DC69:DE69 E68:CZ68 DB68:DE68 E67:CX67 DA67:DE67 E66:CW66 CY66:DE66 E65:DE65 E64:CV64 CX64:DE64 E63:DE63 E62:CT62 CW62:DE62 E61:CS61 CU61:DE61 E60:CP60 CT60:DE60 E59:CN59 CQ59:DE59 E58:CM58 CO58:DE58 E57:CJ57 CN57:DE57 E56:CG56 CK56:DE56 E55:CC55 CH55:DE55 E54:CB54 CD54:DE54 E53:BZ53 CC53:DE53 E52:BY52 CA52:DE52 E51:BX51 BZ51:DE51 E50:DE50 E49:BU49 BY49:DE49 E48:BS48 BV48:DE48 E47:BP47 BT47:DE47 E46:BN46 BQ46:DE46 E45:DE45 E44:BK44 BO44:DE44 E43:BI43 BL43:DE43 E42:BG42 BJ42:DE42 E41:BF41 BH41:DE41 E40:BC40 BG40:DE40 E39:BB39 BD39:DE39 E38:BA38 BC38:DE38 E37:AY37 BB37:DE37 E36:AW36 AZ36:DE36 E35:AV35 AX35:DE35 E34:AS34 AW34:DE34 E33:AP33 AT33:DE33 E32:AM32 AQ32:DE32 E31:AK31 AN31:DE31 E30:AI30 AL30:DE30 E29:AF29 AJ29:DE29 E28:AC28 AG28:DE28 E27:AA27 AD27:DE27 E26:W26 AB26:DE26 E25:T25 X25:DE25 E24:Q24 U24:DE24 E23:DE23 E22:O22 R22:DE22 E21:L21 P21:DE21 E20:I20 M20:DE20 E19:F19 J19:DE19 G18:DE18">
-    <cfRule type="cellIs" dxfId="93" priority="165" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="63" priority="165" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="166" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="62" priority="166" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1 A83:A1048576">
-    <cfRule type="cellIs" dxfId="91" priority="163" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="61" priority="163" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="164" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="60" priority="164" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1 A83:A1048576">
-    <cfRule type="cellIs" dxfId="89" priority="161" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="59" priority="161" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="162" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="58" priority="162" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:D82 D74:D77 D3:D17 D19:D72">
-    <cfRule type="cellIs" dxfId="87" priority="35" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="57" priority="35" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="36" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="56" priority="36" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:D82 D74:D77 D3:D17 D19:D72 C2:D16">
-    <cfRule type="cellIs" dxfId="85" priority="33" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="55" priority="33" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="34" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="54" priority="34" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79:C82 C74:C77 C3:C16 C19:C72">
-    <cfRule type="cellIs" dxfId="83" priority="27" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="53" priority="27" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="28" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="52" priority="28" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79:C82 C74:C77 C3:C16 C19:C72">
-    <cfRule type="cellIs" dxfId="81" priority="25" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="51" priority="25" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="50" priority="26" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="79" priority="23" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="49" priority="23" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="48" priority="24" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="77" priority="21" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="47" priority="21" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="22" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="46" priority="22" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B16">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="B10:B16">
+    <cfRule type="cellIs" dxfId="45" priority="9" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="44" priority="10" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B79:B82 B74:B77 B3:B16 B19:B72">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="B79:B82 B74:B77 B19:B72 B10:B16">
+    <cfRule type="cellIs" dxfId="43" priority="7" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="42" priority="8" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B79:B82 B74:B77 B3:B16 B19:B72">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="B79:B82 B74:B77 B19:B72 B10:B16">
+    <cfRule type="cellIs" dxfId="41" priority="5" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="40" priority="6" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25969,50 +25747,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="CM3:CM76">
-    <cfRule type="cellIs" dxfId="75" priority="11" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="35" priority="11" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="34" priority="12" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:CL11 D76:CK76 D75:CJ75 CL75 D13 E12:CL12 D72:CL74 D71:CH71 CK71:CL71 D70:CG70 CI70:CL70 D69:CF69 CH69:CL69 D68:CD68 CG68:CL68 D67:CB67 CE67:CL67 D65:CL66 D64:BZ64 CC64:CL64 D63:BX63 CA63:CL63 D62:BW62 BY62:CL62 D61:CL61 D60:BV60 BX60:CL60 D59:CL59 D58:BU58 BW58:CL58 D57:CL57 D56:BS56 BV56:CL56 D55:BQ55 D54:BO54 BR54:CL54 BT55:CL55 D53:BN53 BP53:CL53 D52:BL52 BO52:CL52 D51:BJ51 BM51:CL51 D50:BI50 BK50:CL50 D49:BG49 BJ49:CL49 D48:BF48 BH48:CL48 D47:BD47 BG47:CL47 D46:CL46 D45:BC45 BE45:CL45 D44:CL44 D43:BA43 BD43:CL43 D42:AY42 BB42:CL42 D41:AW41 AZ41:CL41 D40:AU40 AX40:CL40 D39:AT39 AV39:CL39 D38:AS38 AU38:CL38 D37:AQ37 AT37:CL37 D36:AO36 AR36:CL36 D35:CL35 D34:AN34 AP34:CL34 D33:AM33 AO33:CL33 D32:AL32 AN32:CL32 D31:AJ31 AM31:CL31 D30:AI30 AK30:CL30 D29:AG29 AJ29:CL29 D28:AF28 AH28:CL28 D27:AC27 AG27:CL27 D26:AA26 AD26:CL26 D25:Y25 AB25:CL25 D24:W24 Z24:CL24 D23:U23 X23:CL23 D22:S22 V22:CL22 D21:Q21 T21:CL21 D20:O20 R20:CL20 D19:M19 P19:CL19 D18:L18 N18:CL18 D17:CL17 D16:J16 M16:CL16 D15:H15 K15:CL15 D14:F14 I14:CL14 G13:CL13">
-    <cfRule type="cellIs" dxfId="73" priority="9" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="33" priority="9" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="10" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="32" priority="10" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1 A77:A1048576">
-    <cfRule type="cellIs" dxfId="71" priority="7" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="31" priority="7" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="30" priority="8" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C11 C13:C76">
-    <cfRule type="cellIs" dxfId="69" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B10 B13:B76">
-    <cfRule type="cellIs" dxfId="67" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="65" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37086,98 +36864,98 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="CQ3:CQ80">
-    <cfRule type="cellIs" dxfId="63" priority="27" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="23" priority="27" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="28" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="22" priority="28" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CQ3:CQ80">
-    <cfRule type="cellIs" dxfId="61" priority="25" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="20" priority="26" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:CP16 D18 E17:CP17 D80:CL80 CN80:CP80 D78:CP79 D77:CK77 CM77:CP77 D76:CI76 CL76:CP76 D75:CH75 CJ75:CP75 D74:CG74 CI74:CP74 D73:CE73 CH73:CP73 D72:CD72 CF72:CP72 D71:CC71 CE71:CP71 D70:CP70 D69:CA69 CD69:CP69 D68:BY68 CB68:CP68 D67:BX67 BZ67:CP67 D66:BW66 BY66:CP66 D65:BV65 BX65:CP65 D64:CP64 D63:BU63 BW63:CP63 D62:BT62 BV62:CP62 D61:BS61 BU61:CP61 D60:BQ60 BT60:CP60 D59:BO59 BR59:CP59 D58:BN58 BP58:CP58 D57:BL57 BO57:CP57 D56:BJ56 BM56:CP56 D55:BI55 BK55:CP55 D54:BG54 BJ54:CP54 D53:BE53 BH53:CP53 D52:BC52 BF52:CP52 D51:CP51 D50:BB50 BD50:CP50 D49:BA49 BC49:CP49 D48:AZ48 BB48:CP48 D47:AX47 BA47:CP47 D46:AV46 AY46:CP46 D45:AT45 AW45:CP45 D44:AS44 AU44:CP44 D43:AR43 AT43:CP43 D42:AP42 AS42:CP42 D41:AN41 AQ41:CP41 D40:CP40 D39:AL39 AO39:CP39 D38:AK38 AM38:CP38 D37:CP37 D36:AJ36 AL36:CP36 D35:AI35 AK35:CP35 D34:AG34 AJ34:CP34 D33:AE33 AH33:CP33 D32:AC32 AF32:CP32 D31:AA31 AD31:CP31 D30:Y30 AB30:CP30 D29:W29 Z29:CP29 D28:U28 X28:CP28 D27:S27 V27:CP27 D26:Q26 T26:CP26 D25:O25 R25:CP25 D24:M24 P24:CP24 D23:L23 N23:CP23 D22:K22 M22:CP22 D21:I21 L21:CP21 D20:G20 J20:CP20 D19:F19 H19:CP19 G18:CP18">
-    <cfRule type="cellIs" dxfId="59" priority="23" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="18" priority="24" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:CP16 D18 E17:CP17 D80:CL80 CN80:CP80 D78:CP79 D77:CK77 CM77:CP77 D76:CI76 CL76:CP76 D75:CH75 CJ75:CP75 D74:CG74 CI74:CP74 D73:CE73 CH73:CP73 D72:CD72 CF72:CP72 D71:CC71 CE71:CP71 D70:CP70 D69:CA69 CD69:CP69 D68:BY68 CB68:CP68 D67:BX67 BZ67:CP67 D66:BW66 BY66:CP66 D65:BV65 BX65:CP65 D64:CP64 D63:BU63 BW63:CP63 D62:BT62 BV62:CP62 D61:BS61 BU61:CP61 D60:BQ60 BT60:CP60 D59:BO59 BR59:CP59 D58:BN58 BP58:CP58 D57:BL57 BO57:CP57 D56:BJ56 BM56:CP56 D55:BI55 BK55:CP55 D54:BG54 BJ54:CP54 D53:BE53 BH53:CP53 D52:BC52 BF52:CP52 D51:CP51 D50:BB50 BD50:CP50 D49:BA49 BC49:CP49 D48:AZ48 BB48:CP48 D47:AX47 BA47:CP47 D46:AV46 AY46:CP46 D45:AT45 AW45:CP45 D44:AS44 AU44:CP44 D43:AR43 AT43:CP43 D42:AP42 AS42:CP42 D41:AN41 AQ41:CP41 D40:CP40 D39:AL39 AO39:CP39 D38:AK38 AM38:CP38 D37:CP37 D36:AJ36 AL36:CP36 D35:AI35 AK35:CP35 D34:AG34 AJ34:CP34 D33:AE33 AH33:CP33 D32:AC32 AF32:CP32 D31:AA31 AD31:CP31 D30:Y30 AB30:CP30 D29:W29 Z29:CP29 D28:U28 X28:CP28 D27:S27 V27:CP27 D26:Q26 T26:CP26 D25:O25 R25:CP25 D24:M24 P24:CP24 D23:L23 N23:CP23 D22:K22 M22:CP22 D21:I21 L21:CP21 D20:G20 J20:CP20 D19:F19 H19:CP19 G18:CP18">
-    <cfRule type="cellIs" dxfId="57" priority="21" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="22" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1 A82:A1048576">
-    <cfRule type="cellIs" dxfId="55" priority="19" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="20" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1 A82:A1048576">
-    <cfRule type="cellIs" dxfId="53" priority="17" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C16 C18:C80">
-    <cfRule type="cellIs" dxfId="51" priority="11" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C16 C18:C80">
-    <cfRule type="cellIs" dxfId="49" priority="9" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="10" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B15 B18:B80">
-    <cfRule type="cellIs" dxfId="47" priority="7" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B15 B18:B80">
-    <cfRule type="cellIs" dxfId="45" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="43" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/GFS/GFS.xlsx
+++ b/GFS/GFS.xlsx
@@ -733,143 +733,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="156">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="140">
     <dxf>
       <font>
         <color auto="1"/>
@@ -2365,7 +2229,7 @@
   <dimension ref="A1:DS85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2747,8 +2611,10 @@
       <c r="A2" s="3">
         <v>43185</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
+      <c r="B2" s="2">
+        <v>-0.87</v>
+      </c>
+      <c r="C2" s="2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
@@ -2874,7 +2740,9 @@
       <c r="A3" s="3">
         <v>43184</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
       <c r="C3" s="2">
         <v>-0.03</v>
       </c>
@@ -3003,7 +2871,9 @@
       <c r="A4" s="3">
         <v>43183</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <v>-1.39</v>
+      </c>
       <c r="C4" s="2">
         <v>0.32</v>
       </c>
@@ -3136,7 +3006,9 @@
       <c r="A5" s="3">
         <v>43182</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>-2.2599999999999998</v>
+      </c>
       <c r="C5" s="2">
         <v>-1.55</v>
       </c>
@@ -3275,7 +3147,9 @@
       <c r="A6" s="3">
         <v>43181</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>-0.88</v>
+      </c>
       <c r="C6" s="2">
         <v>-1.36</v>
       </c>
@@ -3420,7 +3294,9 @@
       <c r="A7" s="3">
         <v>43180</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>-3.43</v>
+      </c>
       <c r="C7" s="2">
         <v>1.54</v>
       </c>
@@ -3571,7 +3447,9 @@
       <c r="A8" s="3">
         <v>43179</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>-3.41</v>
+      </c>
       <c r="C8" s="2">
         <v>2.64</v>
       </c>
@@ -3728,7 +3606,10 @@
       <c r="A9" s="3">
         <v>43178</v>
       </c>
-      <c r="C9" s="1">
+      <c r="B9" s="2">
+        <v>-3</v>
+      </c>
+      <c r="C9" s="2">
         <v>0.9</v>
       </c>
       <c r="D9" s="1">
@@ -3888,7 +3769,9 @@
       <c r="A10" s="3">
         <v>43177</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <v>-2.2799999999999998</v>
+      </c>
       <c r="C10" s="2">
         <v>-0.34</v>
       </c>
@@ -4049,7 +3932,9 @@
       <c r="A11" s="3">
         <v>43176</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <v>0.09</v>
+      </c>
       <c r="C11" s="2">
         <v>-4.13</v>
       </c>
@@ -5155,7 +5040,7 @@
       </c>
       <c r="B17" s="4">
         <f>SUM(B2:B16)</f>
-        <v>14.52</v>
+        <v>-2.9099999999999984</v>
       </c>
       <c r="C17" s="2">
         <v>0.12</v>
@@ -17335,246 +17220,254 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="DS5:DS84 D4:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="139" priority="207" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="139" priority="213" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="208" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="138" priority="214" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DS5:DS84">
-    <cfRule type="cellIs" dxfId="137" priority="205" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="137" priority="211" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="206" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="136" priority="212" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DO84:DQ84 DO83 DR83 DO81:DR82 DP80:DR80 DO5:DR79">
-    <cfRule type="cellIs" dxfId="135" priority="203" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="135" priority="209" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="204" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="134" priority="210" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DO84:DQ84 DO83 DR83 DO81:DR82 DP80:DR80 DO5:DR79">
-    <cfRule type="cellIs" dxfId="133" priority="201" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="133" priority="207" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="202" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="132" priority="208" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DH81:DN84 DH79:DL79 DH78:DK78 DM78:DN78 DH77:DJ77 DL77:DN77 DH76 DK76:DN76 DI75:DN75 DH5:DN74">
-    <cfRule type="cellIs" dxfId="131" priority="195" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="131" priority="201" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="196" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="130" priority="202" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DH81:DN84 DH79:DL79 DH78:DK78 DM78:DN78 DH77:DJ77 DL77:DN77 DH76 DK76:DN76 DI75:DN75 DH5:DN74">
-    <cfRule type="cellIs" dxfId="129" priority="193" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="129" priority="199" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="194" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="128" priority="200" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81:DG84 G76:DG79 G5:DG19 G73:DG74 G72:DD72 DG72 G71:DC71 DE71:DG71 G70:DB70 DD70:DG70 G69:CZ69 DC69:DG69 G68:CY68 DA68:DG68 G67:DG67 G66:CX66 CZ66:DG66 G65:DG65 G64:CV64 CY64:DG64 G63:CU63 CW63:DG63 G62:CR62 CV62:DG62 G61:CP61 CS61:DG61 G60:CO60 CQ60:DG60 G59:CL59 CP59:DG59 G58:CI58 CM58:DG58 G57:CE57 CJ57:DG57 G56:CD56 CF56:DG56 G55:CB55 CE55:DG55 G54:CA54 CC54:DG54 G53:BZ53 CB53:DG53 G52:DG52 G51:BW51 CA51:DG51 G50:BU50 BX50:DG50 G49:BR49 BV49:DG49 G48:BP48 BS48:DG48 G47:DG47 G46:BM46 BQ46:DG46 G45:BK45 BN45:DG45 G44:BI44 BL44:DG44 G43:BH43 BJ43:DG43 G42:BE42 BI42:DG42 G41:BD41 BF41:DG41 G40:BC40 BE40:DG40 G39:BA39 BD39:DG39 G38:AY38 BB38:DG38 G37:AX37 AZ37:DG37 G36:AU36 AY36:DG36 G35:AR35 AV35:DG35 G34:AO34 AS34:DG34 G33:AM33 AP33:DG33 G32:AK32 AN32:DG32 G31:AH31 AL31:DG31 G30:AE30 AI30:DG30 G29:AC29 AF29:DG29 G28:Y28 AD28:DG28 G27:V27 Z27:DG27 G26:S26 W26:DG26 G25:DG25 G24:Q24 T24:DG24 G23:N23 R23:DG23 G22:K22 O22:DG22 G21:H21 L21:DG21 I20:DG20">
-    <cfRule type="cellIs" dxfId="127" priority="191" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="127" priority="197" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="192" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="126" priority="198" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81:DG84 G76:DG79 G5:DG19 G73:DG74 G72:DD72 DG72 G71:DC71 DE71:DG71 G70:DB70 DD70:DG70 G69:CZ69 DC69:DG69 G68:CY68 DA68:DG68 G67:DG67 G66:CX66 CZ66:DG66 G65:DG65 G64:CV64 CY64:DG64 G63:CU63 CW63:DG63 G62:CR62 CV62:DG62 G61:CP61 CS61:DG61 G60:CO60 CQ60:DG60 G59:CL59 CP59:DG59 G58:CI58 CM58:DG58 G57:CE57 CJ57:DG57 G56:CD56 CF56:DG56 G55:CB55 CE55:DG55 G54:CA54 CC54:DG54 G53:BZ53 CB53:DG53 G52:DG52 G51:BW51 CA51:DG51 G50:BU50 BX50:DG50 G49:BR49 BV49:DG49 G48:BP48 BS48:DG48 G47:DG47 G46:BM46 BQ46:DG46 G45:BK45 BN45:DG45 G44:BI44 BL44:DG44 G43:BH43 BJ43:DG43 G42:BE42 BI42:DG42 G41:BD41 BF41:DG41 G40:BC40 BE40:DG40 G39:BA39 BD39:DG39 G38:AY38 BB38:DG38 G37:AX37 AZ37:DG37 G36:AU36 AY36:DG36 G35:AR35 AV35:DG35 G34:AO34 AS34:DG34 G33:AM33 AP33:DG33 G32:AK32 AN32:DG32 G31:AH31 AL31:DG31 G30:AE30 AI30:DG30 G29:AC29 AF29:DG29 G28:Y28 AD28:DG28 G27:V27 Z27:DG27 G26:S26 W26:DG26 G25:DG25 G24:Q24 T24:DG24 G23:N23 R23:DG23 G22:K22 O22:DG22 G21:H21 L21:DG21 I20:DG20">
-    <cfRule type="cellIs" dxfId="125" priority="189" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="125" priority="195" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="190" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="124" priority="196" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1 A85:A1048576">
-    <cfRule type="cellIs" dxfId="123" priority="187" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="123" priority="193" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="188" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="122" priority="194" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1 A85:A1048576">
-    <cfRule type="cellIs" dxfId="121" priority="185" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="121" priority="191" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="186" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="120" priority="192" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81:F84 F76:F79 F5:F19 F21:F74">
-    <cfRule type="cellIs" dxfId="119" priority="59" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="119" priority="65" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="60" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="118" priority="66" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81:F84 F76:F79 F5:F19 F21:F74 E4:F18">
-    <cfRule type="cellIs" dxfId="117" priority="57" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="117" priority="63" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="58" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="116" priority="64" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81:E84 E76:E79 E5:E18 E21:E74">
-    <cfRule type="cellIs" dxfId="115" priority="51" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="115" priority="57" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="52" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="114" priority="58" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81:E84 E76:E79 E5:E18 E21:E74">
-    <cfRule type="cellIs" dxfId="113" priority="49" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="113" priority="55" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="50" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="112" priority="56" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="111" priority="47" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="111" priority="53" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="48" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="110" priority="54" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="109" priority="45" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="109" priority="51" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="46" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="108" priority="52" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D18">
-    <cfRule type="cellIs" dxfId="107" priority="33" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="107" priority="39" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="34" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="106" priority="40" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81:D84 D76:D79 D21:D74 D12:D18">
-    <cfRule type="cellIs" dxfId="105" priority="31" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="105" priority="37" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="32" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="104" priority="38" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81:D84 D76:D79 D21:D74 D12:D18">
-    <cfRule type="cellIs" dxfId="103" priority="29" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="103" priority="35" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="30" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="102" priority="36" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="101" priority="27" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="101" priority="33" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="28" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="100" priority="34" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="99" priority="25" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="99" priority="31" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="98" priority="32" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C11 C3:D8">
-    <cfRule type="cellIs" dxfId="97" priority="23" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="C11 D3:D8">
+    <cfRule type="cellIs" dxfId="97" priority="29" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="96" priority="30" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C17">
-    <cfRule type="cellIs" dxfId="95" priority="21" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="95" priority="27" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="22" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="94" priority="28" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C84 C76:C79 C21:C74 C12:C17">
-    <cfRule type="cellIs" dxfId="93" priority="19" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="93" priority="25" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="92" priority="26" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C84 C76:C79 C21:C74 C12:C17">
-    <cfRule type="cellIs" dxfId="91" priority="17" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="91" priority="23" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="90" priority="24" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:D8">
-    <cfRule type="cellIs" dxfId="89" priority="15" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="D3:D8">
+    <cfRule type="cellIs" dxfId="89" priority="21" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="16" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="88" priority="22" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:D8">
-    <cfRule type="cellIs" dxfId="87" priority="13" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="D3:D8">
+    <cfRule type="cellIs" dxfId="87" priority="19" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="86" priority="20" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:B11 B3:B8">
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="B11">
+    <cfRule type="cellIs" dxfId="85" priority="17" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="84" priority="18" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B16">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="83" priority="15" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="82" priority="16" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81:B84 B76:B79 B21:B74 B12:B16">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="81" priority="13" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="80" priority="14" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81:B84 B76:B79 B21:B74 B12:B16">
+    <cfRule type="cellIs" dxfId="79" priority="11" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="12" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:C10">
     <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -17582,7 +17475,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B8">
+  <conditionalFormatting sqref="B2:C10">
     <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -17590,7 +17483,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B8">
+  <conditionalFormatting sqref="B2:C10">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -27380,90 +27273,90 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="CO5:CO78 B3:B4 B6:B10">
-    <cfRule type="cellIs" dxfId="85" priority="21" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="73" priority="21" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="22" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="72" priority="22" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:CN13 F78:CM78 F77:CL77 CN77 F15 G14:CN14 F74:CN76 F73:CJ73 CM73:CN73 F72:CI72 CK72:CN72 F71:CH71 CJ71:CN71 F70:CF70 CI70:CN70 F69:CD69 CG69:CN69 F67:CN68 F66:CB66 CE66:CN66 F65:BZ65 CC65:CN65 F64:BY64 CA64:CN64 F63:CN63 F62:BX62 BZ62:CN62 F61:CN61 F60:BW60 BY60:CN60 F59:CN59 F58:BU58 BX58:CN58 F57:BS57 F56:BQ56 BT56:CN56 BV57:CN57 F55:BP55 BR55:CN55 F54:BN54 BQ54:CN54 F53:BL53 BO53:CN53 F52:BK52 BM52:CN52 F51:BI51 BL51:CN51 F50:BH50 BJ50:CN50 F49:BF49 BI49:CN49 F48:CN48 F47:BE47 BG47:CN47 F46:CN46 F45:BC45 BF45:CN45 F44:BA44 BD44:CN44 F43:AY43 BB43:CN43 F42:AW42 AZ42:CN42 F41:AV41 AX41:CN41 F40:AU40 AW40:CN40 F39:AS39 AV39:CN39 F38:AQ38 AT38:CN38 F37:CN37 F36:AP36 AR36:CN36 F35:AO35 AQ35:CN35 F34:AN34 AP34:CN34 F33:AL33 AO33:CN33 F32:AK32 AM32:CN32 F31:AI31 AL31:CN31 F30:AH30 AJ30:CN30 F29:AE29 AI29:CN29 F28:AC28 AF28:CN28 F27:AA27 AD27:CN27 F26:Y26 AB26:CN26 F25:W25 Z25:CN25 F24:U24 X24:CN24 F23:S23 V23:CN23 F22:Q22 T22:CN22 F21:O21 R21:CN21 F20:N20 P20:CN20 F19:CN19 F18:L18 O18:CN18 F17:J17 M17:CN17 F16:H16 K16:CN16 I15:CN15">
-    <cfRule type="cellIs" dxfId="83" priority="19" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="71" priority="19" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="70" priority="20" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1 A79:A1048576">
-    <cfRule type="cellIs" dxfId="81" priority="17" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="69" priority="17" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="68" priority="18" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E13 E15:E78">
-    <cfRule type="cellIs" dxfId="79" priority="15" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="67" priority="15" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="16" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="66" priority="16" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D12 D15:D78">
-    <cfRule type="cellIs" dxfId="77" priority="13" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="65" priority="13" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="64" priority="14" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="75" priority="11" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="63" priority="11" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="62" priority="12" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C12 C15:C78">
-    <cfRule type="cellIs" dxfId="73" priority="9" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="61" priority="9" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="10" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="60" priority="10" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="71" priority="7" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="59" priority="7" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="58" priority="8" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B78">
-    <cfRule type="cellIs" dxfId="69" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="57" priority="5" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="56" priority="6" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="67" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="55" priority="3" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="54" priority="4" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="65" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38779,162 +38672,162 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="CS5:CS82 B5:B6 B8:B15">
-    <cfRule type="cellIs" dxfId="63" priority="43" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="51" priority="43" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="44" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="50" priority="44" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CS5:CS82">
-    <cfRule type="cellIs" dxfId="61" priority="41" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="49" priority="41" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="42" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="48" priority="42" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:CR18 F20 G19:CR19 F82:CN82 CP82:CR82 F80:CR81 F79:CM79 CO79:CR79 F78:CK78 CN78:CR78 F77:CJ77 CL77:CR77 F76:CI76 CK76:CR76 F75:CG75 CJ75:CR75 F74:CF74 CH74:CR74 F73:CE73 CG73:CR73 F72:CR72 F71:CC71 CF71:CR71 F70:CA70 CD70:CR70 F69:BZ69 CB69:CR69 F68:BY68 CA68:CR68 F67:BX67 BZ67:CR67 F66:CR66 F65:BW65 BY65:CR65 F64:BV64 BX64:CR64 F63:BU63 BW63:CR63 F62:BS62 BV62:CR62 F61:BQ61 BT61:CR61 F60:BP60 BR60:CR60 F59:BN59 BQ59:CR59 F58:BL58 BO58:CR58 F57:BK57 BM57:CR57 F56:BI56 BL56:CR56 F55:BG55 BJ55:CR55 F54:BE54 BH54:CR54 F53:CR53 F52:BD52 BF52:CR52 F51:BC51 BE51:CR51 F50:BB50 BD50:CR50 F49:AZ49 BC49:CR49 F48:AX48 BA48:CR48 F47:AV47 AY47:CR47 F46:AU46 AW46:CR46 F45:AT45 AV45:CR45 F44:AR44 AU44:CR44 F43:AP43 AS43:CR43 F42:CR42 F41:AN41 AQ41:CR41 F40:AM40 AO40:CR40 F39:CR39 F38:AL38 AN38:CR38 F37:AK37 AM37:CR37 F36:AI36 AL36:CR36 F35:AG35 AJ35:CR35 F34:AE34 AH34:CR34 F33:AC33 AF33:CR33 F32:AA32 AD32:CR32 F31:Y31 AB31:CR31 F30:W30 Z30:CR30 F29:U29 X29:CR29 F28:S28 V28:CR28 F27:Q27 T27:CR27 F26:O26 R26:CR26 F25:N25 P25:CR25 F24:M24 O24:CR24 F23:K23 N23:CR23 F22:I22 L22:CR22 F21:H21 J21:CR21 I20:CR20">
-    <cfRule type="cellIs" dxfId="59" priority="39" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="47" priority="39" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="40" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="46" priority="40" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:CR18 F20 G19:CR19 F82:CN82 CP82:CR82 F80:CR81 F79:CM79 CO79:CR79 F78:CK78 CN78:CR78 F77:CJ77 CL77:CR77 F76:CI76 CK76:CR76 F75:CG75 CJ75:CR75 F74:CF74 CH74:CR74 F73:CE73 CG73:CR73 F72:CR72 F71:CC71 CF71:CR71 F70:CA70 CD70:CR70 F69:BZ69 CB69:CR69 F68:BY68 CA68:CR68 F67:BX67 BZ67:CR67 F66:CR66 F65:BW65 BY65:CR65 F64:BV64 BX64:CR64 F63:BU63 BW63:CR63 F62:BS62 BV62:CR62 F61:BQ61 BT61:CR61 F60:BP60 BR60:CR60 F59:BN59 BQ59:CR59 F58:BL58 BO58:CR58 F57:BK57 BM57:CR57 F56:BI56 BL56:CR56 F55:BG55 BJ55:CR55 F54:BE54 BH54:CR54 F53:CR53 F52:BD52 BF52:CR52 F51:BC51 BE51:CR51 F50:BB50 BD50:CR50 F49:AZ49 BC49:CR49 F48:AX48 BA48:CR48 F47:AV47 AY47:CR47 F46:AU46 AW46:CR46 F45:AT45 AV45:CR45 F44:AR44 AU44:CR44 F43:AP43 AS43:CR43 F42:CR42 F41:AN41 AQ41:CR41 F40:AM40 AO40:CR40 F39:CR39 F38:AL38 AN38:CR38 F37:AK37 AM37:CR37 F36:AI36 AL36:CR36 F35:AG35 AJ35:CR35 F34:AE34 AH34:CR34 F33:AC33 AF33:CR33 F32:AA32 AD32:CR32 F31:Y31 AB31:CR31 F30:W30 Z30:CR30 F29:U29 X29:CR29 F28:S28 V28:CR28 F27:Q27 T27:CR27 F26:O26 R26:CR26 F25:N25 P25:CR25 F24:M24 O24:CR24 F23:K23 N23:CR23 F22:I22 L22:CR22 F21:H21 J21:CR21 I20:CR20">
-    <cfRule type="cellIs" dxfId="57" priority="37" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="45" priority="37" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="38" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="44" priority="38" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1 A84:A1048576">
-    <cfRule type="cellIs" dxfId="55" priority="35" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="43" priority="35" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="36" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="42" priority="36" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1 A84:A1048576">
-    <cfRule type="cellIs" dxfId="53" priority="33" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="41" priority="33" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="34" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="40" priority="34" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E18 E20:E82">
-    <cfRule type="cellIs" dxfId="51" priority="27" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="39" priority="27" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="28" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="38" priority="28" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E18 E20:E82">
-    <cfRule type="cellIs" dxfId="49" priority="25" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="37" priority="25" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="36" priority="26" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D17 D20:D82">
-    <cfRule type="cellIs" dxfId="47" priority="23" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="35" priority="23" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="34" priority="24" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D17 D20:D82">
-    <cfRule type="cellIs" dxfId="45" priority="21" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="33" priority="21" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="22" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="32" priority="22" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="43" priority="19" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="31" priority="19" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="30" priority="20" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="41" priority="17" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="29" priority="17" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="28" priority="18" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C17 C20:C82 B2:C14">
-    <cfRule type="cellIs" dxfId="39" priority="15" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="27" priority="15" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="16" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="26" priority="16" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C17 C20:C82 B2:C14">
-    <cfRule type="cellIs" dxfId="37" priority="13" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="14" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="35" priority="11" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="33" priority="9" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="10" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B82 B17">
-    <cfRule type="cellIs" dxfId="31" priority="7" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B82 B17">
-    <cfRule type="cellIs" dxfId="29" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/GFS/GFS.xlsx
+++ b/GFS/GFS.xlsx
@@ -847,636 +847,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1250">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1176">
     <dxf>
       <font>
         <color auto="1"/>
@@ -11778,7 +11149,7 @@
   <dimension ref="A1:EN95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B2" sqref="B2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12223,7 +11594,10 @@
       <c r="A2" s="3">
         <v>43195</v>
       </c>
-      <c r="C2" s="1">
+      <c r="B2" s="2">
+        <v>5.23</v>
+      </c>
+      <c r="C2" s="2">
         <v>5.01</v>
       </c>
       <c r="U2"/>
@@ -12355,7 +11729,10 @@
       <c r="A3" s="3">
         <v>43194</v>
       </c>
-      <c r="C3" s="1">
+      <c r="B3" s="2">
+        <v>4.04</v>
+      </c>
+      <c r="C3" s="2">
         <v>-2.0699999999999998</v>
       </c>
       <c r="U3"/>
@@ -12487,7 +11864,9 @@
       <c r="A4" s="3">
         <v>43193</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <v>0.34</v>
+      </c>
       <c r="C4" s="2">
         <v>-3.14</v>
       </c>
@@ -12630,7 +12009,9 @@
       <c r="A5" s="3">
         <v>43192</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>-0.94</v>
+      </c>
       <c r="C5" s="2">
         <v>-1.97</v>
       </c>
@@ -12782,7 +12163,9 @@
       <c r="A6" s="3">
         <v>43191</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>0.3</v>
+      </c>
       <c r="C6" s="2">
         <v>-0.72</v>
       </c>
@@ -12938,7 +12321,9 @@
       <c r="A7" s="3">
         <v>43190</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>2.1</v>
+      </c>
       <c r="C7" s="2">
         <v>-1.17</v>
       </c>
@@ -13096,7 +12481,9 @@
       <c r="A8" s="3">
         <v>43189</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>-1.1299999999999999</v>
+      </c>
       <c r="C8" s="2">
         <v>-2.31</v>
       </c>
@@ -13256,7 +12643,9 @@
       <c r="A9" s="3">
         <v>43188</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2">
+        <v>-2.5</v>
+      </c>
       <c r="C9" s="2">
         <v>-3.02</v>
       </c>
@@ -13424,7 +12813,9 @@
       <c r="A10" s="3">
         <v>43187</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <v>-3.45</v>
+      </c>
       <c r="C10" s="2">
         <v>-2.36</v>
       </c>
@@ -13601,7 +12992,9 @@
       <c r="A11" s="3">
         <v>43186</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <v>-0.22</v>
+      </c>
       <c r="C11" s="2">
         <v>0.09</v>
       </c>
@@ -13785,7 +13178,9 @@
       <c r="A12" s="3">
         <v>43185</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <v>2.46</v>
+      </c>
       <c r="C12" s="2">
         <v>2.62</v>
       </c>
@@ -14781,7 +14176,7 @@
       </c>
       <c r="B17" s="4">
         <f>SUM(B2:B16)</f>
-        <v>10.89</v>
+        <v>17.12</v>
       </c>
       <c r="C17" s="4">
         <f>SUM(C2:C16)</f>
@@ -30655,526 +30050,542 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="EN15:EN94 Y14:Y18 Y20:Y21">
-    <cfRule type="cellIs" dxfId="1171" priority="1389" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1175" priority="1413" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1170" priority="1390" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1174" priority="1414" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EN15:EN94">
-    <cfRule type="cellIs" dxfId="1169" priority="1387" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1173" priority="1411" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1168" priority="1388" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1172" priority="1412" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EJ94:EL94 EJ93 EM93 EJ91:EM92 EK90:EM90 EJ15:EM89">
-    <cfRule type="cellIs" dxfId="1167" priority="1385" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1171" priority="1409" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1166" priority="1386" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1170" priority="1410" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EJ94:EL94 EJ93 EM93 EJ91:EM92 EK90:EM90 EJ15:EM89">
-    <cfRule type="cellIs" dxfId="1165" priority="1383" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1169" priority="1407" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1164" priority="1384" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1168" priority="1408" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EC91:EI94 EC89:EG89 EC88:EF88 EH88:EI88 EC87:EE87 EG87:EI87 EC86 EF86:EI86 ED85:EI85 EC15:EI84">
-    <cfRule type="cellIs" dxfId="1163" priority="1377" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1167" priority="1401" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1162" priority="1378" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1166" priority="1402" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EC91:EI94 EC89:EG89 EC88:EF88 EH88:EI88 EC87:EE87 EG87:EI87 EC86 EF86:EI86 ED85:EI85 EC15:EI84">
-    <cfRule type="cellIs" dxfId="1161" priority="1375" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1165" priority="1399" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1160" priority="1376" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1164" priority="1400" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB91:EB94 AB86:EB89 AB15:EB29 AB83:EB84 AB82:DY82 EB82 AB81:DX81 DZ81:EB81 AB80:DW80 DY80:EB80 AB79:DU79 DX79:EB79 AB78:DT78 DV78:EB78 AB77:EB77 AB76:DS76 DU76:EB76 AB75:EB75 AB74:DQ74 DT74:EB74 AB73:DP73 DR73:EB73 AB72:DM72 DQ72:EB72 AB71:DK71 DN71:EB71 AB70:DJ70 DL70:EB70 AB69:DG69 DK69:EB69 AB68:DD68 DH68:EB68 AB67:CZ67 DE67:EB67 AB66:CY66 DA66:EB66 AB65:CW65 CZ65:EB65 AB64:CV64 CX64:EB64 AB63:CU63 CW63:EB63 AB62:EB62 AB61:CR61 CV61:EB61 AB60:CP60 CS60:EB60 AB59:CM59 CQ59:EB59 AB58:CK58 CN58:EB58 AB57:EB57 AB56:CH56 CL56:EB56 AB55:CF55 CI55:EB55 AB54:CD54 CG54:EB54 AB53:CC53 CE53:EB53 AB52:BZ52 CD52:EB52 AB51:BY51 CA51:EB51 AB50:BX50 BZ50:EB50 AB49:BV49 BY49:EB49 AB48:BT48 BW48:EB48 AB47:BS47 BU47:EB47 AB46:BP46 BT46:EB46 AB45:BM45 BQ45:EB45 AB44:BJ44 BN44:EB44 AB43:BH43 BK43:EB43 AB42:BF42 BI42:EB42 AB41:BC41 BG41:EB41 AB40:AZ40 BD40:EB40 AB39:AX39 BA39:EB39 AB38:AT38 AY38:EB38 AB37:AQ37 AU37:EB37 AB36:AN36 AR36:EB36 AB35:EB35 AB34:AL34 AO34:EB34 AB33:AI33 AM33:EB33 AB32:AF32 AJ32:EB32 AB31:AC31 AG31:EB31 AD30:EB30">
-    <cfRule type="cellIs" dxfId="1159" priority="1373" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1163" priority="1397" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1158" priority="1374" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1162" priority="1398" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB91:EB94 AB86:EB89 AB15:EB29 AB83:EB84 AB82:DY82 EB82 AB81:DX81 DZ81:EB81 AB80:DW80 DY80:EB80 AB79:DU79 DX79:EB79 AB78:DT78 DV78:EB78 AB77:EB77 AB76:DS76 DU76:EB76 AB75:EB75 AB74:DQ74 DT74:EB74 AB73:DP73 DR73:EB73 AB72:DM72 DQ72:EB72 AB71:DK71 DN71:EB71 AB70:DJ70 DL70:EB70 AB69:DG69 DK69:EB69 AB68:DD68 DH68:EB68 AB67:CZ67 DE67:EB67 AB66:CY66 DA66:EB66 AB65:CW65 CZ65:EB65 AB64:CV64 CX64:EB64 AB63:CU63 CW63:EB63 AB62:EB62 AB61:CR61 CV61:EB61 AB60:CP60 CS60:EB60 AB59:CM59 CQ59:EB59 AB58:CK58 CN58:EB58 AB57:EB57 AB56:CH56 CL56:EB56 AB55:CF55 CI55:EB55 AB54:CD54 CG54:EB54 AB53:CC53 CE53:EB53 AB52:BZ52 CD52:EB52 AB51:BY51 CA51:EB51 AB50:BX50 BZ50:EB50 AB49:BV49 BY49:EB49 AB48:BT48 BW48:EB48 AB47:BS47 BU47:EB47 AB46:BP46 BT46:EB46 AB45:BM45 BQ45:EB45 AB44:BJ44 BN44:EB44 AB43:BH43 BK43:EB43 AB42:BF42 BI42:EB42 AB41:BC41 BG41:EB41 AB40:AZ40 BD40:EB40 AB39:AX39 BA39:EB39 AB38:AT38 AY38:EB38 AB37:AQ37 AU37:EB37 AB36:AN36 AR36:EB36 AB35:EB35 AB34:AL34 AO34:EB34 AB33:AI33 AM33:EB33 AB32:AF32 AJ32:EB32 AB31:AC31 AG31:EB31 AD30:EB30">
-    <cfRule type="cellIs" dxfId="1157" priority="1371" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1161" priority="1395" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1156" priority="1372" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1160" priority="1396" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:A1048576">
-    <cfRule type="cellIs" dxfId="1155" priority="1369" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1159" priority="1393" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1154" priority="1370" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1158" priority="1394" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:A1048576">
-    <cfRule type="cellIs" dxfId="1153" priority="1367" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1157" priority="1391" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1152" priority="1368" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1156" priority="1392" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA91:AA94 AA86:AA89 AA15:AA29 AA31:AA84">
-    <cfRule type="cellIs" dxfId="1151" priority="1241" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1155" priority="1265" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1150" priority="1242" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1154" priority="1266" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA91:AA94 AA86:AA89 AA15:AA29 AA31:AA84 Z14:AA28">
-    <cfRule type="cellIs" dxfId="1149" priority="1239" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1153" priority="1263" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1148" priority="1240" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1152" priority="1264" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z91:Z94 Z86:Z89 Z15:Z28 Z31:Z84">
-    <cfRule type="cellIs" dxfId="1147" priority="1233" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1151" priority="1257" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1146" priority="1234" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1150" priority="1258" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z91:Z94 Z86:Z89 Z15:Z28 Z31:Z84">
-    <cfRule type="cellIs" dxfId="1145" priority="1231" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1149" priority="1255" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1144" priority="1232" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1148" priority="1256" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z14">
-    <cfRule type="cellIs" dxfId="1143" priority="1229" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1147" priority="1253" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1142" priority="1230" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1146" priority="1254" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z14">
-    <cfRule type="cellIs" dxfId="1141" priority="1227" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1145" priority="1251" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1140" priority="1228" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1144" priority="1252" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y22:Y28">
-    <cfRule type="cellIs" dxfId="1139" priority="1215" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1143" priority="1239" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1138" priority="1216" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1142" priority="1240" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y91:Y94 Y86:Y89 Y31:Y84 Y22:Y28">
-    <cfRule type="cellIs" dxfId="1137" priority="1213" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1141" priority="1237" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1136" priority="1214" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1140" priority="1238" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y91:Y94 Y86:Y89 Y31:Y84 Y22:Y28">
-    <cfRule type="cellIs" dxfId="1135" priority="1211" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1139" priority="1235" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1134" priority="1212" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1138" priority="1236" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y14">
-    <cfRule type="cellIs" dxfId="1133" priority="1209" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1137" priority="1233" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1132" priority="1210" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1136" priority="1234" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y14">
-    <cfRule type="cellIs" dxfId="1131" priority="1207" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1135" priority="1231" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1130" priority="1208" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1134" priority="1232" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X21 Y13:Y18">
-    <cfRule type="cellIs" dxfId="1129" priority="1205" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1133" priority="1229" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1128" priority="1206" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1132" priority="1230" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X22:X27">
-    <cfRule type="cellIs" dxfId="1127" priority="1203" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1131" priority="1227" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1126" priority="1204" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1130" priority="1228" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X91:X94 X86:X89 X31:X84 X22:X27">
-    <cfRule type="cellIs" dxfId="1125" priority="1201" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1129" priority="1225" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1124" priority="1202" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1128" priority="1226" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X91:X94 X86:X89 X31:X84 X22:X27">
-    <cfRule type="cellIs" dxfId="1123" priority="1199" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1127" priority="1223" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1122" priority="1200" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1126" priority="1224" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y13:Y18">
-    <cfRule type="cellIs" dxfId="1121" priority="1197" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1125" priority="1221" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1120" priority="1198" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1124" priority="1222" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y13:Y18">
-    <cfRule type="cellIs" dxfId="1119" priority="1195" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1123" priority="1219" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1118" priority="1196" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1122" priority="1220" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W21">
-    <cfRule type="cellIs" dxfId="1117" priority="1193" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1121" priority="1217" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1116" priority="1194" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1120" priority="1218" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W22:W26">
-    <cfRule type="cellIs" dxfId="1115" priority="1191" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1119" priority="1215" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1114" priority="1192" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1118" priority="1216" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W91:W94 W86:W89 W31:W84 W22:W26">
-    <cfRule type="cellIs" dxfId="1113" priority="1189" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1117" priority="1213" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1112" priority="1190" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1116" priority="1214" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W91:W94 W86:W89 W31:W84 W22:W26">
-    <cfRule type="cellIs" dxfId="1111" priority="1187" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1115" priority="1211" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1110" priority="1188" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1114" priority="1212" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12:X20">
-    <cfRule type="cellIs" dxfId="1109" priority="1181" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1113" priority="1205" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1108" priority="1182" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1112" priority="1206" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12:X20">
-    <cfRule type="cellIs" dxfId="1107" priority="1179" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1111" priority="1203" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1106" priority="1180" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1110" priority="1204" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12:X20">
-    <cfRule type="cellIs" dxfId="1105" priority="1177" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1109" priority="1201" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1104" priority="1178" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1108" priority="1202" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V21">
-    <cfRule type="cellIs" dxfId="1103" priority="1175" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1107" priority="1199" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1102" priority="1176" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1106" priority="1200" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22:V26">
-    <cfRule type="cellIs" dxfId="1101" priority="1173" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1105" priority="1197" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1100" priority="1174" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1104" priority="1198" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V91:V94 V86:V89 V31:V84 V22:V26">
-    <cfRule type="cellIs" dxfId="1099" priority="1171" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1103" priority="1195" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1098" priority="1172" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1102" priority="1196" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V91:V94 V86:V89 V31:V84 V22:V26">
-    <cfRule type="cellIs" dxfId="1097" priority="1169" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1101" priority="1193" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1096" priority="1170" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1100" priority="1194" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12:V20">
-    <cfRule type="cellIs" dxfId="1095" priority="1167" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1099" priority="1191" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1094" priority="1168" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1098" priority="1192" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12:V20">
-    <cfRule type="cellIs" dxfId="1093" priority="1165" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1097" priority="1189" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1092" priority="1166" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1096" priority="1190" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12:V20">
-    <cfRule type="cellIs" dxfId="1091" priority="1163" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1095" priority="1187" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1090" priority="1164" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1094" priority="1188" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="1089" priority="1161" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1093" priority="1185" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1088" priority="1162" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1092" priority="1186" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="1087" priority="1159" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1091" priority="1183" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1086" priority="1160" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1090" priority="1184" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U21">
-    <cfRule type="cellIs" dxfId="1085" priority="1157" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1089" priority="1181" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1084" priority="1158" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1088" priority="1182" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U22:U25">
-    <cfRule type="cellIs" dxfId="1083" priority="1155" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1087" priority="1179" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1082" priority="1156" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1086" priority="1180" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U91:U94 U86:U89 U31:U84 U22:U25">
-    <cfRule type="cellIs" dxfId="1081" priority="1153" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1085" priority="1177" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1080" priority="1154" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1084" priority="1178" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U91:U94 U86:U89 U31:U84 U22:U25">
-    <cfRule type="cellIs" dxfId="1079" priority="1151" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1083" priority="1175" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1078" priority="1152" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1082" priority="1176" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12:U20 T11:U17">
-    <cfRule type="cellIs" dxfId="1077" priority="1149" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1081" priority="1173" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1076" priority="1150" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1080" priority="1174" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12:U20 T11:U17">
-    <cfRule type="cellIs" dxfId="1075" priority="1147" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1079" priority="1171" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1074" priority="1148" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1078" priority="1172" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12:U20 T11:U17">
-    <cfRule type="cellIs" dxfId="1073" priority="1145" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1077" priority="1169" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1072" priority="1146" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1076" priority="1170" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T21">
-    <cfRule type="cellIs" dxfId="1071" priority="1137" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1075" priority="1161" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1070" priority="1138" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1074" priority="1162" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22:T25">
-    <cfRule type="cellIs" dxfId="1069" priority="1135" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1073" priority="1159" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1068" priority="1136" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1072" priority="1160" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T91:T94 T86:T89 T31:T84 T22:T25">
-    <cfRule type="cellIs" dxfId="1067" priority="1133" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1071" priority="1157" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1066" priority="1134" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1070" priority="1158" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T91:T94 T86:T89 T31:T84 T22:T25">
-    <cfRule type="cellIs" dxfId="1065" priority="1131" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1069" priority="1155" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1064" priority="1132" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1068" priority="1156" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12:T20">
-    <cfRule type="cellIs" dxfId="1063" priority="1129" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1067" priority="1153" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1062" priority="1130" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1066" priority="1154" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12:T20">
-    <cfRule type="cellIs" dxfId="1061" priority="1127" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1065" priority="1151" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1060" priority="1128" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1064" priority="1152" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12:T20">
-    <cfRule type="cellIs" dxfId="1059" priority="1125" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1063" priority="1149" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1058" priority="1126" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1062" priority="1150" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10:S17">
-    <cfRule type="cellIs" dxfId="1057" priority="1123" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1061" priority="1147" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1056" priority="1124" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1060" priority="1148" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10:S17">
-    <cfRule type="cellIs" dxfId="1055" priority="1121" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1059" priority="1145" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1054" priority="1122" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1058" priority="1146" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10:S17">
-    <cfRule type="cellIs" dxfId="1053" priority="1119" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1057" priority="1143" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1052" priority="1120" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1056" priority="1144" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S21">
-    <cfRule type="cellIs" dxfId="1051" priority="1117" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1055" priority="1141" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1050" priority="1118" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1054" priority="1142" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S22:S25">
-    <cfRule type="cellIs" dxfId="1049" priority="1115" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1053" priority="1139" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1048" priority="1116" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1052" priority="1140" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S91:S94 S86:S89 S31:S84 S22:S25">
-    <cfRule type="cellIs" dxfId="1047" priority="1113" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1051" priority="1137" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1046" priority="1114" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1050" priority="1138" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S91:S94 S86:S89 S31:S84 S22:S25">
-    <cfRule type="cellIs" dxfId="1045" priority="1111" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1049" priority="1135" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1044" priority="1112" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1048" priority="1136" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12:S20">
-    <cfRule type="cellIs" dxfId="1043" priority="1109" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1047" priority="1133" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1042" priority="1110" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1046" priority="1134" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12:S20">
+    <cfRule type="cellIs" dxfId="1045" priority="1131" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1044" priority="1132" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S12:S20">
+    <cfRule type="cellIs" dxfId="1043" priority="1129" operator="lessThanOrEqual">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1042" priority="1130" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R10:R17">
     <cfRule type="cellIs" dxfId="1041" priority="1107" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -31182,7 +30593,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S12:S20">
+  <conditionalFormatting sqref="R10:R17">
     <cfRule type="cellIs" dxfId="1039" priority="1105" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -31191,918 +30602,854 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10:R17">
-    <cfRule type="cellIs" dxfId="1037" priority="1083" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1037" priority="1103" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1036" priority="1084" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R10:R17">
-    <cfRule type="cellIs" dxfId="1035" priority="1081" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1034" priority="1082" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R10:R17">
-    <cfRule type="cellIs" dxfId="1033" priority="1079" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1032" priority="1080" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1036" priority="1104" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R21">
-    <cfRule type="cellIs" dxfId="1031" priority="1077" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1035" priority="1101" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1030" priority="1078" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1034" priority="1102" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R22:R24">
-    <cfRule type="cellIs" dxfId="1029" priority="1075" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1033" priority="1099" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1028" priority="1076" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1032" priority="1100" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R91:R94 R86:R89 R31:R84 R22:R24">
-    <cfRule type="cellIs" dxfId="1027" priority="1073" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1031" priority="1097" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1026" priority="1074" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1030" priority="1098" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R91:R94 R86:R89 R31:R84 R22:R24">
-    <cfRule type="cellIs" dxfId="1025" priority="1071" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1029" priority="1095" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1024" priority="1072" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1028" priority="1096" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:R20">
-    <cfRule type="cellIs" dxfId="1023" priority="1069" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1027" priority="1093" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1022" priority="1070" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1026" priority="1094" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:R20">
-    <cfRule type="cellIs" dxfId="1021" priority="1067" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1025" priority="1091" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1020" priority="1068" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1024" priority="1092" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:R20">
-    <cfRule type="cellIs" dxfId="1019" priority="1065" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1023" priority="1089" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1018" priority="1066" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1022" priority="1090" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10:Q17">
-    <cfRule type="cellIs" dxfId="1017" priority="1063" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1021" priority="1087" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1016" priority="1064" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1020" priority="1088" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10:Q17">
-    <cfRule type="cellIs" dxfId="1015" priority="1061" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1019" priority="1085" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1014" priority="1062" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1018" priority="1086" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10:Q17">
-    <cfRule type="cellIs" dxfId="1013" priority="1059" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1017" priority="1083" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1012" priority="1060" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1016" priority="1084" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q21">
-    <cfRule type="cellIs" dxfId="1011" priority="1057" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1015" priority="1081" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1010" priority="1058" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1014" priority="1082" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22:Q24">
-    <cfRule type="cellIs" dxfId="1009" priority="1055" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1013" priority="1079" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1008" priority="1056" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1012" priority="1080" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q91:Q94 Q86:Q89 Q31:Q84 Q22:Q24">
-    <cfRule type="cellIs" dxfId="1007" priority="1053" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1011" priority="1077" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1006" priority="1054" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1010" priority="1078" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q91:Q94 Q86:Q89 Q31:Q84 Q22:Q24">
-    <cfRule type="cellIs" dxfId="1005" priority="1051" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1009" priority="1075" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1004" priority="1052" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1008" priority="1076" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:Q20">
-    <cfRule type="cellIs" dxfId="1003" priority="1049" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1007" priority="1073" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1002" priority="1050" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1006" priority="1074" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:Q20">
-    <cfRule type="cellIs" dxfId="1001" priority="1047" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1005" priority="1071" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1000" priority="1048" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1004" priority="1072" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:Q20">
-    <cfRule type="cellIs" dxfId="999" priority="1045" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1003" priority="1069" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="998" priority="1046" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1002" priority="1070" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9:P19">
-    <cfRule type="cellIs" dxfId="997" priority="1043" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1001" priority="1067" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="996" priority="1044" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1000" priority="1068" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9:P19">
-    <cfRule type="cellIs" dxfId="995" priority="1041" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="999" priority="1065" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="994" priority="1042" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="998" priority="1066" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9:P19">
-    <cfRule type="cellIs" dxfId="993" priority="1039" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="997" priority="1063" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="992" priority="1040" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="996" priority="1064" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21">
-    <cfRule type="cellIs" dxfId="991" priority="1037" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="995" priority="1061" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="990" priority="1038" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="994" priority="1062" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22:P24">
-    <cfRule type="cellIs" dxfId="989" priority="1035" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="993" priority="1059" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="988" priority="1036" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="992" priority="1060" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P91:P94 P86:P89 P31:P84 P22:P24">
-    <cfRule type="cellIs" dxfId="987" priority="1033" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="991" priority="1057" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="986" priority="1034" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="990" priority="1058" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P91:P94 P86:P89 P31:P84 P22:P24">
-    <cfRule type="cellIs" dxfId="985" priority="1031" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="989" priority="1055" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="984" priority="1032" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="988" priority="1056" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9:P20">
-    <cfRule type="cellIs" dxfId="983" priority="1029" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="987" priority="1053" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="982" priority="1030" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="986" priority="1054" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9:P20">
-    <cfRule type="cellIs" dxfId="981" priority="1027" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="985" priority="1051" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="980" priority="1028" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="984" priority="1052" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9:P20">
-    <cfRule type="cellIs" dxfId="979" priority="1025" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="983" priority="1049" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="978" priority="1026" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="982" priority="1050" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:O19 G6:L12 H5:L5">
-    <cfRule type="cellIs" dxfId="977" priority="179" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="981" priority="203" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="976" priority="180" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="980" priority="204" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:O19 G6:L12 H5:L5">
-    <cfRule type="cellIs" dxfId="975" priority="177" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="979" priority="201" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="974" priority="178" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="978" priority="202" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:O19 G6:L12 H5:L5">
-    <cfRule type="cellIs" dxfId="973" priority="175" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="977" priority="199" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="972" priority="176" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="976" priority="200" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:H21 K21:O21">
-    <cfRule type="cellIs" dxfId="971" priority="173" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="975" priority="197" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="970" priority="174" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="974" priority="198" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:L24 G22:J22 G23:K23 M22:O23 O24">
-    <cfRule type="cellIs" dxfId="969" priority="171" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="973" priority="195" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="968" priority="172" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="972" priority="196" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G91:O94 G86:O89 G31:O84 G24:L24 G22:J22 G23:K23 M22:O23 O24">
-    <cfRule type="cellIs" dxfId="967" priority="169" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="971" priority="193" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="966" priority="170" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="970" priority="194" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G91:O94 G86:O89 G31:O84 G24:L24 G22:J22 G23:K23 M22:O23 O24">
-    <cfRule type="cellIs" dxfId="965" priority="167" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="969" priority="191" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="964" priority="168" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="968" priority="192" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:O19 G6:L12 I20:O20 H5:L5">
-    <cfRule type="cellIs" dxfId="963" priority="165" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="967" priority="189" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="962" priority="166" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="966" priority="190" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:O19 G6:L12 I20:O20 H5:L5">
-    <cfRule type="cellIs" dxfId="961" priority="163" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="965" priority="187" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="960" priority="164" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="964" priority="188" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:O19 G6:L12 I20:O20 H5:L5">
-    <cfRule type="cellIs" dxfId="959" priority="161" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="963" priority="185" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="958" priority="162" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="962" priority="186" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="957" priority="159" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="961" priority="183" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="956" priority="160" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="960" priority="184" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="955" priority="157" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="959" priority="181" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="954" priority="158" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="958" priority="182" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="953" priority="155" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="957" priority="179" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="952" priority="156" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="956" priority="180" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="951" priority="153" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="955" priority="177" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="950" priority="154" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="954" priority="178" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="949" priority="151" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="953" priority="175" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="948" priority="152" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="952" priority="176" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="947" priority="149" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="951" priority="173" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="946" priority="150" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="950" priority="174" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F18">
-    <cfRule type="cellIs" dxfId="945" priority="147" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="949" priority="171" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="944" priority="148" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="948" priority="172" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F18">
-    <cfRule type="cellIs" dxfId="943" priority="145" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="947" priority="169" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="942" priority="146" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="946" priority="170" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F18">
-    <cfRule type="cellIs" dxfId="941" priority="143" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="945" priority="167" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="940" priority="144" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="944" priority="168" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="939" priority="141" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="943" priority="165" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="938" priority="142" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="942" priority="166" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F24">
-    <cfRule type="cellIs" dxfId="937" priority="139" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="941" priority="163" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="936" priority="140" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="940" priority="164" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F91:F94 F86:F89 F31:F84 F22:F24">
-    <cfRule type="cellIs" dxfId="935" priority="137" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="939" priority="161" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="934" priority="138" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="938" priority="162" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F91:F94 F86:F89 F31:F84 F22:F24">
-    <cfRule type="cellIs" dxfId="933" priority="135" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="937" priority="159" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="932" priority="136" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="936" priority="160" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F18">
-    <cfRule type="cellIs" dxfId="931" priority="133" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="935" priority="157" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="930" priority="134" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="934" priority="158" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F18">
-    <cfRule type="cellIs" dxfId="929" priority="131" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="933" priority="155" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="928" priority="132" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="932" priority="156" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F18">
-    <cfRule type="cellIs" dxfId="927" priority="129" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="931" priority="153" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="926" priority="130" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="930" priority="154" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E18">
-    <cfRule type="cellIs" dxfId="925" priority="127" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="929" priority="151" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="924" priority="128" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="928" priority="152" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E18">
-    <cfRule type="cellIs" dxfId="923" priority="125" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="927" priority="149" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="922" priority="126" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="926" priority="150" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E18">
-    <cfRule type="cellIs" dxfId="921" priority="123" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="925" priority="147" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="920" priority="124" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="924" priority="148" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="919" priority="121" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="923" priority="145" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="918" priority="122" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="922" priority="146" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E24">
-    <cfRule type="cellIs" dxfId="917" priority="119" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="921" priority="143" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="916" priority="120" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="920" priority="144" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91:E94 E86:E89 E31:E84 E22:E24">
-    <cfRule type="cellIs" dxfId="915" priority="117" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="919" priority="141" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="914" priority="118" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="918" priority="142" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91:E94 E86:E89 E31:E84 E22:E24">
-    <cfRule type="cellIs" dxfId="913" priority="115" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="917" priority="139" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="912" priority="116" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="916" priority="140" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E18">
-    <cfRule type="cellIs" dxfId="911" priority="113" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="915" priority="137" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="910" priority="114" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="914" priority="138" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E18">
-    <cfRule type="cellIs" dxfId="909" priority="111" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="913" priority="135" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="908" priority="112" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="912" priority="136" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E18">
-    <cfRule type="cellIs" dxfId="907" priority="109" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="911" priority="133" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="906" priority="110" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="910" priority="134" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:G5">
-    <cfRule type="cellIs" dxfId="905" priority="107" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="909" priority="131" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="904" priority="108" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="908" priority="132" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:G5">
-    <cfRule type="cellIs" dxfId="903" priority="105" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="907" priority="129" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="902" priority="106" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="906" priority="130" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:G5">
-    <cfRule type="cellIs" dxfId="901" priority="103" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="905" priority="127" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="900" priority="104" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="904" priority="128" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:G5">
-    <cfRule type="cellIs" dxfId="899" priority="101" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="903" priority="125" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="898" priority="102" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="902" priority="126" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:G5">
-    <cfRule type="cellIs" dxfId="897" priority="99" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="901" priority="123" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="896" priority="100" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="900" priority="124" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:G5">
-    <cfRule type="cellIs" dxfId="895" priority="97" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="899" priority="121" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="894" priority="98" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="898" priority="122" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D18">
-    <cfRule type="cellIs" dxfId="893" priority="95" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="897" priority="119" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="892" priority="96" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="896" priority="120" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D18">
-    <cfRule type="cellIs" dxfId="891" priority="93" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="895" priority="117" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="890" priority="94" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="894" priority="118" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D18">
-    <cfRule type="cellIs" dxfId="889" priority="91" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="893" priority="115" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="888" priority="92" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="892" priority="116" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="887" priority="89" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="891" priority="113" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="886" priority="90" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="890" priority="114" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D24">
-    <cfRule type="cellIs" dxfId="885" priority="87" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="889" priority="111" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="884" priority="88" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="888" priority="112" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91:D94 D86:D89 D31:D84 D22:D24">
-    <cfRule type="cellIs" dxfId="883" priority="85" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="887" priority="109" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="882" priority="86" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="886" priority="110" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91:D94 D86:D89 D31:D84 D22:D24">
-    <cfRule type="cellIs" dxfId="881" priority="83" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="885" priority="107" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="880" priority="84" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="884" priority="108" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D18">
-    <cfRule type="cellIs" dxfId="879" priority="81" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="883" priority="105" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="878" priority="82" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="882" priority="106" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D18">
-    <cfRule type="cellIs" dxfId="877" priority="79" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="881" priority="103" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="876" priority="80" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="880" priority="104" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D18">
-    <cfRule type="cellIs" dxfId="875" priority="77" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="879" priority="101" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="874" priority="78" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="878" priority="102" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D5">
-    <cfRule type="cellIs" dxfId="873" priority="75" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="877" priority="99" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="872" priority="76" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="876" priority="100" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D5">
-    <cfRule type="cellIs" dxfId="871" priority="73" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="875" priority="97" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="870" priority="74" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="874" priority="98" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D5">
-    <cfRule type="cellIs" dxfId="869" priority="71" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="873" priority="95" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="868" priority="72" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="872" priority="96" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D5">
-    <cfRule type="cellIs" dxfId="867" priority="69" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="871" priority="93" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="866" priority="70" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="870" priority="94" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D5">
-    <cfRule type="cellIs" dxfId="865" priority="67" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="869" priority="91" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="864" priority="68" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="868" priority="92" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D5">
-    <cfRule type="cellIs" dxfId="863" priority="65" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="867" priority="89" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="862" priority="66" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="866" priority="90" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C16 C18">
-    <cfRule type="cellIs" dxfId="861" priority="63" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="C10:C16 C18">
+    <cfRule type="cellIs" dxfId="865" priority="87" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="860" priority="64" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="864" priority="88" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C16 C18">
-    <cfRule type="cellIs" dxfId="859" priority="61" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="C10:C16 C18">
+    <cfRule type="cellIs" dxfId="863" priority="85" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="858" priority="62" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="862" priority="86" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C16 C18">
-    <cfRule type="cellIs" dxfId="857" priority="59" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="C10:C16 C18">
+    <cfRule type="cellIs" dxfId="861" priority="83" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="856" priority="60" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="860" priority="84" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="855" priority="57" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="859" priority="81" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="854" priority="58" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="858" priority="82" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="cellIs" dxfId="853" priority="55" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="857" priority="79" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="852" priority="56" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="856" priority="80" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91:C94 C86:C89 C31:C84 C22:C24">
-    <cfRule type="cellIs" dxfId="851" priority="53" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="855" priority="77" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="850" priority="54" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="854" priority="78" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91:C94 C86:C89 C31:C84 C22:C24">
-    <cfRule type="cellIs" dxfId="849" priority="51" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="853" priority="75" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="848" priority="52" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="852" priority="76" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C16 C18">
-    <cfRule type="cellIs" dxfId="847" priority="49" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="C10:C16 C18">
+    <cfRule type="cellIs" dxfId="851" priority="73" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="846" priority="50" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="850" priority="74" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C16 C18">
-    <cfRule type="cellIs" dxfId="845" priority="47" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="C10:C16 C18">
+    <cfRule type="cellIs" dxfId="849" priority="71" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="844" priority="48" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="848" priority="72" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C16 C18">
-    <cfRule type="cellIs" dxfId="843" priority="45" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="C10:C16 C18">
+    <cfRule type="cellIs" dxfId="847" priority="69" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="842" priority="46" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="846" priority="70" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C5">
-    <cfRule type="cellIs" dxfId="841" priority="43" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="B10:B16 B18">
+    <cfRule type="cellIs" dxfId="833" priority="55" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="840" priority="44" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="832" priority="56" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C5">
-    <cfRule type="cellIs" dxfId="839" priority="41" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="B10:B16 B18">
+    <cfRule type="cellIs" dxfId="831" priority="53" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="838" priority="42" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="830" priority="54" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C5">
-    <cfRule type="cellIs" dxfId="837" priority="39" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="B10:B16 B18">
+    <cfRule type="cellIs" dxfId="829" priority="51" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="836" priority="40" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C5">
-    <cfRule type="cellIs" dxfId="835" priority="37" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="834" priority="38" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C5">
-    <cfRule type="cellIs" dxfId="833" priority="35" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="832" priority="36" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C5">
-    <cfRule type="cellIs" dxfId="831" priority="33" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="830" priority="34" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B16 B18">
-    <cfRule type="cellIs" dxfId="63" priority="31" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="32" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B16 B18">
-    <cfRule type="cellIs" dxfId="59" priority="29" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="30" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B16 B18">
-    <cfRule type="cellIs" dxfId="55" priority="27" operator="lessThanOrEqual">
-      <formula>-2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="28" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="828" priority="52" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="cellIs" dxfId="51" priority="25" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="827" priority="49" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="826" priority="50" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24">
-    <cfRule type="cellIs" dxfId="47" priority="23" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="825" priority="47" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="824" priority="48" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91:B94 B86:B89 B31:B84 B22:B24">
-    <cfRule type="cellIs" dxfId="43" priority="21" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="823" priority="45" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="22" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="822" priority="46" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91:B94 B86:B89 B31:B84 B22:B24">
-    <cfRule type="cellIs" dxfId="39" priority="19" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="821" priority="43" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="820" priority="44" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B16 B18">
-    <cfRule type="cellIs" dxfId="35" priority="17" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="B10:B16 B18">
+    <cfRule type="cellIs" dxfId="819" priority="41" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="818" priority="42" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B16 B18">
-    <cfRule type="cellIs" dxfId="31" priority="15" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="B10:B16 B18">
+    <cfRule type="cellIs" dxfId="817" priority="39" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="16" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="816" priority="40" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B16 B18">
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="B10:B16 B18">
+    <cfRule type="cellIs" dxfId="815" priority="37" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="814" priority="38" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B5">
+  <conditionalFormatting sqref="B2:C9">
     <cfRule type="cellIs" dxfId="23" priority="11" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -32110,7 +31457,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B5">
+  <conditionalFormatting sqref="B2:C9">
     <cfRule type="cellIs" dxfId="19" priority="9" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -32118,7 +31465,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B5">
+  <conditionalFormatting sqref="B2:C9">
     <cfRule type="cellIs" dxfId="15" priority="7" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -32126,7 +31473,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B5">
+  <conditionalFormatting sqref="B2:C9">
     <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -32134,7 +31481,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B5">
+  <conditionalFormatting sqref="B2:C9">
     <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -32142,7 +31489,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B5">
+  <conditionalFormatting sqref="B2:C9">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
@@ -44788,1170 +44135,1170 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="DF15:DF88 S13:S14 S16:S20">
-    <cfRule type="cellIs" dxfId="829" priority="299" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="801" priority="299" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="828" priority="300" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="800" priority="300" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W15:DE23 W88:DD88 W87:DC87 DE87 W25 X24:DE24 W84:DE86 W83:DA83 DD83:DE83 W82:CZ82 DB82:DE82 W81:CY81 DA81:DE81 W80:CW80 CZ80:DE80 W79:CU79 CX79:DE79 W77:DE78 W76:CS76 CV76:DE76 W75:CQ75 CT75:DE75 W74:CP74 CR74:DE74 W73:DE73 W72:CO72 CQ72:DE72 W71:DE71 W70:CN70 CP70:DE70 W69:DE69 W68:CL68 CO68:DE68 W67:CJ67 W66:CH66 CK66:DE66 CM67:DE67 W65:CG65 CI65:DE65 W64:CE64 CH64:DE64 W63:CC63 CF63:DE63 W62:CB62 CD62:DE62 W61:BZ61 CC61:DE61 W60:BY60 CA60:DE60 W59:BW59 BZ59:DE59 W58:DE58 W57:BV57 BX57:DE57 W56:DE56 W55:BT55 BW55:DE55 W54:BR54 BU54:DE54 W53:BP53 BS53:DE53 W52:BN52 BQ52:DE52 W51:BM51 BO51:DE51 W50:BL50 BN50:DE50 W49:BJ49 BM49:DE49 W48:BH48 BK48:DE48 W47:DE47 W46:BG46 BI46:DE46 W45:BF45 BH45:DE45 W44:BE44 BG44:DE44 W43:BC43 BF43:DE43 W42:BB42 BD42:DE42 W41:AZ41 BC41:DE41 W40:AY40 BA40:DE40 W39:AV39 AZ39:DE39 W38:AT38 AW38:DE38 W37:AR37 AU37:DE37 W36:AP36 AS36:DE36 W35:AN35 AQ35:DE35 W34:AL34 AO34:DE34 W33:AJ33 AM33:DE33 W32:AH32 AK32:DE32 W31:AF31 AI31:DE31 W30:AE30 AG30:DE30 W29:DE29 W28:AC28 AF28:DE28 W27:AA27 AD27:DE27 W26:Y26 AB26:DE26 Z25:DE25">
-    <cfRule type="cellIs" dxfId="827" priority="297" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="799" priority="297" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="826" priority="298" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="798" priority="298" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1 A89:A1048576">
-    <cfRule type="cellIs" dxfId="825" priority="295" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="797" priority="295" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="824" priority="296" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="796" priority="296" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:V23 V25:V88">
-    <cfRule type="cellIs" dxfId="823" priority="293" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="795" priority="293" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="822" priority="294" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="794" priority="294" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15:U22 U25:U88">
-    <cfRule type="cellIs" dxfId="821" priority="291" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="793" priority="291" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="820" priority="292" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="792" priority="292" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U14">
-    <cfRule type="cellIs" dxfId="819" priority="289" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="791" priority="289" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="818" priority="290" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="790" priority="290" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15:T22 T25:T88">
-    <cfRule type="cellIs" dxfId="817" priority="287" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="789" priority="287" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="816" priority="288" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="788" priority="288" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14">
-    <cfRule type="cellIs" dxfId="815" priority="285" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="787" priority="285" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="814" priority="286" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="786" priority="286" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S25:S88">
-    <cfRule type="cellIs" dxfId="813" priority="283" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="785" priority="283" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="812" priority="284" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="784" priority="284" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12">
-    <cfRule type="cellIs" dxfId="811" priority="281" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="783" priority="281" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="810" priority="282" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="782" priority="282" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15">
-    <cfRule type="cellIs" dxfId="809" priority="279" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="781" priority="279" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="808" priority="280" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="780" priority="280" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15">
-    <cfRule type="cellIs" dxfId="807" priority="269" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="779" priority="269" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="806" priority="270" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="778" priority="270" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13:R14 R16:R20">
-    <cfRule type="cellIs" dxfId="805" priority="275" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="777" priority="275" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="804" priority="276" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="776" priority="276" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R25:R88">
-    <cfRule type="cellIs" dxfId="803" priority="273" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="775" priority="273" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="802" priority="274" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="774" priority="274" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12">
-    <cfRule type="cellIs" dxfId="801" priority="271" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="773" priority="271" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="800" priority="272" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="772" priority="272" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15">
-    <cfRule type="cellIs" dxfId="799" priority="261" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="771" priority="261" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="798" priority="262" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="770" priority="262" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13:Q14 Q16:Q19">
-    <cfRule type="cellIs" dxfId="797" priority="267" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="769" priority="267" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="796" priority="268" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="768" priority="268" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q25:Q88">
-    <cfRule type="cellIs" dxfId="795" priority="265" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="767" priority="265" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="794" priority="266" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="766" priority="266" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12">
-    <cfRule type="cellIs" dxfId="793" priority="263" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="765" priority="263" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="792" priority="264" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="764" priority="264" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="791" priority="253" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="763" priority="253" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="790" priority="254" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="762" priority="254" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13:P14 P16:P19">
-    <cfRule type="cellIs" dxfId="789" priority="259" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="761" priority="259" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="788" priority="260" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="760" priority="260" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25:P88">
-    <cfRule type="cellIs" dxfId="787" priority="257" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="759" priority="257" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="786" priority="258" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="758" priority="258" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10:V15">
-    <cfRule type="cellIs" dxfId="785" priority="255" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="757" priority="255" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="784" priority="256" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="756" priority="256" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15">
-    <cfRule type="cellIs" dxfId="783" priority="245" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="755" priority="245" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="782" priority="246" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="754" priority="246" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13:O14 O16:O18">
-    <cfRule type="cellIs" dxfId="781" priority="251" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="753" priority="251" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="780" priority="252" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="752" priority="252" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25:O88">
-    <cfRule type="cellIs" dxfId="779" priority="249" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="751" priority="249" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="778" priority="250" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="750" priority="250" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12">
-    <cfRule type="cellIs" dxfId="777" priority="247" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="749" priority="247" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="776" priority="248" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="748" priority="248" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:N15 M9:N11">
-    <cfRule type="cellIs" dxfId="775" priority="243" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="747" priority="243" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="774" priority="244" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="746" priority="244" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15">
-    <cfRule type="cellIs" dxfId="773" priority="235" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="745" priority="235" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="772" priority="236" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="744" priority="236" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13:N14 N16:N18">
-    <cfRule type="cellIs" dxfId="771" priority="241" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="743" priority="241" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="770" priority="242" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="742" priority="242" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25:N88">
-    <cfRule type="cellIs" dxfId="769" priority="239" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="741" priority="239" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="768" priority="240" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="740" priority="240" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="cellIs" dxfId="767" priority="237" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="739" priority="237" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="766" priority="238" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="738" priority="238" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:M15">
-    <cfRule type="cellIs" dxfId="765" priority="233" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="737" priority="233" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="764" priority="234" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="736" priority="234" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="cellIs" dxfId="763" priority="225" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="735" priority="225" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="762" priority="226" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="734" priority="226" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13:M14 M16:M17">
-    <cfRule type="cellIs" dxfId="761" priority="231" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="733" priority="231" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="760" priority="232" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="732" priority="232" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25:M88">
-    <cfRule type="cellIs" dxfId="759" priority="229" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="731" priority="229" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="758" priority="230" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="730" priority="230" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="757" priority="227" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="729" priority="227" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="756" priority="228" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="728" priority="228" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:L11">
-    <cfRule type="cellIs" dxfId="755" priority="223" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="727" priority="223" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="754" priority="224" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="726" priority="224" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:L15">
-    <cfRule type="cellIs" dxfId="753" priority="221" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="725" priority="221" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="752" priority="222" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="724" priority="222" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="cellIs" dxfId="751" priority="213" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="723" priority="213" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="750" priority="214" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="722" priority="214" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:L14 L16:L17">
-    <cfRule type="cellIs" dxfId="749" priority="219" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="721" priority="219" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="748" priority="220" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="720" priority="220" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25:L88">
-    <cfRule type="cellIs" dxfId="747" priority="217" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="719" priority="217" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="746" priority="218" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="718" priority="218" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="745" priority="215" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="717" priority="215" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="744" priority="216" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="716" priority="216" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:K11">
-    <cfRule type="cellIs" dxfId="743" priority="211" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="715" priority="211" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="742" priority="212" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="714" priority="212" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:K15">
-    <cfRule type="cellIs" dxfId="741" priority="209" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="713" priority="209" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="740" priority="210" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="712" priority="210" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" dxfId="739" priority="201" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="711" priority="201" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="738" priority="202" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="710" priority="202" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:K14 K16">
-    <cfRule type="cellIs" dxfId="737" priority="207" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="709" priority="207" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="736" priority="208" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="708" priority="208" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:K88">
-    <cfRule type="cellIs" dxfId="735" priority="205" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="707" priority="205" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="734" priority="206" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="706" priority="206" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="733" priority="203" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="705" priority="203" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="732" priority="204" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="704" priority="204" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J11">
-    <cfRule type="cellIs" dxfId="731" priority="199" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="703" priority="199" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="730" priority="200" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="702" priority="200" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J15">
-    <cfRule type="cellIs" dxfId="729" priority="197" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="701" priority="197" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="728" priority="198" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="700" priority="198" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="727" priority="189" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="699" priority="189" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="726" priority="190" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="698" priority="190" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:J14 J16">
-    <cfRule type="cellIs" dxfId="725" priority="195" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="697" priority="195" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="724" priority="196" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="696" priority="196" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:J88">
-    <cfRule type="cellIs" dxfId="723" priority="193" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="695" priority="193" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="722" priority="194" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="694" priority="194" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="721" priority="191" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="693" priority="191" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="720" priority="192" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="692" priority="192" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I11">
-    <cfRule type="cellIs" dxfId="719" priority="187" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="691" priority="187" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="718" priority="188" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="690" priority="188" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I15">
-    <cfRule type="cellIs" dxfId="717" priority="185" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="689" priority="185" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="716" priority="186" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="688" priority="186" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="715" priority="177" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="687" priority="177" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="714" priority="178" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="686" priority="178" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I14">
-    <cfRule type="cellIs" dxfId="713" priority="183" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="685" priority="183" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="712" priority="184" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="684" priority="184" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:I88">
-    <cfRule type="cellIs" dxfId="711" priority="181" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="683" priority="181" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="710" priority="182" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="682" priority="182" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="709" priority="179" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="681" priority="179" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="708" priority="180" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="680" priority="180" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H11">
-    <cfRule type="cellIs" dxfId="707" priority="175" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="679" priority="175" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="706" priority="176" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="678" priority="176" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H14">
-    <cfRule type="cellIs" dxfId="705" priority="173" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="677" priority="173" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="704" priority="174" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="676" priority="174" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H14">
-    <cfRule type="cellIs" dxfId="703" priority="171" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="675" priority="171" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="702" priority="172" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="674" priority="172" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H88">
-    <cfRule type="cellIs" dxfId="701" priority="169" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="673" priority="169" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="700" priority="170" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="672" priority="170" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="699" priority="167" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="671" priority="167" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="698" priority="168" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="670" priority="168" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:L9">
-    <cfRule type="cellIs" dxfId="697" priority="163" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="669" priority="163" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="696" priority="164" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="668" priority="164" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:L9">
-    <cfRule type="cellIs" dxfId="695" priority="161" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="667" priority="161" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="694" priority="162" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="666" priority="162" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:G11">
-    <cfRule type="cellIs" dxfId="693" priority="159" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="665" priority="159" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="692" priority="160" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="664" priority="160" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:G13">
-    <cfRule type="cellIs" dxfId="691" priority="157" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="663" priority="157" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="690" priority="158" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="662" priority="158" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="689" priority="155" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="661" priority="155" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="688" priority="156" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="660" priority="156" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:G88">
-    <cfRule type="cellIs" dxfId="687" priority="153" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="659" priority="153" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="686" priority="154" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="658" priority="154" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="685" priority="151" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="657" priority="151" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="684" priority="152" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="656" priority="152" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G9">
-    <cfRule type="cellIs" dxfId="683" priority="149" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="655" priority="149" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="682" priority="150" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="654" priority="150" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G9">
-    <cfRule type="cellIs" dxfId="681" priority="147" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="653" priority="147" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="680" priority="148" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="652" priority="148" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:L11">
-    <cfRule type="cellIs" dxfId="679" priority="145" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="651" priority="145" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="678" priority="146" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="650" priority="146" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:L11">
-    <cfRule type="cellIs" dxfId="677" priority="143" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="649" priority="143" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="676" priority="144" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="648" priority="144" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F11">
-    <cfRule type="cellIs" dxfId="675" priority="141" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="647" priority="141" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="674" priority="142" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="646" priority="142" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F12">
-    <cfRule type="cellIs" dxfId="673" priority="139" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="645" priority="139" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="672" priority="140" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="644" priority="140" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:F88">
-    <cfRule type="cellIs" dxfId="671" priority="135" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="643" priority="135" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="670" priority="136" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="642" priority="136" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="669" priority="133" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="641" priority="133" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="668" priority="134" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="640" priority="134" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="667" priority="131" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="639" priority="131" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="666" priority="132" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="638" priority="132" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="665" priority="129" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="637" priority="129" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="664" priority="130" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="636" priority="130" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F11">
-    <cfRule type="cellIs" dxfId="663" priority="127" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="635" priority="127" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="662" priority="128" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="634" priority="128" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F11">
-    <cfRule type="cellIs" dxfId="661" priority="125" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="633" priority="125" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="660" priority="126" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="632" priority="126" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E11">
-    <cfRule type="cellIs" dxfId="659" priority="123" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="631" priority="123" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="658" priority="124" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="630" priority="124" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E12">
-    <cfRule type="cellIs" dxfId="657" priority="121" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="629" priority="121" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="656" priority="122" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="628" priority="122" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:E88">
-    <cfRule type="cellIs" dxfId="655" priority="119" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="627" priority="119" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="654" priority="120" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="626" priority="120" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="653" priority="117" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="625" priority="117" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="652" priority="118" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="624" priority="118" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="651" priority="115" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="623" priority="115" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="650" priority="116" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="622" priority="116" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="649" priority="113" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="621" priority="113" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="648" priority="114" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="620" priority="114" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E11">
-    <cfRule type="cellIs" dxfId="647" priority="111" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="619" priority="111" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="646" priority="112" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="618" priority="112" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E11">
-    <cfRule type="cellIs" dxfId="645" priority="109" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="617" priority="109" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="644" priority="110" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="616" priority="110" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F8">
-    <cfRule type="cellIs" dxfId="643" priority="107" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="615" priority="107" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="642" priority="108" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="614" priority="108" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F8">
-    <cfRule type="cellIs" dxfId="641" priority="105" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="613" priority="105" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="640" priority="106" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="612" priority="106" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F8">
-    <cfRule type="cellIs" dxfId="639" priority="103" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="611" priority="103" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="638" priority="104" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="610" priority="104" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F8">
-    <cfRule type="cellIs" dxfId="637" priority="101" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="609" priority="101" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="636" priority="102" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="608" priority="102" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="cellIs" dxfId="635" priority="99" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="607" priority="99" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="634" priority="100" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="606" priority="100" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="cellIs" dxfId="633" priority="97" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="605" priority="97" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="632" priority="98" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="604" priority="98" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:D88">
-    <cfRule type="cellIs" dxfId="631" priority="95" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="603" priority="95" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="630" priority="96" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="602" priority="96" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="629" priority="91" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="601" priority="91" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="628" priority="92" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="600" priority="92" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="627" priority="89" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="599" priority="89" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="626" priority="90" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="598" priority="90" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D11">
-    <cfRule type="cellIs" dxfId="625" priority="87" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="597" priority="87" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="624" priority="88" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="596" priority="88" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D11">
-    <cfRule type="cellIs" dxfId="623" priority="85" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="595" priority="85" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="622" priority="86" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="594" priority="86" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D8">
-    <cfRule type="cellIs" dxfId="621" priority="83" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="593" priority="83" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="620" priority="84" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="592" priority="84" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D8">
-    <cfRule type="cellIs" dxfId="619" priority="81" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="591" priority="81" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="618" priority="82" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="590" priority="82" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D8">
-    <cfRule type="cellIs" dxfId="617" priority="79" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="589" priority="79" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="616" priority="80" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="588" priority="80" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D8">
-    <cfRule type="cellIs" dxfId="615" priority="77" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="587" priority="77" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="614" priority="78" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="586" priority="78" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="613" priority="75" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="585" priority="75" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="612" priority="76" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="584" priority="76" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="611" priority="73" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="583" priority="73" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="610" priority="74" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="582" priority="74" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="609" priority="71" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="581" priority="71" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="608" priority="72" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="580" priority="72" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="607" priority="69" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="579" priority="69" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="606" priority="70" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="578" priority="70" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C11">
-    <cfRule type="cellIs" dxfId="605" priority="67" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="577" priority="67" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="604" priority="68" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="576" priority="68" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C11">
-    <cfRule type="cellIs" dxfId="603" priority="65" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="575" priority="65" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="602" priority="66" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="574" priority="66" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C88">
-    <cfRule type="cellIs" dxfId="601" priority="63" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="573" priority="63" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="600" priority="64" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="572" priority="64" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="599" priority="61" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="571" priority="61" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="598" priority="62" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="570" priority="62" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="597" priority="59" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="569" priority="59" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="596" priority="60" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="568" priority="60" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C11">
-    <cfRule type="cellIs" dxfId="595" priority="57" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="567" priority="57" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="594" priority="58" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="566" priority="58" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C11">
-    <cfRule type="cellIs" dxfId="593" priority="55" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="565" priority="55" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="592" priority="56" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="564" priority="56" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C8">
-    <cfRule type="cellIs" dxfId="591" priority="53" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="563" priority="53" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="590" priority="54" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="562" priority="54" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C8">
-    <cfRule type="cellIs" dxfId="589" priority="51" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="561" priority="51" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="588" priority="52" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="560" priority="52" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C8">
-    <cfRule type="cellIs" dxfId="587" priority="49" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="559" priority="49" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="586" priority="50" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="558" priority="50" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C8">
-    <cfRule type="cellIs" dxfId="585" priority="47" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="557" priority="47" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="584" priority="48" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="556" priority="48" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="583" priority="45" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="555" priority="45" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="582" priority="46" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="554" priority="46" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="581" priority="43" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="553" priority="43" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="580" priority="44" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="552" priority="44" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="579" priority="41" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="551" priority="41" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="578" priority="42" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="550" priority="42" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="577" priority="39" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="549" priority="39" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="576" priority="40" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="548" priority="40" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="575" priority="37" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="547" priority="37" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="574" priority="38" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="546" priority="38" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="573" priority="35" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="545" priority="35" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="572" priority="36" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="544" priority="36" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B88">
-    <cfRule type="cellIs" dxfId="571" priority="33" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="543" priority="33" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="570" priority="34" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="542" priority="34" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="569" priority="31" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="541" priority="31" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="568" priority="32" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="540" priority="32" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="567" priority="29" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="539" priority="29" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="566" priority="30" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="538" priority="30" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="cellIs" dxfId="565" priority="27" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="537" priority="27" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="564" priority="28" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="536" priority="28" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="cellIs" dxfId="563" priority="25" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="535" priority="25" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="562" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="534" priority="26" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B8">
-    <cfRule type="cellIs" dxfId="561" priority="23" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="533" priority="23" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="560" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="532" priority="24" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B8">
-    <cfRule type="cellIs" dxfId="559" priority="21" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="531" priority="21" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="558" priority="22" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="530" priority="22" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B8">
-    <cfRule type="cellIs" dxfId="557" priority="19" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="529" priority="19" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="556" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="528" priority="20" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B8">
-    <cfRule type="cellIs" dxfId="555" priority="17" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="527" priority="17" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="554" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="526" priority="18" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="553" priority="15" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="525" priority="15" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="552" priority="16" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="524" priority="16" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="551" priority="13" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="523" priority="13" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="550" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="522" priority="14" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="549" priority="11" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="521" priority="11" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="548" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="520" priority="12" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="547" priority="9" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="519" priority="9" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="546" priority="10" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="518" priority="10" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="545" priority="7" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="517" priority="7" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="544" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="516" priority="8" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="543" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="515" priority="5" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="542" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="514" priority="6" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="541" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="513" priority="3" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="540" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="512" priority="4" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="539" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="511" priority="1" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="538" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="510" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59553,1850 +58900,1850 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="DK15:DK92 T15:T16 T18:T25 P12:P15 P17:P23">
-    <cfRule type="cellIs" dxfId="537" priority="759" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="509" priority="759" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="536" priority="760" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="508" priority="760" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DK15:DK92">
-    <cfRule type="cellIs" dxfId="535" priority="757" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="507" priority="757" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="534" priority="758" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="506" priority="758" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X15:DJ28 X30 Y29:DJ29 X92:DF92 DH92:DJ92 X90:DJ91 X89:DE89 DG89:DJ89 X88:DC88 DF88:DJ88 X87:DB87 DD87:DJ87 X86:DA86 DC86:DJ86 X85:CY85 DB85:DJ85 X84:CX84 CZ84:DJ84 X83:CW83 CY83:DJ83 X82:DJ82 X81:CU81 CX81:DJ81 X80:CS80 CV80:DJ80 X79:CR79 CT79:DJ79 X78:CQ78 CS78:DJ78 X77:CP77 CR77:DJ77 X76:DJ76 X75:CO75 CQ75:DJ75 X74:CN74 CP74:DJ74 X73:CM73 CO73:DJ73 X72:CK72 CN72:DJ72 X71:CI71 CL71:DJ71 X70:CH70 CJ70:DJ70 X69:CF69 CI69:DJ69 X68:CD68 CG68:DJ68 X67:CC67 CE67:DJ67 X66:CA66 CD66:DJ66 X65:BY65 CB65:DJ65 X64:BW64 BZ64:DJ64 X63:DJ63 X62:BV62 BX62:DJ62 X61:BU61 BW61:DJ61 X60:BT60 BV60:DJ60 X59:BR59 BU59:DJ59 X58:BP58 BS58:DJ58 X57:BN57 BQ57:DJ57 X56:BM56 BO56:DJ56 X55:BL55 BN55:DJ55 X54:BJ54 BM54:DJ54 X53:BH53 BK53:DJ53 X52:DJ52 X51:BF51 BI51:DJ51 X50:BE50 BG50:DJ50 X49:DJ49 X48:BD48 BF48:DJ48 X47:BC47 BE47:DJ47 X46:BA46 BD46:DJ46 X45:AY45 BB45:DJ45 X44:AW44 AZ44:DJ44 X43:AU43 AX43:DJ43 X42:AS42 AV42:DJ42 X41:AQ41 AT41:DJ41 X40:AO40 AR40:DJ40 X39:AM39 AP39:DJ39 X38:AK38 AN38:DJ38 X37:AI37 AL37:DJ37 X36:AG36 AJ36:DJ36 X35:AF35 AH35:DJ35 X34:AE34 AG34:DJ34 X33:AC33 AF33:DJ33 X32:AA32 AD32:DJ32 X31:Z31 AB31:DJ31 AA30:DJ30">
-    <cfRule type="cellIs" dxfId="533" priority="755" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="505" priority="755" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="532" priority="756" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="504" priority="756" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X15:DJ28 X30 Y29:DJ29 X92:DF92 DH92:DJ92 X90:DJ91 X89:DE89 DG89:DJ89 X88:DC88 DF88:DJ88 X87:DB87 DD87:DJ87 X86:DA86 DC86:DJ86 X85:CY85 DB85:DJ85 X84:CX84 CZ84:DJ84 X83:CW83 CY83:DJ83 X82:DJ82 X81:CU81 CX81:DJ81 X80:CS80 CV80:DJ80 X79:CR79 CT79:DJ79 X78:CQ78 CS78:DJ78 X77:CP77 CR77:DJ77 X76:DJ76 X75:CO75 CQ75:DJ75 X74:CN74 CP74:DJ74 X73:CM73 CO73:DJ73 X72:CK72 CN72:DJ72 X71:CI71 CL71:DJ71 X70:CH70 CJ70:DJ70 X69:CF69 CI69:DJ69 X68:CD68 CG68:DJ68 X67:CC67 CE67:DJ67 X66:CA66 CD66:DJ66 X65:BY65 CB65:DJ65 X64:BW64 BZ64:DJ64 X63:DJ63 X62:BV62 BX62:DJ62 X61:BU61 BW61:DJ61 X60:BT60 BV60:DJ60 X59:BR59 BU59:DJ59 X58:BP58 BS58:DJ58 X57:BN57 BQ57:DJ57 X56:BM56 BO56:DJ56 X55:BL55 BN55:DJ55 X54:BJ54 BM54:DJ54 X53:BH53 BK53:DJ53 X52:DJ52 X51:BF51 BI51:DJ51 X50:BE50 BG50:DJ50 X49:DJ49 X48:BD48 BF48:DJ48 X47:BC47 BE47:DJ47 X46:BA46 BD46:DJ46 X45:AY45 BB45:DJ45 X44:AW44 AZ44:DJ44 X43:AU43 AX43:DJ43 X42:AS42 AV42:DJ42 X41:AQ41 AT41:DJ41 X40:AO40 AR40:DJ40 X39:AM39 AP39:DJ39 X38:AK38 AN38:DJ38 X37:AI37 AL37:DJ37 X36:AG36 AJ36:DJ36 X35:AF35 AH35:DJ35 X34:AE34 AG34:DJ34 X33:AC33 AF33:DJ33 X32:AA32 AD32:DJ32 X31:Z31 AB31:DJ31 AA30:DJ30">
-    <cfRule type="cellIs" dxfId="531" priority="753" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="503" priority="753" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="530" priority="754" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="502" priority="754" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1 A94:A1048576">
-    <cfRule type="cellIs" dxfId="529" priority="751" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="501" priority="751" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="528" priority="752" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="500" priority="752" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1 A94:A1048576">
-    <cfRule type="cellIs" dxfId="527" priority="749" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="499" priority="749" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="526" priority="750" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="498" priority="750" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W15:W28 W30:W92">
-    <cfRule type="cellIs" dxfId="525" priority="743" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="497" priority="743" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="524" priority="744" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="496" priority="744" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W15:W28 W30:W92">
-    <cfRule type="cellIs" dxfId="523" priority="741" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="495" priority="741" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="522" priority="742" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="494" priority="742" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:V27 V30:V92">
-    <cfRule type="cellIs" dxfId="521" priority="739" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="493" priority="739" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="520" priority="740" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="492" priority="740" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:V27 V30:V92">
-    <cfRule type="cellIs" dxfId="519" priority="737" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="491" priority="737" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="518" priority="738" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="490" priority="738" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V14">
-    <cfRule type="cellIs" dxfId="517" priority="735" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="489" priority="735" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="516" priority="736" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="488" priority="736" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V14">
-    <cfRule type="cellIs" dxfId="515" priority="733" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="487" priority="733" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="514" priority="734" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="486" priority="734" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15:U27 U30:U92 T12:U24">
-    <cfRule type="cellIs" dxfId="513" priority="731" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="485" priority="731" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="512" priority="732" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="484" priority="732" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15:U27 U30:U92 T12:U24">
-    <cfRule type="cellIs" dxfId="511" priority="729" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="483" priority="729" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="510" priority="730" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="482" priority="730" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U14">
-    <cfRule type="cellIs" dxfId="509" priority="727" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="481" priority="727" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="508" priority="728" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="480" priority="728" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U14">
-    <cfRule type="cellIs" dxfId="507" priority="725" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="479" priority="725" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="506" priority="726" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="478" priority="726" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T30:T92 T27">
-    <cfRule type="cellIs" dxfId="505" priority="723" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="477" priority="723" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="504" priority="724" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="476" priority="724" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T30:T92 T27">
-    <cfRule type="cellIs" dxfId="503" priority="721" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="475" priority="721" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="502" priority="722" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="474" priority="722" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14">
-    <cfRule type="cellIs" dxfId="501" priority="719" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="473" priority="719" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="500" priority="720" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="472" priority="720" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14">
-    <cfRule type="cellIs" dxfId="499" priority="717" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="471" priority="717" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="498" priority="718" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="470" priority="718" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15:S16 S18:S25">
-    <cfRule type="cellIs" dxfId="497" priority="711" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="469" priority="711" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="496" priority="712" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="468" priority="712" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12:S24">
-    <cfRule type="cellIs" dxfId="495" priority="709" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="467" priority="709" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="494" priority="710" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="466" priority="710" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12:S24">
-    <cfRule type="cellIs" dxfId="493" priority="707" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="465" priority="707" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="492" priority="708" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="464" priority="708" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30:S92 S27">
-    <cfRule type="cellIs" dxfId="491" priority="705" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="463" priority="705" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="706" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="462" priority="706" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30:S92 S27">
-    <cfRule type="cellIs" dxfId="489" priority="703" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="461" priority="703" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="488" priority="704" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="460" priority="704" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14">
-    <cfRule type="cellIs" dxfId="487" priority="701" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="459" priority="701" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="702" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="458" priority="702" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14">
-    <cfRule type="cellIs" dxfId="485" priority="699" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="457" priority="699" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="484" priority="700" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="456" priority="700" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15:R16 R18:R24">
-    <cfRule type="cellIs" dxfId="483" priority="697" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="455" priority="697" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="482" priority="698" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="454" priority="698" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:R24 P10:R15">
-    <cfRule type="cellIs" dxfId="481" priority="695" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="453" priority="695" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="480" priority="696" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="452" priority="696" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:R24 P10:R15">
-    <cfRule type="cellIs" dxfId="479" priority="693" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="451" priority="693" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="694" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="450" priority="694" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R30:R92 R27">
-    <cfRule type="cellIs" dxfId="477" priority="691" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="449" priority="691" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="692" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="448" priority="692" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R30:R92 R27">
-    <cfRule type="cellIs" dxfId="475" priority="689" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="447" priority="689" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="690" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="446" priority="690" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14">
-    <cfRule type="cellIs" dxfId="473" priority="687" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="445" priority="687" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="688" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="444" priority="688" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14">
-    <cfRule type="cellIs" dxfId="471" priority="685" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="443" priority="685" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="686" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="442" priority="686" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q18:Q24 P10:Q20">
-    <cfRule type="cellIs" dxfId="469" priority="683" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="441" priority="683" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="684" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="440" priority="684" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:Q24 P10:Q20">
-    <cfRule type="cellIs" dxfId="467" priority="681" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="439" priority="681" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="682" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="438" priority="682" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:Q24 P10:Q20">
-    <cfRule type="cellIs" dxfId="465" priority="679" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="437" priority="679" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="680" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="436" priority="680" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q30:Q92 Q27">
-    <cfRule type="cellIs" dxfId="463" priority="677" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="435" priority="677" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="678" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="434" priority="678" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q30:Q92 Q27">
-    <cfRule type="cellIs" dxfId="461" priority="675" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="433" priority="675" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="676" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="432" priority="676" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="459" priority="673" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="431" priority="673" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="674" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="430" priority="674" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="457" priority="671" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="429" priority="671" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="672" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="428" priority="672" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19:P23">
-    <cfRule type="cellIs" dxfId="455" priority="669" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="427" priority="669" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="670" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="426" priority="670" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30:P92 P27">
-    <cfRule type="cellIs" dxfId="453" priority="663" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="425" priority="663" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="664" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="424" priority="664" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30:P92 P27">
-    <cfRule type="cellIs" dxfId="451" priority="661" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="423" priority="661" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="662" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="422" priority="662" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="449" priority="659" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="421" priority="659" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="660" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="420" priority="660" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="447" priority="657" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="419" priority="657" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="658" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="418" priority="658" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12:O15 O17:O23">
-    <cfRule type="cellIs" dxfId="445" priority="655" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="417" priority="655" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="656" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="416" priority="656" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10:O15">
-    <cfRule type="cellIs" dxfId="443" priority="653" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="415" priority="653" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="654" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="414" priority="654" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10:O15">
-    <cfRule type="cellIs" dxfId="441" priority="651" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="413" priority="651" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="652" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="412" priority="652" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10:O20">
-    <cfRule type="cellIs" dxfId="439" priority="649" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="411" priority="649" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="650" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="410" priority="650" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10:O20">
-    <cfRule type="cellIs" dxfId="437" priority="647" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="409" priority="647" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="648" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="408" priority="648" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10:O20">
-    <cfRule type="cellIs" dxfId="435" priority="645" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="407" priority="645" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="646" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="406" priority="646" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O19:O23">
-    <cfRule type="cellIs" dxfId="433" priority="643" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="405" priority="643" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="644" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="404" priority="644" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O30:O92 O27">
-    <cfRule type="cellIs" dxfId="431" priority="641" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="403" priority="641" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="642" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="402" priority="642" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O30:O92 O27">
-    <cfRule type="cellIs" dxfId="429" priority="639" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="401" priority="639" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="640" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="400" priority="640" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="cellIs" dxfId="427" priority="637" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="399" priority="637" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="638" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="398" priority="638" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="cellIs" dxfId="425" priority="635" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="397" priority="635" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="636" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="396" priority="636" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:P20">
-    <cfRule type="cellIs" dxfId="423" priority="633" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="395" priority="633" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="634" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="394" priority="634" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:P20">
-    <cfRule type="cellIs" dxfId="421" priority="631" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="393" priority="631" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="632" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="392" priority="632" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:P20">
-    <cfRule type="cellIs" dxfId="419" priority="629" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="391" priority="629" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="630" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="390" priority="630" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:P20">
-    <cfRule type="cellIs" dxfId="417" priority="627" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="389" priority="627" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="628" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="388" priority="628" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:P20">
-    <cfRule type="cellIs" dxfId="415" priority="625" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="387" priority="625" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="626" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="386" priority="626" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:P20">
-    <cfRule type="cellIs" dxfId="413" priority="623" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="385" priority="623" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="624" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="384" priority="624" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:U14">
-    <cfRule type="cellIs" dxfId="411" priority="485" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="383" priority="485" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="486" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="382" priority="486" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:U14">
-    <cfRule type="cellIs" dxfId="409" priority="483" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="381" priority="483" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="484" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="380" priority="484" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:U14">
-    <cfRule type="cellIs" dxfId="407" priority="481" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="379" priority="481" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="482" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="378" priority="482" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:U14">
-    <cfRule type="cellIs" dxfId="405" priority="479" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="377" priority="479" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="480" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="376" priority="480" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:U14">
-    <cfRule type="cellIs" dxfId="403" priority="477" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="375" priority="477" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="478" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="374" priority="478" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:U14">
-    <cfRule type="cellIs" dxfId="401" priority="475" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="373" priority="475" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="476" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="372" priority="476" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:N15 G17:N18 G22:J22 H19:N19 G20 I20:N20 G21:H21 K21:N21 M22:N22 G23">
-    <cfRule type="cellIs" dxfId="399" priority="381" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="371" priority="381" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="382" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="370" priority="382" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:N15">
-    <cfRule type="cellIs" dxfId="397" priority="379" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="369" priority="379" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="380" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="368" priority="380" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:N15">
-    <cfRule type="cellIs" dxfId="395" priority="377" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="367" priority="377" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="378" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="366" priority="378" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:N18 G20 H19:N19 I20:N20">
-    <cfRule type="cellIs" dxfId="393" priority="375" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="365" priority="375" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="376" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="364" priority="376" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:N18 G20 H19:N19 I20:N20">
-    <cfRule type="cellIs" dxfId="391" priority="373" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="363" priority="373" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="374" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="362" priority="374" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:N18 G20 H19:N19 I20:N20">
-    <cfRule type="cellIs" dxfId="389" priority="371" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="361" priority="371" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="372" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="360" priority="372" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:J22 H19:N19 G20 I20:N20 G21:H21 K21:N21 M22:N22 G23">
-    <cfRule type="cellIs" dxfId="387" priority="369" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="359" priority="369" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="370" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="358" priority="370" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:N92 G27:N27">
-    <cfRule type="cellIs" dxfId="385" priority="367" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="357" priority="367" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="368" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="356" priority="368" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:N92 G27:N27">
-    <cfRule type="cellIs" dxfId="383" priority="365" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="355" priority="365" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="366" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="354" priority="366" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:N14">
-    <cfRule type="cellIs" dxfId="381" priority="363" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="353" priority="363" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="364" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="352" priority="364" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:N14">
-    <cfRule type="cellIs" dxfId="379" priority="361" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="351" priority="361" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="362" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="350" priority="362" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:N18 G20 H19:N19 I20:N20">
-    <cfRule type="cellIs" dxfId="377" priority="359" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="349" priority="359" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="360" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="348" priority="360" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:N18 G20 H19:N19 I20:N20">
-    <cfRule type="cellIs" dxfId="375" priority="357" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="347" priority="357" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="358" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="346" priority="358" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:N18 G20 H19:N19 I20:N20">
-    <cfRule type="cellIs" dxfId="373" priority="355" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="345" priority="355" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="356" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="344" priority="356" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:N18 G20 H19:N19 I20:N20">
-    <cfRule type="cellIs" dxfId="371" priority="353" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="343" priority="353" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="354" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="342" priority="354" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:N18 G20 H19:N19 I20:N20">
-    <cfRule type="cellIs" dxfId="369" priority="351" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="341" priority="351" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="352" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="340" priority="352" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:N18 G20 H19:N19 I20:N20">
-    <cfRule type="cellIs" dxfId="367" priority="349" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="339" priority="349" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="350" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="338" priority="350" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:N14">
-    <cfRule type="cellIs" dxfId="365" priority="347" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="337" priority="347" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="348" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="336" priority="348" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:N14">
-    <cfRule type="cellIs" dxfId="363" priority="345" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="335" priority="345" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="346" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="334" priority="346" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:N14">
-    <cfRule type="cellIs" dxfId="361" priority="343" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="333" priority="343" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="344" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="332" priority="344" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:N14">
-    <cfRule type="cellIs" dxfId="359" priority="341" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="331" priority="341" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="342" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="330" priority="342" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:N14">
-    <cfRule type="cellIs" dxfId="357" priority="339" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="329" priority="339" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="340" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="328" priority="340" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:N14">
-    <cfRule type="cellIs" dxfId="355" priority="337" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="327" priority="337" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="338" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="326" priority="338" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F15 F17:F18 F20:F23">
-    <cfRule type="cellIs" dxfId="353" priority="335" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="325" priority="335" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="336" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="324" priority="336" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F15">
-    <cfRule type="cellIs" dxfId="351" priority="333" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="323" priority="333" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="334" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="322" priority="334" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F15">
-    <cfRule type="cellIs" dxfId="349" priority="331" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="321" priority="331" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="332" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="320" priority="332" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F18 F20">
-    <cfRule type="cellIs" dxfId="347" priority="329" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="319" priority="329" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="330" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="318" priority="330" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F18 F20">
-    <cfRule type="cellIs" dxfId="345" priority="327" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="317" priority="327" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="328" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="316" priority="328" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F18 F20">
-    <cfRule type="cellIs" dxfId="343" priority="325" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="315" priority="325" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="326" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="314" priority="326" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F23">
-    <cfRule type="cellIs" dxfId="341" priority="323" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="313" priority="323" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="324" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="312" priority="324" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:F92 F27">
-    <cfRule type="cellIs" dxfId="339" priority="321" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="311" priority="321" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="322" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="310" priority="322" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:F92 F27">
-    <cfRule type="cellIs" dxfId="337" priority="319" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="309" priority="319" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="320" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="308" priority="320" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="335" priority="317" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="307" priority="317" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="318" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="306" priority="318" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="333" priority="315" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="305" priority="315" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="316" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="304" priority="316" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F18 F20">
-    <cfRule type="cellIs" dxfId="331" priority="313" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="303" priority="313" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="314" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="302" priority="314" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F18 F20">
-    <cfRule type="cellIs" dxfId="329" priority="311" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="301" priority="311" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="312" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="300" priority="312" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F18 F20">
-    <cfRule type="cellIs" dxfId="327" priority="309" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="299" priority="309" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="310" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="298" priority="310" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F18 F20">
-    <cfRule type="cellIs" dxfId="325" priority="307" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="297" priority="307" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="308" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="296" priority="308" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F18 F20">
-    <cfRule type="cellIs" dxfId="323" priority="305" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="295" priority="305" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="306" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="294" priority="306" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F18 F20">
-    <cfRule type="cellIs" dxfId="321" priority="303" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="293" priority="303" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="304" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="292" priority="304" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F14">
-    <cfRule type="cellIs" dxfId="319" priority="301" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="291" priority="301" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="302" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="290" priority="302" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F14">
-    <cfRule type="cellIs" dxfId="317" priority="299" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="289" priority="299" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="300" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="288" priority="300" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F14">
-    <cfRule type="cellIs" dxfId="315" priority="297" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="287" priority="297" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="298" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="286" priority="298" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F14">
-    <cfRule type="cellIs" dxfId="313" priority="295" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="285" priority="295" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="296" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="284" priority="296" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F14">
-    <cfRule type="cellIs" dxfId="311" priority="293" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="283" priority="293" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="294" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="282" priority="294" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F14">
-    <cfRule type="cellIs" dxfId="309" priority="291" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="281" priority="291" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="292" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="280" priority="292" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E15 E17 E20:E23">
-    <cfRule type="cellIs" dxfId="307" priority="243" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="279" priority="243" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="244" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="278" priority="244" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E15">
-    <cfRule type="cellIs" dxfId="305" priority="241" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="277" priority="241" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="242" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="276" priority="242" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E15">
-    <cfRule type="cellIs" dxfId="303" priority="239" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="275" priority="239" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="240" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="274" priority="240" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E17 E20">
-    <cfRule type="cellIs" dxfId="301" priority="237" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="273" priority="237" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="238" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="272" priority="238" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E17 E20">
-    <cfRule type="cellIs" dxfId="299" priority="235" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="271" priority="235" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="236" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="270" priority="236" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E17 E20">
-    <cfRule type="cellIs" dxfId="297" priority="233" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="269" priority="233" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="234" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="268" priority="234" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E23">
-    <cfRule type="cellIs" dxfId="295" priority="231" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="267" priority="231" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="232" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="266" priority="232" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:E92 E27">
-    <cfRule type="cellIs" dxfId="293" priority="229" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="265" priority="229" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="230" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="264" priority="230" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:E92 E27">
-    <cfRule type="cellIs" dxfId="291" priority="227" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="263" priority="227" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="228" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="262" priority="228" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="289" priority="225" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="261" priority="225" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="226" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="260" priority="226" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="287" priority="223" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="259" priority="223" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="224" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="258" priority="224" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E17 E20">
-    <cfRule type="cellIs" dxfId="285" priority="221" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="257" priority="221" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="222" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="256" priority="222" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E17 E20">
-    <cfRule type="cellIs" dxfId="283" priority="219" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="255" priority="219" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="220" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="254" priority="220" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E17 E20">
-    <cfRule type="cellIs" dxfId="281" priority="217" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="253" priority="217" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="218" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="252" priority="218" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E17 E20">
-    <cfRule type="cellIs" dxfId="279" priority="215" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="251" priority="215" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="216" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="250" priority="216" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E17 E20">
-    <cfRule type="cellIs" dxfId="277" priority="213" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="249" priority="213" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="214" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="248" priority="214" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E17 E20">
-    <cfRule type="cellIs" dxfId="275" priority="211" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="247" priority="211" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="212" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="246" priority="212" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E14">
-    <cfRule type="cellIs" dxfId="273" priority="209" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="245" priority="209" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="210" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="244" priority="210" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E14">
-    <cfRule type="cellIs" dxfId="271" priority="207" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="243" priority="207" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="208" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="242" priority="208" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E14">
-    <cfRule type="cellIs" dxfId="269" priority="205" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="241" priority="205" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="206" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="240" priority="206" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E14">
-    <cfRule type="cellIs" dxfId="267" priority="203" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="239" priority="203" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="204" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="238" priority="204" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E14">
-    <cfRule type="cellIs" dxfId="265" priority="201" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="237" priority="201" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="202" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="236" priority="202" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E14">
-    <cfRule type="cellIs" dxfId="263" priority="199" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="235" priority="199" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="200" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="234" priority="200" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="cellIs" dxfId="261" priority="197" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="233" priority="197" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="198" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="232" priority="198" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="cellIs" dxfId="259" priority="195" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="231" priority="195" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="196" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="230" priority="196" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="cellIs" dxfId="257" priority="193" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="229" priority="193" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="194" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="228" priority="194" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="cellIs" dxfId="255" priority="191" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="227" priority="191" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="192" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="226" priority="192" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="cellIs" dxfId="253" priority="189" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="225" priority="189" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="190" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="224" priority="190" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="cellIs" dxfId="251" priority="187" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="223" priority="187" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="188" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="222" priority="188" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D15 D20:D23">
-    <cfRule type="cellIs" dxfId="249" priority="185" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="221" priority="185" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="186" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="220" priority="186" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D15">
-    <cfRule type="cellIs" dxfId="247" priority="183" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="219" priority="183" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="184" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="218" priority="184" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D15">
-    <cfRule type="cellIs" dxfId="245" priority="181" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="217" priority="181" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="182" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="216" priority="182" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D16 D20">
-    <cfRule type="cellIs" dxfId="243" priority="179" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="215" priority="179" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="180" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="214" priority="180" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D16 D20">
-    <cfRule type="cellIs" dxfId="241" priority="177" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="213" priority="177" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="178" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="212" priority="178" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D16 D20">
-    <cfRule type="cellIs" dxfId="239" priority="175" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="211" priority="175" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="176" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="210" priority="176" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D23">
-    <cfRule type="cellIs" dxfId="237" priority="173" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="209" priority="173" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="174" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="208" priority="174" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:D92 D27">
-    <cfRule type="cellIs" dxfId="235" priority="171" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="207" priority="171" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="172" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="206" priority="172" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:D92 D27">
-    <cfRule type="cellIs" dxfId="233" priority="169" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="205" priority="169" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="170" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="204" priority="170" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="231" priority="167" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="203" priority="167" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="168" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="202" priority="168" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="229" priority="165" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="201" priority="165" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="166" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="200" priority="166" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D16 D20">
-    <cfRule type="cellIs" dxfId="227" priority="163" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="199" priority="163" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="164" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="198" priority="164" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D16 D20">
-    <cfRule type="cellIs" dxfId="225" priority="161" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="197" priority="161" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="162" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="196" priority="162" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D16 D20">
-    <cfRule type="cellIs" dxfId="223" priority="159" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="195" priority="159" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="160" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="194" priority="160" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D16 D20">
-    <cfRule type="cellIs" dxfId="221" priority="157" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="193" priority="157" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="158" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="192" priority="158" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D16 D20">
-    <cfRule type="cellIs" dxfId="219" priority="155" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="191" priority="155" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="156" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="190" priority="156" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D16 D20">
-    <cfRule type="cellIs" dxfId="217" priority="153" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="189" priority="153" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="154" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="188" priority="154" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D14">
-    <cfRule type="cellIs" dxfId="215" priority="151" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="187" priority="151" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="152" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="186" priority="152" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D14">
-    <cfRule type="cellIs" dxfId="213" priority="149" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="185" priority="149" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="150" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="184" priority="150" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D14">
-    <cfRule type="cellIs" dxfId="211" priority="147" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="183" priority="147" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="148" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="182" priority="148" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D14">
-    <cfRule type="cellIs" dxfId="209" priority="145" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="181" priority="145" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="146" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="180" priority="146" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D14">
-    <cfRule type="cellIs" dxfId="207" priority="143" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="179" priority="143" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="144" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="178" priority="144" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D14">
-    <cfRule type="cellIs" dxfId="205" priority="141" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="177" priority="141" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="142" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="176" priority="142" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="203" priority="139" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="175" priority="139" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="140" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="174" priority="140" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="201" priority="137" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="173" priority="137" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="138" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="172" priority="138" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="199" priority="135" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="171" priority="135" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="136" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="170" priority="136" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="197" priority="133" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="169" priority="133" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="134" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="168" priority="134" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="195" priority="131" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="167" priority="131" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="132" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="166" priority="132" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="193" priority="129" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="165" priority="129" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="130" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="164" priority="130" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C15 C20:C23">
-    <cfRule type="cellIs" dxfId="191" priority="127" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="163" priority="127" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="128" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="162" priority="128" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C15">
-    <cfRule type="cellIs" dxfId="189" priority="125" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="161" priority="125" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="126" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="160" priority="126" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C15">
-    <cfRule type="cellIs" dxfId="187" priority="123" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="159" priority="123" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="124" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="158" priority="124" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C16 C20">
-    <cfRule type="cellIs" dxfId="185" priority="121" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="157" priority="121" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="122" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="156" priority="122" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C16 C20">
-    <cfRule type="cellIs" dxfId="183" priority="119" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="155" priority="119" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="120" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="154" priority="120" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C16 C20">
-    <cfRule type="cellIs" dxfId="181" priority="117" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="153" priority="117" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="118" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="152" priority="118" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:C23">
-    <cfRule type="cellIs" dxfId="179" priority="115" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="151" priority="115" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="116" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="150" priority="116" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C92 C27">
-    <cfRule type="cellIs" dxfId="177" priority="113" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="149" priority="113" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="114" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="148" priority="114" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C92 C27">
-    <cfRule type="cellIs" dxfId="175" priority="111" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="147" priority="111" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="112" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="146" priority="112" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="173" priority="109" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="145" priority="109" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="110" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="144" priority="110" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="171" priority="107" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="143" priority="107" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="108" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="142" priority="108" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C16 C20">
-    <cfRule type="cellIs" dxfId="169" priority="105" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="141" priority="105" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="106" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="140" priority="106" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C16 C20">
-    <cfRule type="cellIs" dxfId="167" priority="103" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="139" priority="103" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="104" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="138" priority="104" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C16 C20">
-    <cfRule type="cellIs" dxfId="165" priority="101" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="137" priority="101" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="102" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="136" priority="102" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C16 C20">
-    <cfRule type="cellIs" dxfId="163" priority="99" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="135" priority="99" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="100" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="134" priority="100" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C16 C20">
-    <cfRule type="cellIs" dxfId="161" priority="97" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="133" priority="97" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="98" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="132" priority="98" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C16 C20">
-    <cfRule type="cellIs" dxfId="159" priority="95" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="131" priority="95" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="96" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="130" priority="96" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C14">
-    <cfRule type="cellIs" dxfId="157" priority="93" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="129" priority="93" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="94" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="128" priority="94" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C14">
-    <cfRule type="cellIs" dxfId="155" priority="91" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="127" priority="91" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="92" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="126" priority="92" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C14">
-    <cfRule type="cellIs" dxfId="153" priority="89" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="125" priority="89" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="90" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="124" priority="90" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C14">
-    <cfRule type="cellIs" dxfId="151" priority="87" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="123" priority="87" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="88" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="122" priority="88" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C14">
-    <cfRule type="cellIs" dxfId="149" priority="85" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="121" priority="85" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="86" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="120" priority="86" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C14">
-    <cfRule type="cellIs" dxfId="147" priority="83" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="119" priority="83" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="84" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="118" priority="84" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C5">
-    <cfRule type="cellIs" dxfId="145" priority="81" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="117" priority="81" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="82" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="116" priority="82" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C5">
-    <cfRule type="cellIs" dxfId="143" priority="79" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="115" priority="79" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="80" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="114" priority="80" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C5">
-    <cfRule type="cellIs" dxfId="141" priority="77" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="113" priority="77" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="78" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="112" priority="78" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C5">
-    <cfRule type="cellIs" dxfId="139" priority="75" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="111" priority="75" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="76" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="110" priority="76" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C5">
-    <cfRule type="cellIs" dxfId="137" priority="73" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="109" priority="73" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="74" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="108" priority="74" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C5">
-    <cfRule type="cellIs" dxfId="135" priority="71" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="107" priority="71" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="72" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="106" priority="72" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B15 B20:B23">
-    <cfRule type="cellIs" dxfId="133" priority="69" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="105" priority="69" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="70" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="104" priority="70" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B15">
-    <cfRule type="cellIs" dxfId="131" priority="67" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="103" priority="67" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="68" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="102" priority="68" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B15">
-    <cfRule type="cellIs" dxfId="129" priority="65" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="101" priority="65" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="66" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="100" priority="66" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B15 B20">
-    <cfRule type="cellIs" dxfId="127" priority="63" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="99" priority="63" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="64" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="98" priority="64" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B15 B20">
-    <cfRule type="cellIs" dxfId="125" priority="61" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="97" priority="61" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="62" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="96" priority="62" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B15 B20">
-    <cfRule type="cellIs" dxfId="123" priority="59" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="95" priority="59" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="60" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="94" priority="60" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B23">
-    <cfRule type="cellIs" dxfId="121" priority="57" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="93" priority="57" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="58" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="92" priority="58" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:B92 B27">
-    <cfRule type="cellIs" dxfId="119" priority="55" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="91" priority="55" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="56" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="90" priority="56" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:B92 B27">
-    <cfRule type="cellIs" dxfId="117" priority="53" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="89" priority="53" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="54" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="88" priority="54" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="115" priority="51" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="87" priority="51" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="52" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="86" priority="52" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="113" priority="49" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="85" priority="49" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="50" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="84" priority="50" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B15 B20">
-    <cfRule type="cellIs" dxfId="111" priority="47" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="83" priority="47" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="48" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="82" priority="48" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B15 B20">
-    <cfRule type="cellIs" dxfId="109" priority="45" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="81" priority="45" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="46" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="80" priority="46" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B15 B20">
-    <cfRule type="cellIs" dxfId="107" priority="43" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="79" priority="43" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="44" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="78" priority="44" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B15 B20">
-    <cfRule type="cellIs" dxfId="105" priority="41" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="77" priority="41" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="42" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="76" priority="42" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B15 B20">
-    <cfRule type="cellIs" dxfId="103" priority="39" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="75" priority="39" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="40" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="74" priority="40" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B15 B20">
-    <cfRule type="cellIs" dxfId="101" priority="37" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="73" priority="37" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="38" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="72" priority="38" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B14">
-    <cfRule type="cellIs" dxfId="99" priority="35" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="71" priority="35" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="36" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="70" priority="36" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B14">
-    <cfRule type="cellIs" dxfId="97" priority="33" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="69" priority="33" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="34" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="68" priority="34" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B14">
-    <cfRule type="cellIs" dxfId="95" priority="31" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="67" priority="31" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="32" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="66" priority="32" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B14">
-    <cfRule type="cellIs" dxfId="93" priority="29" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="65" priority="29" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="30" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="64" priority="30" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B14">
-    <cfRule type="cellIs" dxfId="91" priority="27" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="63" priority="27" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="28" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="62" priority="28" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B14">
-    <cfRule type="cellIs" dxfId="89" priority="25" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="61" priority="25" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="60" priority="26" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B6">
-    <cfRule type="cellIs" dxfId="87" priority="11" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="59" priority="11" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="58" priority="12" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B6">
-    <cfRule type="cellIs" dxfId="85" priority="9" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="57" priority="9" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="10" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="56" priority="10" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B6">
-    <cfRule type="cellIs" dxfId="83" priority="7" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="55" priority="7" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="54" priority="8" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B6">
-    <cfRule type="cellIs" dxfId="81" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="53" priority="5" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="52" priority="6" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B6">
-    <cfRule type="cellIs" dxfId="79" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="51" priority="3" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="50" priority="4" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B6">
-    <cfRule type="cellIs" dxfId="77" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="lessThanOrEqual">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
